--- a/Evaluation/Evaluation4JSS.xlsx
+++ b/Evaluation/Evaluation4JSS.xlsx
@@ -36,24 +36,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A10">
-      <text>
-        <t xml:space="preserve">I don't know how the percentage is calculated by CodeCover
-	-Faezeh Khorram</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
   <si>
     <t>xFSM</t>
   </si>
@@ -432,7 +416,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>branch coverage</t>
+      <t>term coverage</t>
     </r>
   </si>
   <si>
@@ -452,6 +436,26 @@
       <t>branch coverage</t>
     </r>
   </si>
+  <si>
+    <t>When ignoring loops from branch coverage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">CodeCover </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>branch coverage</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +465,7 @@
     <numFmt numFmtId="164" formatCode="m-d"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -507,6 +511,19 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -712,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1185,14 +1202,26 @@
     <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -27872,7 +27901,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -31086,7 +31118,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -31291,20 +31326,25 @@
       <c r="A10" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="166">
-        <v>0.25</v>
+      <c r="B10" s="105">
+        <f t="shared" ref="B10:F10" si="3">B8/B9</f>
+        <v>0.5</v>
       </c>
       <c r="C10" s="105">
-        <v>0.148</v>
-      </c>
-      <c r="D10" s="106">
-        <v>0.417</v>
+        <f t="shared" si="3"/>
+        <v>0.07142857143</v>
+      </c>
+      <c r="D10" s="105">
+        <f t="shared" si="3"/>
+        <v>0.4375</v>
       </c>
       <c r="E10" s="105">
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0.8333333333</v>
       </c>
       <c r="F10" s="157">
-        <v>0.316</v>
+        <f t="shared" si="3"/>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="11">
@@ -31313,7 +31353,7 @@
       </c>
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
-      <c r="D11" s="167"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="149"/>
       <c r="F11" s="151"/>
     </row>
@@ -31343,33 +31383,122 @@
       </c>
       <c r="B13" s="161"/>
       <c r="C13" s="161"/>
-      <c r="D13" s="168"/>
+      <c r="D13" s="167"/>
       <c r="E13" s="161"/>
       <c r="F13" s="163"/>
     </row>
     <row r="14">
-      <c r="A14" s="164"/>
+      <c r="A14" s="168"/>
     </row>
     <row r="15">
-      <c r="A15" s="164"/>
+      <c r="A15" s="169" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="164"/>
+      <c r="A16" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="E16" s="48">
+        <v>9.0</v>
+      </c>
+      <c r="F16" s="95">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="164"/>
+      <c r="A17" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="140">
+        <v>4.0</v>
+      </c>
+      <c r="C17" s="140">
+        <v>14.0</v>
+      </c>
+      <c r="D17" s="140">
+        <v>12.0</v>
+      </c>
+      <c r="E17" s="140">
+        <v>12.0</v>
+      </c>
+      <c r="F17" s="141">
+        <v>38.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="164"/>
+      <c r="A18" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="143">
+        <f t="shared" ref="B18:F18" si="4">B16/B17</f>
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="143">
+        <f t="shared" si="4"/>
+        <v>0.07142857143</v>
+      </c>
+      <c r="D18" s="143">
+        <f t="shared" si="4"/>
+        <v>0.4166666667</v>
+      </c>
+      <c r="E18" s="143">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="144">
+        <f t="shared" si="4"/>
+        <v>0.3157894737</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="164"/>
+      <c r="A19" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="170"/>
     </row>
     <row r="20">
-      <c r="A20" s="164"/>
+      <c r="A20" s="152" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
     </row>
     <row r="21">
-      <c r="A21" s="164"/>
+      <c r="A21" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="105">
+        <v>0.071</v>
+      </c>
+      <c r="D21" s="105">
+        <v>0.417</v>
+      </c>
+      <c r="E21" s="105">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="157">
+        <v>0.316</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="164"/>
@@ -34308,8 +34437,13 @@
     <row r="1000">
       <c r="A1000" s="164"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="164"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A15:F15"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Evaluation/Evaluation4JSS.xlsx
+++ b/Evaluation/Evaluation4JSS.xlsx
@@ -14,30 +14,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A12">
-      <text>
-        <t xml:space="preserve">we achieve these numbers when not counting "Class" elements in element coverage
-	-Faezeh Khorram</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A6">
-      <text>
-        <t xml:space="preserve">we achieve these numbers when having an Inclusion rule for "Class"
-	-Faezeh Khorram</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t>xFSM</t>
   </si>
@@ -354,6 +332,9 @@
     </r>
   </si>
   <si>
+    <t>When ignoring classes from model element coverage</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -394,29 +375,6 @@
         <color theme="1"/>
       </rPr>
       <t>branch coverage</t>
-    </r>
-  </si>
-  <si>
-    <t>#covered terms</t>
-  </si>
-  <si>
-    <t>#total terms</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">CodeCover </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>term coverage</t>
     </r>
   </si>
   <si>
@@ -517,13 +475,13 @@
     </font>
     <font>
       <i/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1178,6 +1136,12 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1196,9 +1160,6 @@
     <xf borderId="14" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1208,11 +1169,8 @@
     <xf borderId="7" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -28106,3009 +28064,3060 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="158" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="151"/>
+      <c r="A11" s="158"/>
     </row>
     <row r="12">
       <c r="A12" s="159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="48">
+        <v>22.0</v>
+      </c>
+      <c r="C13" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="D13" s="48">
+        <v>30.0</v>
+      </c>
+      <c r="E13" s="48">
+        <v>50.0</v>
+      </c>
+      <c r="F13" s="95">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="140">
+        <v>32.0</v>
+      </c>
+      <c r="C14" s="140">
+        <v>34.0</v>
+      </c>
+      <c r="D14" s="140">
+        <v>51.0</v>
+      </c>
+      <c r="E14" s="140">
+        <v>53.0</v>
+      </c>
+      <c r="F14" s="141">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="143">
+        <f t="shared" ref="B15:F15" si="3">B13/B14</f>
+        <v>0.6875</v>
+      </c>
+      <c r="C15" s="143">
+        <f t="shared" si="3"/>
+        <v>0.1470588235</v>
+      </c>
+      <c r="D15" s="143">
+        <f t="shared" si="3"/>
+        <v>0.5882352941</v>
+      </c>
+      <c r="E15" s="143">
+        <f t="shared" si="3"/>
+        <v>0.9433962264</v>
+      </c>
+      <c r="F15" s="144">
+        <f t="shared" si="3"/>
+        <v>0.3781512605</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="160" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="151"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="140">
+      <c r="B17" s="140">
         <v>32.0</v>
       </c>
-      <c r="C12" s="140">
+      <c r="C17" s="140">
         <v>34.0</v>
       </c>
-      <c r="D12" s="140">
+      <c r="D17" s="140">
         <v>51.0</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E17" s="140">
         <v>53.0</v>
       </c>
-      <c r="F12" s="141">
+      <c r="F17" s="141">
         <v>119.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="163"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="164"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="164"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="164"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="164"/>
-    </row>
     <row r="18">
-      <c r="A18" s="164"/>
+      <c r="A18" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="165"/>
     </row>
     <row r="19">
-      <c r="A19" s="164"/>
+      <c r="A19" s="158"/>
     </row>
     <row r="20">
-      <c r="A20" s="164"/>
+      <c r="A20" s="158"/>
     </row>
     <row r="21">
-      <c r="A21" s="164"/>
+      <c r="A21" s="158"/>
     </row>
     <row r="22">
-      <c r="A22" s="164"/>
+      <c r="A22" s="158"/>
     </row>
     <row r="23">
-      <c r="A23" s="164"/>
+      <c r="A23" s="158"/>
     </row>
     <row r="24">
-      <c r="A24" s="164"/>
+      <c r="A24" s="158"/>
     </row>
     <row r="25">
-      <c r="A25" s="164"/>
+      <c r="A25" s="158"/>
     </row>
     <row r="26">
-      <c r="A26" s="164"/>
+      <c r="A26" s="158"/>
     </row>
     <row r="27">
-      <c r="A27" s="164"/>
+      <c r="A27" s="158"/>
     </row>
     <row r="28">
-      <c r="A28" s="164"/>
+      <c r="A28" s="158"/>
     </row>
     <row r="29">
-      <c r="A29" s="164"/>
+      <c r="A29" s="158"/>
     </row>
     <row r="30">
-      <c r="A30" s="164"/>
+      <c r="A30" s="158"/>
     </row>
     <row r="31">
-      <c r="A31" s="164"/>
+      <c r="A31" s="158"/>
     </row>
     <row r="32">
-      <c r="A32" s="164"/>
+      <c r="A32" s="158"/>
     </row>
     <row r="33">
-      <c r="A33" s="164"/>
+      <c r="A33" s="158"/>
     </row>
     <row r="34">
-      <c r="A34" s="164"/>
+      <c r="A34" s="158"/>
     </row>
     <row r="35">
-      <c r="A35" s="164"/>
+      <c r="A35" s="158"/>
     </row>
     <row r="36">
-      <c r="A36" s="164"/>
+      <c r="A36" s="158"/>
     </row>
     <row r="37">
-      <c r="A37" s="164"/>
+      <c r="A37" s="158"/>
     </row>
     <row r="38">
-      <c r="A38" s="164"/>
+      <c r="A38" s="158"/>
     </row>
     <row r="39">
-      <c r="A39" s="164"/>
+      <c r="A39" s="158"/>
     </row>
     <row r="40">
-      <c r="A40" s="164"/>
+      <c r="A40" s="158"/>
     </row>
     <row r="41">
-      <c r="A41" s="164"/>
+      <c r="A41" s="158"/>
     </row>
     <row r="42">
-      <c r="A42" s="164"/>
+      <c r="A42" s="158"/>
     </row>
     <row r="43">
-      <c r="A43" s="164"/>
+      <c r="A43" s="158"/>
     </row>
     <row r="44">
-      <c r="A44" s="164"/>
+      <c r="A44" s="158"/>
     </row>
     <row r="45">
-      <c r="A45" s="164"/>
+      <c r="A45" s="158"/>
     </row>
     <row r="46">
-      <c r="A46" s="164"/>
+      <c r="A46" s="158"/>
     </row>
     <row r="47">
-      <c r="A47" s="164"/>
+      <c r="A47" s="158"/>
     </row>
     <row r="48">
-      <c r="A48" s="164"/>
+      <c r="A48" s="158"/>
     </row>
     <row r="49">
-      <c r="A49" s="164"/>
+      <c r="A49" s="158"/>
     </row>
     <row r="50">
-      <c r="A50" s="164"/>
+      <c r="A50" s="158"/>
     </row>
     <row r="51">
-      <c r="A51" s="164"/>
+      <c r="A51" s="158"/>
     </row>
     <row r="52">
-      <c r="A52" s="164"/>
+      <c r="A52" s="158"/>
     </row>
     <row r="53">
-      <c r="A53" s="164"/>
+      <c r="A53" s="158"/>
     </row>
     <row r="54">
-      <c r="A54" s="164"/>
+      <c r="A54" s="158"/>
     </row>
     <row r="55">
-      <c r="A55" s="164"/>
+      <c r="A55" s="158"/>
     </row>
     <row r="56">
-      <c r="A56" s="164"/>
+      <c r="A56" s="158"/>
     </row>
     <row r="57">
-      <c r="A57" s="164"/>
+      <c r="A57" s="158"/>
     </row>
     <row r="58">
-      <c r="A58" s="164"/>
+      <c r="A58" s="158"/>
     </row>
     <row r="59">
-      <c r="A59" s="164"/>
+      <c r="A59" s="158"/>
     </row>
     <row r="60">
-      <c r="A60" s="164"/>
+      <c r="A60" s="158"/>
     </row>
     <row r="61">
-      <c r="A61" s="164"/>
+      <c r="A61" s="158"/>
     </row>
     <row r="62">
-      <c r="A62" s="164"/>
+      <c r="A62" s="158"/>
     </row>
     <row r="63">
-      <c r="A63" s="164"/>
+      <c r="A63" s="158"/>
     </row>
     <row r="64">
-      <c r="A64" s="164"/>
+      <c r="A64" s="158"/>
     </row>
     <row r="65">
-      <c r="A65" s="164"/>
+      <c r="A65" s="158"/>
     </row>
     <row r="66">
-      <c r="A66" s="164"/>
+      <c r="A66" s="158"/>
     </row>
     <row r="67">
-      <c r="A67" s="164"/>
+      <c r="A67" s="158"/>
     </row>
     <row r="68">
-      <c r="A68" s="164"/>
+      <c r="A68" s="158"/>
     </row>
     <row r="69">
-      <c r="A69" s="164"/>
+      <c r="A69" s="158"/>
     </row>
     <row r="70">
-      <c r="A70" s="164"/>
+      <c r="A70" s="158"/>
     </row>
     <row r="71">
-      <c r="A71" s="164"/>
+      <c r="A71" s="158"/>
     </row>
     <row r="72">
-      <c r="A72" s="164"/>
+      <c r="A72" s="158"/>
     </row>
     <row r="73">
-      <c r="A73" s="164"/>
+      <c r="A73" s="158"/>
     </row>
     <row r="74">
-      <c r="A74" s="164"/>
+      <c r="A74" s="158"/>
     </row>
     <row r="75">
-      <c r="A75" s="164"/>
+      <c r="A75" s="158"/>
     </row>
     <row r="76">
-      <c r="A76" s="164"/>
+      <c r="A76" s="158"/>
     </row>
     <row r="77">
-      <c r="A77" s="164"/>
+      <c r="A77" s="158"/>
     </row>
     <row r="78">
-      <c r="A78" s="164"/>
+      <c r="A78" s="158"/>
     </row>
     <row r="79">
-      <c r="A79" s="164"/>
+      <c r="A79" s="158"/>
     </row>
     <row r="80">
-      <c r="A80" s="164"/>
+      <c r="A80" s="158"/>
     </row>
     <row r="81">
-      <c r="A81" s="164"/>
+      <c r="A81" s="158"/>
     </row>
     <row r="82">
-      <c r="A82" s="164"/>
+      <c r="A82" s="158"/>
     </row>
     <row r="83">
-      <c r="A83" s="164"/>
+      <c r="A83" s="158"/>
     </row>
     <row r="84">
-      <c r="A84" s="164"/>
+      <c r="A84" s="158"/>
     </row>
     <row r="85">
-      <c r="A85" s="164"/>
+      <c r="A85" s="158"/>
     </row>
     <row r="86">
-      <c r="A86" s="164"/>
+      <c r="A86" s="158"/>
     </row>
     <row r="87">
-      <c r="A87" s="164"/>
+      <c r="A87" s="158"/>
     </row>
     <row r="88">
-      <c r="A88" s="164"/>
+      <c r="A88" s="158"/>
     </row>
     <row r="89">
-      <c r="A89" s="164"/>
+      <c r="A89" s="158"/>
     </row>
     <row r="90">
-      <c r="A90" s="164"/>
+      <c r="A90" s="158"/>
     </row>
     <row r="91">
-      <c r="A91" s="164"/>
+      <c r="A91" s="158"/>
     </row>
     <row r="92">
-      <c r="A92" s="164"/>
+      <c r="A92" s="158"/>
     </row>
     <row r="93">
-      <c r="A93" s="164"/>
+      <c r="A93" s="158"/>
     </row>
     <row r="94">
-      <c r="A94" s="164"/>
+      <c r="A94" s="158"/>
     </row>
     <row r="95">
-      <c r="A95" s="164"/>
+      <c r="A95" s="158"/>
     </row>
     <row r="96">
-      <c r="A96" s="164"/>
+      <c r="A96" s="158"/>
     </row>
     <row r="97">
-      <c r="A97" s="164"/>
+      <c r="A97" s="158"/>
     </row>
     <row r="98">
-      <c r="A98" s="164"/>
+      <c r="A98" s="158"/>
     </row>
     <row r="99">
-      <c r="A99" s="164"/>
+      <c r="A99" s="158"/>
     </row>
     <row r="100">
-      <c r="A100" s="164"/>
+      <c r="A100" s="158"/>
     </row>
     <row r="101">
-      <c r="A101" s="164"/>
+      <c r="A101" s="158"/>
     </row>
     <row r="102">
-      <c r="A102" s="164"/>
+      <c r="A102" s="158"/>
     </row>
     <row r="103">
-      <c r="A103" s="164"/>
+      <c r="A103" s="158"/>
     </row>
     <row r="104">
-      <c r="A104" s="164"/>
+      <c r="A104" s="158"/>
     </row>
     <row r="105">
-      <c r="A105" s="164"/>
+      <c r="A105" s="158"/>
     </row>
     <row r="106">
-      <c r="A106" s="164"/>
+      <c r="A106" s="158"/>
     </row>
     <row r="107">
-      <c r="A107" s="164"/>
+      <c r="A107" s="158"/>
     </row>
     <row r="108">
-      <c r="A108" s="164"/>
+      <c r="A108" s="158"/>
     </row>
     <row r="109">
-      <c r="A109" s="164"/>
+      <c r="A109" s="158"/>
     </row>
     <row r="110">
-      <c r="A110" s="164"/>
+      <c r="A110" s="158"/>
     </row>
     <row r="111">
-      <c r="A111" s="164"/>
+      <c r="A111" s="158"/>
     </row>
     <row r="112">
-      <c r="A112" s="164"/>
+      <c r="A112" s="158"/>
     </row>
     <row r="113">
-      <c r="A113" s="164"/>
+      <c r="A113" s="158"/>
     </row>
     <row r="114">
-      <c r="A114" s="164"/>
+      <c r="A114" s="158"/>
     </row>
     <row r="115">
-      <c r="A115" s="164"/>
+      <c r="A115" s="158"/>
     </row>
     <row r="116">
-      <c r="A116" s="164"/>
+      <c r="A116" s="158"/>
     </row>
     <row r="117">
-      <c r="A117" s="164"/>
+      <c r="A117" s="158"/>
     </row>
     <row r="118">
-      <c r="A118" s="164"/>
+      <c r="A118" s="158"/>
     </row>
     <row r="119">
-      <c r="A119" s="164"/>
+      <c r="A119" s="158"/>
     </row>
     <row r="120">
-      <c r="A120" s="164"/>
+      <c r="A120" s="158"/>
     </row>
     <row r="121">
-      <c r="A121" s="164"/>
+      <c r="A121" s="158"/>
     </row>
     <row r="122">
-      <c r="A122" s="164"/>
+      <c r="A122" s="158"/>
     </row>
     <row r="123">
-      <c r="A123" s="164"/>
+      <c r="A123" s="158"/>
     </row>
     <row r="124">
-      <c r="A124" s="164"/>
+      <c r="A124" s="158"/>
     </row>
     <row r="125">
-      <c r="A125" s="164"/>
+      <c r="A125" s="158"/>
     </row>
     <row r="126">
-      <c r="A126" s="164"/>
+      <c r="A126" s="158"/>
     </row>
     <row r="127">
-      <c r="A127" s="164"/>
+      <c r="A127" s="158"/>
     </row>
     <row r="128">
-      <c r="A128" s="164"/>
+      <c r="A128" s="158"/>
     </row>
     <row r="129">
-      <c r="A129" s="164"/>
+      <c r="A129" s="158"/>
     </row>
     <row r="130">
-      <c r="A130" s="164"/>
+      <c r="A130" s="158"/>
     </row>
     <row r="131">
-      <c r="A131" s="164"/>
+      <c r="A131" s="158"/>
     </row>
     <row r="132">
-      <c r="A132" s="164"/>
+      <c r="A132" s="158"/>
     </row>
     <row r="133">
-      <c r="A133" s="164"/>
+      <c r="A133" s="158"/>
     </row>
     <row r="134">
-      <c r="A134" s="164"/>
+      <c r="A134" s="158"/>
     </row>
     <row r="135">
-      <c r="A135" s="164"/>
+      <c r="A135" s="158"/>
     </row>
     <row r="136">
-      <c r="A136" s="164"/>
+      <c r="A136" s="158"/>
     </row>
     <row r="137">
-      <c r="A137" s="164"/>
+      <c r="A137" s="158"/>
     </row>
     <row r="138">
-      <c r="A138" s="164"/>
+      <c r="A138" s="158"/>
     </row>
     <row r="139">
-      <c r="A139" s="164"/>
+      <c r="A139" s="158"/>
     </row>
     <row r="140">
-      <c r="A140" s="164"/>
+      <c r="A140" s="158"/>
     </row>
     <row r="141">
-      <c r="A141" s="164"/>
+      <c r="A141" s="158"/>
     </row>
     <row r="142">
-      <c r="A142" s="164"/>
+      <c r="A142" s="158"/>
     </row>
     <row r="143">
-      <c r="A143" s="164"/>
+      <c r="A143" s="158"/>
     </row>
     <row r="144">
-      <c r="A144" s="164"/>
+      <c r="A144" s="158"/>
     </row>
     <row r="145">
-      <c r="A145" s="164"/>
+      <c r="A145" s="158"/>
     </row>
     <row r="146">
-      <c r="A146" s="164"/>
+      <c r="A146" s="158"/>
     </row>
     <row r="147">
-      <c r="A147" s="164"/>
+      <c r="A147" s="158"/>
     </row>
     <row r="148">
-      <c r="A148" s="164"/>
+      <c r="A148" s="158"/>
     </row>
     <row r="149">
-      <c r="A149" s="164"/>
+      <c r="A149" s="158"/>
     </row>
     <row r="150">
-      <c r="A150" s="164"/>
+      <c r="A150" s="158"/>
     </row>
     <row r="151">
-      <c r="A151" s="164"/>
+      <c r="A151" s="158"/>
     </row>
     <row r="152">
-      <c r="A152" s="164"/>
+      <c r="A152" s="158"/>
     </row>
     <row r="153">
-      <c r="A153" s="164"/>
+      <c r="A153" s="158"/>
     </row>
     <row r="154">
-      <c r="A154" s="164"/>
+      <c r="A154" s="158"/>
     </row>
     <row r="155">
-      <c r="A155" s="164"/>
+      <c r="A155" s="158"/>
     </row>
     <row r="156">
-      <c r="A156" s="164"/>
+      <c r="A156" s="158"/>
     </row>
     <row r="157">
-      <c r="A157" s="164"/>
+      <c r="A157" s="158"/>
     </row>
     <row r="158">
-      <c r="A158" s="164"/>
+      <c r="A158" s="158"/>
     </row>
     <row r="159">
-      <c r="A159" s="164"/>
+      <c r="A159" s="158"/>
     </row>
     <row r="160">
-      <c r="A160" s="164"/>
+      <c r="A160" s="158"/>
     </row>
     <row r="161">
-      <c r="A161" s="164"/>
+      <c r="A161" s="158"/>
     </row>
     <row r="162">
-      <c r="A162" s="164"/>
+      <c r="A162" s="158"/>
     </row>
     <row r="163">
-      <c r="A163" s="164"/>
+      <c r="A163" s="158"/>
     </row>
     <row r="164">
-      <c r="A164" s="164"/>
+      <c r="A164" s="158"/>
     </row>
     <row r="165">
-      <c r="A165" s="164"/>
+      <c r="A165" s="158"/>
     </row>
     <row r="166">
-      <c r="A166" s="164"/>
+      <c r="A166" s="158"/>
     </row>
     <row r="167">
-      <c r="A167" s="164"/>
+      <c r="A167" s="158"/>
     </row>
     <row r="168">
-      <c r="A168" s="164"/>
+      <c r="A168" s="158"/>
     </row>
     <row r="169">
-      <c r="A169" s="164"/>
+      <c r="A169" s="158"/>
     </row>
     <row r="170">
-      <c r="A170" s="164"/>
+      <c r="A170" s="158"/>
     </row>
     <row r="171">
-      <c r="A171" s="164"/>
+      <c r="A171" s="158"/>
     </row>
     <row r="172">
-      <c r="A172" s="164"/>
+      <c r="A172" s="158"/>
     </row>
     <row r="173">
-      <c r="A173" s="164"/>
+      <c r="A173" s="158"/>
     </row>
     <row r="174">
-      <c r="A174" s="164"/>
+      <c r="A174" s="158"/>
     </row>
     <row r="175">
-      <c r="A175" s="164"/>
+      <c r="A175" s="158"/>
     </row>
     <row r="176">
-      <c r="A176" s="164"/>
+      <c r="A176" s="158"/>
     </row>
     <row r="177">
-      <c r="A177" s="164"/>
+      <c r="A177" s="158"/>
     </row>
     <row r="178">
-      <c r="A178" s="164"/>
+      <c r="A178" s="158"/>
     </row>
     <row r="179">
-      <c r="A179" s="164"/>
+      <c r="A179" s="158"/>
     </row>
     <row r="180">
-      <c r="A180" s="164"/>
+      <c r="A180" s="158"/>
     </row>
     <row r="181">
-      <c r="A181" s="164"/>
+      <c r="A181" s="158"/>
     </row>
     <row r="182">
-      <c r="A182" s="164"/>
+      <c r="A182" s="158"/>
     </row>
     <row r="183">
-      <c r="A183" s="164"/>
+      <c r="A183" s="158"/>
     </row>
     <row r="184">
-      <c r="A184" s="164"/>
+      <c r="A184" s="158"/>
     </row>
     <row r="185">
-      <c r="A185" s="164"/>
+      <c r="A185" s="158"/>
     </row>
     <row r="186">
-      <c r="A186" s="164"/>
+      <c r="A186" s="158"/>
     </row>
     <row r="187">
-      <c r="A187" s="164"/>
+      <c r="A187" s="158"/>
     </row>
     <row r="188">
-      <c r="A188" s="164"/>
+      <c r="A188" s="158"/>
     </row>
     <row r="189">
-      <c r="A189" s="164"/>
+      <c r="A189" s="158"/>
     </row>
     <row r="190">
-      <c r="A190" s="164"/>
+      <c r="A190" s="158"/>
     </row>
     <row r="191">
-      <c r="A191" s="164"/>
+      <c r="A191" s="158"/>
     </row>
     <row r="192">
-      <c r="A192" s="164"/>
+      <c r="A192" s="158"/>
     </row>
     <row r="193">
-      <c r="A193" s="164"/>
+      <c r="A193" s="158"/>
     </row>
     <row r="194">
-      <c r="A194" s="164"/>
+      <c r="A194" s="158"/>
     </row>
     <row r="195">
-      <c r="A195" s="164"/>
+      <c r="A195" s="158"/>
     </row>
     <row r="196">
-      <c r="A196" s="164"/>
+      <c r="A196" s="158"/>
     </row>
     <row r="197">
-      <c r="A197" s="164"/>
+      <c r="A197" s="158"/>
     </row>
     <row r="198">
-      <c r="A198" s="164"/>
+      <c r="A198" s="158"/>
     </row>
     <row r="199">
-      <c r="A199" s="164"/>
+      <c r="A199" s="158"/>
     </row>
     <row r="200">
-      <c r="A200" s="164"/>
+      <c r="A200" s="158"/>
     </row>
     <row r="201">
-      <c r="A201" s="164"/>
+      <c r="A201" s="158"/>
     </row>
     <row r="202">
-      <c r="A202" s="164"/>
+      <c r="A202" s="158"/>
     </row>
     <row r="203">
-      <c r="A203" s="164"/>
+      <c r="A203" s="158"/>
     </row>
     <row r="204">
-      <c r="A204" s="164"/>
+      <c r="A204" s="158"/>
     </row>
     <row r="205">
-      <c r="A205" s="164"/>
+      <c r="A205" s="158"/>
     </row>
     <row r="206">
-      <c r="A206" s="164"/>
+      <c r="A206" s="158"/>
     </row>
     <row r="207">
-      <c r="A207" s="164"/>
+      <c r="A207" s="158"/>
     </row>
     <row r="208">
-      <c r="A208" s="164"/>
+      <c r="A208" s="158"/>
     </row>
     <row r="209">
-      <c r="A209" s="164"/>
+      <c r="A209" s="158"/>
     </row>
     <row r="210">
-      <c r="A210" s="164"/>
+      <c r="A210" s="158"/>
     </row>
     <row r="211">
-      <c r="A211" s="164"/>
+      <c r="A211" s="158"/>
     </row>
     <row r="212">
-      <c r="A212" s="164"/>
+      <c r="A212" s="158"/>
     </row>
     <row r="213">
-      <c r="A213" s="164"/>
+      <c r="A213" s="158"/>
     </row>
     <row r="214">
-      <c r="A214" s="164"/>
+      <c r="A214" s="158"/>
     </row>
     <row r="215">
-      <c r="A215" s="164"/>
+      <c r="A215" s="158"/>
     </row>
     <row r="216">
-      <c r="A216" s="164"/>
+      <c r="A216" s="158"/>
     </row>
     <row r="217">
-      <c r="A217" s="164"/>
+      <c r="A217" s="158"/>
     </row>
     <row r="218">
-      <c r="A218" s="164"/>
+      <c r="A218" s="158"/>
     </row>
     <row r="219">
-      <c r="A219" s="164"/>
+      <c r="A219" s="158"/>
     </row>
     <row r="220">
-      <c r="A220" s="164"/>
+      <c r="A220" s="158"/>
     </row>
     <row r="221">
-      <c r="A221" s="164"/>
+      <c r="A221" s="158"/>
     </row>
     <row r="222">
-      <c r="A222" s="164"/>
+      <c r="A222" s="158"/>
     </row>
     <row r="223">
-      <c r="A223" s="164"/>
+      <c r="A223" s="158"/>
     </row>
     <row r="224">
-      <c r="A224" s="164"/>
+      <c r="A224" s="158"/>
     </row>
     <row r="225">
-      <c r="A225" s="164"/>
+      <c r="A225" s="158"/>
     </row>
     <row r="226">
-      <c r="A226" s="164"/>
+      <c r="A226" s="158"/>
     </row>
     <row r="227">
-      <c r="A227" s="164"/>
+      <c r="A227" s="158"/>
     </row>
     <row r="228">
-      <c r="A228" s="164"/>
+      <c r="A228" s="158"/>
     </row>
     <row r="229">
-      <c r="A229" s="164"/>
+      <c r="A229" s="158"/>
     </row>
     <row r="230">
-      <c r="A230" s="164"/>
+      <c r="A230" s="158"/>
     </row>
     <row r="231">
-      <c r="A231" s="164"/>
+      <c r="A231" s="158"/>
     </row>
     <row r="232">
-      <c r="A232" s="164"/>
+      <c r="A232" s="158"/>
     </row>
     <row r="233">
-      <c r="A233" s="164"/>
+      <c r="A233" s="158"/>
     </row>
     <row r="234">
-      <c r="A234" s="164"/>
+      <c r="A234" s="158"/>
     </row>
     <row r="235">
-      <c r="A235" s="164"/>
+      <c r="A235" s="158"/>
     </row>
     <row r="236">
-      <c r="A236" s="164"/>
+      <c r="A236" s="158"/>
     </row>
     <row r="237">
-      <c r="A237" s="164"/>
+      <c r="A237" s="158"/>
     </row>
     <row r="238">
-      <c r="A238" s="164"/>
+      <c r="A238" s="158"/>
     </row>
     <row r="239">
-      <c r="A239" s="164"/>
+      <c r="A239" s="158"/>
     </row>
     <row r="240">
-      <c r="A240" s="164"/>
+      <c r="A240" s="158"/>
     </row>
     <row r="241">
-      <c r="A241" s="164"/>
+      <c r="A241" s="158"/>
     </row>
     <row r="242">
-      <c r="A242" s="164"/>
+      <c r="A242" s="158"/>
     </row>
     <row r="243">
-      <c r="A243" s="164"/>
+      <c r="A243" s="158"/>
     </row>
     <row r="244">
-      <c r="A244" s="164"/>
+      <c r="A244" s="158"/>
     </row>
     <row r="245">
-      <c r="A245" s="164"/>
+      <c r="A245" s="158"/>
     </row>
     <row r="246">
-      <c r="A246" s="164"/>
+      <c r="A246" s="158"/>
     </row>
     <row r="247">
-      <c r="A247" s="164"/>
+      <c r="A247" s="158"/>
     </row>
     <row r="248">
-      <c r="A248" s="164"/>
+      <c r="A248" s="158"/>
     </row>
     <row r="249">
-      <c r="A249" s="164"/>
+      <c r="A249" s="158"/>
     </row>
     <row r="250">
-      <c r="A250" s="164"/>
+      <c r="A250" s="158"/>
     </row>
     <row r="251">
-      <c r="A251" s="164"/>
+      <c r="A251" s="158"/>
     </row>
     <row r="252">
-      <c r="A252" s="164"/>
+      <c r="A252" s="158"/>
     </row>
     <row r="253">
-      <c r="A253" s="164"/>
+      <c r="A253" s="158"/>
     </row>
     <row r="254">
-      <c r="A254" s="164"/>
+      <c r="A254" s="158"/>
     </row>
     <row r="255">
-      <c r="A255" s="164"/>
+      <c r="A255" s="158"/>
     </row>
     <row r="256">
-      <c r="A256" s="164"/>
+      <c r="A256" s="158"/>
     </row>
     <row r="257">
-      <c r="A257" s="164"/>
+      <c r="A257" s="158"/>
     </row>
     <row r="258">
-      <c r="A258" s="164"/>
+      <c r="A258" s="158"/>
     </row>
     <row r="259">
-      <c r="A259" s="164"/>
+      <c r="A259" s="158"/>
     </row>
     <row r="260">
-      <c r="A260" s="164"/>
+      <c r="A260" s="158"/>
     </row>
     <row r="261">
-      <c r="A261" s="164"/>
+      <c r="A261" s="158"/>
     </row>
     <row r="262">
-      <c r="A262" s="164"/>
+      <c r="A262" s="158"/>
     </row>
     <row r="263">
-      <c r="A263" s="164"/>
+      <c r="A263" s="158"/>
     </row>
     <row r="264">
-      <c r="A264" s="164"/>
+      <c r="A264" s="158"/>
     </row>
     <row r="265">
-      <c r="A265" s="164"/>
+      <c r="A265" s="158"/>
     </row>
     <row r="266">
-      <c r="A266" s="164"/>
+      <c r="A266" s="158"/>
     </row>
     <row r="267">
-      <c r="A267" s="164"/>
+      <c r="A267" s="158"/>
     </row>
     <row r="268">
-      <c r="A268" s="164"/>
+      <c r="A268" s="158"/>
     </row>
     <row r="269">
-      <c r="A269" s="164"/>
+      <c r="A269" s="158"/>
     </row>
     <row r="270">
-      <c r="A270" s="164"/>
+      <c r="A270" s="158"/>
     </row>
     <row r="271">
-      <c r="A271" s="164"/>
+      <c r="A271" s="158"/>
     </row>
     <row r="272">
-      <c r="A272" s="164"/>
+      <c r="A272" s="158"/>
     </row>
     <row r="273">
-      <c r="A273" s="164"/>
+      <c r="A273" s="158"/>
     </row>
     <row r="274">
-      <c r="A274" s="164"/>
+      <c r="A274" s="158"/>
     </row>
     <row r="275">
-      <c r="A275" s="164"/>
+      <c r="A275" s="158"/>
     </row>
     <row r="276">
-      <c r="A276" s="164"/>
+      <c r="A276" s="158"/>
     </row>
     <row r="277">
-      <c r="A277" s="164"/>
+      <c r="A277" s="158"/>
     </row>
     <row r="278">
-      <c r="A278" s="164"/>
+      <c r="A278" s="158"/>
     </row>
     <row r="279">
-      <c r="A279" s="164"/>
+      <c r="A279" s="158"/>
     </row>
     <row r="280">
-      <c r="A280" s="164"/>
+      <c r="A280" s="158"/>
     </row>
     <row r="281">
-      <c r="A281" s="164"/>
+      <c r="A281" s="158"/>
     </row>
     <row r="282">
-      <c r="A282" s="164"/>
+      <c r="A282" s="158"/>
     </row>
     <row r="283">
-      <c r="A283" s="164"/>
+      <c r="A283" s="158"/>
     </row>
     <row r="284">
-      <c r="A284" s="164"/>
+      <c r="A284" s="158"/>
     </row>
     <row r="285">
-      <c r="A285" s="164"/>
+      <c r="A285" s="158"/>
     </row>
     <row r="286">
-      <c r="A286" s="164"/>
+      <c r="A286" s="158"/>
     </row>
     <row r="287">
-      <c r="A287" s="164"/>
+      <c r="A287" s="158"/>
     </row>
     <row r="288">
-      <c r="A288" s="164"/>
+      <c r="A288" s="158"/>
     </row>
     <row r="289">
-      <c r="A289" s="164"/>
+      <c r="A289" s="158"/>
     </row>
     <row r="290">
-      <c r="A290" s="164"/>
+      <c r="A290" s="158"/>
     </row>
     <row r="291">
-      <c r="A291" s="164"/>
+      <c r="A291" s="158"/>
     </row>
     <row r="292">
-      <c r="A292" s="164"/>
+      <c r="A292" s="158"/>
     </row>
     <row r="293">
-      <c r="A293" s="164"/>
+      <c r="A293" s="158"/>
     </row>
     <row r="294">
-      <c r="A294" s="164"/>
+      <c r="A294" s="158"/>
     </row>
     <row r="295">
-      <c r="A295" s="164"/>
+      <c r="A295" s="158"/>
     </row>
     <row r="296">
-      <c r="A296" s="164"/>
+      <c r="A296" s="158"/>
     </row>
     <row r="297">
-      <c r="A297" s="164"/>
+      <c r="A297" s="158"/>
     </row>
     <row r="298">
-      <c r="A298" s="164"/>
+      <c r="A298" s="158"/>
     </row>
     <row r="299">
-      <c r="A299" s="164"/>
+      <c r="A299" s="158"/>
     </row>
     <row r="300">
-      <c r="A300" s="164"/>
+      <c r="A300" s="158"/>
     </row>
     <row r="301">
-      <c r="A301" s="164"/>
+      <c r="A301" s="158"/>
     </row>
     <row r="302">
-      <c r="A302" s="164"/>
+      <c r="A302" s="158"/>
     </row>
     <row r="303">
-      <c r="A303" s="164"/>
+      <c r="A303" s="158"/>
     </row>
     <row r="304">
-      <c r="A304" s="164"/>
+      <c r="A304" s="158"/>
     </row>
     <row r="305">
-      <c r="A305" s="164"/>
+      <c r="A305" s="158"/>
     </row>
     <row r="306">
-      <c r="A306" s="164"/>
+      <c r="A306" s="158"/>
     </row>
     <row r="307">
-      <c r="A307" s="164"/>
+      <c r="A307" s="158"/>
     </row>
     <row r="308">
-      <c r="A308" s="164"/>
+      <c r="A308" s="158"/>
     </row>
     <row r="309">
-      <c r="A309" s="164"/>
+      <c r="A309" s="158"/>
     </row>
     <row r="310">
-      <c r="A310" s="164"/>
+      <c r="A310" s="158"/>
     </row>
     <row r="311">
-      <c r="A311" s="164"/>
+      <c r="A311" s="158"/>
     </row>
     <row r="312">
-      <c r="A312" s="164"/>
+      <c r="A312" s="158"/>
     </row>
     <row r="313">
-      <c r="A313" s="164"/>
+      <c r="A313" s="158"/>
     </row>
     <row r="314">
-      <c r="A314" s="164"/>
+      <c r="A314" s="158"/>
     </row>
     <row r="315">
-      <c r="A315" s="164"/>
+      <c r="A315" s="158"/>
     </row>
     <row r="316">
-      <c r="A316" s="164"/>
+      <c r="A316" s="158"/>
     </row>
     <row r="317">
-      <c r="A317" s="164"/>
+      <c r="A317" s="158"/>
     </row>
     <row r="318">
-      <c r="A318" s="164"/>
+      <c r="A318" s="158"/>
     </row>
     <row r="319">
-      <c r="A319" s="164"/>
+      <c r="A319" s="158"/>
     </row>
     <row r="320">
-      <c r="A320" s="164"/>
+      <c r="A320" s="158"/>
     </row>
     <row r="321">
-      <c r="A321" s="164"/>
+      <c r="A321" s="158"/>
     </row>
     <row r="322">
-      <c r="A322" s="164"/>
+      <c r="A322" s="158"/>
     </row>
     <row r="323">
-      <c r="A323" s="164"/>
+      <c r="A323" s="158"/>
     </row>
     <row r="324">
-      <c r="A324" s="164"/>
+      <c r="A324" s="158"/>
     </row>
     <row r="325">
-      <c r="A325" s="164"/>
+      <c r="A325" s="158"/>
     </row>
     <row r="326">
-      <c r="A326" s="164"/>
+      <c r="A326" s="158"/>
     </row>
     <row r="327">
-      <c r="A327" s="164"/>
+      <c r="A327" s="158"/>
     </row>
     <row r="328">
-      <c r="A328" s="164"/>
+      <c r="A328" s="158"/>
     </row>
     <row r="329">
-      <c r="A329" s="164"/>
+      <c r="A329" s="158"/>
     </row>
     <row r="330">
-      <c r="A330" s="164"/>
+      <c r="A330" s="158"/>
     </row>
     <row r="331">
-      <c r="A331" s="164"/>
+      <c r="A331" s="158"/>
     </row>
     <row r="332">
-      <c r="A332" s="164"/>
+      <c r="A332" s="158"/>
     </row>
     <row r="333">
-      <c r="A333" s="164"/>
+      <c r="A333" s="158"/>
     </row>
     <row r="334">
-      <c r="A334" s="164"/>
+      <c r="A334" s="158"/>
     </row>
     <row r="335">
-      <c r="A335" s="164"/>
+      <c r="A335" s="158"/>
     </row>
     <row r="336">
-      <c r="A336" s="164"/>
+      <c r="A336" s="158"/>
     </row>
     <row r="337">
-      <c r="A337" s="164"/>
+      <c r="A337" s="158"/>
     </row>
     <row r="338">
-      <c r="A338" s="164"/>
+      <c r="A338" s="158"/>
     </row>
     <row r="339">
-      <c r="A339" s="164"/>
+      <c r="A339" s="158"/>
     </row>
     <row r="340">
-      <c r="A340" s="164"/>
+      <c r="A340" s="158"/>
     </row>
     <row r="341">
-      <c r="A341" s="164"/>
+      <c r="A341" s="158"/>
     </row>
     <row r="342">
-      <c r="A342" s="164"/>
+      <c r="A342" s="158"/>
     </row>
     <row r="343">
-      <c r="A343" s="164"/>
+      <c r="A343" s="158"/>
     </row>
     <row r="344">
-      <c r="A344" s="164"/>
+      <c r="A344" s="158"/>
     </row>
     <row r="345">
-      <c r="A345" s="164"/>
+      <c r="A345" s="158"/>
     </row>
     <row r="346">
-      <c r="A346" s="164"/>
+      <c r="A346" s="158"/>
     </row>
     <row r="347">
-      <c r="A347" s="164"/>
+      <c r="A347" s="158"/>
     </row>
     <row r="348">
-      <c r="A348" s="164"/>
+      <c r="A348" s="158"/>
     </row>
     <row r="349">
-      <c r="A349" s="164"/>
+      <c r="A349" s="158"/>
     </row>
     <row r="350">
-      <c r="A350" s="164"/>
+      <c r="A350" s="158"/>
     </row>
     <row r="351">
-      <c r="A351" s="164"/>
+      <c r="A351" s="158"/>
     </row>
     <row r="352">
-      <c r="A352" s="164"/>
+      <c r="A352" s="158"/>
     </row>
     <row r="353">
-      <c r="A353" s="164"/>
+      <c r="A353" s="158"/>
     </row>
     <row r="354">
-      <c r="A354" s="164"/>
+      <c r="A354" s="158"/>
     </row>
     <row r="355">
-      <c r="A355" s="164"/>
+      <c r="A355" s="158"/>
     </row>
     <row r="356">
-      <c r="A356" s="164"/>
+      <c r="A356" s="158"/>
     </row>
     <row r="357">
-      <c r="A357" s="164"/>
+      <c r="A357" s="158"/>
     </row>
     <row r="358">
-      <c r="A358" s="164"/>
+      <c r="A358" s="158"/>
     </row>
     <row r="359">
-      <c r="A359" s="164"/>
+      <c r="A359" s="158"/>
     </row>
     <row r="360">
-      <c r="A360" s="164"/>
+      <c r="A360" s="158"/>
     </row>
     <row r="361">
-      <c r="A361" s="164"/>
+      <c r="A361" s="158"/>
     </row>
     <row r="362">
-      <c r="A362" s="164"/>
+      <c r="A362" s="158"/>
     </row>
     <row r="363">
-      <c r="A363" s="164"/>
+      <c r="A363" s="158"/>
     </row>
     <row r="364">
-      <c r="A364" s="164"/>
+      <c r="A364" s="158"/>
     </row>
     <row r="365">
-      <c r="A365" s="164"/>
+      <c r="A365" s="158"/>
     </row>
     <row r="366">
-      <c r="A366" s="164"/>
+      <c r="A366" s="158"/>
     </row>
     <row r="367">
-      <c r="A367" s="164"/>
+      <c r="A367" s="158"/>
     </row>
     <row r="368">
-      <c r="A368" s="164"/>
+      <c r="A368" s="158"/>
     </row>
     <row r="369">
-      <c r="A369" s="164"/>
+      <c r="A369" s="158"/>
     </row>
     <row r="370">
-      <c r="A370" s="164"/>
+      <c r="A370" s="158"/>
     </row>
     <row r="371">
-      <c r="A371" s="164"/>
+      <c r="A371" s="158"/>
     </row>
     <row r="372">
-      <c r="A372" s="164"/>
+      <c r="A372" s="158"/>
     </row>
     <row r="373">
-      <c r="A373" s="164"/>
+      <c r="A373" s="158"/>
     </row>
     <row r="374">
-      <c r="A374" s="164"/>
+      <c r="A374" s="158"/>
     </row>
     <row r="375">
-      <c r="A375" s="164"/>
+      <c r="A375" s="158"/>
     </row>
     <row r="376">
-      <c r="A376" s="164"/>
+      <c r="A376" s="158"/>
     </row>
     <row r="377">
-      <c r="A377" s="164"/>
+      <c r="A377" s="158"/>
     </row>
     <row r="378">
-      <c r="A378" s="164"/>
+      <c r="A378" s="158"/>
     </row>
     <row r="379">
-      <c r="A379" s="164"/>
+      <c r="A379" s="158"/>
     </row>
     <row r="380">
-      <c r="A380" s="164"/>
+      <c r="A380" s="158"/>
     </row>
     <row r="381">
-      <c r="A381" s="164"/>
+      <c r="A381" s="158"/>
     </row>
     <row r="382">
-      <c r="A382" s="164"/>
+      <c r="A382" s="158"/>
     </row>
     <row r="383">
-      <c r="A383" s="164"/>
+      <c r="A383" s="158"/>
     </row>
     <row r="384">
-      <c r="A384" s="164"/>
+      <c r="A384" s="158"/>
     </row>
     <row r="385">
-      <c r="A385" s="164"/>
+      <c r="A385" s="158"/>
     </row>
     <row r="386">
-      <c r="A386" s="164"/>
+      <c r="A386" s="158"/>
     </row>
     <row r="387">
-      <c r="A387" s="164"/>
+      <c r="A387" s="158"/>
     </row>
     <row r="388">
-      <c r="A388" s="164"/>
+      <c r="A388" s="158"/>
     </row>
     <row r="389">
-      <c r="A389" s="164"/>
+      <c r="A389" s="158"/>
     </row>
     <row r="390">
-      <c r="A390" s="164"/>
+      <c r="A390" s="158"/>
     </row>
     <row r="391">
-      <c r="A391" s="164"/>
+      <c r="A391" s="158"/>
     </row>
     <row r="392">
-      <c r="A392" s="164"/>
+      <c r="A392" s="158"/>
     </row>
     <row r="393">
-      <c r="A393" s="164"/>
+      <c r="A393" s="158"/>
     </row>
     <row r="394">
-      <c r="A394" s="164"/>
+      <c r="A394" s="158"/>
     </row>
     <row r="395">
-      <c r="A395" s="164"/>
+      <c r="A395" s="158"/>
     </row>
     <row r="396">
-      <c r="A396" s="164"/>
+      <c r="A396" s="158"/>
     </row>
     <row r="397">
-      <c r="A397" s="164"/>
+      <c r="A397" s="158"/>
     </row>
     <row r="398">
-      <c r="A398" s="164"/>
+      <c r="A398" s="158"/>
     </row>
     <row r="399">
-      <c r="A399" s="164"/>
+      <c r="A399" s="158"/>
     </row>
     <row r="400">
-      <c r="A400" s="164"/>
+      <c r="A400" s="158"/>
     </row>
     <row r="401">
-      <c r="A401" s="164"/>
+      <c r="A401" s="158"/>
     </row>
     <row r="402">
-      <c r="A402" s="164"/>
+      <c r="A402" s="158"/>
     </row>
     <row r="403">
-      <c r="A403" s="164"/>
+      <c r="A403" s="158"/>
     </row>
     <row r="404">
-      <c r="A404" s="164"/>
+      <c r="A404" s="158"/>
     </row>
     <row r="405">
-      <c r="A405" s="164"/>
+      <c r="A405" s="158"/>
     </row>
     <row r="406">
-      <c r="A406" s="164"/>
+      <c r="A406" s="158"/>
     </row>
     <row r="407">
-      <c r="A407" s="164"/>
+      <c r="A407" s="158"/>
     </row>
     <row r="408">
-      <c r="A408" s="164"/>
+      <c r="A408" s="158"/>
     </row>
     <row r="409">
-      <c r="A409" s="164"/>
+      <c r="A409" s="158"/>
     </row>
     <row r="410">
-      <c r="A410" s="164"/>
+      <c r="A410" s="158"/>
     </row>
     <row r="411">
-      <c r="A411" s="164"/>
+      <c r="A411" s="158"/>
     </row>
     <row r="412">
-      <c r="A412" s="164"/>
+      <c r="A412" s="158"/>
     </row>
     <row r="413">
-      <c r="A413" s="164"/>
+      <c r="A413" s="158"/>
     </row>
     <row r="414">
-      <c r="A414" s="164"/>
+      <c r="A414" s="158"/>
     </row>
     <row r="415">
-      <c r="A415" s="164"/>
+      <c r="A415" s="158"/>
     </row>
     <row r="416">
-      <c r="A416" s="164"/>
+      <c r="A416" s="158"/>
     </row>
     <row r="417">
-      <c r="A417" s="164"/>
+      <c r="A417" s="158"/>
     </row>
     <row r="418">
-      <c r="A418" s="164"/>
+      <c r="A418" s="158"/>
     </row>
     <row r="419">
-      <c r="A419" s="164"/>
+      <c r="A419" s="158"/>
     </row>
     <row r="420">
-      <c r="A420" s="164"/>
+      <c r="A420" s="158"/>
     </row>
     <row r="421">
-      <c r="A421" s="164"/>
+      <c r="A421" s="158"/>
     </row>
     <row r="422">
-      <c r="A422" s="164"/>
+      <c r="A422" s="158"/>
     </row>
     <row r="423">
-      <c r="A423" s="164"/>
+      <c r="A423" s="158"/>
     </row>
     <row r="424">
-      <c r="A424" s="164"/>
+      <c r="A424" s="158"/>
     </row>
     <row r="425">
-      <c r="A425" s="164"/>
+      <c r="A425" s="158"/>
     </row>
     <row r="426">
-      <c r="A426" s="164"/>
+      <c r="A426" s="158"/>
     </row>
     <row r="427">
-      <c r="A427" s="164"/>
+      <c r="A427" s="158"/>
     </row>
     <row r="428">
-      <c r="A428" s="164"/>
+      <c r="A428" s="158"/>
     </row>
     <row r="429">
-      <c r="A429" s="164"/>
+      <c r="A429" s="158"/>
     </row>
     <row r="430">
-      <c r="A430" s="164"/>
+      <c r="A430" s="158"/>
     </row>
     <row r="431">
-      <c r="A431" s="164"/>
+      <c r="A431" s="158"/>
     </row>
     <row r="432">
-      <c r="A432" s="164"/>
+      <c r="A432" s="158"/>
     </row>
     <row r="433">
-      <c r="A433" s="164"/>
+      <c r="A433" s="158"/>
     </row>
     <row r="434">
-      <c r="A434" s="164"/>
+      <c r="A434" s="158"/>
     </row>
     <row r="435">
-      <c r="A435" s="164"/>
+      <c r="A435" s="158"/>
     </row>
     <row r="436">
-      <c r="A436" s="164"/>
+      <c r="A436" s="158"/>
     </row>
     <row r="437">
-      <c r="A437" s="164"/>
+      <c r="A437" s="158"/>
     </row>
     <row r="438">
-      <c r="A438" s="164"/>
+      <c r="A438" s="158"/>
     </row>
     <row r="439">
-      <c r="A439" s="164"/>
+      <c r="A439" s="158"/>
     </row>
     <row r="440">
-      <c r="A440" s="164"/>
+      <c r="A440" s="158"/>
     </row>
     <row r="441">
-      <c r="A441" s="164"/>
+      <c r="A441" s="158"/>
     </row>
     <row r="442">
-      <c r="A442" s="164"/>
+      <c r="A442" s="158"/>
     </row>
     <row r="443">
-      <c r="A443" s="164"/>
+      <c r="A443" s="158"/>
     </row>
     <row r="444">
-      <c r="A444" s="164"/>
+      <c r="A444" s="158"/>
     </row>
     <row r="445">
-      <c r="A445" s="164"/>
+      <c r="A445" s="158"/>
     </row>
     <row r="446">
-      <c r="A446" s="164"/>
+      <c r="A446" s="158"/>
     </row>
     <row r="447">
-      <c r="A447" s="164"/>
+      <c r="A447" s="158"/>
     </row>
     <row r="448">
-      <c r="A448" s="164"/>
+      <c r="A448" s="158"/>
     </row>
     <row r="449">
-      <c r="A449" s="164"/>
+      <c r="A449" s="158"/>
     </row>
     <row r="450">
-      <c r="A450" s="164"/>
+      <c r="A450" s="158"/>
     </row>
     <row r="451">
-      <c r="A451" s="164"/>
+      <c r="A451" s="158"/>
     </row>
     <row r="452">
-      <c r="A452" s="164"/>
+      <c r="A452" s="158"/>
     </row>
     <row r="453">
-      <c r="A453" s="164"/>
+      <c r="A453" s="158"/>
     </row>
     <row r="454">
-      <c r="A454" s="164"/>
+      <c r="A454" s="158"/>
     </row>
     <row r="455">
-      <c r="A455" s="164"/>
+      <c r="A455" s="158"/>
     </row>
     <row r="456">
-      <c r="A456" s="164"/>
+      <c r="A456" s="158"/>
     </row>
     <row r="457">
-      <c r="A457" s="164"/>
+      <c r="A457" s="158"/>
     </row>
     <row r="458">
-      <c r="A458" s="164"/>
+      <c r="A458" s="158"/>
     </row>
     <row r="459">
-      <c r="A459" s="164"/>
+      <c r="A459" s="158"/>
     </row>
     <row r="460">
-      <c r="A460" s="164"/>
+      <c r="A460" s="158"/>
     </row>
     <row r="461">
-      <c r="A461" s="164"/>
+      <c r="A461" s="158"/>
     </row>
     <row r="462">
-      <c r="A462" s="164"/>
+      <c r="A462" s="158"/>
     </row>
     <row r="463">
-      <c r="A463" s="164"/>
+      <c r="A463" s="158"/>
     </row>
     <row r="464">
-      <c r="A464" s="164"/>
+      <c r="A464" s="158"/>
     </row>
     <row r="465">
-      <c r="A465" s="164"/>
+      <c r="A465" s="158"/>
     </row>
     <row r="466">
-      <c r="A466" s="164"/>
+      <c r="A466" s="158"/>
     </row>
     <row r="467">
-      <c r="A467" s="164"/>
+      <c r="A467" s="158"/>
     </row>
     <row r="468">
-      <c r="A468" s="164"/>
+      <c r="A468" s="158"/>
     </row>
     <row r="469">
-      <c r="A469" s="164"/>
+      <c r="A469" s="158"/>
     </row>
     <row r="470">
-      <c r="A470" s="164"/>
+      <c r="A470" s="158"/>
     </row>
     <row r="471">
-      <c r="A471" s="164"/>
+      <c r="A471" s="158"/>
     </row>
     <row r="472">
-      <c r="A472" s="164"/>
+      <c r="A472" s="158"/>
     </row>
     <row r="473">
-      <c r="A473" s="164"/>
+      <c r="A473" s="158"/>
     </row>
     <row r="474">
-      <c r="A474" s="164"/>
+      <c r="A474" s="158"/>
     </row>
     <row r="475">
-      <c r="A475" s="164"/>
+      <c r="A475" s="158"/>
     </row>
     <row r="476">
-      <c r="A476" s="164"/>
+      <c r="A476" s="158"/>
     </row>
     <row r="477">
-      <c r="A477" s="164"/>
+      <c r="A477" s="158"/>
     </row>
     <row r="478">
-      <c r="A478" s="164"/>
+      <c r="A478" s="158"/>
     </row>
     <row r="479">
-      <c r="A479" s="164"/>
+      <c r="A479" s="158"/>
     </row>
     <row r="480">
-      <c r="A480" s="164"/>
+      <c r="A480" s="158"/>
     </row>
     <row r="481">
-      <c r="A481" s="164"/>
+      <c r="A481" s="158"/>
     </row>
     <row r="482">
-      <c r="A482" s="164"/>
+      <c r="A482" s="158"/>
     </row>
     <row r="483">
-      <c r="A483" s="164"/>
+      <c r="A483" s="158"/>
     </row>
     <row r="484">
-      <c r="A484" s="164"/>
+      <c r="A484" s="158"/>
     </row>
     <row r="485">
-      <c r="A485" s="164"/>
+      <c r="A485" s="158"/>
     </row>
     <row r="486">
-      <c r="A486" s="164"/>
+      <c r="A486" s="158"/>
     </row>
     <row r="487">
-      <c r="A487" s="164"/>
+      <c r="A487" s="158"/>
     </row>
     <row r="488">
-      <c r="A488" s="164"/>
+      <c r="A488" s="158"/>
     </row>
     <row r="489">
-      <c r="A489" s="164"/>
+      <c r="A489" s="158"/>
     </row>
     <row r="490">
-      <c r="A490" s="164"/>
+      <c r="A490" s="158"/>
     </row>
     <row r="491">
-      <c r="A491" s="164"/>
+      <c r="A491" s="158"/>
     </row>
     <row r="492">
-      <c r="A492" s="164"/>
+      <c r="A492" s="158"/>
     </row>
     <row r="493">
-      <c r="A493" s="164"/>
+      <c r="A493" s="158"/>
     </row>
     <row r="494">
-      <c r="A494" s="164"/>
+      <c r="A494" s="158"/>
     </row>
     <row r="495">
-      <c r="A495" s="164"/>
+      <c r="A495" s="158"/>
     </row>
     <row r="496">
-      <c r="A496" s="164"/>
+      <c r="A496" s="158"/>
     </row>
     <row r="497">
-      <c r="A497" s="164"/>
+      <c r="A497" s="158"/>
     </row>
     <row r="498">
-      <c r="A498" s="164"/>
+      <c r="A498" s="158"/>
     </row>
     <row r="499">
-      <c r="A499" s="164"/>
+      <c r="A499" s="158"/>
     </row>
     <row r="500">
-      <c r="A500" s="164"/>
+      <c r="A500" s="158"/>
     </row>
     <row r="501">
-      <c r="A501" s="164"/>
+      <c r="A501" s="158"/>
     </row>
     <row r="502">
-      <c r="A502" s="164"/>
+      <c r="A502" s="158"/>
     </row>
     <row r="503">
-      <c r="A503" s="164"/>
+      <c r="A503" s="158"/>
     </row>
     <row r="504">
-      <c r="A504" s="164"/>
+      <c r="A504" s="158"/>
     </row>
     <row r="505">
-      <c r="A505" s="164"/>
+      <c r="A505" s="158"/>
     </row>
     <row r="506">
-      <c r="A506" s="164"/>
+      <c r="A506" s="158"/>
     </row>
     <row r="507">
-      <c r="A507" s="164"/>
+      <c r="A507" s="158"/>
     </row>
     <row r="508">
-      <c r="A508" s="164"/>
+      <c r="A508" s="158"/>
     </row>
     <row r="509">
-      <c r="A509" s="164"/>
+      <c r="A509" s="158"/>
     </row>
     <row r="510">
-      <c r="A510" s="164"/>
+      <c r="A510" s="158"/>
     </row>
     <row r="511">
-      <c r="A511" s="164"/>
+      <c r="A511" s="158"/>
     </row>
     <row r="512">
-      <c r="A512" s="164"/>
+      <c r="A512" s="158"/>
     </row>
     <row r="513">
-      <c r="A513" s="164"/>
+      <c r="A513" s="158"/>
     </row>
     <row r="514">
-      <c r="A514" s="164"/>
+      <c r="A514" s="158"/>
     </row>
     <row r="515">
-      <c r="A515" s="164"/>
+      <c r="A515" s="158"/>
     </row>
     <row r="516">
-      <c r="A516" s="164"/>
+      <c r="A516" s="158"/>
     </row>
     <row r="517">
-      <c r="A517" s="164"/>
+      <c r="A517" s="158"/>
     </row>
     <row r="518">
-      <c r="A518" s="164"/>
+      <c r="A518" s="158"/>
     </row>
     <row r="519">
-      <c r="A519" s="164"/>
+      <c r="A519" s="158"/>
     </row>
     <row r="520">
-      <c r="A520" s="164"/>
+      <c r="A520" s="158"/>
     </row>
     <row r="521">
-      <c r="A521" s="164"/>
+      <c r="A521" s="158"/>
     </row>
     <row r="522">
-      <c r="A522" s="164"/>
+      <c r="A522" s="158"/>
     </row>
     <row r="523">
-      <c r="A523" s="164"/>
+      <c r="A523" s="158"/>
     </row>
     <row r="524">
-      <c r="A524" s="164"/>
+      <c r="A524" s="158"/>
     </row>
     <row r="525">
-      <c r="A525" s="164"/>
+      <c r="A525" s="158"/>
     </row>
     <row r="526">
-      <c r="A526" s="164"/>
+      <c r="A526" s="158"/>
     </row>
     <row r="527">
-      <c r="A527" s="164"/>
+      <c r="A527" s="158"/>
     </row>
     <row r="528">
-      <c r="A528" s="164"/>
+      <c r="A528" s="158"/>
     </row>
     <row r="529">
-      <c r="A529" s="164"/>
+      <c r="A529" s="158"/>
     </row>
     <row r="530">
-      <c r="A530" s="164"/>
+      <c r="A530" s="158"/>
     </row>
     <row r="531">
-      <c r="A531" s="164"/>
+      <c r="A531" s="158"/>
     </row>
     <row r="532">
-      <c r="A532" s="164"/>
+      <c r="A532" s="158"/>
     </row>
     <row r="533">
-      <c r="A533" s="164"/>
+      <c r="A533" s="158"/>
     </row>
     <row r="534">
-      <c r="A534" s="164"/>
+      <c r="A534" s="158"/>
     </row>
     <row r="535">
-      <c r="A535" s="164"/>
+      <c r="A535" s="158"/>
     </row>
     <row r="536">
-      <c r="A536" s="164"/>
+      <c r="A536" s="158"/>
     </row>
     <row r="537">
-      <c r="A537" s="164"/>
+      <c r="A537" s="158"/>
     </row>
     <row r="538">
-      <c r="A538" s="164"/>
+      <c r="A538" s="158"/>
     </row>
     <row r="539">
-      <c r="A539" s="164"/>
+      <c r="A539" s="158"/>
     </row>
     <row r="540">
-      <c r="A540" s="164"/>
+      <c r="A540" s="158"/>
     </row>
     <row r="541">
-      <c r="A541" s="164"/>
+      <c r="A541" s="158"/>
     </row>
     <row r="542">
-      <c r="A542" s="164"/>
+      <c r="A542" s="158"/>
     </row>
     <row r="543">
-      <c r="A543" s="164"/>
+      <c r="A543" s="158"/>
     </row>
     <row r="544">
-      <c r="A544" s="164"/>
+      <c r="A544" s="158"/>
     </row>
     <row r="545">
-      <c r="A545" s="164"/>
+      <c r="A545" s="158"/>
     </row>
     <row r="546">
-      <c r="A546" s="164"/>
+      <c r="A546" s="158"/>
     </row>
     <row r="547">
-      <c r="A547" s="164"/>
+      <c r="A547" s="158"/>
     </row>
     <row r="548">
-      <c r="A548" s="164"/>
+      <c r="A548" s="158"/>
     </row>
     <row r="549">
-      <c r="A549" s="164"/>
+      <c r="A549" s="158"/>
     </row>
     <row r="550">
-      <c r="A550" s="164"/>
+      <c r="A550" s="158"/>
     </row>
     <row r="551">
-      <c r="A551" s="164"/>
+      <c r="A551" s="158"/>
     </row>
     <row r="552">
-      <c r="A552" s="164"/>
+      <c r="A552" s="158"/>
     </row>
     <row r="553">
-      <c r="A553" s="164"/>
+      <c r="A553" s="158"/>
     </row>
     <row r="554">
-      <c r="A554" s="164"/>
+      <c r="A554" s="158"/>
     </row>
     <row r="555">
-      <c r="A555" s="164"/>
+      <c r="A555" s="158"/>
     </row>
     <row r="556">
-      <c r="A556" s="164"/>
+      <c r="A556" s="158"/>
     </row>
     <row r="557">
-      <c r="A557" s="164"/>
+      <c r="A557" s="158"/>
     </row>
     <row r="558">
-      <c r="A558" s="164"/>
+      <c r="A558" s="158"/>
     </row>
     <row r="559">
-      <c r="A559" s="164"/>
+      <c r="A559" s="158"/>
     </row>
     <row r="560">
-      <c r="A560" s="164"/>
+      <c r="A560" s="158"/>
     </row>
     <row r="561">
-      <c r="A561" s="164"/>
+      <c r="A561" s="158"/>
     </row>
     <row r="562">
-      <c r="A562" s="164"/>
+      <c r="A562" s="158"/>
     </row>
     <row r="563">
-      <c r="A563" s="164"/>
+      <c r="A563" s="158"/>
     </row>
     <row r="564">
-      <c r="A564" s="164"/>
+      <c r="A564" s="158"/>
     </row>
     <row r="565">
-      <c r="A565" s="164"/>
+      <c r="A565" s="158"/>
     </row>
     <row r="566">
-      <c r="A566" s="164"/>
+      <c r="A566" s="158"/>
     </row>
     <row r="567">
-      <c r="A567" s="164"/>
+      <c r="A567" s="158"/>
     </row>
     <row r="568">
-      <c r="A568" s="164"/>
+      <c r="A568" s="158"/>
     </row>
     <row r="569">
-      <c r="A569" s="164"/>
+      <c r="A569" s="158"/>
     </row>
     <row r="570">
-      <c r="A570" s="164"/>
+      <c r="A570" s="158"/>
     </row>
     <row r="571">
-      <c r="A571" s="164"/>
+      <c r="A571" s="158"/>
     </row>
     <row r="572">
-      <c r="A572" s="164"/>
+      <c r="A572" s="158"/>
     </row>
     <row r="573">
-      <c r="A573" s="164"/>
+      <c r="A573" s="158"/>
     </row>
     <row r="574">
-      <c r="A574" s="164"/>
+      <c r="A574" s="158"/>
     </row>
     <row r="575">
-      <c r="A575" s="164"/>
+      <c r="A575" s="158"/>
     </row>
     <row r="576">
-      <c r="A576" s="164"/>
+      <c r="A576" s="158"/>
     </row>
     <row r="577">
-      <c r="A577" s="164"/>
+      <c r="A577" s="158"/>
     </row>
     <row r="578">
-      <c r="A578" s="164"/>
+      <c r="A578" s="158"/>
     </row>
     <row r="579">
-      <c r="A579" s="164"/>
+      <c r="A579" s="158"/>
     </row>
     <row r="580">
-      <c r="A580" s="164"/>
+      <c r="A580" s="158"/>
     </row>
     <row r="581">
-      <c r="A581" s="164"/>
+      <c r="A581" s="158"/>
     </row>
     <row r="582">
-      <c r="A582" s="164"/>
+      <c r="A582" s="158"/>
     </row>
     <row r="583">
-      <c r="A583" s="164"/>
+      <c r="A583" s="158"/>
     </row>
     <row r="584">
-      <c r="A584" s="164"/>
+      <c r="A584" s="158"/>
     </row>
     <row r="585">
-      <c r="A585" s="164"/>
+      <c r="A585" s="158"/>
     </row>
     <row r="586">
-      <c r="A586" s="164"/>
+      <c r="A586" s="158"/>
     </row>
     <row r="587">
-      <c r="A587" s="164"/>
+      <c r="A587" s="158"/>
     </row>
     <row r="588">
-      <c r="A588" s="164"/>
+      <c r="A588" s="158"/>
     </row>
     <row r="589">
-      <c r="A589" s="164"/>
+      <c r="A589" s="158"/>
     </row>
     <row r="590">
-      <c r="A590" s="164"/>
+      <c r="A590" s="158"/>
     </row>
     <row r="591">
-      <c r="A591" s="164"/>
+      <c r="A591" s="158"/>
     </row>
     <row r="592">
-      <c r="A592" s="164"/>
+      <c r="A592" s="158"/>
     </row>
     <row r="593">
-      <c r="A593" s="164"/>
+      <c r="A593" s="158"/>
     </row>
     <row r="594">
-      <c r="A594" s="164"/>
+      <c r="A594" s="158"/>
     </row>
     <row r="595">
-      <c r="A595" s="164"/>
+      <c r="A595" s="158"/>
     </row>
     <row r="596">
-      <c r="A596" s="164"/>
+      <c r="A596" s="158"/>
     </row>
     <row r="597">
-      <c r="A597" s="164"/>
+      <c r="A597" s="158"/>
     </row>
     <row r="598">
-      <c r="A598" s="164"/>
+      <c r="A598" s="158"/>
     </row>
     <row r="599">
-      <c r="A599" s="164"/>
+      <c r="A599" s="158"/>
     </row>
     <row r="600">
-      <c r="A600" s="164"/>
+      <c r="A600" s="158"/>
     </row>
     <row r="601">
-      <c r="A601" s="164"/>
+      <c r="A601" s="158"/>
     </row>
     <row r="602">
-      <c r="A602" s="164"/>
+      <c r="A602" s="158"/>
     </row>
     <row r="603">
-      <c r="A603" s="164"/>
+      <c r="A603" s="158"/>
     </row>
     <row r="604">
-      <c r="A604" s="164"/>
+      <c r="A604" s="158"/>
     </row>
     <row r="605">
-      <c r="A605" s="164"/>
+      <c r="A605" s="158"/>
     </row>
     <row r="606">
-      <c r="A606" s="164"/>
+      <c r="A606" s="158"/>
     </row>
     <row r="607">
-      <c r="A607" s="164"/>
+      <c r="A607" s="158"/>
     </row>
     <row r="608">
-      <c r="A608" s="164"/>
+      <c r="A608" s="158"/>
     </row>
     <row r="609">
-      <c r="A609" s="164"/>
+      <c r="A609" s="158"/>
     </row>
     <row r="610">
-      <c r="A610" s="164"/>
+      <c r="A610" s="158"/>
     </row>
     <row r="611">
-      <c r="A611" s="164"/>
+      <c r="A611" s="158"/>
     </row>
     <row r="612">
-      <c r="A612" s="164"/>
+      <c r="A612" s="158"/>
     </row>
     <row r="613">
-      <c r="A613" s="164"/>
+      <c r="A613" s="158"/>
     </row>
     <row r="614">
-      <c r="A614" s="164"/>
+      <c r="A614" s="158"/>
     </row>
     <row r="615">
-      <c r="A615" s="164"/>
+      <c r="A615" s="158"/>
     </row>
     <row r="616">
-      <c r="A616" s="164"/>
+      <c r="A616" s="158"/>
     </row>
     <row r="617">
-      <c r="A617" s="164"/>
+      <c r="A617" s="158"/>
     </row>
     <row r="618">
-      <c r="A618" s="164"/>
+      <c r="A618" s="158"/>
     </row>
     <row r="619">
-      <c r="A619" s="164"/>
+      <c r="A619" s="158"/>
     </row>
     <row r="620">
-      <c r="A620" s="164"/>
+      <c r="A620" s="158"/>
     </row>
     <row r="621">
-      <c r="A621" s="164"/>
+      <c r="A621" s="158"/>
     </row>
     <row r="622">
-      <c r="A622" s="164"/>
+      <c r="A622" s="158"/>
     </row>
     <row r="623">
-      <c r="A623" s="164"/>
+      <c r="A623" s="158"/>
     </row>
     <row r="624">
-      <c r="A624" s="164"/>
+      <c r="A624" s="158"/>
     </row>
     <row r="625">
-      <c r="A625" s="164"/>
+      <c r="A625" s="158"/>
     </row>
     <row r="626">
-      <c r="A626" s="164"/>
+      <c r="A626" s="158"/>
     </row>
     <row r="627">
-      <c r="A627" s="164"/>
+      <c r="A627" s="158"/>
     </row>
     <row r="628">
-      <c r="A628" s="164"/>
+      <c r="A628" s="158"/>
     </row>
     <row r="629">
-      <c r="A629" s="164"/>
+      <c r="A629" s="158"/>
     </row>
     <row r="630">
-      <c r="A630" s="164"/>
+      <c r="A630" s="158"/>
     </row>
     <row r="631">
-      <c r="A631" s="164"/>
+      <c r="A631" s="158"/>
     </row>
     <row r="632">
-      <c r="A632" s="164"/>
+      <c r="A632" s="158"/>
     </row>
     <row r="633">
-      <c r="A633" s="164"/>
+      <c r="A633" s="158"/>
     </row>
     <row r="634">
-      <c r="A634" s="164"/>
+      <c r="A634" s="158"/>
     </row>
     <row r="635">
-      <c r="A635" s="164"/>
+      <c r="A635" s="158"/>
     </row>
     <row r="636">
-      <c r="A636" s="164"/>
+      <c r="A636" s="158"/>
     </row>
     <row r="637">
-      <c r="A637" s="164"/>
+      <c r="A637" s="158"/>
     </row>
     <row r="638">
-      <c r="A638" s="164"/>
+      <c r="A638" s="158"/>
     </row>
     <row r="639">
-      <c r="A639" s="164"/>
+      <c r="A639" s="158"/>
     </row>
     <row r="640">
-      <c r="A640" s="164"/>
+      <c r="A640" s="158"/>
     </row>
     <row r="641">
-      <c r="A641" s="164"/>
+      <c r="A641" s="158"/>
     </row>
     <row r="642">
-      <c r="A642" s="164"/>
+      <c r="A642" s="158"/>
     </row>
     <row r="643">
-      <c r="A643" s="164"/>
+      <c r="A643" s="158"/>
     </row>
     <row r="644">
-      <c r="A644" s="164"/>
+      <c r="A644" s="158"/>
     </row>
     <row r="645">
-      <c r="A645" s="164"/>
+      <c r="A645" s="158"/>
     </row>
     <row r="646">
-      <c r="A646" s="164"/>
+      <c r="A646" s="158"/>
     </row>
     <row r="647">
-      <c r="A647" s="164"/>
+      <c r="A647" s="158"/>
     </row>
     <row r="648">
-      <c r="A648" s="164"/>
+      <c r="A648" s="158"/>
     </row>
     <row r="649">
-      <c r="A649" s="164"/>
+      <c r="A649" s="158"/>
     </row>
     <row r="650">
-      <c r="A650" s="164"/>
+      <c r="A650" s="158"/>
     </row>
     <row r="651">
-      <c r="A651" s="164"/>
+      <c r="A651" s="158"/>
     </row>
     <row r="652">
-      <c r="A652" s="164"/>
+      <c r="A652" s="158"/>
     </row>
     <row r="653">
-      <c r="A653" s="164"/>
+      <c r="A653" s="158"/>
     </row>
     <row r="654">
-      <c r="A654" s="164"/>
+      <c r="A654" s="158"/>
     </row>
     <row r="655">
-      <c r="A655" s="164"/>
+      <c r="A655" s="158"/>
     </row>
     <row r="656">
-      <c r="A656" s="164"/>
+      <c r="A656" s="158"/>
     </row>
     <row r="657">
-      <c r="A657" s="164"/>
+      <c r="A657" s="158"/>
     </row>
     <row r="658">
-      <c r="A658" s="164"/>
+      <c r="A658" s="158"/>
     </row>
     <row r="659">
-      <c r="A659" s="164"/>
+      <c r="A659" s="158"/>
     </row>
     <row r="660">
-      <c r="A660" s="164"/>
+      <c r="A660" s="158"/>
     </row>
     <row r="661">
-      <c r="A661" s="164"/>
+      <c r="A661" s="158"/>
     </row>
     <row r="662">
-      <c r="A662" s="164"/>
+      <c r="A662" s="158"/>
     </row>
     <row r="663">
-      <c r="A663" s="164"/>
+      <c r="A663" s="158"/>
     </row>
     <row r="664">
-      <c r="A664" s="164"/>
+      <c r="A664" s="158"/>
     </row>
     <row r="665">
-      <c r="A665" s="164"/>
+      <c r="A665" s="158"/>
     </row>
     <row r="666">
-      <c r="A666" s="164"/>
+      <c r="A666" s="158"/>
     </row>
     <row r="667">
-      <c r="A667" s="164"/>
+      <c r="A667" s="158"/>
     </row>
     <row r="668">
-      <c r="A668" s="164"/>
+      <c r="A668" s="158"/>
     </row>
     <row r="669">
-      <c r="A669" s="164"/>
+      <c r="A669" s="158"/>
     </row>
     <row r="670">
-      <c r="A670" s="164"/>
+      <c r="A670" s="158"/>
     </row>
     <row r="671">
-      <c r="A671" s="164"/>
+      <c r="A671" s="158"/>
     </row>
     <row r="672">
-      <c r="A672" s="164"/>
+      <c r="A672" s="158"/>
     </row>
     <row r="673">
-      <c r="A673" s="164"/>
+      <c r="A673" s="158"/>
     </row>
     <row r="674">
-      <c r="A674" s="164"/>
+      <c r="A674" s="158"/>
     </row>
     <row r="675">
-      <c r="A675" s="164"/>
+      <c r="A675" s="158"/>
     </row>
     <row r="676">
-      <c r="A676" s="164"/>
+      <c r="A676" s="158"/>
     </row>
     <row r="677">
-      <c r="A677" s="164"/>
+      <c r="A677" s="158"/>
     </row>
     <row r="678">
-      <c r="A678" s="164"/>
+      <c r="A678" s="158"/>
     </row>
     <row r="679">
-      <c r="A679" s="164"/>
+      <c r="A679" s="158"/>
     </row>
     <row r="680">
-      <c r="A680" s="164"/>
+      <c r="A680" s="158"/>
     </row>
     <row r="681">
-      <c r="A681" s="164"/>
+      <c r="A681" s="158"/>
     </row>
     <row r="682">
-      <c r="A682" s="164"/>
+      <c r="A682" s="158"/>
     </row>
     <row r="683">
-      <c r="A683" s="164"/>
+      <c r="A683" s="158"/>
     </row>
     <row r="684">
-      <c r="A684" s="164"/>
+      <c r="A684" s="158"/>
     </row>
     <row r="685">
-      <c r="A685" s="164"/>
+      <c r="A685" s="158"/>
     </row>
     <row r="686">
-      <c r="A686" s="164"/>
+      <c r="A686" s="158"/>
     </row>
     <row r="687">
-      <c r="A687" s="164"/>
+      <c r="A687" s="158"/>
     </row>
     <row r="688">
-      <c r="A688" s="164"/>
+      <c r="A688" s="158"/>
     </row>
     <row r="689">
-      <c r="A689" s="164"/>
+      <c r="A689" s="158"/>
     </row>
     <row r="690">
-      <c r="A690" s="164"/>
+      <c r="A690" s="158"/>
     </row>
     <row r="691">
-      <c r="A691" s="164"/>
+      <c r="A691" s="158"/>
     </row>
     <row r="692">
-      <c r="A692" s="164"/>
+      <c r="A692" s="158"/>
     </row>
     <row r="693">
-      <c r="A693" s="164"/>
+      <c r="A693" s="158"/>
     </row>
     <row r="694">
-      <c r="A694" s="164"/>
+      <c r="A694" s="158"/>
     </row>
     <row r="695">
-      <c r="A695" s="164"/>
+      <c r="A695" s="158"/>
     </row>
     <row r="696">
-      <c r="A696" s="164"/>
+      <c r="A696" s="158"/>
     </row>
     <row r="697">
-      <c r="A697" s="164"/>
+      <c r="A697" s="158"/>
     </row>
     <row r="698">
-      <c r="A698" s="164"/>
+      <c r="A698" s="158"/>
     </row>
     <row r="699">
-      <c r="A699" s="164"/>
+      <c r="A699" s="158"/>
     </row>
     <row r="700">
-      <c r="A700" s="164"/>
+      <c r="A700" s="158"/>
     </row>
     <row r="701">
-      <c r="A701" s="164"/>
+      <c r="A701" s="158"/>
     </row>
     <row r="702">
-      <c r="A702" s="164"/>
+      <c r="A702" s="158"/>
     </row>
     <row r="703">
-      <c r="A703" s="164"/>
+      <c r="A703" s="158"/>
     </row>
     <row r="704">
-      <c r="A704" s="164"/>
+      <c r="A704" s="158"/>
     </row>
     <row r="705">
-      <c r="A705" s="164"/>
+      <c r="A705" s="158"/>
     </row>
     <row r="706">
-      <c r="A706" s="164"/>
+      <c r="A706" s="158"/>
     </row>
     <row r="707">
-      <c r="A707" s="164"/>
+      <c r="A707" s="158"/>
     </row>
     <row r="708">
-      <c r="A708" s="164"/>
+      <c r="A708" s="158"/>
     </row>
     <row r="709">
-      <c r="A709" s="164"/>
+      <c r="A709" s="158"/>
     </row>
     <row r="710">
-      <c r="A710" s="164"/>
+      <c r="A710" s="158"/>
     </row>
     <row r="711">
-      <c r="A711" s="164"/>
+      <c r="A711" s="158"/>
     </row>
     <row r="712">
-      <c r="A712" s="164"/>
+      <c r="A712" s="158"/>
     </row>
     <row r="713">
-      <c r="A713" s="164"/>
+      <c r="A713" s="158"/>
     </row>
     <row r="714">
-      <c r="A714" s="164"/>
+      <c r="A714" s="158"/>
     </row>
     <row r="715">
-      <c r="A715" s="164"/>
+      <c r="A715" s="158"/>
     </row>
     <row r="716">
-      <c r="A716" s="164"/>
+      <c r="A716" s="158"/>
     </row>
     <row r="717">
-      <c r="A717" s="164"/>
+      <c r="A717" s="158"/>
     </row>
     <row r="718">
-      <c r="A718" s="164"/>
+      <c r="A718" s="158"/>
     </row>
     <row r="719">
-      <c r="A719" s="164"/>
+      <c r="A719" s="158"/>
     </row>
     <row r="720">
-      <c r="A720" s="164"/>
+      <c r="A720" s="158"/>
     </row>
     <row r="721">
-      <c r="A721" s="164"/>
+      <c r="A721" s="158"/>
     </row>
     <row r="722">
-      <c r="A722" s="164"/>
+      <c r="A722" s="158"/>
     </row>
     <row r="723">
-      <c r="A723" s="164"/>
+      <c r="A723" s="158"/>
     </row>
     <row r="724">
-      <c r="A724" s="164"/>
+      <c r="A724" s="158"/>
     </row>
     <row r="725">
-      <c r="A725" s="164"/>
+      <c r="A725" s="158"/>
     </row>
     <row r="726">
-      <c r="A726" s="164"/>
+      <c r="A726" s="158"/>
     </row>
     <row r="727">
-      <c r="A727" s="164"/>
+      <c r="A727" s="158"/>
     </row>
     <row r="728">
-      <c r="A728" s="164"/>
+      <c r="A728" s="158"/>
     </row>
     <row r="729">
-      <c r="A729" s="164"/>
+      <c r="A729" s="158"/>
     </row>
     <row r="730">
-      <c r="A730" s="164"/>
+      <c r="A730" s="158"/>
     </row>
     <row r="731">
-      <c r="A731" s="164"/>
+      <c r="A731" s="158"/>
     </row>
     <row r="732">
-      <c r="A732" s="164"/>
+      <c r="A732" s="158"/>
     </row>
     <row r="733">
-      <c r="A733" s="164"/>
+      <c r="A733" s="158"/>
     </row>
     <row r="734">
-      <c r="A734" s="164"/>
+      <c r="A734" s="158"/>
     </row>
     <row r="735">
-      <c r="A735" s="164"/>
+      <c r="A735" s="158"/>
     </row>
     <row r="736">
-      <c r="A736" s="164"/>
+      <c r="A736" s="158"/>
     </row>
     <row r="737">
-      <c r="A737" s="164"/>
+      <c r="A737" s="158"/>
     </row>
     <row r="738">
-      <c r="A738" s="164"/>
+      <c r="A738" s="158"/>
     </row>
     <row r="739">
-      <c r="A739" s="164"/>
+      <c r="A739" s="158"/>
     </row>
     <row r="740">
-      <c r="A740" s="164"/>
+      <c r="A740" s="158"/>
     </row>
     <row r="741">
-      <c r="A741" s="164"/>
+      <c r="A741" s="158"/>
     </row>
     <row r="742">
-      <c r="A742" s="164"/>
+      <c r="A742" s="158"/>
     </row>
     <row r="743">
-      <c r="A743" s="164"/>
+      <c r="A743" s="158"/>
     </row>
     <row r="744">
-      <c r="A744" s="164"/>
+      <c r="A744" s="158"/>
     </row>
     <row r="745">
-      <c r="A745" s="164"/>
+      <c r="A745" s="158"/>
     </row>
     <row r="746">
-      <c r="A746" s="164"/>
+      <c r="A746" s="158"/>
     </row>
     <row r="747">
-      <c r="A747" s="164"/>
+      <c r="A747" s="158"/>
     </row>
     <row r="748">
-      <c r="A748" s="164"/>
+      <c r="A748" s="158"/>
     </row>
     <row r="749">
-      <c r="A749" s="164"/>
+      <c r="A749" s="158"/>
     </row>
     <row r="750">
-      <c r="A750" s="164"/>
+      <c r="A750" s="158"/>
     </row>
     <row r="751">
-      <c r="A751" s="164"/>
+      <c r="A751" s="158"/>
     </row>
     <row r="752">
-      <c r="A752" s="164"/>
+      <c r="A752" s="158"/>
     </row>
     <row r="753">
-      <c r="A753" s="164"/>
+      <c r="A753" s="158"/>
     </row>
     <row r="754">
-      <c r="A754" s="164"/>
+      <c r="A754" s="158"/>
     </row>
     <row r="755">
-      <c r="A755" s="164"/>
+      <c r="A755" s="158"/>
     </row>
     <row r="756">
-      <c r="A756" s="164"/>
+      <c r="A756" s="158"/>
     </row>
     <row r="757">
-      <c r="A757" s="164"/>
+      <c r="A757" s="158"/>
     </row>
     <row r="758">
-      <c r="A758" s="164"/>
+      <c r="A758" s="158"/>
     </row>
     <row r="759">
-      <c r="A759" s="164"/>
+      <c r="A759" s="158"/>
     </row>
     <row r="760">
-      <c r="A760" s="164"/>
+      <c r="A760" s="158"/>
     </row>
     <row r="761">
-      <c r="A761" s="164"/>
+      <c r="A761" s="158"/>
     </row>
     <row r="762">
-      <c r="A762" s="164"/>
+      <c r="A762" s="158"/>
     </row>
     <row r="763">
-      <c r="A763" s="164"/>
+      <c r="A763" s="158"/>
     </row>
     <row r="764">
-      <c r="A764" s="164"/>
+      <c r="A764" s="158"/>
     </row>
     <row r="765">
-      <c r="A765" s="164"/>
+      <c r="A765" s="158"/>
     </row>
     <row r="766">
-      <c r="A766" s="164"/>
+      <c r="A766" s="158"/>
     </row>
     <row r="767">
-      <c r="A767" s="164"/>
+      <c r="A767" s="158"/>
     </row>
     <row r="768">
-      <c r="A768" s="164"/>
+      <c r="A768" s="158"/>
     </row>
     <row r="769">
-      <c r="A769" s="164"/>
+      <c r="A769" s="158"/>
     </row>
     <row r="770">
-      <c r="A770" s="164"/>
+      <c r="A770" s="158"/>
     </row>
     <row r="771">
-      <c r="A771" s="164"/>
+      <c r="A771" s="158"/>
     </row>
     <row r="772">
-      <c r="A772" s="164"/>
+      <c r="A772" s="158"/>
     </row>
     <row r="773">
-      <c r="A773" s="164"/>
+      <c r="A773" s="158"/>
     </row>
     <row r="774">
-      <c r="A774" s="164"/>
+      <c r="A774" s="158"/>
     </row>
     <row r="775">
-      <c r="A775" s="164"/>
+      <c r="A775" s="158"/>
     </row>
     <row r="776">
-      <c r="A776" s="164"/>
+      <c r="A776" s="158"/>
     </row>
     <row r="777">
-      <c r="A777" s="164"/>
+      <c r="A777" s="158"/>
     </row>
     <row r="778">
-      <c r="A778" s="164"/>
+      <c r="A778" s="158"/>
     </row>
     <row r="779">
-      <c r="A779" s="164"/>
+      <c r="A779" s="158"/>
     </row>
     <row r="780">
-      <c r="A780" s="164"/>
+      <c r="A780" s="158"/>
     </row>
     <row r="781">
-      <c r="A781" s="164"/>
+      <c r="A781" s="158"/>
     </row>
     <row r="782">
-      <c r="A782" s="164"/>
+      <c r="A782" s="158"/>
     </row>
     <row r="783">
-      <c r="A783" s="164"/>
+      <c r="A783" s="158"/>
     </row>
     <row r="784">
-      <c r="A784" s="164"/>
+      <c r="A784" s="158"/>
     </row>
     <row r="785">
-      <c r="A785" s="164"/>
+      <c r="A785" s="158"/>
     </row>
     <row r="786">
-      <c r="A786" s="164"/>
+      <c r="A786" s="158"/>
     </row>
     <row r="787">
-      <c r="A787" s="164"/>
+      <c r="A787" s="158"/>
     </row>
     <row r="788">
-      <c r="A788" s="164"/>
+      <c r="A788" s="158"/>
     </row>
     <row r="789">
-      <c r="A789" s="164"/>
+      <c r="A789" s="158"/>
     </row>
     <row r="790">
-      <c r="A790" s="164"/>
+      <c r="A790" s="158"/>
     </row>
     <row r="791">
-      <c r="A791" s="164"/>
+      <c r="A791" s="158"/>
     </row>
     <row r="792">
-      <c r="A792" s="164"/>
+      <c r="A792" s="158"/>
     </row>
     <row r="793">
-      <c r="A793" s="164"/>
+      <c r="A793" s="158"/>
     </row>
     <row r="794">
-      <c r="A794" s="164"/>
+      <c r="A794" s="158"/>
     </row>
     <row r="795">
-      <c r="A795" s="164"/>
+      <c r="A795" s="158"/>
     </row>
     <row r="796">
-      <c r="A796" s="164"/>
+      <c r="A796" s="158"/>
     </row>
     <row r="797">
-      <c r="A797" s="164"/>
+      <c r="A797" s="158"/>
     </row>
     <row r="798">
-      <c r="A798" s="164"/>
+      <c r="A798" s="158"/>
     </row>
     <row r="799">
-      <c r="A799" s="164"/>
+      <c r="A799" s="158"/>
     </row>
     <row r="800">
-      <c r="A800" s="164"/>
+      <c r="A800" s="158"/>
     </row>
     <row r="801">
-      <c r="A801" s="164"/>
+      <c r="A801" s="158"/>
     </row>
     <row r="802">
-      <c r="A802" s="164"/>
+      <c r="A802" s="158"/>
     </row>
     <row r="803">
-      <c r="A803" s="164"/>
+      <c r="A803" s="158"/>
     </row>
     <row r="804">
-      <c r="A804" s="164"/>
+      <c r="A804" s="158"/>
     </row>
     <row r="805">
-      <c r="A805" s="164"/>
+      <c r="A805" s="158"/>
     </row>
     <row r="806">
-      <c r="A806" s="164"/>
+      <c r="A806" s="158"/>
     </row>
     <row r="807">
-      <c r="A807" s="164"/>
+      <c r="A807" s="158"/>
     </row>
     <row r="808">
-      <c r="A808" s="164"/>
+      <c r="A808" s="158"/>
     </row>
     <row r="809">
-      <c r="A809" s="164"/>
+      <c r="A809" s="158"/>
     </row>
     <row r="810">
-      <c r="A810" s="164"/>
+      <c r="A810" s="158"/>
     </row>
     <row r="811">
-      <c r="A811" s="164"/>
+      <c r="A811" s="158"/>
     </row>
     <row r="812">
-      <c r="A812" s="164"/>
+      <c r="A812" s="158"/>
     </row>
     <row r="813">
-      <c r="A813" s="164"/>
+      <c r="A813" s="158"/>
     </row>
     <row r="814">
-      <c r="A814" s="164"/>
+      <c r="A814" s="158"/>
     </row>
     <row r="815">
-      <c r="A815" s="164"/>
+      <c r="A815" s="158"/>
     </row>
     <row r="816">
-      <c r="A816" s="164"/>
+      <c r="A816" s="158"/>
     </row>
     <row r="817">
-      <c r="A817" s="164"/>
+      <c r="A817" s="158"/>
     </row>
     <row r="818">
-      <c r="A818" s="164"/>
+      <c r="A818" s="158"/>
     </row>
     <row r="819">
-      <c r="A819" s="164"/>
+      <c r="A819" s="158"/>
     </row>
     <row r="820">
-      <c r="A820" s="164"/>
+      <c r="A820" s="158"/>
     </row>
     <row r="821">
-      <c r="A821" s="164"/>
+      <c r="A821" s="158"/>
     </row>
     <row r="822">
-      <c r="A822" s="164"/>
+      <c r="A822" s="158"/>
     </row>
     <row r="823">
-      <c r="A823" s="164"/>
+      <c r="A823" s="158"/>
     </row>
     <row r="824">
-      <c r="A824" s="164"/>
+      <c r="A824" s="158"/>
     </row>
     <row r="825">
-      <c r="A825" s="164"/>
+      <c r="A825" s="158"/>
     </row>
     <row r="826">
-      <c r="A826" s="164"/>
+      <c r="A826" s="158"/>
     </row>
     <row r="827">
-      <c r="A827" s="164"/>
+      <c r="A827" s="158"/>
     </row>
     <row r="828">
-      <c r="A828" s="164"/>
+      <c r="A828" s="158"/>
     </row>
     <row r="829">
-      <c r="A829" s="164"/>
+      <c r="A829" s="158"/>
     </row>
     <row r="830">
-      <c r="A830" s="164"/>
+      <c r="A830" s="158"/>
     </row>
     <row r="831">
-      <c r="A831" s="164"/>
+      <c r="A831" s="158"/>
     </row>
     <row r="832">
-      <c r="A832" s="164"/>
+      <c r="A832" s="158"/>
     </row>
     <row r="833">
-      <c r="A833" s="164"/>
+      <c r="A833" s="158"/>
     </row>
     <row r="834">
-      <c r="A834" s="164"/>
+      <c r="A834" s="158"/>
     </row>
     <row r="835">
-      <c r="A835" s="164"/>
+      <c r="A835" s="158"/>
     </row>
     <row r="836">
-      <c r="A836" s="164"/>
+      <c r="A836" s="158"/>
     </row>
     <row r="837">
-      <c r="A837" s="164"/>
+      <c r="A837" s="158"/>
     </row>
     <row r="838">
-      <c r="A838" s="164"/>
+      <c r="A838" s="158"/>
     </row>
     <row r="839">
-      <c r="A839" s="164"/>
+      <c r="A839" s="158"/>
     </row>
     <row r="840">
-      <c r="A840" s="164"/>
+      <c r="A840" s="158"/>
     </row>
     <row r="841">
-      <c r="A841" s="164"/>
+      <c r="A841" s="158"/>
     </row>
     <row r="842">
-      <c r="A842" s="164"/>
+      <c r="A842" s="158"/>
     </row>
     <row r="843">
-      <c r="A843" s="164"/>
+      <c r="A843" s="158"/>
     </row>
     <row r="844">
-      <c r="A844" s="164"/>
+      <c r="A844" s="158"/>
     </row>
     <row r="845">
-      <c r="A845" s="164"/>
+      <c r="A845" s="158"/>
     </row>
     <row r="846">
-      <c r="A846" s="164"/>
+      <c r="A846" s="158"/>
     </row>
     <row r="847">
-      <c r="A847" s="164"/>
+      <c r="A847" s="158"/>
     </row>
     <row r="848">
-      <c r="A848" s="164"/>
+      <c r="A848" s="158"/>
     </row>
     <row r="849">
-      <c r="A849" s="164"/>
+      <c r="A849" s="158"/>
     </row>
     <row r="850">
-      <c r="A850" s="164"/>
+      <c r="A850" s="158"/>
     </row>
     <row r="851">
-      <c r="A851" s="164"/>
+      <c r="A851" s="158"/>
     </row>
     <row r="852">
-      <c r="A852" s="164"/>
+      <c r="A852" s="158"/>
     </row>
     <row r="853">
-      <c r="A853" s="164"/>
+      <c r="A853" s="158"/>
     </row>
     <row r="854">
-      <c r="A854" s="164"/>
+      <c r="A854" s="158"/>
     </row>
     <row r="855">
-      <c r="A855" s="164"/>
+      <c r="A855" s="158"/>
     </row>
     <row r="856">
-      <c r="A856" s="164"/>
+      <c r="A856" s="158"/>
     </row>
     <row r="857">
-      <c r="A857" s="164"/>
+      <c r="A857" s="158"/>
     </row>
     <row r="858">
-      <c r="A858" s="164"/>
+      <c r="A858" s="158"/>
     </row>
     <row r="859">
-      <c r="A859" s="164"/>
+      <c r="A859" s="158"/>
     </row>
     <row r="860">
-      <c r="A860" s="164"/>
+      <c r="A860" s="158"/>
     </row>
     <row r="861">
-      <c r="A861" s="164"/>
+      <c r="A861" s="158"/>
     </row>
     <row r="862">
-      <c r="A862" s="164"/>
+      <c r="A862" s="158"/>
     </row>
     <row r="863">
-      <c r="A863" s="164"/>
+      <c r="A863" s="158"/>
     </row>
     <row r="864">
-      <c r="A864" s="164"/>
+      <c r="A864" s="158"/>
     </row>
     <row r="865">
-      <c r="A865" s="164"/>
+      <c r="A865" s="158"/>
     </row>
     <row r="866">
-      <c r="A866" s="164"/>
+      <c r="A866" s="158"/>
     </row>
     <row r="867">
-      <c r="A867" s="164"/>
+      <c r="A867" s="158"/>
     </row>
     <row r="868">
-      <c r="A868" s="164"/>
+      <c r="A868" s="158"/>
     </row>
     <row r="869">
-      <c r="A869" s="164"/>
+      <c r="A869" s="158"/>
     </row>
     <row r="870">
-      <c r="A870" s="164"/>
+      <c r="A870" s="158"/>
     </row>
     <row r="871">
-      <c r="A871" s="164"/>
+      <c r="A871" s="158"/>
     </row>
     <row r="872">
-      <c r="A872" s="164"/>
+      <c r="A872" s="158"/>
     </row>
     <row r="873">
-      <c r="A873" s="164"/>
+      <c r="A873" s="158"/>
     </row>
     <row r="874">
-      <c r="A874" s="164"/>
+      <c r="A874" s="158"/>
     </row>
     <row r="875">
-      <c r="A875" s="164"/>
+      <c r="A875" s="158"/>
     </row>
     <row r="876">
-      <c r="A876" s="164"/>
+      <c r="A876" s="158"/>
     </row>
     <row r="877">
-      <c r="A877" s="164"/>
+      <c r="A877" s="158"/>
     </row>
     <row r="878">
-      <c r="A878" s="164"/>
+      <c r="A878" s="158"/>
     </row>
     <row r="879">
-      <c r="A879" s="164"/>
+      <c r="A879" s="158"/>
     </row>
     <row r="880">
-      <c r="A880" s="164"/>
+      <c r="A880" s="158"/>
     </row>
     <row r="881">
-      <c r="A881" s="164"/>
+      <c r="A881" s="158"/>
     </row>
     <row r="882">
-      <c r="A882" s="164"/>
+      <c r="A882" s="158"/>
     </row>
     <row r="883">
-      <c r="A883" s="164"/>
+      <c r="A883" s="158"/>
     </row>
     <row r="884">
-      <c r="A884" s="164"/>
+      <c r="A884" s="158"/>
     </row>
     <row r="885">
-      <c r="A885" s="164"/>
+      <c r="A885" s="158"/>
     </row>
     <row r="886">
-      <c r="A886" s="164"/>
+      <c r="A886" s="158"/>
     </row>
     <row r="887">
-      <c r="A887" s="164"/>
+      <c r="A887" s="158"/>
     </row>
     <row r="888">
-      <c r="A888" s="164"/>
+      <c r="A888" s="158"/>
     </row>
     <row r="889">
-      <c r="A889" s="164"/>
+      <c r="A889" s="158"/>
     </row>
     <row r="890">
-      <c r="A890" s="164"/>
+      <c r="A890" s="158"/>
     </row>
     <row r="891">
-      <c r="A891" s="164"/>
+      <c r="A891" s="158"/>
     </row>
     <row r="892">
-      <c r="A892" s="164"/>
+      <c r="A892" s="158"/>
     </row>
     <row r="893">
-      <c r="A893" s="164"/>
+      <c r="A893" s="158"/>
     </row>
     <row r="894">
-      <c r="A894" s="164"/>
+      <c r="A894" s="158"/>
     </row>
     <row r="895">
-      <c r="A895" s="164"/>
+      <c r="A895" s="158"/>
     </row>
     <row r="896">
-      <c r="A896" s="164"/>
+      <c r="A896" s="158"/>
     </row>
     <row r="897">
-      <c r="A897" s="164"/>
+      <c r="A897" s="158"/>
     </row>
     <row r="898">
-      <c r="A898" s="164"/>
+      <c r="A898" s="158"/>
     </row>
     <row r="899">
-      <c r="A899" s="164"/>
+      <c r="A899" s="158"/>
     </row>
     <row r="900">
-      <c r="A900" s="164"/>
+      <c r="A900" s="158"/>
     </row>
     <row r="901">
-      <c r="A901" s="164"/>
+      <c r="A901" s="158"/>
     </row>
     <row r="902">
-      <c r="A902" s="164"/>
+      <c r="A902" s="158"/>
     </row>
     <row r="903">
-      <c r="A903" s="164"/>
+      <c r="A903" s="158"/>
     </row>
     <row r="904">
-      <c r="A904" s="164"/>
+      <c r="A904" s="158"/>
     </row>
     <row r="905">
-      <c r="A905" s="164"/>
+      <c r="A905" s="158"/>
     </row>
     <row r="906">
-      <c r="A906" s="164"/>
+      <c r="A906" s="158"/>
     </row>
     <row r="907">
-      <c r="A907" s="164"/>
+      <c r="A907" s="158"/>
     </row>
     <row r="908">
-      <c r="A908" s="164"/>
+      <c r="A908" s="158"/>
     </row>
     <row r="909">
-      <c r="A909" s="164"/>
+      <c r="A909" s="158"/>
     </row>
     <row r="910">
-      <c r="A910" s="164"/>
+      <c r="A910" s="158"/>
     </row>
     <row r="911">
-      <c r="A911" s="164"/>
+      <c r="A911" s="158"/>
     </row>
     <row r="912">
-      <c r="A912" s="164"/>
+      <c r="A912" s="158"/>
     </row>
     <row r="913">
-      <c r="A913" s="164"/>
+      <c r="A913" s="158"/>
     </row>
     <row r="914">
-      <c r="A914" s="164"/>
+      <c r="A914" s="158"/>
     </row>
     <row r="915">
-      <c r="A915" s="164"/>
+      <c r="A915" s="158"/>
     </row>
     <row r="916">
-      <c r="A916" s="164"/>
+      <c r="A916" s="158"/>
     </row>
     <row r="917">
-      <c r="A917" s="164"/>
+      <c r="A917" s="158"/>
     </row>
     <row r="918">
-      <c r="A918" s="164"/>
+      <c r="A918" s="158"/>
     </row>
     <row r="919">
-      <c r="A919" s="164"/>
+      <c r="A919" s="158"/>
     </row>
     <row r="920">
-      <c r="A920" s="164"/>
+      <c r="A920" s="158"/>
     </row>
     <row r="921">
-      <c r="A921" s="164"/>
+      <c r="A921" s="158"/>
     </row>
     <row r="922">
-      <c r="A922" s="164"/>
+      <c r="A922" s="158"/>
     </row>
     <row r="923">
-      <c r="A923" s="164"/>
+      <c r="A923" s="158"/>
     </row>
     <row r="924">
-      <c r="A924" s="164"/>
+      <c r="A924" s="158"/>
     </row>
     <row r="925">
-      <c r="A925" s="164"/>
+      <c r="A925" s="158"/>
     </row>
     <row r="926">
-      <c r="A926" s="164"/>
+      <c r="A926" s="158"/>
     </row>
     <row r="927">
-      <c r="A927" s="164"/>
+      <c r="A927" s="158"/>
     </row>
     <row r="928">
-      <c r="A928" s="164"/>
+      <c r="A928" s="158"/>
     </row>
     <row r="929">
-      <c r="A929" s="164"/>
+      <c r="A929" s="158"/>
     </row>
     <row r="930">
-      <c r="A930" s="164"/>
+      <c r="A930" s="158"/>
     </row>
     <row r="931">
-      <c r="A931" s="164"/>
+      <c r="A931" s="158"/>
     </row>
     <row r="932">
-      <c r="A932" s="164"/>
+      <c r="A932" s="158"/>
     </row>
     <row r="933">
-      <c r="A933" s="164"/>
+      <c r="A933" s="158"/>
     </row>
     <row r="934">
-      <c r="A934" s="164"/>
+      <c r="A934" s="158"/>
     </row>
     <row r="935">
-      <c r="A935" s="164"/>
+      <c r="A935" s="158"/>
     </row>
     <row r="936">
-      <c r="A936" s="164"/>
+      <c r="A936" s="158"/>
     </row>
     <row r="937">
-      <c r="A937" s="164"/>
+      <c r="A937" s="158"/>
     </row>
     <row r="938">
-      <c r="A938" s="164"/>
+      <c r="A938" s="158"/>
     </row>
     <row r="939">
-      <c r="A939" s="164"/>
+      <c r="A939" s="158"/>
     </row>
     <row r="940">
-      <c r="A940" s="164"/>
+      <c r="A940" s="158"/>
     </row>
     <row r="941">
-      <c r="A941" s="164"/>
+      <c r="A941" s="158"/>
     </row>
     <row r="942">
-      <c r="A942" s="164"/>
+      <c r="A942" s="158"/>
     </row>
     <row r="943">
-      <c r="A943" s="164"/>
+      <c r="A943" s="158"/>
     </row>
     <row r="944">
-      <c r="A944" s="164"/>
+      <c r="A944" s="158"/>
     </row>
     <row r="945">
-      <c r="A945" s="164"/>
+      <c r="A945" s="158"/>
     </row>
     <row r="946">
-      <c r="A946" s="164"/>
+      <c r="A946" s="158"/>
     </row>
     <row r="947">
-      <c r="A947" s="164"/>
+      <c r="A947" s="158"/>
     </row>
     <row r="948">
-      <c r="A948" s="164"/>
+      <c r="A948" s="158"/>
     </row>
     <row r="949">
-      <c r="A949" s="164"/>
+      <c r="A949" s="158"/>
     </row>
     <row r="950">
-      <c r="A950" s="164"/>
+      <c r="A950" s="158"/>
     </row>
     <row r="951">
-      <c r="A951" s="164"/>
+      <c r="A951" s="158"/>
     </row>
     <row r="952">
-      <c r="A952" s="164"/>
+      <c r="A952" s="158"/>
     </row>
     <row r="953">
-      <c r="A953" s="164"/>
+      <c r="A953" s="158"/>
     </row>
     <row r="954">
-      <c r="A954" s="164"/>
+      <c r="A954" s="158"/>
     </row>
     <row r="955">
-      <c r="A955" s="164"/>
+      <c r="A955" s="158"/>
     </row>
     <row r="956">
-      <c r="A956" s="164"/>
+      <c r="A956" s="158"/>
     </row>
     <row r="957">
-      <c r="A957" s="164"/>
+      <c r="A957" s="158"/>
     </row>
     <row r="958">
-      <c r="A958" s="164"/>
+      <c r="A958" s="158"/>
     </row>
     <row r="959">
-      <c r="A959" s="164"/>
+      <c r="A959" s="158"/>
     </row>
     <row r="960">
-      <c r="A960" s="164"/>
+      <c r="A960" s="158"/>
     </row>
     <row r="961">
-      <c r="A961" s="164"/>
+      <c r="A961" s="158"/>
     </row>
     <row r="962">
-      <c r="A962" s="164"/>
+      <c r="A962" s="158"/>
     </row>
     <row r="963">
-      <c r="A963" s="164"/>
+      <c r="A963" s="158"/>
     </row>
     <row r="964">
-      <c r="A964" s="164"/>
+      <c r="A964" s="158"/>
     </row>
     <row r="965">
-      <c r="A965" s="164"/>
+      <c r="A965" s="158"/>
     </row>
     <row r="966">
-      <c r="A966" s="164"/>
+      <c r="A966" s="158"/>
     </row>
     <row r="967">
-      <c r="A967" s="164"/>
+      <c r="A967" s="158"/>
     </row>
     <row r="968">
-      <c r="A968" s="164"/>
+      <c r="A968" s="158"/>
     </row>
     <row r="969">
-      <c r="A969" s="164"/>
+      <c r="A969" s="158"/>
     </row>
     <row r="970">
-      <c r="A970" s="164"/>
+      <c r="A970" s="158"/>
     </row>
     <row r="971">
-      <c r="A971" s="164"/>
+      <c r="A971" s="158"/>
     </row>
     <row r="972">
-      <c r="A972" s="164"/>
+      <c r="A972" s="158"/>
     </row>
     <row r="973">
-      <c r="A973" s="164"/>
+      <c r="A973" s="158"/>
     </row>
     <row r="974">
-      <c r="A974" s="164"/>
+      <c r="A974" s="158"/>
     </row>
     <row r="975">
-      <c r="A975" s="164"/>
+      <c r="A975" s="158"/>
     </row>
     <row r="976">
-      <c r="A976" s="164"/>
+      <c r="A976" s="158"/>
     </row>
     <row r="977">
-      <c r="A977" s="164"/>
+      <c r="A977" s="158"/>
     </row>
     <row r="978">
-      <c r="A978" s="164"/>
+      <c r="A978" s="158"/>
     </row>
     <row r="979">
-      <c r="A979" s="164"/>
+      <c r="A979" s="158"/>
     </row>
     <row r="980">
-      <c r="A980" s="164"/>
+      <c r="A980" s="158"/>
     </row>
     <row r="981">
-      <c r="A981" s="164"/>
+      <c r="A981" s="158"/>
     </row>
     <row r="982">
-      <c r="A982" s="164"/>
+      <c r="A982" s="158"/>
     </row>
     <row r="983">
-      <c r="A983" s="164"/>
+      <c r="A983" s="158"/>
     </row>
     <row r="984">
-      <c r="A984" s="164"/>
+      <c r="A984" s="158"/>
     </row>
     <row r="985">
-      <c r="A985" s="164"/>
+      <c r="A985" s="158"/>
     </row>
     <row r="986">
-      <c r="A986" s="164"/>
+      <c r="A986" s="158"/>
     </row>
     <row r="987">
-      <c r="A987" s="164"/>
+      <c r="A987" s="158"/>
     </row>
     <row r="988">
-      <c r="A988" s="164"/>
+      <c r="A988" s="158"/>
     </row>
     <row r="989">
-      <c r="A989" s="164"/>
+      <c r="A989" s="158"/>
     </row>
     <row r="990">
-      <c r="A990" s="164"/>
+      <c r="A990" s="158"/>
     </row>
     <row r="991">
-      <c r="A991" s="164"/>
+      <c r="A991" s="158"/>
     </row>
     <row r="992">
-      <c r="A992" s="164"/>
+      <c r="A992" s="158"/>
     </row>
     <row r="993">
-      <c r="A993" s="164"/>
+      <c r="A993" s="158"/>
     </row>
     <row r="994">
-      <c r="A994" s="164"/>
+      <c r="A994" s="158"/>
     </row>
     <row r="995">
-      <c r="A995" s="164"/>
+      <c r="A995" s="158"/>
     </row>
     <row r="996">
-      <c r="A996" s="164"/>
+      <c r="A996" s="158"/>
     </row>
     <row r="997">
-      <c r="A997" s="164"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="164"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="164"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="164"/>
+      <c r="A997" s="158"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A12:F12"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31154,7 +31163,7 @@
     </row>
     <row r="2">
       <c r="A2" s="138" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="48">
         <v>4.0</v>
@@ -31174,7 +31183,7 @@
     </row>
     <row r="3">
       <c r="A3" s="139" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="140">
         <v>8.0</v>
@@ -31193,8 +31202,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="165" t="s">
-        <v>98</v>
+      <c r="A4" s="166" t="s">
+        <v>99</v>
       </c>
       <c r="B4" s="143">
         <f t="shared" ref="B4:F4" si="1">B2/B3</f>
@@ -31219,7 +31228,7 @@
     </row>
     <row r="5">
       <c r="A5" s="145" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="48">
         <v>4.0</v>
@@ -31239,7 +31248,7 @@
     </row>
     <row r="6">
       <c r="A6" s="146" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="140">
         <v>8.0</v>
@@ -31259,7 +31268,7 @@
     </row>
     <row r="7">
       <c r="A7" s="147" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" s="143">
         <f t="shared" ref="B7:F7" si="2">B5/B6</f>
@@ -31283,28 +31292,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="48">
-        <v>4.0</v>
-      </c>
-      <c r="C8" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="48">
-        <v>7.0</v>
-      </c>
-      <c r="E8" s="48">
-        <v>15.0</v>
-      </c>
-      <c r="F8" s="95">
-        <v>16.0</v>
-      </c>
+      <c r="A8" s="160" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="151"/>
     </row>
     <row r="9">
-      <c r="A9" s="152" t="s">
-        <v>101</v>
+      <c r="A9" s="161" t="s">
+        <v>98</v>
       </c>
       <c r="B9" s="140">
         <v>8.0</v>
@@ -31323,3126 +31322,3071 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="165"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="169"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="105">
-        <f t="shared" ref="B10:F10" si="3">B8/B9</f>
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="105">
+    </row>
+    <row r="13">
+      <c r="A13" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="48">
+        <v>9.0</v>
+      </c>
+      <c r="F13" s="95">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="140">
+        <v>4.0</v>
+      </c>
+      <c r="C14" s="140">
+        <v>14.0</v>
+      </c>
+      <c r="D14" s="140">
+        <v>12.0</v>
+      </c>
+      <c r="E14" s="140">
+        <v>12.0</v>
+      </c>
+      <c r="F14" s="141">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="166" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="143">
+        <f t="shared" ref="B15:F15" si="3">B13/B14</f>
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="143">
         <f t="shared" si="3"/>
         <v>0.07142857143</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D15" s="143">
         <f t="shared" si="3"/>
-        <v>0.4375</v>
-      </c>
-      <c r="E10" s="105">
+        <v>0.4166666667</v>
+      </c>
+      <c r="E15" s="143">
         <f t="shared" si="3"/>
-        <v>0.8333333333</v>
-      </c>
-      <c r="F10" s="157">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="144">
         <f t="shared" si="3"/>
-        <v>0.3333333333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="158" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="151"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="159" t="s">
+        <v>0.3157894737</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="140">
-        <v>8.0</v>
-      </c>
-      <c r="C12" s="140">
-        <v>14.0</v>
-      </c>
-      <c r="D12" s="140">
-        <v>16.0</v>
-      </c>
-      <c r="E12" s="140">
-        <v>18.0</v>
-      </c>
-      <c r="F12" s="141">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="160" t="s">
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="170"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="172"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="163"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="168"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="169" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="C16" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="48">
-        <v>5.0</v>
-      </c>
-      <c r="E16" s="48">
-        <v>9.0</v>
-      </c>
-      <c r="F16" s="95">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="140">
-        <v>4.0</v>
-      </c>
-      <c r="C17" s="140">
-        <v>14.0</v>
-      </c>
-      <c r="D17" s="140">
-        <v>12.0</v>
-      </c>
-      <c r="E17" s="140">
-        <v>12.0</v>
-      </c>
-      <c r="F17" s="141">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="143">
-        <f t="shared" ref="B18:F18" si="4">B16/B17</f>
+      <c r="B18" s="105">
         <v>0.25</v>
       </c>
-      <c r="C18" s="143">
-        <f t="shared" si="4"/>
-        <v>0.07142857143</v>
-      </c>
-      <c r="D18" s="143">
-        <f t="shared" si="4"/>
-        <v>0.4166666667</v>
-      </c>
-      <c r="E18" s="143">
-        <f t="shared" si="4"/>
+      <c r="C18" s="105">
+        <v>0.071</v>
+      </c>
+      <c r="D18" s="105">
+        <v>0.417</v>
+      </c>
+      <c r="E18" s="105">
         <v>0.75</v>
       </c>
-      <c r="F18" s="144">
-        <f t="shared" si="4"/>
-        <v>0.3157894737</v>
+      <c r="F18" s="157">
+        <v>0.316</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="170"/>
+      <c r="A19" s="158"/>
     </row>
     <row r="20">
-      <c r="A20" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
+      <c r="A20" s="158"/>
     </row>
     <row r="21">
-      <c r="A21" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="105">
-        <v>0.25</v>
-      </c>
-      <c r="C21" s="105">
-        <v>0.071</v>
-      </c>
-      <c r="D21" s="105">
-        <v>0.417</v>
-      </c>
-      <c r="E21" s="105">
-        <v>0.75</v>
-      </c>
-      <c r="F21" s="157">
-        <v>0.316</v>
-      </c>
+      <c r="A21" s="158"/>
     </row>
     <row r="22">
-      <c r="A22" s="164"/>
+      <c r="A22" s="158"/>
     </row>
     <row r="23">
-      <c r="A23" s="164"/>
+      <c r="A23" s="158"/>
     </row>
     <row r="24">
-      <c r="A24" s="164"/>
+      <c r="A24" s="158"/>
     </row>
     <row r="25">
-      <c r="A25" s="164"/>
+      <c r="A25" s="158"/>
     </row>
     <row r="26">
-      <c r="A26" s="164"/>
+      <c r="A26" s="158"/>
     </row>
     <row r="27">
-      <c r="A27" s="164"/>
+      <c r="A27" s="158"/>
     </row>
     <row r="28">
-      <c r="A28" s="164"/>
+      <c r="A28" s="158"/>
     </row>
     <row r="29">
-      <c r="A29" s="164"/>
+      <c r="A29" s="158"/>
     </row>
     <row r="30">
-      <c r="A30" s="164"/>
+      <c r="A30" s="158"/>
     </row>
     <row r="31">
-      <c r="A31" s="164"/>
+      <c r="A31" s="158"/>
     </row>
     <row r="32">
-      <c r="A32" s="164"/>
+      <c r="A32" s="158"/>
     </row>
     <row r="33">
-      <c r="A33" s="164"/>
+      <c r="A33" s="158"/>
     </row>
     <row r="34">
-      <c r="A34" s="164"/>
+      <c r="A34" s="158"/>
     </row>
     <row r="35">
-      <c r="A35" s="164"/>
+      <c r="A35" s="158"/>
     </row>
     <row r="36">
-      <c r="A36" s="164"/>
+      <c r="A36" s="158"/>
     </row>
     <row r="37">
-      <c r="A37" s="164"/>
+      <c r="A37" s="158"/>
     </row>
     <row r="38">
-      <c r="A38" s="164"/>
+      <c r="A38" s="158"/>
     </row>
     <row r="39">
-      <c r="A39" s="164"/>
+      <c r="A39" s="158"/>
     </row>
     <row r="40">
-      <c r="A40" s="164"/>
+      <c r="A40" s="158"/>
     </row>
     <row r="41">
-      <c r="A41" s="164"/>
+      <c r="A41" s="158"/>
     </row>
     <row r="42">
-      <c r="A42" s="164"/>
+      <c r="A42" s="158"/>
     </row>
     <row r="43">
-      <c r="A43" s="164"/>
+      <c r="A43" s="158"/>
     </row>
     <row r="44">
-      <c r="A44" s="164"/>
+      <c r="A44" s="158"/>
     </row>
     <row r="45">
-      <c r="A45" s="164"/>
+      <c r="A45" s="158"/>
     </row>
     <row r="46">
-      <c r="A46" s="164"/>
+      <c r="A46" s="158"/>
     </row>
     <row r="47">
-      <c r="A47" s="164"/>
+      <c r="A47" s="158"/>
     </row>
     <row r="48">
-      <c r="A48" s="164"/>
+      <c r="A48" s="158"/>
     </row>
     <row r="49">
-      <c r="A49" s="164"/>
+      <c r="A49" s="158"/>
     </row>
     <row r="50">
-      <c r="A50" s="164"/>
+      <c r="A50" s="158"/>
     </row>
     <row r="51">
-      <c r="A51" s="164"/>
+      <c r="A51" s="158"/>
     </row>
     <row r="52">
-      <c r="A52" s="164"/>
+      <c r="A52" s="158"/>
     </row>
     <row r="53">
-      <c r="A53" s="164"/>
+      <c r="A53" s="158"/>
     </row>
     <row r="54">
-      <c r="A54" s="164"/>
+      <c r="A54" s="158"/>
     </row>
     <row r="55">
-      <c r="A55" s="164"/>
+      <c r="A55" s="158"/>
     </row>
     <row r="56">
-      <c r="A56" s="164"/>
+      <c r="A56" s="158"/>
     </row>
     <row r="57">
-      <c r="A57" s="164"/>
+      <c r="A57" s="158"/>
     </row>
     <row r="58">
-      <c r="A58" s="164"/>
+      <c r="A58" s="158"/>
     </row>
     <row r="59">
-      <c r="A59" s="164"/>
+      <c r="A59" s="158"/>
     </row>
     <row r="60">
-      <c r="A60" s="164"/>
+      <c r="A60" s="158"/>
     </row>
     <row r="61">
-      <c r="A61" s="164"/>
+      <c r="A61" s="158"/>
     </row>
     <row r="62">
-      <c r="A62" s="164"/>
+      <c r="A62" s="158"/>
     </row>
     <row r="63">
-      <c r="A63" s="164"/>
+      <c r="A63" s="158"/>
     </row>
     <row r="64">
-      <c r="A64" s="164"/>
+      <c r="A64" s="158"/>
     </row>
     <row r="65">
-      <c r="A65" s="164"/>
+      <c r="A65" s="158"/>
     </row>
     <row r="66">
-      <c r="A66" s="164"/>
+      <c r="A66" s="158"/>
     </row>
     <row r="67">
-      <c r="A67" s="164"/>
+      <c r="A67" s="158"/>
     </row>
     <row r="68">
-      <c r="A68" s="164"/>
+      <c r="A68" s="158"/>
     </row>
     <row r="69">
-      <c r="A69" s="164"/>
+      <c r="A69" s="158"/>
     </row>
     <row r="70">
-      <c r="A70" s="164"/>
+      <c r="A70" s="158"/>
     </row>
     <row r="71">
-      <c r="A71" s="164"/>
+      <c r="A71" s="158"/>
     </row>
     <row r="72">
-      <c r="A72" s="164"/>
+      <c r="A72" s="158"/>
     </row>
     <row r="73">
-      <c r="A73" s="164"/>
+      <c r="A73" s="158"/>
     </row>
     <row r="74">
-      <c r="A74" s="164"/>
+      <c r="A74" s="158"/>
     </row>
     <row r="75">
-      <c r="A75" s="164"/>
+      <c r="A75" s="158"/>
     </row>
     <row r="76">
-      <c r="A76" s="164"/>
+      <c r="A76" s="158"/>
     </row>
     <row r="77">
-      <c r="A77" s="164"/>
+      <c r="A77" s="158"/>
     </row>
     <row r="78">
-      <c r="A78" s="164"/>
+      <c r="A78" s="158"/>
     </row>
     <row r="79">
-      <c r="A79" s="164"/>
+      <c r="A79" s="158"/>
     </row>
     <row r="80">
-      <c r="A80" s="164"/>
+      <c r="A80" s="158"/>
     </row>
     <row r="81">
-      <c r="A81" s="164"/>
+      <c r="A81" s="158"/>
     </row>
     <row r="82">
-      <c r="A82" s="164"/>
+      <c r="A82" s="158"/>
     </row>
     <row r="83">
-      <c r="A83" s="164"/>
+      <c r="A83" s="158"/>
     </row>
     <row r="84">
-      <c r="A84" s="164"/>
+      <c r="A84" s="158"/>
     </row>
     <row r="85">
-      <c r="A85" s="164"/>
+      <c r="A85" s="158"/>
     </row>
     <row r="86">
-      <c r="A86" s="164"/>
+      <c r="A86" s="158"/>
     </row>
     <row r="87">
-      <c r="A87" s="164"/>
+      <c r="A87" s="158"/>
     </row>
     <row r="88">
-      <c r="A88" s="164"/>
+      <c r="A88" s="158"/>
     </row>
     <row r="89">
-      <c r="A89" s="164"/>
+      <c r="A89" s="158"/>
     </row>
     <row r="90">
-      <c r="A90" s="164"/>
+      <c r="A90" s="158"/>
     </row>
     <row r="91">
-      <c r="A91" s="164"/>
+      <c r="A91" s="158"/>
     </row>
     <row r="92">
-      <c r="A92" s="164"/>
+      <c r="A92" s="158"/>
     </row>
     <row r="93">
-      <c r="A93" s="164"/>
+      <c r="A93" s="158"/>
     </row>
     <row r="94">
-      <c r="A94" s="164"/>
+      <c r="A94" s="158"/>
     </row>
     <row r="95">
-      <c r="A95" s="164"/>
+      <c r="A95" s="158"/>
     </row>
     <row r="96">
-      <c r="A96" s="164"/>
+      <c r="A96" s="158"/>
     </row>
     <row r="97">
-      <c r="A97" s="164"/>
+      <c r="A97" s="158"/>
     </row>
     <row r="98">
-      <c r="A98" s="164"/>
+      <c r="A98" s="158"/>
     </row>
     <row r="99">
-      <c r="A99" s="164"/>
+      <c r="A99" s="158"/>
     </row>
     <row r="100">
-      <c r="A100" s="164"/>
+      <c r="A100" s="158"/>
     </row>
     <row r="101">
-      <c r="A101" s="164"/>
+      <c r="A101" s="158"/>
     </row>
     <row r="102">
-      <c r="A102" s="164"/>
+      <c r="A102" s="158"/>
     </row>
     <row r="103">
-      <c r="A103" s="164"/>
+      <c r="A103" s="158"/>
     </row>
     <row r="104">
-      <c r="A104" s="164"/>
+      <c r="A104" s="158"/>
     </row>
     <row r="105">
-      <c r="A105" s="164"/>
+      <c r="A105" s="158"/>
     </row>
     <row r="106">
-      <c r="A106" s="164"/>
+      <c r="A106" s="158"/>
     </row>
     <row r="107">
-      <c r="A107" s="164"/>
+      <c r="A107" s="158"/>
     </row>
     <row r="108">
-      <c r="A108" s="164"/>
+      <c r="A108" s="158"/>
     </row>
     <row r="109">
-      <c r="A109" s="164"/>
+      <c r="A109" s="158"/>
     </row>
     <row r="110">
-      <c r="A110" s="164"/>
+      <c r="A110" s="158"/>
     </row>
     <row r="111">
-      <c r="A111" s="164"/>
+      <c r="A111" s="158"/>
     </row>
     <row r="112">
-      <c r="A112" s="164"/>
+      <c r="A112" s="158"/>
     </row>
     <row r="113">
-      <c r="A113" s="164"/>
+      <c r="A113" s="158"/>
     </row>
     <row r="114">
-      <c r="A114" s="164"/>
+      <c r="A114" s="158"/>
     </row>
     <row r="115">
-      <c r="A115" s="164"/>
+      <c r="A115" s="158"/>
     </row>
     <row r="116">
-      <c r="A116" s="164"/>
+      <c r="A116" s="158"/>
     </row>
     <row r="117">
-      <c r="A117" s="164"/>
+      <c r="A117" s="158"/>
     </row>
     <row r="118">
-      <c r="A118" s="164"/>
+      <c r="A118" s="158"/>
     </row>
     <row r="119">
-      <c r="A119" s="164"/>
+      <c r="A119" s="158"/>
     </row>
     <row r="120">
-      <c r="A120" s="164"/>
+      <c r="A120" s="158"/>
     </row>
     <row r="121">
-      <c r="A121" s="164"/>
+      <c r="A121" s="158"/>
     </row>
     <row r="122">
-      <c r="A122" s="164"/>
+      <c r="A122" s="158"/>
     </row>
     <row r="123">
-      <c r="A123" s="164"/>
+      <c r="A123" s="158"/>
     </row>
     <row r="124">
-      <c r="A124" s="164"/>
+      <c r="A124" s="158"/>
     </row>
     <row r="125">
-      <c r="A125" s="164"/>
+      <c r="A125" s="158"/>
     </row>
     <row r="126">
-      <c r="A126" s="164"/>
+      <c r="A126" s="158"/>
     </row>
     <row r="127">
-      <c r="A127" s="164"/>
+      <c r="A127" s="158"/>
     </row>
     <row r="128">
-      <c r="A128" s="164"/>
+      <c r="A128" s="158"/>
     </row>
     <row r="129">
-      <c r="A129" s="164"/>
+      <c r="A129" s="158"/>
     </row>
     <row r="130">
-      <c r="A130" s="164"/>
+      <c r="A130" s="158"/>
     </row>
     <row r="131">
-      <c r="A131" s="164"/>
+      <c r="A131" s="158"/>
     </row>
     <row r="132">
-      <c r="A132" s="164"/>
+      <c r="A132" s="158"/>
     </row>
     <row r="133">
-      <c r="A133" s="164"/>
+      <c r="A133" s="158"/>
     </row>
     <row r="134">
-      <c r="A134" s="164"/>
+      <c r="A134" s="158"/>
     </row>
     <row r="135">
-      <c r="A135" s="164"/>
+      <c r="A135" s="158"/>
     </row>
     <row r="136">
-      <c r="A136" s="164"/>
+      <c r="A136" s="158"/>
     </row>
     <row r="137">
-      <c r="A137" s="164"/>
+      <c r="A137" s="158"/>
     </row>
     <row r="138">
-      <c r="A138" s="164"/>
+      <c r="A138" s="158"/>
     </row>
     <row r="139">
-      <c r="A139" s="164"/>
+      <c r="A139" s="158"/>
     </row>
     <row r="140">
-      <c r="A140" s="164"/>
+      <c r="A140" s="158"/>
     </row>
     <row r="141">
-      <c r="A141" s="164"/>
+      <c r="A141" s="158"/>
     </row>
     <row r="142">
-      <c r="A142" s="164"/>
+      <c r="A142" s="158"/>
     </row>
     <row r="143">
-      <c r="A143" s="164"/>
+      <c r="A143" s="158"/>
     </row>
     <row r="144">
-      <c r="A144" s="164"/>
+      <c r="A144" s="158"/>
     </row>
     <row r="145">
-      <c r="A145" s="164"/>
+      <c r="A145" s="158"/>
     </row>
     <row r="146">
-      <c r="A146" s="164"/>
+      <c r="A146" s="158"/>
     </row>
     <row r="147">
-      <c r="A147" s="164"/>
+      <c r="A147" s="158"/>
     </row>
     <row r="148">
-      <c r="A148" s="164"/>
+      <c r="A148" s="158"/>
     </row>
     <row r="149">
-      <c r="A149" s="164"/>
+      <c r="A149" s="158"/>
     </row>
     <row r="150">
-      <c r="A150" s="164"/>
+      <c r="A150" s="158"/>
     </row>
     <row r="151">
-      <c r="A151" s="164"/>
+      <c r="A151" s="158"/>
     </row>
     <row r="152">
-      <c r="A152" s="164"/>
+      <c r="A152" s="158"/>
     </row>
     <row r="153">
-      <c r="A153" s="164"/>
+      <c r="A153" s="158"/>
     </row>
     <row r="154">
-      <c r="A154" s="164"/>
+      <c r="A154" s="158"/>
     </row>
     <row r="155">
-      <c r="A155" s="164"/>
+      <c r="A155" s="158"/>
     </row>
     <row r="156">
-      <c r="A156" s="164"/>
+      <c r="A156" s="158"/>
     </row>
     <row r="157">
-      <c r="A157" s="164"/>
+      <c r="A157" s="158"/>
     </row>
     <row r="158">
-      <c r="A158" s="164"/>
+      <c r="A158" s="158"/>
     </row>
     <row r="159">
-      <c r="A159" s="164"/>
+      <c r="A159" s="158"/>
     </row>
     <row r="160">
-      <c r="A160" s="164"/>
+      <c r="A160" s="158"/>
     </row>
     <row r="161">
-      <c r="A161" s="164"/>
+      <c r="A161" s="158"/>
     </row>
     <row r="162">
-      <c r="A162" s="164"/>
+      <c r="A162" s="158"/>
     </row>
     <row r="163">
-      <c r="A163" s="164"/>
+      <c r="A163" s="158"/>
     </row>
     <row r="164">
-      <c r="A164" s="164"/>
+      <c r="A164" s="158"/>
     </row>
     <row r="165">
-      <c r="A165" s="164"/>
+      <c r="A165" s="158"/>
     </row>
     <row r="166">
-      <c r="A166" s="164"/>
+      <c r="A166" s="158"/>
     </row>
     <row r="167">
-      <c r="A167" s="164"/>
+      <c r="A167" s="158"/>
     </row>
     <row r="168">
-      <c r="A168" s="164"/>
+      <c r="A168" s="158"/>
     </row>
     <row r="169">
-      <c r="A169" s="164"/>
+      <c r="A169" s="158"/>
     </row>
     <row r="170">
-      <c r="A170" s="164"/>
+      <c r="A170" s="158"/>
     </row>
     <row r="171">
-      <c r="A171" s="164"/>
+      <c r="A171" s="158"/>
     </row>
     <row r="172">
-      <c r="A172" s="164"/>
+      <c r="A172" s="158"/>
     </row>
     <row r="173">
-      <c r="A173" s="164"/>
+      <c r="A173" s="158"/>
     </row>
     <row r="174">
-      <c r="A174" s="164"/>
+      <c r="A174" s="158"/>
     </row>
     <row r="175">
-      <c r="A175" s="164"/>
+      <c r="A175" s="158"/>
     </row>
     <row r="176">
-      <c r="A176" s="164"/>
+      <c r="A176" s="158"/>
     </row>
     <row r="177">
-      <c r="A177" s="164"/>
+      <c r="A177" s="158"/>
     </row>
     <row r="178">
-      <c r="A178" s="164"/>
+      <c r="A178" s="158"/>
     </row>
     <row r="179">
-      <c r="A179" s="164"/>
+      <c r="A179" s="158"/>
     </row>
     <row r="180">
-      <c r="A180" s="164"/>
+      <c r="A180" s="158"/>
     </row>
     <row r="181">
-      <c r="A181" s="164"/>
+      <c r="A181" s="158"/>
     </row>
     <row r="182">
-      <c r="A182" s="164"/>
+      <c r="A182" s="158"/>
     </row>
     <row r="183">
-      <c r="A183" s="164"/>
+      <c r="A183" s="158"/>
     </row>
     <row r="184">
-      <c r="A184" s="164"/>
+      <c r="A184" s="158"/>
     </row>
     <row r="185">
-      <c r="A185" s="164"/>
+      <c r="A185" s="158"/>
     </row>
     <row r="186">
-      <c r="A186" s="164"/>
+      <c r="A186" s="158"/>
     </row>
     <row r="187">
-      <c r="A187" s="164"/>
+      <c r="A187" s="158"/>
     </row>
     <row r="188">
-      <c r="A188" s="164"/>
+      <c r="A188" s="158"/>
     </row>
     <row r="189">
-      <c r="A189" s="164"/>
+      <c r="A189" s="158"/>
     </row>
     <row r="190">
-      <c r="A190" s="164"/>
+      <c r="A190" s="158"/>
     </row>
     <row r="191">
-      <c r="A191" s="164"/>
+      <c r="A191" s="158"/>
     </row>
     <row r="192">
-      <c r="A192" s="164"/>
+      <c r="A192" s="158"/>
     </row>
     <row r="193">
-      <c r="A193" s="164"/>
+      <c r="A193" s="158"/>
     </row>
     <row r="194">
-      <c r="A194" s="164"/>
+      <c r="A194" s="158"/>
     </row>
     <row r="195">
-      <c r="A195" s="164"/>
+      <c r="A195" s="158"/>
     </row>
     <row r="196">
-      <c r="A196" s="164"/>
+      <c r="A196" s="158"/>
     </row>
     <row r="197">
-      <c r="A197" s="164"/>
+      <c r="A197" s="158"/>
     </row>
     <row r="198">
-      <c r="A198" s="164"/>
+      <c r="A198" s="158"/>
     </row>
     <row r="199">
-      <c r="A199" s="164"/>
+      <c r="A199" s="158"/>
     </row>
     <row r="200">
-      <c r="A200" s="164"/>
+      <c r="A200" s="158"/>
     </row>
     <row r="201">
-      <c r="A201" s="164"/>
+      <c r="A201" s="158"/>
     </row>
     <row r="202">
-      <c r="A202" s="164"/>
+      <c r="A202" s="158"/>
     </row>
     <row r="203">
-      <c r="A203" s="164"/>
+      <c r="A203" s="158"/>
     </row>
     <row r="204">
-      <c r="A204" s="164"/>
+      <c r="A204" s="158"/>
     </row>
     <row r="205">
-      <c r="A205" s="164"/>
+      <c r="A205" s="158"/>
     </row>
     <row r="206">
-      <c r="A206" s="164"/>
+      <c r="A206" s="158"/>
     </row>
     <row r="207">
-      <c r="A207" s="164"/>
+      <c r="A207" s="158"/>
     </row>
     <row r="208">
-      <c r="A208" s="164"/>
+      <c r="A208" s="158"/>
     </row>
     <row r="209">
-      <c r="A209" s="164"/>
+      <c r="A209" s="158"/>
     </row>
     <row r="210">
-      <c r="A210" s="164"/>
+      <c r="A210" s="158"/>
     </row>
     <row r="211">
-      <c r="A211" s="164"/>
+      <c r="A211" s="158"/>
     </row>
     <row r="212">
-      <c r="A212" s="164"/>
+      <c r="A212" s="158"/>
     </row>
     <row r="213">
-      <c r="A213" s="164"/>
+      <c r="A213" s="158"/>
     </row>
     <row r="214">
-      <c r="A214" s="164"/>
+      <c r="A214" s="158"/>
     </row>
     <row r="215">
-      <c r="A215" s="164"/>
+      <c r="A215" s="158"/>
     </row>
     <row r="216">
-      <c r="A216" s="164"/>
+      <c r="A216" s="158"/>
     </row>
     <row r="217">
-      <c r="A217" s="164"/>
+      <c r="A217" s="158"/>
     </row>
     <row r="218">
-      <c r="A218" s="164"/>
+      <c r="A218" s="158"/>
     </row>
     <row r="219">
-      <c r="A219" s="164"/>
+      <c r="A219" s="158"/>
     </row>
     <row r="220">
-      <c r="A220" s="164"/>
+      <c r="A220" s="158"/>
     </row>
     <row r="221">
-      <c r="A221" s="164"/>
+      <c r="A221" s="158"/>
     </row>
     <row r="222">
-      <c r="A222" s="164"/>
+      <c r="A222" s="158"/>
     </row>
     <row r="223">
-      <c r="A223" s="164"/>
+      <c r="A223" s="158"/>
     </row>
     <row r="224">
-      <c r="A224" s="164"/>
+      <c r="A224" s="158"/>
     </row>
     <row r="225">
-      <c r="A225" s="164"/>
+      <c r="A225" s="158"/>
     </row>
     <row r="226">
-      <c r="A226" s="164"/>
+      <c r="A226" s="158"/>
     </row>
     <row r="227">
-      <c r="A227" s="164"/>
+      <c r="A227" s="158"/>
     </row>
     <row r="228">
-      <c r="A228" s="164"/>
+      <c r="A228" s="158"/>
     </row>
     <row r="229">
-      <c r="A229" s="164"/>
+      <c r="A229" s="158"/>
     </row>
     <row r="230">
-      <c r="A230" s="164"/>
+      <c r="A230" s="158"/>
     </row>
     <row r="231">
-      <c r="A231" s="164"/>
+      <c r="A231" s="158"/>
     </row>
     <row r="232">
-      <c r="A232" s="164"/>
+      <c r="A232" s="158"/>
     </row>
     <row r="233">
-      <c r="A233" s="164"/>
+      <c r="A233" s="158"/>
     </row>
     <row r="234">
-      <c r="A234" s="164"/>
+      <c r="A234" s="158"/>
     </row>
     <row r="235">
-      <c r="A235" s="164"/>
+      <c r="A235" s="158"/>
     </row>
     <row r="236">
-      <c r="A236" s="164"/>
+      <c r="A236" s="158"/>
     </row>
     <row r="237">
-      <c r="A237" s="164"/>
+      <c r="A237" s="158"/>
     </row>
     <row r="238">
-      <c r="A238" s="164"/>
+      <c r="A238" s="158"/>
     </row>
     <row r="239">
-      <c r="A239" s="164"/>
+      <c r="A239" s="158"/>
     </row>
     <row r="240">
-      <c r="A240" s="164"/>
+      <c r="A240" s="158"/>
     </row>
     <row r="241">
-      <c r="A241" s="164"/>
+      <c r="A241" s="158"/>
     </row>
     <row r="242">
-      <c r="A242" s="164"/>
+      <c r="A242" s="158"/>
     </row>
     <row r="243">
-      <c r="A243" s="164"/>
+      <c r="A243" s="158"/>
     </row>
     <row r="244">
-      <c r="A244" s="164"/>
+      <c r="A244" s="158"/>
     </row>
     <row r="245">
-      <c r="A245" s="164"/>
+      <c r="A245" s="158"/>
     </row>
     <row r="246">
-      <c r="A246" s="164"/>
+      <c r="A246" s="158"/>
     </row>
     <row r="247">
-      <c r="A247" s="164"/>
+      <c r="A247" s="158"/>
     </row>
     <row r="248">
-      <c r="A248" s="164"/>
+      <c r="A248" s="158"/>
     </row>
     <row r="249">
-      <c r="A249" s="164"/>
+      <c r="A249" s="158"/>
     </row>
     <row r="250">
-      <c r="A250" s="164"/>
+      <c r="A250" s="158"/>
     </row>
     <row r="251">
-      <c r="A251" s="164"/>
+      <c r="A251" s="158"/>
     </row>
     <row r="252">
-      <c r="A252" s="164"/>
+      <c r="A252" s="158"/>
     </row>
     <row r="253">
-      <c r="A253" s="164"/>
+      <c r="A253" s="158"/>
     </row>
     <row r="254">
-      <c r="A254" s="164"/>
+      <c r="A254" s="158"/>
     </row>
     <row r="255">
-      <c r="A255" s="164"/>
+      <c r="A255" s="158"/>
     </row>
     <row r="256">
-      <c r="A256" s="164"/>
+      <c r="A256" s="158"/>
     </row>
     <row r="257">
-      <c r="A257" s="164"/>
+      <c r="A257" s="158"/>
     </row>
     <row r="258">
-      <c r="A258" s="164"/>
+      <c r="A258" s="158"/>
     </row>
     <row r="259">
-      <c r="A259" s="164"/>
+      <c r="A259" s="158"/>
     </row>
     <row r="260">
-      <c r="A260" s="164"/>
+      <c r="A260" s="158"/>
     </row>
     <row r="261">
-      <c r="A261" s="164"/>
+      <c r="A261" s="158"/>
     </row>
     <row r="262">
-      <c r="A262" s="164"/>
+      <c r="A262" s="158"/>
     </row>
     <row r="263">
-      <c r="A263" s="164"/>
+      <c r="A263" s="158"/>
     </row>
     <row r="264">
-      <c r="A264" s="164"/>
+      <c r="A264" s="158"/>
     </row>
     <row r="265">
-      <c r="A265" s="164"/>
+      <c r="A265" s="158"/>
     </row>
     <row r="266">
-      <c r="A266" s="164"/>
+      <c r="A266" s="158"/>
     </row>
     <row r="267">
-      <c r="A267" s="164"/>
+      <c r="A267" s="158"/>
     </row>
     <row r="268">
-      <c r="A268" s="164"/>
+      <c r="A268" s="158"/>
     </row>
     <row r="269">
-      <c r="A269" s="164"/>
+      <c r="A269" s="158"/>
     </row>
     <row r="270">
-      <c r="A270" s="164"/>
+      <c r="A270" s="158"/>
     </row>
     <row r="271">
-      <c r="A271" s="164"/>
+      <c r="A271" s="158"/>
     </row>
     <row r="272">
-      <c r="A272" s="164"/>
+      <c r="A272" s="158"/>
     </row>
     <row r="273">
-      <c r="A273" s="164"/>
+      <c r="A273" s="158"/>
     </row>
     <row r="274">
-      <c r="A274" s="164"/>
+      <c r="A274" s="158"/>
     </row>
     <row r="275">
-      <c r="A275" s="164"/>
+      <c r="A275" s="158"/>
     </row>
     <row r="276">
-      <c r="A276" s="164"/>
+      <c r="A276" s="158"/>
     </row>
     <row r="277">
-      <c r="A277" s="164"/>
+      <c r="A277" s="158"/>
     </row>
     <row r="278">
-      <c r="A278" s="164"/>
+      <c r="A278" s="158"/>
     </row>
     <row r="279">
-      <c r="A279" s="164"/>
+      <c r="A279" s="158"/>
     </row>
     <row r="280">
-      <c r="A280" s="164"/>
+      <c r="A280" s="158"/>
     </row>
     <row r="281">
-      <c r="A281" s="164"/>
+      <c r="A281" s="158"/>
     </row>
     <row r="282">
-      <c r="A282" s="164"/>
+      <c r="A282" s="158"/>
     </row>
     <row r="283">
-      <c r="A283" s="164"/>
+      <c r="A283" s="158"/>
     </row>
     <row r="284">
-      <c r="A284" s="164"/>
+      <c r="A284" s="158"/>
     </row>
     <row r="285">
-      <c r="A285" s="164"/>
+      <c r="A285" s="158"/>
     </row>
     <row r="286">
-      <c r="A286" s="164"/>
+      <c r="A286" s="158"/>
     </row>
     <row r="287">
-      <c r="A287" s="164"/>
+      <c r="A287" s="158"/>
     </row>
     <row r="288">
-      <c r="A288" s="164"/>
+      <c r="A288" s="158"/>
     </row>
     <row r="289">
-      <c r="A289" s="164"/>
+      <c r="A289" s="158"/>
     </row>
     <row r="290">
-      <c r="A290" s="164"/>
+      <c r="A290" s="158"/>
     </row>
     <row r="291">
-      <c r="A291" s="164"/>
+      <c r="A291" s="158"/>
     </row>
     <row r="292">
-      <c r="A292" s="164"/>
+      <c r="A292" s="158"/>
     </row>
     <row r="293">
-      <c r="A293" s="164"/>
+      <c r="A293" s="158"/>
     </row>
     <row r="294">
-      <c r="A294" s="164"/>
+      <c r="A294" s="158"/>
     </row>
     <row r="295">
-      <c r="A295" s="164"/>
+      <c r="A295" s="158"/>
     </row>
     <row r="296">
-      <c r="A296" s="164"/>
+      <c r="A296" s="158"/>
     </row>
     <row r="297">
-      <c r="A297" s="164"/>
+      <c r="A297" s="158"/>
     </row>
     <row r="298">
-      <c r="A298" s="164"/>
+      <c r="A298" s="158"/>
     </row>
     <row r="299">
-      <c r="A299" s="164"/>
+      <c r="A299" s="158"/>
     </row>
     <row r="300">
-      <c r="A300" s="164"/>
+      <c r="A300" s="158"/>
     </row>
     <row r="301">
-      <c r="A301" s="164"/>
+      <c r="A301" s="158"/>
     </row>
     <row r="302">
-      <c r="A302" s="164"/>
+      <c r="A302" s="158"/>
     </row>
     <row r="303">
-      <c r="A303" s="164"/>
+      <c r="A303" s="158"/>
     </row>
     <row r="304">
-      <c r="A304" s="164"/>
+      <c r="A304" s="158"/>
     </row>
     <row r="305">
-      <c r="A305" s="164"/>
+      <c r="A305" s="158"/>
     </row>
     <row r="306">
-      <c r="A306" s="164"/>
+      <c r="A306" s="158"/>
     </row>
     <row r="307">
-      <c r="A307" s="164"/>
+      <c r="A307" s="158"/>
     </row>
     <row r="308">
-      <c r="A308" s="164"/>
+      <c r="A308" s="158"/>
     </row>
     <row r="309">
-      <c r="A309" s="164"/>
+      <c r="A309" s="158"/>
     </row>
     <row r="310">
-      <c r="A310" s="164"/>
+      <c r="A310" s="158"/>
     </row>
     <row r="311">
-      <c r="A311" s="164"/>
+      <c r="A311" s="158"/>
     </row>
     <row r="312">
-      <c r="A312" s="164"/>
+      <c r="A312" s="158"/>
     </row>
     <row r="313">
-      <c r="A313" s="164"/>
+      <c r="A313" s="158"/>
     </row>
     <row r="314">
-      <c r="A314" s="164"/>
+      <c r="A314" s="158"/>
     </row>
     <row r="315">
-      <c r="A315" s="164"/>
+      <c r="A315" s="158"/>
     </row>
     <row r="316">
-      <c r="A316" s="164"/>
+      <c r="A316" s="158"/>
     </row>
     <row r="317">
-      <c r="A317" s="164"/>
+      <c r="A317" s="158"/>
     </row>
     <row r="318">
-      <c r="A318" s="164"/>
+      <c r="A318" s="158"/>
     </row>
     <row r="319">
-      <c r="A319" s="164"/>
+      <c r="A319" s="158"/>
     </row>
     <row r="320">
-      <c r="A320" s="164"/>
+      <c r="A320" s="158"/>
     </row>
     <row r="321">
-      <c r="A321" s="164"/>
+      <c r="A321" s="158"/>
     </row>
     <row r="322">
-      <c r="A322" s="164"/>
+      <c r="A322" s="158"/>
     </row>
     <row r="323">
-      <c r="A323" s="164"/>
+      <c r="A323" s="158"/>
     </row>
     <row r="324">
-      <c r="A324" s="164"/>
+      <c r="A324" s="158"/>
     </row>
     <row r="325">
-      <c r="A325" s="164"/>
+      <c r="A325" s="158"/>
     </row>
     <row r="326">
-      <c r="A326" s="164"/>
+      <c r="A326" s="158"/>
     </row>
     <row r="327">
-      <c r="A327" s="164"/>
+      <c r="A327" s="158"/>
     </row>
     <row r="328">
-      <c r="A328" s="164"/>
+      <c r="A328" s="158"/>
     </row>
     <row r="329">
-      <c r="A329" s="164"/>
+      <c r="A329" s="158"/>
     </row>
     <row r="330">
-      <c r="A330" s="164"/>
+      <c r="A330" s="158"/>
     </row>
     <row r="331">
-      <c r="A331" s="164"/>
+      <c r="A331" s="158"/>
     </row>
     <row r="332">
-      <c r="A332" s="164"/>
+      <c r="A332" s="158"/>
     </row>
     <row r="333">
-      <c r="A333" s="164"/>
+      <c r="A333" s="158"/>
     </row>
     <row r="334">
-      <c r="A334" s="164"/>
+      <c r="A334" s="158"/>
     </row>
     <row r="335">
-      <c r="A335" s="164"/>
+      <c r="A335" s="158"/>
     </row>
     <row r="336">
-      <c r="A336" s="164"/>
+      <c r="A336" s="158"/>
     </row>
     <row r="337">
-      <c r="A337" s="164"/>
+      <c r="A337" s="158"/>
     </row>
     <row r="338">
-      <c r="A338" s="164"/>
+      <c r="A338" s="158"/>
     </row>
     <row r="339">
-      <c r="A339" s="164"/>
+      <c r="A339" s="158"/>
     </row>
     <row r="340">
-      <c r="A340" s="164"/>
+      <c r="A340" s="158"/>
     </row>
     <row r="341">
-      <c r="A341" s="164"/>
+      <c r="A341" s="158"/>
     </row>
     <row r="342">
-      <c r="A342" s="164"/>
+      <c r="A342" s="158"/>
     </row>
     <row r="343">
-      <c r="A343" s="164"/>
+      <c r="A343" s="158"/>
     </row>
     <row r="344">
-      <c r="A344" s="164"/>
+      <c r="A344" s="158"/>
     </row>
     <row r="345">
-      <c r="A345" s="164"/>
+      <c r="A345" s="158"/>
     </row>
     <row r="346">
-      <c r="A346" s="164"/>
+      <c r="A346" s="158"/>
     </row>
     <row r="347">
-      <c r="A347" s="164"/>
+      <c r="A347" s="158"/>
     </row>
     <row r="348">
-      <c r="A348" s="164"/>
+      <c r="A348" s="158"/>
     </row>
     <row r="349">
-      <c r="A349" s="164"/>
+      <c r="A349" s="158"/>
     </row>
     <row r="350">
-      <c r="A350" s="164"/>
+      <c r="A350" s="158"/>
     </row>
     <row r="351">
-      <c r="A351" s="164"/>
+      <c r="A351" s="158"/>
     </row>
     <row r="352">
-      <c r="A352" s="164"/>
+      <c r="A352" s="158"/>
     </row>
     <row r="353">
-      <c r="A353" s="164"/>
+      <c r="A353" s="158"/>
     </row>
     <row r="354">
-      <c r="A354" s="164"/>
+      <c r="A354" s="158"/>
     </row>
     <row r="355">
-      <c r="A355" s="164"/>
+      <c r="A355" s="158"/>
     </row>
     <row r="356">
-      <c r="A356" s="164"/>
+      <c r="A356" s="158"/>
     </row>
     <row r="357">
-      <c r="A357" s="164"/>
+      <c r="A357" s="158"/>
     </row>
     <row r="358">
-      <c r="A358" s="164"/>
+      <c r="A358" s="158"/>
     </row>
     <row r="359">
-      <c r="A359" s="164"/>
+      <c r="A359" s="158"/>
     </row>
     <row r="360">
-      <c r="A360" s="164"/>
+      <c r="A360" s="158"/>
     </row>
     <row r="361">
-      <c r="A361" s="164"/>
+      <c r="A361" s="158"/>
     </row>
     <row r="362">
-      <c r="A362" s="164"/>
+      <c r="A362" s="158"/>
     </row>
     <row r="363">
-      <c r="A363" s="164"/>
+      <c r="A363" s="158"/>
     </row>
     <row r="364">
-      <c r="A364" s="164"/>
+      <c r="A364" s="158"/>
     </row>
     <row r="365">
-      <c r="A365" s="164"/>
+      <c r="A365" s="158"/>
     </row>
     <row r="366">
-      <c r="A366" s="164"/>
+      <c r="A366" s="158"/>
     </row>
     <row r="367">
-      <c r="A367" s="164"/>
+      <c r="A367" s="158"/>
     </row>
     <row r="368">
-      <c r="A368" s="164"/>
+      <c r="A368" s="158"/>
     </row>
     <row r="369">
-      <c r="A369" s="164"/>
+      <c r="A369" s="158"/>
     </row>
     <row r="370">
-      <c r="A370" s="164"/>
+      <c r="A370" s="158"/>
     </row>
     <row r="371">
-      <c r="A371" s="164"/>
+      <c r="A371" s="158"/>
     </row>
     <row r="372">
-      <c r="A372" s="164"/>
+      <c r="A372" s="158"/>
     </row>
     <row r="373">
-      <c r="A373" s="164"/>
+      <c r="A373" s="158"/>
     </row>
     <row r="374">
-      <c r="A374" s="164"/>
+      <c r="A374" s="158"/>
     </row>
     <row r="375">
-      <c r="A375" s="164"/>
+      <c r="A375" s="158"/>
     </row>
     <row r="376">
-      <c r="A376" s="164"/>
+      <c r="A376" s="158"/>
     </row>
     <row r="377">
-      <c r="A377" s="164"/>
+      <c r="A377" s="158"/>
     </row>
     <row r="378">
-      <c r="A378" s="164"/>
+      <c r="A378" s="158"/>
     </row>
     <row r="379">
-      <c r="A379" s="164"/>
+      <c r="A379" s="158"/>
     </row>
     <row r="380">
-      <c r="A380" s="164"/>
+      <c r="A380" s="158"/>
     </row>
     <row r="381">
-      <c r="A381" s="164"/>
+      <c r="A381" s="158"/>
     </row>
     <row r="382">
-      <c r="A382" s="164"/>
+      <c r="A382" s="158"/>
     </row>
     <row r="383">
-      <c r="A383" s="164"/>
+      <c r="A383" s="158"/>
     </row>
     <row r="384">
-      <c r="A384" s="164"/>
+      <c r="A384" s="158"/>
     </row>
     <row r="385">
-      <c r="A385" s="164"/>
+      <c r="A385" s="158"/>
     </row>
     <row r="386">
-      <c r="A386" s="164"/>
+      <c r="A386" s="158"/>
     </row>
     <row r="387">
-      <c r="A387" s="164"/>
+      <c r="A387" s="158"/>
     </row>
     <row r="388">
-      <c r="A388" s="164"/>
+      <c r="A388" s="158"/>
     </row>
     <row r="389">
-      <c r="A389" s="164"/>
+      <c r="A389" s="158"/>
     </row>
     <row r="390">
-      <c r="A390" s="164"/>
+      <c r="A390" s="158"/>
     </row>
     <row r="391">
-      <c r="A391" s="164"/>
+      <c r="A391" s="158"/>
     </row>
     <row r="392">
-      <c r="A392" s="164"/>
+      <c r="A392" s="158"/>
     </row>
     <row r="393">
-      <c r="A393" s="164"/>
+      <c r="A393" s="158"/>
     </row>
     <row r="394">
-      <c r="A394" s="164"/>
+      <c r="A394" s="158"/>
     </row>
     <row r="395">
-      <c r="A395" s="164"/>
+      <c r="A395" s="158"/>
     </row>
     <row r="396">
-      <c r="A396" s="164"/>
+      <c r="A396" s="158"/>
     </row>
     <row r="397">
-      <c r="A397" s="164"/>
+      <c r="A397" s="158"/>
     </row>
     <row r="398">
-      <c r="A398" s="164"/>
+      <c r="A398" s="158"/>
     </row>
     <row r="399">
-      <c r="A399" s="164"/>
+      <c r="A399" s="158"/>
     </row>
     <row r="400">
-      <c r="A400" s="164"/>
+      <c r="A400" s="158"/>
     </row>
     <row r="401">
-      <c r="A401" s="164"/>
+      <c r="A401" s="158"/>
     </row>
     <row r="402">
-      <c r="A402" s="164"/>
+      <c r="A402" s="158"/>
     </row>
     <row r="403">
-      <c r="A403" s="164"/>
+      <c r="A403" s="158"/>
     </row>
     <row r="404">
-      <c r="A404" s="164"/>
+      <c r="A404" s="158"/>
     </row>
     <row r="405">
-      <c r="A405" s="164"/>
+      <c r="A405" s="158"/>
     </row>
     <row r="406">
-      <c r="A406" s="164"/>
+      <c r="A406" s="158"/>
     </row>
     <row r="407">
-      <c r="A407" s="164"/>
+      <c r="A407" s="158"/>
     </row>
     <row r="408">
-      <c r="A408" s="164"/>
+      <c r="A408" s="158"/>
     </row>
     <row r="409">
-      <c r="A409" s="164"/>
+      <c r="A409" s="158"/>
     </row>
     <row r="410">
-      <c r="A410" s="164"/>
+      <c r="A410" s="158"/>
     </row>
     <row r="411">
-      <c r="A411" s="164"/>
+      <c r="A411" s="158"/>
     </row>
     <row r="412">
-      <c r="A412" s="164"/>
+      <c r="A412" s="158"/>
     </row>
     <row r="413">
-      <c r="A413" s="164"/>
+      <c r="A413" s="158"/>
     </row>
     <row r="414">
-      <c r="A414" s="164"/>
+      <c r="A414" s="158"/>
     </row>
     <row r="415">
-      <c r="A415" s="164"/>
+      <c r="A415" s="158"/>
     </row>
     <row r="416">
-      <c r="A416" s="164"/>
+      <c r="A416" s="158"/>
     </row>
     <row r="417">
-      <c r="A417" s="164"/>
+      <c r="A417" s="158"/>
     </row>
     <row r="418">
-      <c r="A418" s="164"/>
+      <c r="A418" s="158"/>
     </row>
     <row r="419">
-      <c r="A419" s="164"/>
+      <c r="A419" s="158"/>
     </row>
     <row r="420">
-      <c r="A420" s="164"/>
+      <c r="A420" s="158"/>
     </row>
     <row r="421">
-      <c r="A421" s="164"/>
+      <c r="A421" s="158"/>
     </row>
     <row r="422">
-      <c r="A422" s="164"/>
+      <c r="A422" s="158"/>
     </row>
     <row r="423">
-      <c r="A423" s="164"/>
+      <c r="A423" s="158"/>
     </row>
     <row r="424">
-      <c r="A424" s="164"/>
+      <c r="A424" s="158"/>
     </row>
     <row r="425">
-      <c r="A425" s="164"/>
+      <c r="A425" s="158"/>
     </row>
     <row r="426">
-      <c r="A426" s="164"/>
+      <c r="A426" s="158"/>
     </row>
     <row r="427">
-      <c r="A427" s="164"/>
+      <c r="A427" s="158"/>
     </row>
     <row r="428">
-      <c r="A428" s="164"/>
+      <c r="A428" s="158"/>
     </row>
     <row r="429">
-      <c r="A429" s="164"/>
+      <c r="A429" s="158"/>
     </row>
     <row r="430">
-      <c r="A430" s="164"/>
+      <c r="A430" s="158"/>
     </row>
     <row r="431">
-      <c r="A431" s="164"/>
+      <c r="A431" s="158"/>
     </row>
     <row r="432">
-      <c r="A432" s="164"/>
+      <c r="A432" s="158"/>
     </row>
     <row r="433">
-      <c r="A433" s="164"/>
+      <c r="A433" s="158"/>
     </row>
     <row r="434">
-      <c r="A434" s="164"/>
+      <c r="A434" s="158"/>
     </row>
     <row r="435">
-      <c r="A435" s="164"/>
+      <c r="A435" s="158"/>
     </row>
     <row r="436">
-      <c r="A436" s="164"/>
+      <c r="A436" s="158"/>
     </row>
     <row r="437">
-      <c r="A437" s="164"/>
+      <c r="A437" s="158"/>
     </row>
     <row r="438">
-      <c r="A438" s="164"/>
+      <c r="A438" s="158"/>
     </row>
     <row r="439">
-      <c r="A439" s="164"/>
+      <c r="A439" s="158"/>
     </row>
     <row r="440">
-      <c r="A440" s="164"/>
+      <c r="A440" s="158"/>
     </row>
     <row r="441">
-      <c r="A441" s="164"/>
+      <c r="A441" s="158"/>
     </row>
     <row r="442">
-      <c r="A442" s="164"/>
+      <c r="A442" s="158"/>
     </row>
     <row r="443">
-      <c r="A443" s="164"/>
+      <c r="A443" s="158"/>
     </row>
     <row r="444">
-      <c r="A444" s="164"/>
+      <c r="A444" s="158"/>
     </row>
     <row r="445">
-      <c r="A445" s="164"/>
+      <c r="A445" s="158"/>
     </row>
     <row r="446">
-      <c r="A446" s="164"/>
+      <c r="A446" s="158"/>
     </row>
     <row r="447">
-      <c r="A447" s="164"/>
+      <c r="A447" s="158"/>
     </row>
     <row r="448">
-      <c r="A448" s="164"/>
+      <c r="A448" s="158"/>
     </row>
     <row r="449">
-      <c r="A449" s="164"/>
+      <c r="A449" s="158"/>
     </row>
     <row r="450">
-      <c r="A450" s="164"/>
+      <c r="A450" s="158"/>
     </row>
     <row r="451">
-      <c r="A451" s="164"/>
+      <c r="A451" s="158"/>
     </row>
     <row r="452">
-      <c r="A452" s="164"/>
+      <c r="A452" s="158"/>
     </row>
     <row r="453">
-      <c r="A453" s="164"/>
+      <c r="A453" s="158"/>
     </row>
     <row r="454">
-      <c r="A454" s="164"/>
+      <c r="A454" s="158"/>
     </row>
     <row r="455">
-      <c r="A455" s="164"/>
+      <c r="A455" s="158"/>
     </row>
     <row r="456">
-      <c r="A456" s="164"/>
+      <c r="A456" s="158"/>
     </row>
     <row r="457">
-      <c r="A457" s="164"/>
+      <c r="A457" s="158"/>
     </row>
     <row r="458">
-      <c r="A458" s="164"/>
+      <c r="A458" s="158"/>
     </row>
     <row r="459">
-      <c r="A459" s="164"/>
+      <c r="A459" s="158"/>
     </row>
     <row r="460">
-      <c r="A460" s="164"/>
+      <c r="A460" s="158"/>
     </row>
     <row r="461">
-      <c r="A461" s="164"/>
+      <c r="A461" s="158"/>
     </row>
     <row r="462">
-      <c r="A462" s="164"/>
+      <c r="A462" s="158"/>
     </row>
     <row r="463">
-      <c r="A463" s="164"/>
+      <c r="A463" s="158"/>
     </row>
     <row r="464">
-      <c r="A464" s="164"/>
+      <c r="A464" s="158"/>
     </row>
     <row r="465">
-      <c r="A465" s="164"/>
+      <c r="A465" s="158"/>
     </row>
     <row r="466">
-      <c r="A466" s="164"/>
+      <c r="A466" s="158"/>
     </row>
     <row r="467">
-      <c r="A467" s="164"/>
+      <c r="A467" s="158"/>
     </row>
     <row r="468">
-      <c r="A468" s="164"/>
+      <c r="A468" s="158"/>
     </row>
     <row r="469">
-      <c r="A469" s="164"/>
+      <c r="A469" s="158"/>
     </row>
     <row r="470">
-      <c r="A470" s="164"/>
+      <c r="A470" s="158"/>
     </row>
     <row r="471">
-      <c r="A471" s="164"/>
+      <c r="A471" s="158"/>
     </row>
     <row r="472">
-      <c r="A472" s="164"/>
+      <c r="A472" s="158"/>
     </row>
     <row r="473">
-      <c r="A473" s="164"/>
+      <c r="A473" s="158"/>
     </row>
     <row r="474">
-      <c r="A474" s="164"/>
+      <c r="A474" s="158"/>
     </row>
     <row r="475">
-      <c r="A475" s="164"/>
+      <c r="A475" s="158"/>
     </row>
     <row r="476">
-      <c r="A476" s="164"/>
+      <c r="A476" s="158"/>
     </row>
     <row r="477">
-      <c r="A477" s="164"/>
+      <c r="A477" s="158"/>
     </row>
     <row r="478">
-      <c r="A478" s="164"/>
+      <c r="A478" s="158"/>
     </row>
     <row r="479">
-      <c r="A479" s="164"/>
+      <c r="A479" s="158"/>
     </row>
     <row r="480">
-      <c r="A480" s="164"/>
+      <c r="A480" s="158"/>
     </row>
     <row r="481">
-      <c r="A481" s="164"/>
+      <c r="A481" s="158"/>
     </row>
     <row r="482">
-      <c r="A482" s="164"/>
+      <c r="A482" s="158"/>
     </row>
     <row r="483">
-      <c r="A483" s="164"/>
+      <c r="A483" s="158"/>
     </row>
     <row r="484">
-      <c r="A484" s="164"/>
+      <c r="A484" s="158"/>
     </row>
     <row r="485">
-      <c r="A485" s="164"/>
+      <c r="A485" s="158"/>
     </row>
     <row r="486">
-      <c r="A486" s="164"/>
+      <c r="A486" s="158"/>
     </row>
     <row r="487">
-      <c r="A487" s="164"/>
+      <c r="A487" s="158"/>
     </row>
     <row r="488">
-      <c r="A488" s="164"/>
+      <c r="A488" s="158"/>
     </row>
     <row r="489">
-      <c r="A489" s="164"/>
+      <c r="A489" s="158"/>
     </row>
     <row r="490">
-      <c r="A490" s="164"/>
+      <c r="A490" s="158"/>
     </row>
     <row r="491">
-      <c r="A491" s="164"/>
+      <c r="A491" s="158"/>
     </row>
     <row r="492">
-      <c r="A492" s="164"/>
+      <c r="A492" s="158"/>
     </row>
     <row r="493">
-      <c r="A493" s="164"/>
+      <c r="A493" s="158"/>
     </row>
     <row r="494">
-      <c r="A494" s="164"/>
+      <c r="A494" s="158"/>
     </row>
     <row r="495">
-      <c r="A495" s="164"/>
+      <c r="A495" s="158"/>
     </row>
     <row r="496">
-      <c r="A496" s="164"/>
+      <c r="A496" s="158"/>
     </row>
     <row r="497">
-      <c r="A497" s="164"/>
+      <c r="A497" s="158"/>
     </row>
     <row r="498">
-      <c r="A498" s="164"/>
+      <c r="A498" s="158"/>
     </row>
     <row r="499">
-      <c r="A499" s="164"/>
+      <c r="A499" s="158"/>
     </row>
     <row r="500">
-      <c r="A500" s="164"/>
+      <c r="A500" s="158"/>
     </row>
     <row r="501">
-      <c r="A501" s="164"/>
+      <c r="A501" s="158"/>
     </row>
     <row r="502">
-      <c r="A502" s="164"/>
+      <c r="A502" s="158"/>
     </row>
     <row r="503">
-      <c r="A503" s="164"/>
+      <c r="A503" s="158"/>
     </row>
     <row r="504">
-      <c r="A504" s="164"/>
+      <c r="A504" s="158"/>
     </row>
     <row r="505">
-      <c r="A505" s="164"/>
+      <c r="A505" s="158"/>
     </row>
     <row r="506">
-      <c r="A506" s="164"/>
+      <c r="A506" s="158"/>
     </row>
     <row r="507">
-      <c r="A507" s="164"/>
+      <c r="A507" s="158"/>
     </row>
     <row r="508">
-      <c r="A508" s="164"/>
+      <c r="A508" s="158"/>
     </row>
     <row r="509">
-      <c r="A509" s="164"/>
+      <c r="A509" s="158"/>
     </row>
     <row r="510">
-      <c r="A510" s="164"/>
+      <c r="A510" s="158"/>
     </row>
     <row r="511">
-      <c r="A511" s="164"/>
+      <c r="A511" s="158"/>
     </row>
     <row r="512">
-      <c r="A512" s="164"/>
+      <c r="A512" s="158"/>
     </row>
     <row r="513">
-      <c r="A513" s="164"/>
+      <c r="A513" s="158"/>
     </row>
     <row r="514">
-      <c r="A514" s="164"/>
+      <c r="A514" s="158"/>
     </row>
     <row r="515">
-      <c r="A515" s="164"/>
+      <c r="A515" s="158"/>
     </row>
     <row r="516">
-      <c r="A516" s="164"/>
+      <c r="A516" s="158"/>
     </row>
     <row r="517">
-      <c r="A517" s="164"/>
+      <c r="A517" s="158"/>
     </row>
     <row r="518">
-      <c r="A518" s="164"/>
+      <c r="A518" s="158"/>
     </row>
     <row r="519">
-      <c r="A519" s="164"/>
+      <c r="A519" s="158"/>
     </row>
     <row r="520">
-      <c r="A520" s="164"/>
+      <c r="A520" s="158"/>
     </row>
     <row r="521">
-      <c r="A521" s="164"/>
+      <c r="A521" s="158"/>
     </row>
     <row r="522">
-      <c r="A522" s="164"/>
+      <c r="A522" s="158"/>
     </row>
     <row r="523">
-      <c r="A523" s="164"/>
+      <c r="A523" s="158"/>
     </row>
     <row r="524">
-      <c r="A524" s="164"/>
+      <c r="A524" s="158"/>
     </row>
     <row r="525">
-      <c r="A525" s="164"/>
+      <c r="A525" s="158"/>
     </row>
     <row r="526">
-      <c r="A526" s="164"/>
+      <c r="A526" s="158"/>
     </row>
     <row r="527">
-      <c r="A527" s="164"/>
+      <c r="A527" s="158"/>
     </row>
     <row r="528">
-      <c r="A528" s="164"/>
+      <c r="A528" s="158"/>
     </row>
     <row r="529">
-      <c r="A529" s="164"/>
+      <c r="A529" s="158"/>
     </row>
     <row r="530">
-      <c r="A530" s="164"/>
+      <c r="A530" s="158"/>
     </row>
     <row r="531">
-      <c r="A531" s="164"/>
+      <c r="A531" s="158"/>
     </row>
     <row r="532">
-      <c r="A532" s="164"/>
+      <c r="A532" s="158"/>
     </row>
     <row r="533">
-      <c r="A533" s="164"/>
+      <c r="A533" s="158"/>
     </row>
     <row r="534">
-      <c r="A534" s="164"/>
+      <c r="A534" s="158"/>
     </row>
     <row r="535">
-      <c r="A535" s="164"/>
+      <c r="A535" s="158"/>
     </row>
     <row r="536">
-      <c r="A536" s="164"/>
+      <c r="A536" s="158"/>
     </row>
     <row r="537">
-      <c r="A537" s="164"/>
+      <c r="A537" s="158"/>
     </row>
     <row r="538">
-      <c r="A538" s="164"/>
+      <c r="A538" s="158"/>
     </row>
     <row r="539">
-      <c r="A539" s="164"/>
+      <c r="A539" s="158"/>
     </row>
     <row r="540">
-      <c r="A540" s="164"/>
+      <c r="A540" s="158"/>
     </row>
     <row r="541">
-      <c r="A541" s="164"/>
+      <c r="A541" s="158"/>
     </row>
     <row r="542">
-      <c r="A542" s="164"/>
+      <c r="A542" s="158"/>
     </row>
     <row r="543">
-      <c r="A543" s="164"/>
+      <c r="A543" s="158"/>
     </row>
     <row r="544">
-      <c r="A544" s="164"/>
+      <c r="A544" s="158"/>
     </row>
     <row r="545">
-      <c r="A545" s="164"/>
+      <c r="A545" s="158"/>
     </row>
     <row r="546">
-      <c r="A546" s="164"/>
+      <c r="A546" s="158"/>
     </row>
     <row r="547">
-      <c r="A547" s="164"/>
+      <c r="A547" s="158"/>
     </row>
     <row r="548">
-      <c r="A548" s="164"/>
+      <c r="A548" s="158"/>
     </row>
     <row r="549">
-      <c r="A549" s="164"/>
+      <c r="A549" s="158"/>
     </row>
     <row r="550">
-      <c r="A550" s="164"/>
+      <c r="A550" s="158"/>
     </row>
     <row r="551">
-      <c r="A551" s="164"/>
+      <c r="A551" s="158"/>
     </row>
     <row r="552">
-      <c r="A552" s="164"/>
+      <c r="A552" s="158"/>
     </row>
     <row r="553">
-      <c r="A553" s="164"/>
+      <c r="A553" s="158"/>
     </row>
     <row r="554">
-      <c r="A554" s="164"/>
+      <c r="A554" s="158"/>
     </row>
     <row r="555">
-      <c r="A555" s="164"/>
+      <c r="A555" s="158"/>
     </row>
     <row r="556">
-      <c r="A556" s="164"/>
+      <c r="A556" s="158"/>
     </row>
     <row r="557">
-      <c r="A557" s="164"/>
+      <c r="A557" s="158"/>
     </row>
     <row r="558">
-      <c r="A558" s="164"/>
+      <c r="A558" s="158"/>
     </row>
     <row r="559">
-      <c r="A559" s="164"/>
+      <c r="A559" s="158"/>
     </row>
     <row r="560">
-      <c r="A560" s="164"/>
+      <c r="A560" s="158"/>
     </row>
     <row r="561">
-      <c r="A561" s="164"/>
+      <c r="A561" s="158"/>
     </row>
     <row r="562">
-      <c r="A562" s="164"/>
+      <c r="A562" s="158"/>
     </row>
     <row r="563">
-      <c r="A563" s="164"/>
+      <c r="A563" s="158"/>
     </row>
     <row r="564">
-      <c r="A564" s="164"/>
+      <c r="A564" s="158"/>
     </row>
     <row r="565">
-      <c r="A565" s="164"/>
+      <c r="A565" s="158"/>
     </row>
     <row r="566">
-      <c r="A566" s="164"/>
+      <c r="A566" s="158"/>
     </row>
     <row r="567">
-      <c r="A567" s="164"/>
+      <c r="A567" s="158"/>
     </row>
     <row r="568">
-      <c r="A568" s="164"/>
+      <c r="A568" s="158"/>
     </row>
     <row r="569">
-      <c r="A569" s="164"/>
+      <c r="A569" s="158"/>
     </row>
     <row r="570">
-      <c r="A570" s="164"/>
+      <c r="A570" s="158"/>
     </row>
     <row r="571">
-      <c r="A571" s="164"/>
+      <c r="A571" s="158"/>
     </row>
     <row r="572">
-      <c r="A572" s="164"/>
+      <c r="A572" s="158"/>
     </row>
     <row r="573">
-      <c r="A573" s="164"/>
+      <c r="A573" s="158"/>
     </row>
     <row r="574">
-      <c r="A574" s="164"/>
+      <c r="A574" s="158"/>
     </row>
     <row r="575">
-      <c r="A575" s="164"/>
+      <c r="A575" s="158"/>
     </row>
     <row r="576">
-      <c r="A576" s="164"/>
+      <c r="A576" s="158"/>
     </row>
     <row r="577">
-      <c r="A577" s="164"/>
+      <c r="A577" s="158"/>
     </row>
     <row r="578">
-      <c r="A578" s="164"/>
+      <c r="A578" s="158"/>
     </row>
     <row r="579">
-      <c r="A579" s="164"/>
+      <c r="A579" s="158"/>
     </row>
     <row r="580">
-      <c r="A580" s="164"/>
+      <c r="A580" s="158"/>
     </row>
     <row r="581">
-      <c r="A581" s="164"/>
+      <c r="A581" s="158"/>
     </row>
     <row r="582">
-      <c r="A582" s="164"/>
+      <c r="A582" s="158"/>
     </row>
     <row r="583">
-      <c r="A583" s="164"/>
+      <c r="A583" s="158"/>
     </row>
     <row r="584">
-      <c r="A584" s="164"/>
+      <c r="A584" s="158"/>
     </row>
     <row r="585">
-      <c r="A585" s="164"/>
+      <c r="A585" s="158"/>
     </row>
     <row r="586">
-      <c r="A586" s="164"/>
+      <c r="A586" s="158"/>
     </row>
     <row r="587">
-      <c r="A587" s="164"/>
+      <c r="A587" s="158"/>
     </row>
     <row r="588">
-      <c r="A588" s="164"/>
+      <c r="A588" s="158"/>
     </row>
     <row r="589">
-      <c r="A589" s="164"/>
+      <c r="A589" s="158"/>
     </row>
     <row r="590">
-      <c r="A590" s="164"/>
+      <c r="A590" s="158"/>
     </row>
     <row r="591">
-      <c r="A591" s="164"/>
+      <c r="A591" s="158"/>
     </row>
     <row r="592">
-      <c r="A592" s="164"/>
+      <c r="A592" s="158"/>
     </row>
     <row r="593">
-      <c r="A593" s="164"/>
+      <c r="A593" s="158"/>
     </row>
     <row r="594">
-      <c r="A594" s="164"/>
+      <c r="A594" s="158"/>
     </row>
     <row r="595">
-      <c r="A595" s="164"/>
+      <c r="A595" s="158"/>
     </row>
     <row r="596">
-      <c r="A596" s="164"/>
+      <c r="A596" s="158"/>
     </row>
     <row r="597">
-      <c r="A597" s="164"/>
+      <c r="A597" s="158"/>
     </row>
     <row r="598">
-      <c r="A598" s="164"/>
+      <c r="A598" s="158"/>
     </row>
     <row r="599">
-      <c r="A599" s="164"/>
+      <c r="A599" s="158"/>
     </row>
     <row r="600">
-      <c r="A600" s="164"/>
+      <c r="A600" s="158"/>
     </row>
     <row r="601">
-      <c r="A601" s="164"/>
+      <c r="A601" s="158"/>
     </row>
     <row r="602">
-      <c r="A602" s="164"/>
+      <c r="A602" s="158"/>
     </row>
     <row r="603">
-      <c r="A603" s="164"/>
+      <c r="A603" s="158"/>
     </row>
     <row r="604">
-      <c r="A604" s="164"/>
+      <c r="A604" s="158"/>
     </row>
     <row r="605">
-      <c r="A605" s="164"/>
+      <c r="A605" s="158"/>
     </row>
     <row r="606">
-      <c r="A606" s="164"/>
+      <c r="A606" s="158"/>
     </row>
     <row r="607">
-      <c r="A607" s="164"/>
+      <c r="A607" s="158"/>
     </row>
     <row r="608">
-      <c r="A608" s="164"/>
+      <c r="A608" s="158"/>
     </row>
     <row r="609">
-      <c r="A609" s="164"/>
+      <c r="A609" s="158"/>
     </row>
     <row r="610">
-      <c r="A610" s="164"/>
+      <c r="A610" s="158"/>
     </row>
     <row r="611">
-      <c r="A611" s="164"/>
+      <c r="A611" s="158"/>
     </row>
     <row r="612">
-      <c r="A612" s="164"/>
+      <c r="A612" s="158"/>
     </row>
     <row r="613">
-      <c r="A613" s="164"/>
+      <c r="A613" s="158"/>
     </row>
     <row r="614">
-      <c r="A614" s="164"/>
+      <c r="A614" s="158"/>
     </row>
     <row r="615">
-      <c r="A615" s="164"/>
+      <c r="A615" s="158"/>
     </row>
     <row r="616">
-      <c r="A616" s="164"/>
+      <c r="A616" s="158"/>
     </row>
     <row r="617">
-      <c r="A617" s="164"/>
+      <c r="A617" s="158"/>
     </row>
     <row r="618">
-      <c r="A618" s="164"/>
+      <c r="A618" s="158"/>
     </row>
     <row r="619">
-      <c r="A619" s="164"/>
+      <c r="A619" s="158"/>
     </row>
     <row r="620">
-      <c r="A620" s="164"/>
+      <c r="A620" s="158"/>
     </row>
     <row r="621">
-      <c r="A621" s="164"/>
+      <c r="A621" s="158"/>
     </row>
     <row r="622">
-      <c r="A622" s="164"/>
+      <c r="A622" s="158"/>
     </row>
     <row r="623">
-      <c r="A623" s="164"/>
+      <c r="A623" s="158"/>
     </row>
     <row r="624">
-      <c r="A624" s="164"/>
+      <c r="A624" s="158"/>
     </row>
     <row r="625">
-      <c r="A625" s="164"/>
+      <c r="A625" s="158"/>
     </row>
     <row r="626">
-      <c r="A626" s="164"/>
+      <c r="A626" s="158"/>
     </row>
     <row r="627">
-      <c r="A627" s="164"/>
+      <c r="A627" s="158"/>
     </row>
     <row r="628">
-      <c r="A628" s="164"/>
+      <c r="A628" s="158"/>
     </row>
     <row r="629">
-      <c r="A629" s="164"/>
+      <c r="A629" s="158"/>
     </row>
     <row r="630">
-      <c r="A630" s="164"/>
+      <c r="A630" s="158"/>
     </row>
     <row r="631">
-      <c r="A631" s="164"/>
+      <c r="A631" s="158"/>
     </row>
     <row r="632">
-      <c r="A632" s="164"/>
+      <c r="A632" s="158"/>
     </row>
     <row r="633">
-      <c r="A633" s="164"/>
+      <c r="A633" s="158"/>
     </row>
     <row r="634">
-      <c r="A634" s="164"/>
+      <c r="A634" s="158"/>
     </row>
     <row r="635">
-      <c r="A635" s="164"/>
+      <c r="A635" s="158"/>
     </row>
     <row r="636">
-      <c r="A636" s="164"/>
+      <c r="A636" s="158"/>
     </row>
     <row r="637">
-      <c r="A637" s="164"/>
+      <c r="A637" s="158"/>
     </row>
     <row r="638">
-      <c r="A638" s="164"/>
+      <c r="A638" s="158"/>
     </row>
     <row r="639">
-      <c r="A639" s="164"/>
+      <c r="A639" s="158"/>
     </row>
     <row r="640">
-      <c r="A640" s="164"/>
+      <c r="A640" s="158"/>
     </row>
     <row r="641">
-      <c r="A641" s="164"/>
+      <c r="A641" s="158"/>
     </row>
     <row r="642">
-      <c r="A642" s="164"/>
+      <c r="A642" s="158"/>
     </row>
     <row r="643">
-      <c r="A643" s="164"/>
+      <c r="A643" s="158"/>
     </row>
     <row r="644">
-      <c r="A644" s="164"/>
+      <c r="A644" s="158"/>
     </row>
     <row r="645">
-      <c r="A645" s="164"/>
+      <c r="A645" s="158"/>
     </row>
     <row r="646">
-      <c r="A646" s="164"/>
+      <c r="A646" s="158"/>
     </row>
     <row r="647">
-      <c r="A647" s="164"/>
+      <c r="A647" s="158"/>
     </row>
     <row r="648">
-      <c r="A648" s="164"/>
+      <c r="A648" s="158"/>
     </row>
     <row r="649">
-      <c r="A649" s="164"/>
+      <c r="A649" s="158"/>
     </row>
     <row r="650">
-      <c r="A650" s="164"/>
+      <c r="A650" s="158"/>
     </row>
     <row r="651">
-      <c r="A651" s="164"/>
+      <c r="A651" s="158"/>
     </row>
     <row r="652">
-      <c r="A652" s="164"/>
+      <c r="A652" s="158"/>
     </row>
     <row r="653">
-      <c r="A653" s="164"/>
+      <c r="A653" s="158"/>
     </row>
     <row r="654">
-      <c r="A654" s="164"/>
+      <c r="A654" s="158"/>
     </row>
     <row r="655">
-      <c r="A655" s="164"/>
+      <c r="A655" s="158"/>
     </row>
     <row r="656">
-      <c r="A656" s="164"/>
+      <c r="A656" s="158"/>
     </row>
     <row r="657">
-      <c r="A657" s="164"/>
+      <c r="A657" s="158"/>
     </row>
     <row r="658">
-      <c r="A658" s="164"/>
+      <c r="A658" s="158"/>
     </row>
     <row r="659">
-      <c r="A659" s="164"/>
+      <c r="A659" s="158"/>
     </row>
     <row r="660">
-      <c r="A660" s="164"/>
+      <c r="A660" s="158"/>
     </row>
     <row r="661">
-      <c r="A661" s="164"/>
+      <c r="A661" s="158"/>
     </row>
     <row r="662">
-      <c r="A662" s="164"/>
+      <c r="A662" s="158"/>
     </row>
     <row r="663">
-      <c r="A663" s="164"/>
+      <c r="A663" s="158"/>
     </row>
     <row r="664">
-      <c r="A664" s="164"/>
+      <c r="A664" s="158"/>
     </row>
     <row r="665">
-      <c r="A665" s="164"/>
+      <c r="A665" s="158"/>
     </row>
     <row r="666">
-      <c r="A666" s="164"/>
+      <c r="A666" s="158"/>
     </row>
     <row r="667">
-      <c r="A667" s="164"/>
+      <c r="A667" s="158"/>
     </row>
     <row r="668">
-      <c r="A668" s="164"/>
+      <c r="A668" s="158"/>
     </row>
     <row r="669">
-      <c r="A669" s="164"/>
+      <c r="A669" s="158"/>
     </row>
     <row r="670">
-      <c r="A670" s="164"/>
+      <c r="A670" s="158"/>
     </row>
     <row r="671">
-      <c r="A671" s="164"/>
+      <c r="A671" s="158"/>
     </row>
     <row r="672">
-      <c r="A672" s="164"/>
+      <c r="A672" s="158"/>
     </row>
     <row r="673">
-      <c r="A673" s="164"/>
+      <c r="A673" s="158"/>
     </row>
     <row r="674">
-      <c r="A674" s="164"/>
+      <c r="A674" s="158"/>
     </row>
     <row r="675">
-      <c r="A675" s="164"/>
+      <c r="A675" s="158"/>
     </row>
     <row r="676">
-      <c r="A676" s="164"/>
+      <c r="A676" s="158"/>
     </row>
     <row r="677">
-      <c r="A677" s="164"/>
+      <c r="A677" s="158"/>
     </row>
     <row r="678">
-      <c r="A678" s="164"/>
+      <c r="A678" s="158"/>
     </row>
     <row r="679">
-      <c r="A679" s="164"/>
+      <c r="A679" s="158"/>
     </row>
     <row r="680">
-      <c r="A680" s="164"/>
+      <c r="A680" s="158"/>
     </row>
     <row r="681">
-      <c r="A681" s="164"/>
+      <c r="A681" s="158"/>
     </row>
     <row r="682">
-      <c r="A682" s="164"/>
+      <c r="A682" s="158"/>
     </row>
     <row r="683">
-      <c r="A683" s="164"/>
+      <c r="A683" s="158"/>
     </row>
     <row r="684">
-      <c r="A684" s="164"/>
+      <c r="A684" s="158"/>
     </row>
     <row r="685">
-      <c r="A685" s="164"/>
+      <c r="A685" s="158"/>
     </row>
     <row r="686">
-      <c r="A686" s="164"/>
+      <c r="A686" s="158"/>
     </row>
     <row r="687">
-      <c r="A687" s="164"/>
+      <c r="A687" s="158"/>
     </row>
     <row r="688">
-      <c r="A688" s="164"/>
+      <c r="A688" s="158"/>
     </row>
     <row r="689">
-      <c r="A689" s="164"/>
+      <c r="A689" s="158"/>
     </row>
     <row r="690">
-      <c r="A690" s="164"/>
+      <c r="A690" s="158"/>
     </row>
     <row r="691">
-      <c r="A691" s="164"/>
+      <c r="A691" s="158"/>
     </row>
     <row r="692">
-      <c r="A692" s="164"/>
+      <c r="A692" s="158"/>
     </row>
     <row r="693">
-      <c r="A693" s="164"/>
+      <c r="A693" s="158"/>
     </row>
     <row r="694">
-      <c r="A694" s="164"/>
+      <c r="A694" s="158"/>
     </row>
     <row r="695">
-      <c r="A695" s="164"/>
+      <c r="A695" s="158"/>
     </row>
     <row r="696">
-      <c r="A696" s="164"/>
+      <c r="A696" s="158"/>
     </row>
     <row r="697">
-      <c r="A697" s="164"/>
+      <c r="A697" s="158"/>
     </row>
     <row r="698">
-      <c r="A698" s="164"/>
+      <c r="A698" s="158"/>
     </row>
     <row r="699">
-      <c r="A699" s="164"/>
+      <c r="A699" s="158"/>
     </row>
     <row r="700">
-      <c r="A700" s="164"/>
+      <c r="A700" s="158"/>
     </row>
     <row r="701">
-      <c r="A701" s="164"/>
+      <c r="A701" s="158"/>
     </row>
     <row r="702">
-      <c r="A702" s="164"/>
+      <c r="A702" s="158"/>
     </row>
     <row r="703">
-      <c r="A703" s="164"/>
+      <c r="A703" s="158"/>
     </row>
     <row r="704">
-      <c r="A704" s="164"/>
+      <c r="A704" s="158"/>
     </row>
     <row r="705">
-      <c r="A705" s="164"/>
+      <c r="A705" s="158"/>
     </row>
     <row r="706">
-      <c r="A706" s="164"/>
+      <c r="A706" s="158"/>
     </row>
     <row r="707">
-      <c r="A707" s="164"/>
+      <c r="A707" s="158"/>
     </row>
     <row r="708">
-      <c r="A708" s="164"/>
+      <c r="A708" s="158"/>
     </row>
     <row r="709">
-      <c r="A709" s="164"/>
+      <c r="A709" s="158"/>
     </row>
     <row r="710">
-      <c r="A710" s="164"/>
+      <c r="A710" s="158"/>
     </row>
     <row r="711">
-      <c r="A711" s="164"/>
+      <c r="A711" s="158"/>
     </row>
     <row r="712">
-      <c r="A712" s="164"/>
+      <c r="A712" s="158"/>
     </row>
     <row r="713">
-      <c r="A713" s="164"/>
+      <c r="A713" s="158"/>
     </row>
     <row r="714">
-      <c r="A714" s="164"/>
+      <c r="A714" s="158"/>
     </row>
     <row r="715">
-      <c r="A715" s="164"/>
+      <c r="A715" s="158"/>
     </row>
     <row r="716">
-      <c r="A716" s="164"/>
+      <c r="A716" s="158"/>
     </row>
     <row r="717">
-      <c r="A717" s="164"/>
+      <c r="A717" s="158"/>
     </row>
     <row r="718">
-      <c r="A718" s="164"/>
+      <c r="A718" s="158"/>
     </row>
     <row r="719">
-      <c r="A719" s="164"/>
+      <c r="A719" s="158"/>
     </row>
     <row r="720">
-      <c r="A720" s="164"/>
+      <c r="A720" s="158"/>
     </row>
     <row r="721">
-      <c r="A721" s="164"/>
+      <c r="A721" s="158"/>
     </row>
     <row r="722">
-      <c r="A722" s="164"/>
+      <c r="A722" s="158"/>
     </row>
     <row r="723">
-      <c r="A723" s="164"/>
+      <c r="A723" s="158"/>
     </row>
     <row r="724">
-      <c r="A724" s="164"/>
+      <c r="A724" s="158"/>
     </row>
     <row r="725">
-      <c r="A725" s="164"/>
+      <c r="A725" s="158"/>
     </row>
     <row r="726">
-      <c r="A726" s="164"/>
+      <c r="A726" s="158"/>
     </row>
     <row r="727">
-      <c r="A727" s="164"/>
+      <c r="A727" s="158"/>
     </row>
     <row r="728">
-      <c r="A728" s="164"/>
+      <c r="A728" s="158"/>
     </row>
     <row r="729">
-      <c r="A729" s="164"/>
+      <c r="A729" s="158"/>
     </row>
     <row r="730">
-      <c r="A730" s="164"/>
+      <c r="A730" s="158"/>
     </row>
     <row r="731">
-      <c r="A731" s="164"/>
+      <c r="A731" s="158"/>
     </row>
     <row r="732">
-      <c r="A732" s="164"/>
+      <c r="A732" s="158"/>
     </row>
     <row r="733">
-      <c r="A733" s="164"/>
+      <c r="A733" s="158"/>
     </row>
     <row r="734">
-      <c r="A734" s="164"/>
+      <c r="A734" s="158"/>
     </row>
     <row r="735">
-      <c r="A735" s="164"/>
+      <c r="A735" s="158"/>
     </row>
     <row r="736">
-      <c r="A736" s="164"/>
+      <c r="A736" s="158"/>
     </row>
     <row r="737">
-      <c r="A737" s="164"/>
+      <c r="A737" s="158"/>
     </row>
     <row r="738">
-      <c r="A738" s="164"/>
+      <c r="A738" s="158"/>
     </row>
     <row r="739">
-      <c r="A739" s="164"/>
+      <c r="A739" s="158"/>
     </row>
     <row r="740">
-      <c r="A740" s="164"/>
+      <c r="A740" s="158"/>
     </row>
     <row r="741">
-      <c r="A741" s="164"/>
+      <c r="A741" s="158"/>
     </row>
     <row r="742">
-      <c r="A742" s="164"/>
+      <c r="A742" s="158"/>
     </row>
     <row r="743">
-      <c r="A743" s="164"/>
+      <c r="A743" s="158"/>
     </row>
     <row r="744">
-      <c r="A744" s="164"/>
+      <c r="A744" s="158"/>
     </row>
     <row r="745">
-      <c r="A745" s="164"/>
+      <c r="A745" s="158"/>
     </row>
     <row r="746">
-      <c r="A746" s="164"/>
+      <c r="A746" s="158"/>
     </row>
     <row r="747">
-      <c r="A747" s="164"/>
+      <c r="A747" s="158"/>
     </row>
     <row r="748">
-      <c r="A748" s="164"/>
+      <c r="A748" s="158"/>
     </row>
     <row r="749">
-      <c r="A749" s="164"/>
+      <c r="A749" s="158"/>
     </row>
     <row r="750">
-      <c r="A750" s="164"/>
+      <c r="A750" s="158"/>
     </row>
     <row r="751">
-      <c r="A751" s="164"/>
+      <c r="A751" s="158"/>
     </row>
     <row r="752">
-      <c r="A752" s="164"/>
+      <c r="A752" s="158"/>
     </row>
     <row r="753">
-      <c r="A753" s="164"/>
+      <c r="A753" s="158"/>
     </row>
     <row r="754">
-      <c r="A754" s="164"/>
+      <c r="A754" s="158"/>
     </row>
     <row r="755">
-      <c r="A755" s="164"/>
+      <c r="A755" s="158"/>
     </row>
     <row r="756">
-      <c r="A756" s="164"/>
+      <c r="A756" s="158"/>
     </row>
     <row r="757">
-      <c r="A757" s="164"/>
+      <c r="A757" s="158"/>
     </row>
     <row r="758">
-      <c r="A758" s="164"/>
+      <c r="A758" s="158"/>
     </row>
     <row r="759">
-      <c r="A759" s="164"/>
+      <c r="A759" s="158"/>
     </row>
     <row r="760">
-      <c r="A760" s="164"/>
+      <c r="A760" s="158"/>
     </row>
     <row r="761">
-      <c r="A761" s="164"/>
+      <c r="A761" s="158"/>
     </row>
     <row r="762">
-      <c r="A762" s="164"/>
+      <c r="A762" s="158"/>
     </row>
     <row r="763">
-      <c r="A763" s="164"/>
+      <c r="A763" s="158"/>
     </row>
     <row r="764">
-      <c r="A764" s="164"/>
+      <c r="A764" s="158"/>
     </row>
     <row r="765">
-      <c r="A765" s="164"/>
+      <c r="A765" s="158"/>
     </row>
     <row r="766">
-      <c r="A766" s="164"/>
+      <c r="A766" s="158"/>
     </row>
     <row r="767">
-      <c r="A767" s="164"/>
+      <c r="A767" s="158"/>
     </row>
     <row r="768">
-      <c r="A768" s="164"/>
+      <c r="A768" s="158"/>
     </row>
     <row r="769">
-      <c r="A769" s="164"/>
+      <c r="A769" s="158"/>
     </row>
     <row r="770">
-      <c r="A770" s="164"/>
+      <c r="A770" s="158"/>
     </row>
     <row r="771">
-      <c r="A771" s="164"/>
+      <c r="A771" s="158"/>
     </row>
     <row r="772">
-      <c r="A772" s="164"/>
+      <c r="A772" s="158"/>
     </row>
     <row r="773">
-      <c r="A773" s="164"/>
+      <c r="A773" s="158"/>
     </row>
     <row r="774">
-      <c r="A774" s="164"/>
+      <c r="A774" s="158"/>
     </row>
     <row r="775">
-      <c r="A775" s="164"/>
+      <c r="A775" s="158"/>
     </row>
     <row r="776">
-      <c r="A776" s="164"/>
+      <c r="A776" s="158"/>
     </row>
     <row r="777">
-      <c r="A777" s="164"/>
+      <c r="A777" s="158"/>
     </row>
     <row r="778">
-      <c r="A778" s="164"/>
+      <c r="A778" s="158"/>
     </row>
     <row r="779">
-      <c r="A779" s="164"/>
+      <c r="A779" s="158"/>
     </row>
     <row r="780">
-      <c r="A780" s="164"/>
+      <c r="A780" s="158"/>
     </row>
     <row r="781">
-      <c r="A781" s="164"/>
+      <c r="A781" s="158"/>
     </row>
     <row r="782">
-      <c r="A782" s="164"/>
+      <c r="A782" s="158"/>
     </row>
     <row r="783">
-      <c r="A783" s="164"/>
+      <c r="A783" s="158"/>
     </row>
     <row r="784">
-      <c r="A784" s="164"/>
+      <c r="A784" s="158"/>
     </row>
     <row r="785">
-      <c r="A785" s="164"/>
+      <c r="A785" s="158"/>
     </row>
     <row r="786">
-      <c r="A786" s="164"/>
+      <c r="A786" s="158"/>
     </row>
     <row r="787">
-      <c r="A787" s="164"/>
+      <c r="A787" s="158"/>
     </row>
     <row r="788">
-      <c r="A788" s="164"/>
+      <c r="A788" s="158"/>
     </row>
     <row r="789">
-      <c r="A789" s="164"/>
+      <c r="A789" s="158"/>
     </row>
     <row r="790">
-      <c r="A790" s="164"/>
+      <c r="A790" s="158"/>
     </row>
     <row r="791">
-      <c r="A791" s="164"/>
+      <c r="A791" s="158"/>
     </row>
     <row r="792">
-      <c r="A792" s="164"/>
+      <c r="A792" s="158"/>
     </row>
     <row r="793">
-      <c r="A793" s="164"/>
+      <c r="A793" s="158"/>
     </row>
     <row r="794">
-      <c r="A794" s="164"/>
+      <c r="A794" s="158"/>
     </row>
     <row r="795">
-      <c r="A795" s="164"/>
+      <c r="A795" s="158"/>
     </row>
     <row r="796">
-      <c r="A796" s="164"/>
+      <c r="A796" s="158"/>
     </row>
     <row r="797">
-      <c r="A797" s="164"/>
+      <c r="A797" s="158"/>
     </row>
     <row r="798">
-      <c r="A798" s="164"/>
+      <c r="A798" s="158"/>
     </row>
     <row r="799">
-      <c r="A799" s="164"/>
+      <c r="A799" s="158"/>
     </row>
     <row r="800">
-      <c r="A800" s="164"/>
+      <c r="A800" s="158"/>
     </row>
     <row r="801">
-      <c r="A801" s="164"/>
+      <c r="A801" s="158"/>
     </row>
     <row r="802">
-      <c r="A802" s="164"/>
+      <c r="A802" s="158"/>
     </row>
     <row r="803">
-      <c r="A803" s="164"/>
+      <c r="A803" s="158"/>
     </row>
     <row r="804">
-      <c r="A804" s="164"/>
+      <c r="A804" s="158"/>
     </row>
     <row r="805">
-      <c r="A805" s="164"/>
+      <c r="A805" s="158"/>
     </row>
     <row r="806">
-      <c r="A806" s="164"/>
+      <c r="A806" s="158"/>
     </row>
     <row r="807">
-      <c r="A807" s="164"/>
+      <c r="A807" s="158"/>
     </row>
     <row r="808">
-      <c r="A808" s="164"/>
+      <c r="A808" s="158"/>
     </row>
     <row r="809">
-      <c r="A809" s="164"/>
+      <c r="A809" s="158"/>
     </row>
     <row r="810">
-      <c r="A810" s="164"/>
+      <c r="A810" s="158"/>
     </row>
     <row r="811">
-      <c r="A811" s="164"/>
+      <c r="A811" s="158"/>
     </row>
     <row r="812">
-      <c r="A812" s="164"/>
+      <c r="A812" s="158"/>
     </row>
     <row r="813">
-      <c r="A813" s="164"/>
+      <c r="A813" s="158"/>
     </row>
     <row r="814">
-      <c r="A814" s="164"/>
+      <c r="A814" s="158"/>
     </row>
     <row r="815">
-      <c r="A815" s="164"/>
+      <c r="A815" s="158"/>
     </row>
     <row r="816">
-      <c r="A816" s="164"/>
+      <c r="A816" s="158"/>
     </row>
     <row r="817">
-      <c r="A817" s="164"/>
+      <c r="A817" s="158"/>
     </row>
     <row r="818">
-      <c r="A818" s="164"/>
+      <c r="A818" s="158"/>
     </row>
     <row r="819">
-      <c r="A819" s="164"/>
+      <c r="A819" s="158"/>
     </row>
     <row r="820">
-      <c r="A820" s="164"/>
+      <c r="A820" s="158"/>
     </row>
     <row r="821">
-      <c r="A821" s="164"/>
+      <c r="A821" s="158"/>
     </row>
     <row r="822">
-      <c r="A822" s="164"/>
+      <c r="A822" s="158"/>
     </row>
     <row r="823">
-      <c r="A823" s="164"/>
+      <c r="A823" s="158"/>
     </row>
     <row r="824">
-      <c r="A824" s="164"/>
+      <c r="A824" s="158"/>
     </row>
     <row r="825">
-      <c r="A825" s="164"/>
+      <c r="A825" s="158"/>
     </row>
     <row r="826">
-      <c r="A826" s="164"/>
+      <c r="A826" s="158"/>
     </row>
     <row r="827">
-      <c r="A827" s="164"/>
+      <c r="A827" s="158"/>
     </row>
     <row r="828">
-      <c r="A828" s="164"/>
+      <c r="A828" s="158"/>
     </row>
     <row r="829">
-      <c r="A829" s="164"/>
+      <c r="A829" s="158"/>
     </row>
     <row r="830">
-      <c r="A830" s="164"/>
+      <c r="A830" s="158"/>
     </row>
     <row r="831">
-      <c r="A831" s="164"/>
+      <c r="A831" s="158"/>
     </row>
     <row r="832">
-      <c r="A832" s="164"/>
+      <c r="A832" s="158"/>
     </row>
     <row r="833">
-      <c r="A833" s="164"/>
+      <c r="A833" s="158"/>
     </row>
     <row r="834">
-      <c r="A834" s="164"/>
+      <c r="A834" s="158"/>
     </row>
     <row r="835">
-      <c r="A835" s="164"/>
+      <c r="A835" s="158"/>
     </row>
     <row r="836">
-      <c r="A836" s="164"/>
+      <c r="A836" s="158"/>
     </row>
     <row r="837">
-      <c r="A837" s="164"/>
+      <c r="A837" s="158"/>
     </row>
     <row r="838">
-      <c r="A838" s="164"/>
+      <c r="A838" s="158"/>
     </row>
     <row r="839">
-      <c r="A839" s="164"/>
+      <c r="A839" s="158"/>
     </row>
     <row r="840">
-      <c r="A840" s="164"/>
+      <c r="A840" s="158"/>
     </row>
     <row r="841">
-      <c r="A841" s="164"/>
+      <c r="A841" s="158"/>
     </row>
     <row r="842">
-      <c r="A842" s="164"/>
+      <c r="A842" s="158"/>
     </row>
     <row r="843">
-      <c r="A843" s="164"/>
+      <c r="A843" s="158"/>
     </row>
     <row r="844">
-      <c r="A844" s="164"/>
+      <c r="A844" s="158"/>
     </row>
     <row r="845">
-      <c r="A845" s="164"/>
+      <c r="A845" s="158"/>
     </row>
     <row r="846">
-      <c r="A846" s="164"/>
+      <c r="A846" s="158"/>
     </row>
     <row r="847">
-      <c r="A847" s="164"/>
+      <c r="A847" s="158"/>
     </row>
     <row r="848">
-      <c r="A848" s="164"/>
+      <c r="A848" s="158"/>
     </row>
     <row r="849">
-      <c r="A849" s="164"/>
+      <c r="A849" s="158"/>
     </row>
     <row r="850">
-      <c r="A850" s="164"/>
+      <c r="A850" s="158"/>
     </row>
     <row r="851">
-      <c r="A851" s="164"/>
+      <c r="A851" s="158"/>
     </row>
     <row r="852">
-      <c r="A852" s="164"/>
+      <c r="A852" s="158"/>
     </row>
     <row r="853">
-      <c r="A853" s="164"/>
+      <c r="A853" s="158"/>
     </row>
     <row r="854">
-      <c r="A854" s="164"/>
+      <c r="A854" s="158"/>
     </row>
     <row r="855">
-      <c r="A855" s="164"/>
+      <c r="A855" s="158"/>
     </row>
     <row r="856">
-      <c r="A856" s="164"/>
+      <c r="A856" s="158"/>
     </row>
     <row r="857">
-      <c r="A857" s="164"/>
+      <c r="A857" s="158"/>
     </row>
     <row r="858">
-      <c r="A858" s="164"/>
+      <c r="A858" s="158"/>
     </row>
     <row r="859">
-      <c r="A859" s="164"/>
+      <c r="A859" s="158"/>
     </row>
     <row r="860">
-      <c r="A860" s="164"/>
+      <c r="A860" s="158"/>
     </row>
     <row r="861">
-      <c r="A861" s="164"/>
+      <c r="A861" s="158"/>
     </row>
     <row r="862">
-      <c r="A862" s="164"/>
+      <c r="A862" s="158"/>
     </row>
     <row r="863">
-      <c r="A863" s="164"/>
+      <c r="A863" s="158"/>
     </row>
     <row r="864">
-      <c r="A864" s="164"/>
+      <c r="A864" s="158"/>
     </row>
     <row r="865">
-      <c r="A865" s="164"/>
+      <c r="A865" s="158"/>
     </row>
     <row r="866">
-      <c r="A866" s="164"/>
+      <c r="A866" s="158"/>
     </row>
     <row r="867">
-      <c r="A867" s="164"/>
+      <c r="A867" s="158"/>
     </row>
     <row r="868">
-      <c r="A868" s="164"/>
+      <c r="A868" s="158"/>
     </row>
     <row r="869">
-      <c r="A869" s="164"/>
+      <c r="A869" s="158"/>
     </row>
     <row r="870">
-      <c r="A870" s="164"/>
+      <c r="A870" s="158"/>
     </row>
     <row r="871">
-      <c r="A871" s="164"/>
+      <c r="A871" s="158"/>
     </row>
     <row r="872">
-      <c r="A872" s="164"/>
+      <c r="A872" s="158"/>
     </row>
     <row r="873">
-      <c r="A873" s="164"/>
+      <c r="A873" s="158"/>
     </row>
     <row r="874">
-      <c r="A874" s="164"/>
+      <c r="A874" s="158"/>
     </row>
     <row r="875">
-      <c r="A875" s="164"/>
+      <c r="A875" s="158"/>
     </row>
     <row r="876">
-      <c r="A876" s="164"/>
+      <c r="A876" s="158"/>
     </row>
     <row r="877">
-      <c r="A877" s="164"/>
+      <c r="A877" s="158"/>
     </row>
     <row r="878">
-      <c r="A878" s="164"/>
+      <c r="A878" s="158"/>
     </row>
     <row r="879">
-      <c r="A879" s="164"/>
+      <c r="A879" s="158"/>
     </row>
     <row r="880">
-      <c r="A880" s="164"/>
+      <c r="A880" s="158"/>
     </row>
     <row r="881">
-      <c r="A881" s="164"/>
+      <c r="A881" s="158"/>
     </row>
     <row r="882">
-      <c r="A882" s="164"/>
+      <c r="A882" s="158"/>
     </row>
     <row r="883">
-      <c r="A883" s="164"/>
+      <c r="A883" s="158"/>
     </row>
     <row r="884">
-      <c r="A884" s="164"/>
+      <c r="A884" s="158"/>
     </row>
     <row r="885">
-      <c r="A885" s="164"/>
+      <c r="A885" s="158"/>
     </row>
     <row r="886">
-      <c r="A886" s="164"/>
+      <c r="A886" s="158"/>
     </row>
     <row r="887">
-      <c r="A887" s="164"/>
+      <c r="A887" s="158"/>
     </row>
     <row r="888">
-      <c r="A888" s="164"/>
+      <c r="A888" s="158"/>
     </row>
     <row r="889">
-      <c r="A889" s="164"/>
+      <c r="A889" s="158"/>
     </row>
     <row r="890">
-      <c r="A890" s="164"/>
+      <c r="A890" s="158"/>
     </row>
     <row r="891">
-      <c r="A891" s="164"/>
+      <c r="A891" s="158"/>
     </row>
     <row r="892">
-      <c r="A892" s="164"/>
+      <c r="A892" s="158"/>
     </row>
     <row r="893">
-      <c r="A893" s="164"/>
+      <c r="A893" s="158"/>
     </row>
     <row r="894">
-      <c r="A894" s="164"/>
+      <c r="A894" s="158"/>
     </row>
     <row r="895">
-      <c r="A895" s="164"/>
+      <c r="A895" s="158"/>
     </row>
     <row r="896">
-      <c r="A896" s="164"/>
+      <c r="A896" s="158"/>
     </row>
     <row r="897">
-      <c r="A897" s="164"/>
+      <c r="A897" s="158"/>
     </row>
     <row r="898">
-      <c r="A898" s="164"/>
+      <c r="A898" s="158"/>
     </row>
     <row r="899">
-      <c r="A899" s="164"/>
+      <c r="A899" s="158"/>
     </row>
     <row r="900">
-      <c r="A900" s="164"/>
+      <c r="A900" s="158"/>
     </row>
     <row r="901">
-      <c r="A901" s="164"/>
+      <c r="A901" s="158"/>
     </row>
     <row r="902">
-      <c r="A902" s="164"/>
+      <c r="A902" s="158"/>
     </row>
     <row r="903">
-      <c r="A903" s="164"/>
+      <c r="A903" s="158"/>
     </row>
     <row r="904">
-      <c r="A904" s="164"/>
+      <c r="A904" s="158"/>
     </row>
     <row r="905">
-      <c r="A905" s="164"/>
+      <c r="A905" s="158"/>
     </row>
     <row r="906">
-      <c r="A906" s="164"/>
+      <c r="A906" s="158"/>
     </row>
     <row r="907">
-      <c r="A907" s="164"/>
+      <c r="A907" s="158"/>
     </row>
     <row r="908">
-      <c r="A908" s="164"/>
+      <c r="A908" s="158"/>
     </row>
     <row r="909">
-      <c r="A909" s="164"/>
+      <c r="A909" s="158"/>
     </row>
     <row r="910">
-      <c r="A910" s="164"/>
+      <c r="A910" s="158"/>
     </row>
     <row r="911">
-      <c r="A911" s="164"/>
+      <c r="A911" s="158"/>
     </row>
     <row r="912">
-      <c r="A912" s="164"/>
+      <c r="A912" s="158"/>
     </row>
     <row r="913">
-      <c r="A913" s="164"/>
+      <c r="A913" s="158"/>
     </row>
     <row r="914">
-      <c r="A914" s="164"/>
+      <c r="A914" s="158"/>
     </row>
     <row r="915">
-      <c r="A915" s="164"/>
+      <c r="A915" s="158"/>
     </row>
     <row r="916">
-      <c r="A916" s="164"/>
+      <c r="A916" s="158"/>
     </row>
     <row r="917">
-      <c r="A917" s="164"/>
+      <c r="A917" s="158"/>
     </row>
     <row r="918">
-      <c r="A918" s="164"/>
+      <c r="A918" s="158"/>
     </row>
     <row r="919">
-      <c r="A919" s="164"/>
+      <c r="A919" s="158"/>
     </row>
     <row r="920">
-      <c r="A920" s="164"/>
+      <c r="A920" s="158"/>
     </row>
     <row r="921">
-      <c r="A921" s="164"/>
+      <c r="A921" s="158"/>
     </row>
     <row r="922">
-      <c r="A922" s="164"/>
+      <c r="A922" s="158"/>
     </row>
     <row r="923">
-      <c r="A923" s="164"/>
+      <c r="A923" s="158"/>
     </row>
     <row r="924">
-      <c r="A924" s="164"/>
+      <c r="A924" s="158"/>
     </row>
     <row r="925">
-      <c r="A925" s="164"/>
+      <c r="A925" s="158"/>
     </row>
     <row r="926">
-      <c r="A926" s="164"/>
+      <c r="A926" s="158"/>
     </row>
     <row r="927">
-      <c r="A927" s="164"/>
+      <c r="A927" s="158"/>
     </row>
     <row r="928">
-      <c r="A928" s="164"/>
+      <c r="A928" s="158"/>
     </row>
     <row r="929">
-      <c r="A929" s="164"/>
+      <c r="A929" s="158"/>
     </row>
     <row r="930">
-      <c r="A930" s="164"/>
+      <c r="A930" s="158"/>
     </row>
     <row r="931">
-      <c r="A931" s="164"/>
+      <c r="A931" s="158"/>
     </row>
     <row r="932">
-      <c r="A932" s="164"/>
+      <c r="A932" s="158"/>
     </row>
     <row r="933">
-      <c r="A933" s="164"/>
+      <c r="A933" s="158"/>
     </row>
     <row r="934">
-      <c r="A934" s="164"/>
+      <c r="A934" s="158"/>
     </row>
     <row r="935">
-      <c r="A935" s="164"/>
+      <c r="A935" s="158"/>
     </row>
     <row r="936">
-      <c r="A936" s="164"/>
+      <c r="A936" s="158"/>
     </row>
     <row r="937">
-      <c r="A937" s="164"/>
+      <c r="A937" s="158"/>
     </row>
     <row r="938">
-      <c r="A938" s="164"/>
+      <c r="A938" s="158"/>
     </row>
     <row r="939">
-      <c r="A939" s="164"/>
+      <c r="A939" s="158"/>
     </row>
     <row r="940">
-      <c r="A940" s="164"/>
+      <c r="A940" s="158"/>
     </row>
     <row r="941">
-      <c r="A941" s="164"/>
+      <c r="A941" s="158"/>
     </row>
     <row r="942">
-      <c r="A942" s="164"/>
+      <c r="A942" s="158"/>
     </row>
     <row r="943">
-      <c r="A943" s="164"/>
+      <c r="A943" s="158"/>
     </row>
     <row r="944">
-      <c r="A944" s="164"/>
+      <c r="A944" s="158"/>
     </row>
     <row r="945">
-      <c r="A945" s="164"/>
+      <c r="A945" s="158"/>
     </row>
     <row r="946">
-      <c r="A946" s="164"/>
+      <c r="A946" s="158"/>
     </row>
     <row r="947">
-      <c r="A947" s="164"/>
+      <c r="A947" s="158"/>
     </row>
     <row r="948">
-      <c r="A948" s="164"/>
+      <c r="A948" s="158"/>
     </row>
     <row r="949">
-      <c r="A949" s="164"/>
+      <c r="A949" s="158"/>
     </row>
     <row r="950">
-      <c r="A950" s="164"/>
+      <c r="A950" s="158"/>
     </row>
     <row r="951">
-      <c r="A951" s="164"/>
+      <c r="A951" s="158"/>
     </row>
     <row r="952">
-      <c r="A952" s="164"/>
+      <c r="A952" s="158"/>
     </row>
     <row r="953">
-      <c r="A953" s="164"/>
+      <c r="A953" s="158"/>
     </row>
     <row r="954">
-      <c r="A954" s="164"/>
+      <c r="A954" s="158"/>
     </row>
     <row r="955">
-      <c r="A955" s="164"/>
+      <c r="A955" s="158"/>
     </row>
     <row r="956">
-      <c r="A956" s="164"/>
+      <c r="A956" s="158"/>
     </row>
     <row r="957">
-      <c r="A957" s="164"/>
+      <c r="A957" s="158"/>
     </row>
     <row r="958">
-      <c r="A958" s="164"/>
+      <c r="A958" s="158"/>
     </row>
     <row r="959">
-      <c r="A959" s="164"/>
+      <c r="A959" s="158"/>
     </row>
     <row r="960">
-      <c r="A960" s="164"/>
+      <c r="A960" s="158"/>
     </row>
     <row r="961">
-      <c r="A961" s="164"/>
+      <c r="A961" s="158"/>
     </row>
     <row r="962">
-      <c r="A962" s="164"/>
+      <c r="A962" s="158"/>
     </row>
     <row r="963">
-      <c r="A963" s="164"/>
+      <c r="A963" s="158"/>
     </row>
     <row r="964">
-      <c r="A964" s="164"/>
+      <c r="A964" s="158"/>
     </row>
     <row r="965">
-      <c r="A965" s="164"/>
+      <c r="A965" s="158"/>
     </row>
     <row r="966">
-      <c r="A966" s="164"/>
+      <c r="A966" s="158"/>
     </row>
     <row r="967">
-      <c r="A967" s="164"/>
+      <c r="A967" s="158"/>
     </row>
     <row r="968">
-      <c r="A968" s="164"/>
+      <c r="A968" s="158"/>
     </row>
     <row r="969">
-      <c r="A969" s="164"/>
+      <c r="A969" s="158"/>
     </row>
     <row r="970">
-      <c r="A970" s="164"/>
+      <c r="A970" s="158"/>
     </row>
     <row r="971">
-      <c r="A971" s="164"/>
+      <c r="A971" s="158"/>
     </row>
     <row r="972">
-      <c r="A972" s="164"/>
+      <c r="A972" s="158"/>
     </row>
     <row r="973">
-      <c r="A973" s="164"/>
+      <c r="A973" s="158"/>
     </row>
     <row r="974">
-      <c r="A974" s="164"/>
+      <c r="A974" s="158"/>
     </row>
     <row r="975">
-      <c r="A975" s="164"/>
+      <c r="A975" s="158"/>
     </row>
     <row r="976">
-      <c r="A976" s="164"/>
+      <c r="A976" s="158"/>
     </row>
     <row r="977">
-      <c r="A977" s="164"/>
+      <c r="A977" s="158"/>
     </row>
     <row r="978">
-      <c r="A978" s="164"/>
+      <c r="A978" s="158"/>
     </row>
     <row r="979">
-      <c r="A979" s="164"/>
+      <c r="A979" s="158"/>
     </row>
     <row r="980">
-      <c r="A980" s="164"/>
+      <c r="A980" s="158"/>
     </row>
     <row r="981">
-      <c r="A981" s="164"/>
+      <c r="A981" s="158"/>
     </row>
     <row r="982">
-      <c r="A982" s="164"/>
+      <c r="A982" s="158"/>
     </row>
     <row r="983">
-      <c r="A983" s="164"/>
+      <c r="A983" s="158"/>
     </row>
     <row r="984">
-      <c r="A984" s="164"/>
+      <c r="A984" s="158"/>
     </row>
     <row r="985">
-      <c r="A985" s="164"/>
+      <c r="A985" s="158"/>
     </row>
     <row r="986">
-      <c r="A986" s="164"/>
+      <c r="A986" s="158"/>
     </row>
     <row r="987">
-      <c r="A987" s="164"/>
+      <c r="A987" s="158"/>
     </row>
     <row r="988">
-      <c r="A988" s="164"/>
+      <c r="A988" s="158"/>
     </row>
     <row r="989">
-      <c r="A989" s="164"/>
+      <c r="A989" s="158"/>
     </row>
     <row r="990">
-      <c r="A990" s="164"/>
+      <c r="A990" s="158"/>
     </row>
     <row r="991">
-      <c r="A991" s="164"/>
+      <c r="A991" s="158"/>
     </row>
     <row r="992">
-      <c r="A992" s="164"/>
+      <c r="A992" s="158"/>
     </row>
     <row r="993">
-      <c r="A993" s="164"/>
+      <c r="A993" s="158"/>
     </row>
     <row r="994">
-      <c r="A994" s="164"/>
+      <c r="A994" s="158"/>
     </row>
     <row r="995">
-      <c r="A995" s="164"/>
+      <c r="A995" s="158"/>
     </row>
     <row r="996">
-      <c r="A996" s="164"/>
+      <c r="A996" s="158"/>
     </row>
     <row r="997">
-      <c r="A997" s="164"/>
+      <c r="A997" s="158"/>
     </row>
     <row r="998">
-      <c r="A998" s="164"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="164"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="164"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="164"/>
+      <c r="A998" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Evaluation/Evaluation4JSS.xlsx
+++ b/Evaluation/Evaluation4JSS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
   <si>
     <t>xFSM</t>
   </si>
@@ -309,6 +309,9 @@
     </r>
   </si>
   <si>
+    <t>When ignoring conditional (e.g. if) and looping statements from model element coverage</t>
+  </si>
+  <si>
     <t>#covered statements</t>
   </si>
   <si>
@@ -346,6 +349,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
         <color theme="1"/>
       </rPr>
       <t>statement coverage</t>
@@ -423,7 +427,7 @@
     <numFmt numFmtId="164" formatCode="m-d"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -479,6 +483,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
@@ -687,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="189">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1106,6 +1121,12 @@
     <xf borderId="8" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1136,14 +1157,62 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1154,23 +1223,17 @@
     <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="7" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -8646,11 +8709,11 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="52">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8696,11 +8759,11 @@
       </c>
       <c r="G5" s="57">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" s="58">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -8719,11 +8782,11 @@
         <v>28.0</v>
       </c>
       <c r="G6" s="62">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="H6" s="63">
         <f t="shared" ref="H6:H7" si="3">SUM(D6:G6)</f>
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -28024,3098 +28087,3293 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="148"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="151"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="152" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="48">
+        <v>19.0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="48">
+        <v>24.0</v>
+      </c>
+      <c r="E10" s="48">
+        <v>41.0</v>
+      </c>
+      <c r="F10" s="95">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="140">
+        <v>28.0</v>
+      </c>
+      <c r="C11" s="140">
+        <v>27.0</v>
+      </c>
+      <c r="D11" s="140">
+        <v>43.0</v>
+      </c>
+      <c r="E11" s="140">
+        <v>44.0</v>
+      </c>
+      <c r="F11" s="141">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="143">
+        <f t="shared" ref="B12:F12" si="3">B10/B11</f>
+        <v>0.6785714286</v>
+      </c>
+      <c r="C12" s="143">
+        <f t="shared" si="3"/>
+        <v>0.1481481481</v>
+      </c>
+      <c r="D12" s="143">
+        <f t="shared" si="3"/>
+        <v>0.5581395349</v>
+      </c>
+      <c r="E12" s="143">
+        <f t="shared" si="3"/>
+        <v>0.9318181818</v>
+      </c>
+      <c r="F12" s="144">
+        <f t="shared" si="3"/>
+        <v>0.3789473684</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="155"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="156" t="s">
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="153"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="157"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="158" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="105">
         <v>0.679</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C15" s="105">
         <v>0.148</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D15" s="105">
         <v>0.558</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E15" s="105">
         <v>0.932</v>
       </c>
-      <c r="F10" s="157">
+      <c r="F15" s="159">
         <v>0.379</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="158"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="159" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="48">
-        <v>22.0</v>
-      </c>
-      <c r="C13" s="48">
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="48">
-        <v>30.0</v>
-      </c>
-      <c r="E13" s="48">
-        <v>50.0</v>
-      </c>
-      <c r="F13" s="95">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="140">
-        <v>32.0</v>
-      </c>
-      <c r="C14" s="140">
-        <v>34.0</v>
-      </c>
-      <c r="D14" s="140">
-        <v>51.0</v>
-      </c>
-      <c r="E14" s="140">
-        <v>53.0</v>
-      </c>
-      <c r="F14" s="141">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="143">
-        <f t="shared" ref="B15:F15" si="3">B13/B14</f>
-        <v>0.6875</v>
-      </c>
-      <c r="C15" s="143">
-        <f t="shared" si="3"/>
-        <v>0.1470588235</v>
-      </c>
-      <c r="D15" s="143">
-        <f t="shared" si="3"/>
-        <v>0.5882352941</v>
-      </c>
-      <c r="E15" s="143">
-        <f t="shared" si="3"/>
-        <v>0.9433962264</v>
-      </c>
-      <c r="F15" s="144">
-        <f t="shared" si="3"/>
-        <v>0.3781512605</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" s="160" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="151"/>
+      <c r="A16" s="148"/>
     </row>
     <row r="17">
-      <c r="A17" s="161" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="140">
-        <v>32.0</v>
-      </c>
-      <c r="C17" s="140">
-        <v>34.0</v>
-      </c>
-      <c r="D17" s="140">
-        <v>51.0</v>
-      </c>
-      <c r="E17" s="140">
-        <v>53.0</v>
-      </c>
-      <c r="F17" s="141">
-        <v>119.0</v>
-      </c>
+      <c r="A17" s="160" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
     </row>
     <row r="18">
       <c r="A18" s="162" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="165"/>
+        <v>86</v>
+      </c>
+      <c r="B18" s="163">
+        <v>22.0</v>
+      </c>
+      <c r="C18" s="163">
+        <v>5.0</v>
+      </c>
+      <c r="D18" s="163">
+        <v>30.0</v>
+      </c>
+      <c r="E18" s="163">
+        <v>50.0</v>
+      </c>
+      <c r="F18" s="164">
+        <v>45.0</v>
+      </c>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="161"/>
+      <c r="W18" s="161"/>
+      <c r="X18" s="161"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="161"/>
     </row>
     <row r="19">
-      <c r="A19" s="158"/>
+      <c r="A19" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="165">
+        <v>32.0</v>
+      </c>
+      <c r="C19" s="165">
+        <v>34.0</v>
+      </c>
+      <c r="D19" s="165">
+        <v>51.0</v>
+      </c>
+      <c r="E19" s="165">
+        <v>53.0</v>
+      </c>
+      <c r="F19" s="166">
+        <v>119.0</v>
+      </c>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="161"/>
+      <c r="W19" s="161"/>
+      <c r="X19" s="161"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="161"/>
     </row>
     <row r="20">
-      <c r="A20" s="158"/>
+      <c r="A20" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="168">
+        <f t="shared" ref="B20:F20" si="4">B18/B19</f>
+        <v>0.6875</v>
+      </c>
+      <c r="C20" s="168">
+        <f t="shared" si="4"/>
+        <v>0.1470588235</v>
+      </c>
+      <c r="D20" s="168">
+        <f t="shared" si="4"/>
+        <v>0.5882352941</v>
+      </c>
+      <c r="E20" s="168">
+        <f t="shared" si="4"/>
+        <v>0.9433962264</v>
+      </c>
+      <c r="F20" s="169">
+        <f t="shared" si="4"/>
+        <v>0.3781512605</v>
+      </c>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="161"/>
+      <c r="U20" s="161"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="161"/>
+      <c r="X20" s="161"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="161"/>
     </row>
     <row r="21">
-      <c r="A21" s="158"/>
+      <c r="A21" s="170" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="171"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="161"/>
+      <c r="U21" s="161"/>
+      <c r="V21" s="161"/>
+      <c r="W21" s="161"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="161"/>
     </row>
     <row r="22">
-      <c r="A22" s="158"/>
+      <c r="A22" s="170" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="165">
+        <v>32.0</v>
+      </c>
+      <c r="C22" s="165">
+        <v>34.0</v>
+      </c>
+      <c r="D22" s="165">
+        <v>51.0</v>
+      </c>
+      <c r="E22" s="165">
+        <v>53.0</v>
+      </c>
+      <c r="F22" s="166">
+        <v>119.0</v>
+      </c>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="161"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="161"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="161"/>
     </row>
     <row r="23">
-      <c r="A23" s="158"/>
+      <c r="A23" s="173" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="174"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="161"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="161"/>
     </row>
     <row r="24">
-      <c r="A24" s="158"/>
+      <c r="A24" s="148"/>
     </row>
     <row r="25">
-      <c r="A25" s="158"/>
+      <c r="A25" s="148"/>
     </row>
     <row r="26">
-      <c r="A26" s="158"/>
+      <c r="A26" s="148"/>
     </row>
     <row r="27">
-      <c r="A27" s="158"/>
+      <c r="A27" s="148"/>
     </row>
     <row r="28">
-      <c r="A28" s="158"/>
+      <c r="A28" s="148"/>
     </row>
     <row r="29">
-      <c r="A29" s="158"/>
+      <c r="A29" s="148"/>
     </row>
     <row r="30">
-      <c r="A30" s="158"/>
+      <c r="A30" s="148"/>
     </row>
     <row r="31">
-      <c r="A31" s="158"/>
+      <c r="A31" s="148"/>
     </row>
     <row r="32">
-      <c r="A32" s="158"/>
+      <c r="A32" s="148"/>
     </row>
     <row r="33">
-      <c r="A33" s="158"/>
+      <c r="A33" s="148"/>
     </row>
     <row r="34">
-      <c r="A34" s="158"/>
+      <c r="A34" s="148"/>
     </row>
     <row r="35">
-      <c r="A35" s="158"/>
+      <c r="A35" s="148"/>
     </row>
     <row r="36">
-      <c r="A36" s="158"/>
+      <c r="A36" s="148"/>
     </row>
     <row r="37">
-      <c r="A37" s="158"/>
+      <c r="A37" s="148"/>
     </row>
     <row r="38">
-      <c r="A38" s="158"/>
+      <c r="A38" s="148"/>
     </row>
     <row r="39">
-      <c r="A39" s="158"/>
+      <c r="A39" s="148"/>
     </row>
     <row r="40">
-      <c r="A40" s="158"/>
+      <c r="A40" s="148"/>
     </row>
     <row r="41">
-      <c r="A41" s="158"/>
+      <c r="A41" s="148"/>
     </row>
     <row r="42">
-      <c r="A42" s="158"/>
+      <c r="A42" s="148"/>
     </row>
     <row r="43">
-      <c r="A43" s="158"/>
+      <c r="A43" s="148"/>
     </row>
     <row r="44">
-      <c r="A44" s="158"/>
+      <c r="A44" s="148"/>
     </row>
     <row r="45">
-      <c r="A45" s="158"/>
+      <c r="A45" s="148"/>
     </row>
     <row r="46">
-      <c r="A46" s="158"/>
+      <c r="A46" s="148"/>
     </row>
     <row r="47">
-      <c r="A47" s="158"/>
+      <c r="A47" s="148"/>
     </row>
     <row r="48">
-      <c r="A48" s="158"/>
+      <c r="A48" s="148"/>
     </row>
     <row r="49">
-      <c r="A49" s="158"/>
+      <c r="A49" s="148"/>
     </row>
     <row r="50">
-      <c r="A50" s="158"/>
+      <c r="A50" s="148"/>
     </row>
     <row r="51">
-      <c r="A51" s="158"/>
+      <c r="A51" s="148"/>
     </row>
     <row r="52">
-      <c r="A52" s="158"/>
+      <c r="A52" s="148"/>
     </row>
     <row r="53">
-      <c r="A53" s="158"/>
+      <c r="A53" s="148"/>
     </row>
     <row r="54">
-      <c r="A54" s="158"/>
+      <c r="A54" s="148"/>
     </row>
     <row r="55">
-      <c r="A55" s="158"/>
+      <c r="A55" s="148"/>
     </row>
     <row r="56">
-      <c r="A56" s="158"/>
+      <c r="A56" s="148"/>
     </row>
     <row r="57">
-      <c r="A57" s="158"/>
+      <c r="A57" s="148"/>
     </row>
     <row r="58">
-      <c r="A58" s="158"/>
+      <c r="A58" s="148"/>
     </row>
     <row r="59">
-      <c r="A59" s="158"/>
+      <c r="A59" s="148"/>
     </row>
     <row r="60">
-      <c r="A60" s="158"/>
+      <c r="A60" s="148"/>
     </row>
     <row r="61">
-      <c r="A61" s="158"/>
+      <c r="A61" s="148"/>
     </row>
     <row r="62">
-      <c r="A62" s="158"/>
+      <c r="A62" s="148"/>
     </row>
     <row r="63">
-      <c r="A63" s="158"/>
+      <c r="A63" s="148"/>
     </row>
     <row r="64">
-      <c r="A64" s="158"/>
+      <c r="A64" s="148"/>
     </row>
     <row r="65">
-      <c r="A65" s="158"/>
+      <c r="A65" s="148"/>
     </row>
     <row r="66">
-      <c r="A66" s="158"/>
+      <c r="A66" s="148"/>
     </row>
     <row r="67">
-      <c r="A67" s="158"/>
+      <c r="A67" s="148"/>
     </row>
     <row r="68">
-      <c r="A68" s="158"/>
+      <c r="A68" s="148"/>
     </row>
     <row r="69">
-      <c r="A69" s="158"/>
+      <c r="A69" s="148"/>
     </row>
     <row r="70">
-      <c r="A70" s="158"/>
+      <c r="A70" s="148"/>
     </row>
     <row r="71">
-      <c r="A71" s="158"/>
+      <c r="A71" s="148"/>
     </row>
     <row r="72">
-      <c r="A72" s="158"/>
+      <c r="A72" s="148"/>
     </row>
     <row r="73">
-      <c r="A73" s="158"/>
+      <c r="A73" s="148"/>
     </row>
     <row r="74">
-      <c r="A74" s="158"/>
+      <c r="A74" s="148"/>
     </row>
     <row r="75">
-      <c r="A75" s="158"/>
+      <c r="A75" s="148"/>
     </row>
     <row r="76">
-      <c r="A76" s="158"/>
+      <c r="A76" s="148"/>
     </row>
     <row r="77">
-      <c r="A77" s="158"/>
+      <c r="A77" s="148"/>
     </row>
     <row r="78">
-      <c r="A78" s="158"/>
+      <c r="A78" s="148"/>
     </row>
     <row r="79">
-      <c r="A79" s="158"/>
+      <c r="A79" s="148"/>
     </row>
     <row r="80">
-      <c r="A80" s="158"/>
+      <c r="A80" s="148"/>
     </row>
     <row r="81">
-      <c r="A81" s="158"/>
+      <c r="A81" s="148"/>
     </row>
     <row r="82">
-      <c r="A82" s="158"/>
+      <c r="A82" s="148"/>
     </row>
     <row r="83">
-      <c r="A83" s="158"/>
+      <c r="A83" s="148"/>
     </row>
     <row r="84">
-      <c r="A84" s="158"/>
+      <c r="A84" s="148"/>
     </row>
     <row r="85">
-      <c r="A85" s="158"/>
+      <c r="A85" s="148"/>
     </row>
     <row r="86">
-      <c r="A86" s="158"/>
+      <c r="A86" s="148"/>
     </row>
     <row r="87">
-      <c r="A87" s="158"/>
+      <c r="A87" s="148"/>
     </row>
     <row r="88">
-      <c r="A88" s="158"/>
+      <c r="A88" s="148"/>
     </row>
     <row r="89">
-      <c r="A89" s="158"/>
+      <c r="A89" s="148"/>
     </row>
     <row r="90">
-      <c r="A90" s="158"/>
+      <c r="A90" s="148"/>
     </row>
     <row r="91">
-      <c r="A91" s="158"/>
+      <c r="A91" s="148"/>
     </row>
     <row r="92">
-      <c r="A92" s="158"/>
+      <c r="A92" s="148"/>
     </row>
     <row r="93">
-      <c r="A93" s="158"/>
+      <c r="A93" s="148"/>
     </row>
     <row r="94">
-      <c r="A94" s="158"/>
+      <c r="A94" s="148"/>
     </row>
     <row r="95">
-      <c r="A95" s="158"/>
+      <c r="A95" s="148"/>
     </row>
     <row r="96">
-      <c r="A96" s="158"/>
+      <c r="A96" s="148"/>
     </row>
     <row r="97">
-      <c r="A97" s="158"/>
+      <c r="A97" s="148"/>
     </row>
     <row r="98">
-      <c r="A98" s="158"/>
+      <c r="A98" s="148"/>
     </row>
     <row r="99">
-      <c r="A99" s="158"/>
+      <c r="A99" s="148"/>
     </row>
     <row r="100">
-      <c r="A100" s="158"/>
+      <c r="A100" s="148"/>
     </row>
     <row r="101">
-      <c r="A101" s="158"/>
+      <c r="A101" s="148"/>
     </row>
     <row r="102">
-      <c r="A102" s="158"/>
+      <c r="A102" s="148"/>
     </row>
     <row r="103">
-      <c r="A103" s="158"/>
+      <c r="A103" s="148"/>
     </row>
     <row r="104">
-      <c r="A104" s="158"/>
+      <c r="A104" s="148"/>
     </row>
     <row r="105">
-      <c r="A105" s="158"/>
+      <c r="A105" s="148"/>
     </row>
     <row r="106">
-      <c r="A106" s="158"/>
+      <c r="A106" s="148"/>
     </row>
     <row r="107">
-      <c r="A107" s="158"/>
+      <c r="A107" s="148"/>
     </row>
     <row r="108">
-      <c r="A108" s="158"/>
+      <c r="A108" s="148"/>
     </row>
     <row r="109">
-      <c r="A109" s="158"/>
+      <c r="A109" s="148"/>
     </row>
     <row r="110">
-      <c r="A110" s="158"/>
+      <c r="A110" s="148"/>
     </row>
     <row r="111">
-      <c r="A111" s="158"/>
+      <c r="A111" s="148"/>
     </row>
     <row r="112">
-      <c r="A112" s="158"/>
+      <c r="A112" s="148"/>
     </row>
     <row r="113">
-      <c r="A113" s="158"/>
+      <c r="A113" s="148"/>
     </row>
     <row r="114">
-      <c r="A114" s="158"/>
+      <c r="A114" s="148"/>
     </row>
     <row r="115">
-      <c r="A115" s="158"/>
+      <c r="A115" s="148"/>
     </row>
     <row r="116">
-      <c r="A116" s="158"/>
+      <c r="A116" s="148"/>
     </row>
     <row r="117">
-      <c r="A117" s="158"/>
+      <c r="A117" s="148"/>
     </row>
     <row r="118">
-      <c r="A118" s="158"/>
+      <c r="A118" s="148"/>
     </row>
     <row r="119">
-      <c r="A119" s="158"/>
+      <c r="A119" s="148"/>
     </row>
     <row r="120">
-      <c r="A120" s="158"/>
+      <c r="A120" s="148"/>
     </row>
     <row r="121">
-      <c r="A121" s="158"/>
+      <c r="A121" s="148"/>
     </row>
     <row r="122">
-      <c r="A122" s="158"/>
+      <c r="A122" s="148"/>
     </row>
     <row r="123">
-      <c r="A123" s="158"/>
+      <c r="A123" s="148"/>
     </row>
     <row r="124">
-      <c r="A124" s="158"/>
+      <c r="A124" s="148"/>
     </row>
     <row r="125">
-      <c r="A125" s="158"/>
+      <c r="A125" s="148"/>
     </row>
     <row r="126">
-      <c r="A126" s="158"/>
+      <c r="A126" s="148"/>
     </row>
     <row r="127">
-      <c r="A127" s="158"/>
+      <c r="A127" s="148"/>
     </row>
     <row r="128">
-      <c r="A128" s="158"/>
+      <c r="A128" s="148"/>
     </row>
     <row r="129">
-      <c r="A129" s="158"/>
+      <c r="A129" s="148"/>
     </row>
     <row r="130">
-      <c r="A130" s="158"/>
+      <c r="A130" s="148"/>
     </row>
     <row r="131">
-      <c r="A131" s="158"/>
+      <c r="A131" s="148"/>
     </row>
     <row r="132">
-      <c r="A132" s="158"/>
+      <c r="A132" s="148"/>
     </row>
     <row r="133">
-      <c r="A133" s="158"/>
+      <c r="A133" s="148"/>
     </row>
     <row r="134">
-      <c r="A134" s="158"/>
+      <c r="A134" s="148"/>
     </row>
     <row r="135">
-      <c r="A135" s="158"/>
+      <c r="A135" s="148"/>
     </row>
     <row r="136">
-      <c r="A136" s="158"/>
+      <c r="A136" s="148"/>
     </row>
     <row r="137">
-      <c r="A137" s="158"/>
+      <c r="A137" s="148"/>
     </row>
     <row r="138">
-      <c r="A138" s="158"/>
+      <c r="A138" s="148"/>
     </row>
     <row r="139">
-      <c r="A139" s="158"/>
+      <c r="A139" s="148"/>
     </row>
     <row r="140">
-      <c r="A140" s="158"/>
+      <c r="A140" s="148"/>
     </row>
     <row r="141">
-      <c r="A141" s="158"/>
+      <c r="A141" s="148"/>
     </row>
     <row r="142">
-      <c r="A142" s="158"/>
+      <c r="A142" s="148"/>
     </row>
     <row r="143">
-      <c r="A143" s="158"/>
+      <c r="A143" s="148"/>
     </row>
     <row r="144">
-      <c r="A144" s="158"/>
+      <c r="A144" s="148"/>
     </row>
     <row r="145">
-      <c r="A145" s="158"/>
+      <c r="A145" s="148"/>
     </row>
     <row r="146">
-      <c r="A146" s="158"/>
+      <c r="A146" s="148"/>
     </row>
     <row r="147">
-      <c r="A147" s="158"/>
+      <c r="A147" s="148"/>
     </row>
     <row r="148">
-      <c r="A148" s="158"/>
+      <c r="A148" s="148"/>
     </row>
     <row r="149">
-      <c r="A149" s="158"/>
+      <c r="A149" s="148"/>
     </row>
     <row r="150">
-      <c r="A150" s="158"/>
+      <c r="A150" s="148"/>
     </row>
     <row r="151">
-      <c r="A151" s="158"/>
+      <c r="A151" s="148"/>
     </row>
     <row r="152">
-      <c r="A152" s="158"/>
+      <c r="A152" s="148"/>
     </row>
     <row r="153">
-      <c r="A153" s="158"/>
+      <c r="A153" s="148"/>
     </row>
     <row r="154">
-      <c r="A154" s="158"/>
+      <c r="A154" s="148"/>
     </row>
     <row r="155">
-      <c r="A155" s="158"/>
+      <c r="A155" s="148"/>
     </row>
     <row r="156">
-      <c r="A156" s="158"/>
+      <c r="A156" s="148"/>
     </row>
     <row r="157">
-      <c r="A157" s="158"/>
+      <c r="A157" s="148"/>
     </row>
     <row r="158">
-      <c r="A158" s="158"/>
+      <c r="A158" s="148"/>
     </row>
     <row r="159">
-      <c r="A159" s="158"/>
+      <c r="A159" s="148"/>
     </row>
     <row r="160">
-      <c r="A160" s="158"/>
+      <c r="A160" s="148"/>
     </row>
     <row r="161">
-      <c r="A161" s="158"/>
+      <c r="A161" s="148"/>
     </row>
     <row r="162">
-      <c r="A162" s="158"/>
+      <c r="A162" s="148"/>
     </row>
     <row r="163">
-      <c r="A163" s="158"/>
+      <c r="A163" s="148"/>
     </row>
     <row r="164">
-      <c r="A164" s="158"/>
+      <c r="A164" s="148"/>
     </row>
     <row r="165">
-      <c r="A165" s="158"/>
+      <c r="A165" s="148"/>
     </row>
     <row r="166">
-      <c r="A166" s="158"/>
+      <c r="A166" s="148"/>
     </row>
     <row r="167">
-      <c r="A167" s="158"/>
+      <c r="A167" s="148"/>
     </row>
     <row r="168">
-      <c r="A168" s="158"/>
+      <c r="A168" s="148"/>
     </row>
     <row r="169">
-      <c r="A169" s="158"/>
+      <c r="A169" s="148"/>
     </row>
     <row r="170">
-      <c r="A170" s="158"/>
+      <c r="A170" s="148"/>
     </row>
     <row r="171">
-      <c r="A171" s="158"/>
+      <c r="A171" s="148"/>
     </row>
     <row r="172">
-      <c r="A172" s="158"/>
+      <c r="A172" s="148"/>
     </row>
     <row r="173">
-      <c r="A173" s="158"/>
+      <c r="A173" s="148"/>
     </row>
     <row r="174">
-      <c r="A174" s="158"/>
+      <c r="A174" s="148"/>
     </row>
     <row r="175">
-      <c r="A175" s="158"/>
+      <c r="A175" s="148"/>
     </row>
     <row r="176">
-      <c r="A176" s="158"/>
+      <c r="A176" s="148"/>
     </row>
     <row r="177">
-      <c r="A177" s="158"/>
+      <c r="A177" s="148"/>
     </row>
     <row r="178">
-      <c r="A178" s="158"/>
+      <c r="A178" s="148"/>
     </row>
     <row r="179">
-      <c r="A179" s="158"/>
+      <c r="A179" s="148"/>
     </row>
     <row r="180">
-      <c r="A180" s="158"/>
+      <c r="A180" s="148"/>
     </row>
     <row r="181">
-      <c r="A181" s="158"/>
+      <c r="A181" s="148"/>
     </row>
     <row r="182">
-      <c r="A182" s="158"/>
+      <c r="A182" s="148"/>
     </row>
     <row r="183">
-      <c r="A183" s="158"/>
+      <c r="A183" s="148"/>
     </row>
     <row r="184">
-      <c r="A184" s="158"/>
+      <c r="A184" s="148"/>
     </row>
     <row r="185">
-      <c r="A185" s="158"/>
+      <c r="A185" s="148"/>
     </row>
     <row r="186">
-      <c r="A186" s="158"/>
+      <c r="A186" s="148"/>
     </row>
     <row r="187">
-      <c r="A187" s="158"/>
+      <c r="A187" s="148"/>
     </row>
     <row r="188">
-      <c r="A188" s="158"/>
+      <c r="A188" s="148"/>
     </row>
     <row r="189">
-      <c r="A189" s="158"/>
+      <c r="A189" s="148"/>
     </row>
     <row r="190">
-      <c r="A190" s="158"/>
+      <c r="A190" s="148"/>
     </row>
     <row r="191">
-      <c r="A191" s="158"/>
+      <c r="A191" s="148"/>
     </row>
     <row r="192">
-      <c r="A192" s="158"/>
+      <c r="A192" s="148"/>
     </row>
     <row r="193">
-      <c r="A193" s="158"/>
+      <c r="A193" s="148"/>
     </row>
     <row r="194">
-      <c r="A194" s="158"/>
+      <c r="A194" s="148"/>
     </row>
     <row r="195">
-      <c r="A195" s="158"/>
+      <c r="A195" s="148"/>
     </row>
     <row r="196">
-      <c r="A196" s="158"/>
+      <c r="A196" s="148"/>
     </row>
     <row r="197">
-      <c r="A197" s="158"/>
+      <c r="A197" s="148"/>
     </row>
     <row r="198">
-      <c r="A198" s="158"/>
+      <c r="A198" s="148"/>
     </row>
     <row r="199">
-      <c r="A199" s="158"/>
+      <c r="A199" s="148"/>
     </row>
     <row r="200">
-      <c r="A200" s="158"/>
+      <c r="A200" s="148"/>
     </row>
     <row r="201">
-      <c r="A201" s="158"/>
+      <c r="A201" s="148"/>
     </row>
     <row r="202">
-      <c r="A202" s="158"/>
+      <c r="A202" s="148"/>
     </row>
     <row r="203">
-      <c r="A203" s="158"/>
+      <c r="A203" s="148"/>
     </row>
     <row r="204">
-      <c r="A204" s="158"/>
+      <c r="A204" s="148"/>
     </row>
     <row r="205">
-      <c r="A205" s="158"/>
+      <c r="A205" s="148"/>
     </row>
     <row r="206">
-      <c r="A206" s="158"/>
+      <c r="A206" s="148"/>
     </row>
     <row r="207">
-      <c r="A207" s="158"/>
+      <c r="A207" s="148"/>
     </row>
     <row r="208">
-      <c r="A208" s="158"/>
+      <c r="A208" s="148"/>
     </row>
     <row r="209">
-      <c r="A209" s="158"/>
+      <c r="A209" s="148"/>
     </row>
     <row r="210">
-      <c r="A210" s="158"/>
+      <c r="A210" s="148"/>
     </row>
     <row r="211">
-      <c r="A211" s="158"/>
+      <c r="A211" s="148"/>
     </row>
     <row r="212">
-      <c r="A212" s="158"/>
+      <c r="A212" s="148"/>
     </row>
     <row r="213">
-      <c r="A213" s="158"/>
+      <c r="A213" s="148"/>
     </row>
     <row r="214">
-      <c r="A214" s="158"/>
+      <c r="A214" s="148"/>
     </row>
     <row r="215">
-      <c r="A215" s="158"/>
+      <c r="A215" s="148"/>
     </row>
     <row r="216">
-      <c r="A216" s="158"/>
+      <c r="A216" s="148"/>
     </row>
     <row r="217">
-      <c r="A217" s="158"/>
+      <c r="A217" s="148"/>
     </row>
     <row r="218">
-      <c r="A218" s="158"/>
+      <c r="A218" s="148"/>
     </row>
     <row r="219">
-      <c r="A219" s="158"/>
+      <c r="A219" s="148"/>
     </row>
     <row r="220">
-      <c r="A220" s="158"/>
+      <c r="A220" s="148"/>
     </row>
     <row r="221">
-      <c r="A221" s="158"/>
+      <c r="A221" s="148"/>
     </row>
     <row r="222">
-      <c r="A222" s="158"/>
+      <c r="A222" s="148"/>
     </row>
     <row r="223">
-      <c r="A223" s="158"/>
+      <c r="A223" s="148"/>
     </row>
     <row r="224">
-      <c r="A224" s="158"/>
+      <c r="A224" s="148"/>
     </row>
     <row r="225">
-      <c r="A225" s="158"/>
+      <c r="A225" s="148"/>
     </row>
     <row r="226">
-      <c r="A226" s="158"/>
+      <c r="A226" s="148"/>
     </row>
     <row r="227">
-      <c r="A227" s="158"/>
+      <c r="A227" s="148"/>
     </row>
     <row r="228">
-      <c r="A228" s="158"/>
+      <c r="A228" s="148"/>
     </row>
     <row r="229">
-      <c r="A229" s="158"/>
+      <c r="A229" s="148"/>
     </row>
     <row r="230">
-      <c r="A230" s="158"/>
+      <c r="A230" s="148"/>
     </row>
     <row r="231">
-      <c r="A231" s="158"/>
+      <c r="A231" s="148"/>
     </row>
     <row r="232">
-      <c r="A232" s="158"/>
+      <c r="A232" s="148"/>
     </row>
     <row r="233">
-      <c r="A233" s="158"/>
+      <c r="A233" s="148"/>
     </row>
     <row r="234">
-      <c r="A234" s="158"/>
+      <c r="A234" s="148"/>
     </row>
     <row r="235">
-      <c r="A235" s="158"/>
+      <c r="A235" s="148"/>
     </row>
     <row r="236">
-      <c r="A236" s="158"/>
+      <c r="A236" s="148"/>
     </row>
     <row r="237">
-      <c r="A237" s="158"/>
+      <c r="A237" s="148"/>
     </row>
     <row r="238">
-      <c r="A238" s="158"/>
+      <c r="A238" s="148"/>
     </row>
     <row r="239">
-      <c r="A239" s="158"/>
+      <c r="A239" s="148"/>
     </row>
     <row r="240">
-      <c r="A240" s="158"/>
+      <c r="A240" s="148"/>
     </row>
     <row r="241">
-      <c r="A241" s="158"/>
+      <c r="A241" s="148"/>
     </row>
     <row r="242">
-      <c r="A242" s="158"/>
+      <c r="A242" s="148"/>
     </row>
     <row r="243">
-      <c r="A243" s="158"/>
+      <c r="A243" s="148"/>
     </row>
     <row r="244">
-      <c r="A244" s="158"/>
+      <c r="A244" s="148"/>
     </row>
     <row r="245">
-      <c r="A245" s="158"/>
+      <c r="A245" s="148"/>
     </row>
     <row r="246">
-      <c r="A246" s="158"/>
+      <c r="A246" s="148"/>
     </row>
     <row r="247">
-      <c r="A247" s="158"/>
+      <c r="A247" s="148"/>
     </row>
     <row r="248">
-      <c r="A248" s="158"/>
+      <c r="A248" s="148"/>
     </row>
     <row r="249">
-      <c r="A249" s="158"/>
+      <c r="A249" s="148"/>
     </row>
     <row r="250">
-      <c r="A250" s="158"/>
+      <c r="A250" s="148"/>
     </row>
     <row r="251">
-      <c r="A251" s="158"/>
+      <c r="A251" s="148"/>
     </row>
     <row r="252">
-      <c r="A252" s="158"/>
+      <c r="A252" s="148"/>
     </row>
     <row r="253">
-      <c r="A253" s="158"/>
+      <c r="A253" s="148"/>
     </row>
     <row r="254">
-      <c r="A254" s="158"/>
+      <c r="A254" s="148"/>
     </row>
     <row r="255">
-      <c r="A255" s="158"/>
+      <c r="A255" s="148"/>
     </row>
     <row r="256">
-      <c r="A256" s="158"/>
+      <c r="A256" s="148"/>
     </row>
     <row r="257">
-      <c r="A257" s="158"/>
+      <c r="A257" s="148"/>
     </row>
     <row r="258">
-      <c r="A258" s="158"/>
+      <c r="A258" s="148"/>
     </row>
     <row r="259">
-      <c r="A259" s="158"/>
+      <c r="A259" s="148"/>
     </row>
     <row r="260">
-      <c r="A260" s="158"/>
+      <c r="A260" s="148"/>
     </row>
     <row r="261">
-      <c r="A261" s="158"/>
+      <c r="A261" s="148"/>
     </row>
     <row r="262">
-      <c r="A262" s="158"/>
+      <c r="A262" s="148"/>
     </row>
     <row r="263">
-      <c r="A263" s="158"/>
+      <c r="A263" s="148"/>
     </row>
     <row r="264">
-      <c r="A264" s="158"/>
+      <c r="A264" s="148"/>
     </row>
     <row r="265">
-      <c r="A265" s="158"/>
+      <c r="A265" s="148"/>
     </row>
     <row r="266">
-      <c r="A266" s="158"/>
+      <c r="A266" s="148"/>
     </row>
     <row r="267">
-      <c r="A267" s="158"/>
+      <c r="A267" s="148"/>
     </row>
     <row r="268">
-      <c r="A268" s="158"/>
+      <c r="A268" s="148"/>
     </row>
     <row r="269">
-      <c r="A269" s="158"/>
+      <c r="A269" s="148"/>
     </row>
     <row r="270">
-      <c r="A270" s="158"/>
+      <c r="A270" s="148"/>
     </row>
     <row r="271">
-      <c r="A271" s="158"/>
+      <c r="A271" s="148"/>
     </row>
     <row r="272">
-      <c r="A272" s="158"/>
+      <c r="A272" s="148"/>
     </row>
     <row r="273">
-      <c r="A273" s="158"/>
+      <c r="A273" s="148"/>
     </row>
     <row r="274">
-      <c r="A274" s="158"/>
+      <c r="A274" s="148"/>
     </row>
     <row r="275">
-      <c r="A275" s="158"/>
+      <c r="A275" s="148"/>
     </row>
     <row r="276">
-      <c r="A276" s="158"/>
+      <c r="A276" s="148"/>
     </row>
     <row r="277">
-      <c r="A277" s="158"/>
+      <c r="A277" s="148"/>
     </row>
     <row r="278">
-      <c r="A278" s="158"/>
+      <c r="A278" s="148"/>
     </row>
     <row r="279">
-      <c r="A279" s="158"/>
+      <c r="A279" s="148"/>
     </row>
     <row r="280">
-      <c r="A280" s="158"/>
+      <c r="A280" s="148"/>
     </row>
     <row r="281">
-      <c r="A281" s="158"/>
+      <c r="A281" s="148"/>
     </row>
     <row r="282">
-      <c r="A282" s="158"/>
+      <c r="A282" s="148"/>
     </row>
     <row r="283">
-      <c r="A283" s="158"/>
+      <c r="A283" s="148"/>
     </row>
     <row r="284">
-      <c r="A284" s="158"/>
+      <c r="A284" s="148"/>
     </row>
     <row r="285">
-      <c r="A285" s="158"/>
+      <c r="A285" s="148"/>
     </row>
     <row r="286">
-      <c r="A286" s="158"/>
+      <c r="A286" s="148"/>
     </row>
     <row r="287">
-      <c r="A287" s="158"/>
+      <c r="A287" s="148"/>
     </row>
     <row r="288">
-      <c r="A288" s="158"/>
+      <c r="A288" s="148"/>
     </row>
     <row r="289">
-      <c r="A289" s="158"/>
+      <c r="A289" s="148"/>
     </row>
     <row r="290">
-      <c r="A290" s="158"/>
+      <c r="A290" s="148"/>
     </row>
     <row r="291">
-      <c r="A291" s="158"/>
+      <c r="A291" s="148"/>
     </row>
     <row r="292">
-      <c r="A292" s="158"/>
+      <c r="A292" s="148"/>
     </row>
     <row r="293">
-      <c r="A293" s="158"/>
+      <c r="A293" s="148"/>
     </row>
     <row r="294">
-      <c r="A294" s="158"/>
+      <c r="A294" s="148"/>
     </row>
     <row r="295">
-      <c r="A295" s="158"/>
+      <c r="A295" s="148"/>
     </row>
     <row r="296">
-      <c r="A296" s="158"/>
+      <c r="A296" s="148"/>
     </row>
     <row r="297">
-      <c r="A297" s="158"/>
+      <c r="A297" s="148"/>
     </row>
     <row r="298">
-      <c r="A298" s="158"/>
+      <c r="A298" s="148"/>
     </row>
     <row r="299">
-      <c r="A299" s="158"/>
+      <c r="A299" s="148"/>
     </row>
     <row r="300">
-      <c r="A300" s="158"/>
+      <c r="A300" s="148"/>
     </row>
     <row r="301">
-      <c r="A301" s="158"/>
+      <c r="A301" s="148"/>
     </row>
     <row r="302">
-      <c r="A302" s="158"/>
+      <c r="A302" s="148"/>
     </row>
     <row r="303">
-      <c r="A303" s="158"/>
+      <c r="A303" s="148"/>
     </row>
     <row r="304">
-      <c r="A304" s="158"/>
+      <c r="A304" s="148"/>
     </row>
     <row r="305">
-      <c r="A305" s="158"/>
+      <c r="A305" s="148"/>
     </row>
     <row r="306">
-      <c r="A306" s="158"/>
+      <c r="A306" s="148"/>
     </row>
     <row r="307">
-      <c r="A307" s="158"/>
+      <c r="A307" s="148"/>
     </row>
     <row r="308">
-      <c r="A308" s="158"/>
+      <c r="A308" s="148"/>
     </row>
     <row r="309">
-      <c r="A309" s="158"/>
+      <c r="A309" s="148"/>
     </row>
     <row r="310">
-      <c r="A310" s="158"/>
+      <c r="A310" s="148"/>
     </row>
     <row r="311">
-      <c r="A311" s="158"/>
+      <c r="A311" s="148"/>
     </row>
     <row r="312">
-      <c r="A312" s="158"/>
+      <c r="A312" s="148"/>
     </row>
     <row r="313">
-      <c r="A313" s="158"/>
+      <c r="A313" s="148"/>
     </row>
     <row r="314">
-      <c r="A314" s="158"/>
+      <c r="A314" s="148"/>
     </row>
     <row r="315">
-      <c r="A315" s="158"/>
+      <c r="A315" s="148"/>
     </row>
     <row r="316">
-      <c r="A316" s="158"/>
+      <c r="A316" s="148"/>
     </row>
     <row r="317">
-      <c r="A317" s="158"/>
+      <c r="A317" s="148"/>
     </row>
     <row r="318">
-      <c r="A318" s="158"/>
+      <c r="A318" s="148"/>
     </row>
     <row r="319">
-      <c r="A319" s="158"/>
+      <c r="A319" s="148"/>
     </row>
     <row r="320">
-      <c r="A320" s="158"/>
+      <c r="A320" s="148"/>
     </row>
     <row r="321">
-      <c r="A321" s="158"/>
+      <c r="A321" s="148"/>
     </row>
     <row r="322">
-      <c r="A322" s="158"/>
+      <c r="A322" s="148"/>
     </row>
     <row r="323">
-      <c r="A323" s="158"/>
+      <c r="A323" s="148"/>
     </row>
     <row r="324">
-      <c r="A324" s="158"/>
+      <c r="A324" s="148"/>
     </row>
     <row r="325">
-      <c r="A325" s="158"/>
+      <c r="A325" s="148"/>
     </row>
     <row r="326">
-      <c r="A326" s="158"/>
+      <c r="A326" s="148"/>
     </row>
     <row r="327">
-      <c r="A327" s="158"/>
+      <c r="A327" s="148"/>
     </row>
     <row r="328">
-      <c r="A328" s="158"/>
+      <c r="A328" s="148"/>
     </row>
     <row r="329">
-      <c r="A329" s="158"/>
+      <c r="A329" s="148"/>
     </row>
     <row r="330">
-      <c r="A330" s="158"/>
+      <c r="A330" s="148"/>
     </row>
     <row r="331">
-      <c r="A331" s="158"/>
+      <c r="A331" s="148"/>
     </row>
     <row r="332">
-      <c r="A332" s="158"/>
+      <c r="A332" s="148"/>
     </row>
     <row r="333">
-      <c r="A333" s="158"/>
+      <c r="A333" s="148"/>
     </row>
     <row r="334">
-      <c r="A334" s="158"/>
+      <c r="A334" s="148"/>
     </row>
     <row r="335">
-      <c r="A335" s="158"/>
+      <c r="A335" s="148"/>
     </row>
     <row r="336">
-      <c r="A336" s="158"/>
+      <c r="A336" s="148"/>
     </row>
     <row r="337">
-      <c r="A337" s="158"/>
+      <c r="A337" s="148"/>
     </row>
     <row r="338">
-      <c r="A338" s="158"/>
+      <c r="A338" s="148"/>
     </row>
     <row r="339">
-      <c r="A339" s="158"/>
+      <c r="A339" s="148"/>
     </row>
     <row r="340">
-      <c r="A340" s="158"/>
+      <c r="A340" s="148"/>
     </row>
     <row r="341">
-      <c r="A341" s="158"/>
+      <c r="A341" s="148"/>
     </row>
     <row r="342">
-      <c r="A342" s="158"/>
+      <c r="A342" s="148"/>
     </row>
     <row r="343">
-      <c r="A343" s="158"/>
+      <c r="A343" s="148"/>
     </row>
     <row r="344">
-      <c r="A344" s="158"/>
+      <c r="A344" s="148"/>
     </row>
     <row r="345">
-      <c r="A345" s="158"/>
+      <c r="A345" s="148"/>
     </row>
     <row r="346">
-      <c r="A346" s="158"/>
+      <c r="A346" s="148"/>
     </row>
     <row r="347">
-      <c r="A347" s="158"/>
+      <c r="A347" s="148"/>
     </row>
     <row r="348">
-      <c r="A348" s="158"/>
+      <c r="A348" s="148"/>
     </row>
     <row r="349">
-      <c r="A349" s="158"/>
+      <c r="A349" s="148"/>
     </row>
     <row r="350">
-      <c r="A350" s="158"/>
+      <c r="A350" s="148"/>
     </row>
     <row r="351">
-      <c r="A351" s="158"/>
+      <c r="A351" s="148"/>
     </row>
     <row r="352">
-      <c r="A352" s="158"/>
+      <c r="A352" s="148"/>
     </row>
     <row r="353">
-      <c r="A353" s="158"/>
+      <c r="A353" s="148"/>
     </row>
     <row r="354">
-      <c r="A354" s="158"/>
+      <c r="A354" s="148"/>
     </row>
     <row r="355">
-      <c r="A355" s="158"/>
+      <c r="A355" s="148"/>
     </row>
     <row r="356">
-      <c r="A356" s="158"/>
+      <c r="A356" s="148"/>
     </row>
     <row r="357">
-      <c r="A357" s="158"/>
+      <c r="A357" s="148"/>
     </row>
     <row r="358">
-      <c r="A358" s="158"/>
+      <c r="A358" s="148"/>
     </row>
     <row r="359">
-      <c r="A359" s="158"/>
+      <c r="A359" s="148"/>
     </row>
     <row r="360">
-      <c r="A360" s="158"/>
+      <c r="A360" s="148"/>
     </row>
     <row r="361">
-      <c r="A361" s="158"/>
+      <c r="A361" s="148"/>
     </row>
     <row r="362">
-      <c r="A362" s="158"/>
+      <c r="A362" s="148"/>
     </row>
     <row r="363">
-      <c r="A363" s="158"/>
+      <c r="A363" s="148"/>
     </row>
     <row r="364">
-      <c r="A364" s="158"/>
+      <c r="A364" s="148"/>
     </row>
     <row r="365">
-      <c r="A365" s="158"/>
+      <c r="A365" s="148"/>
     </row>
     <row r="366">
-      <c r="A366" s="158"/>
+      <c r="A366" s="148"/>
     </row>
     <row r="367">
-      <c r="A367" s="158"/>
+      <c r="A367" s="148"/>
     </row>
     <row r="368">
-      <c r="A368" s="158"/>
+      <c r="A368" s="148"/>
     </row>
     <row r="369">
-      <c r="A369" s="158"/>
+      <c r="A369" s="148"/>
     </row>
     <row r="370">
-      <c r="A370" s="158"/>
+      <c r="A370" s="148"/>
     </row>
     <row r="371">
-      <c r="A371" s="158"/>
+      <c r="A371" s="148"/>
     </row>
     <row r="372">
-      <c r="A372" s="158"/>
+      <c r="A372" s="148"/>
     </row>
     <row r="373">
-      <c r="A373" s="158"/>
+      <c r="A373" s="148"/>
     </row>
     <row r="374">
-      <c r="A374" s="158"/>
+      <c r="A374" s="148"/>
     </row>
     <row r="375">
-      <c r="A375" s="158"/>
+      <c r="A375" s="148"/>
     </row>
     <row r="376">
-      <c r="A376" s="158"/>
+      <c r="A376" s="148"/>
     </row>
     <row r="377">
-      <c r="A377" s="158"/>
+      <c r="A377" s="148"/>
     </row>
     <row r="378">
-      <c r="A378" s="158"/>
+      <c r="A378" s="148"/>
     </row>
     <row r="379">
-      <c r="A379" s="158"/>
+      <c r="A379" s="148"/>
     </row>
     <row r="380">
-      <c r="A380" s="158"/>
+      <c r="A380" s="148"/>
     </row>
     <row r="381">
-      <c r="A381" s="158"/>
+      <c r="A381" s="148"/>
     </row>
     <row r="382">
-      <c r="A382" s="158"/>
+      <c r="A382" s="148"/>
     </row>
     <row r="383">
-      <c r="A383" s="158"/>
+      <c r="A383" s="148"/>
     </row>
     <row r="384">
-      <c r="A384" s="158"/>
+      <c r="A384" s="148"/>
     </row>
     <row r="385">
-      <c r="A385" s="158"/>
+      <c r="A385" s="148"/>
     </row>
     <row r="386">
-      <c r="A386" s="158"/>
+      <c r="A386" s="148"/>
     </row>
     <row r="387">
-      <c r="A387" s="158"/>
+      <c r="A387" s="148"/>
     </row>
     <row r="388">
-      <c r="A388" s="158"/>
+      <c r="A388" s="148"/>
     </row>
     <row r="389">
-      <c r="A389" s="158"/>
+      <c r="A389" s="148"/>
     </row>
     <row r="390">
-      <c r="A390" s="158"/>
+      <c r="A390" s="148"/>
     </row>
     <row r="391">
-      <c r="A391" s="158"/>
+      <c r="A391" s="148"/>
     </row>
     <row r="392">
-      <c r="A392" s="158"/>
+      <c r="A392" s="148"/>
     </row>
     <row r="393">
-      <c r="A393" s="158"/>
+      <c r="A393" s="148"/>
     </row>
     <row r="394">
-      <c r="A394" s="158"/>
+      <c r="A394" s="148"/>
     </row>
     <row r="395">
-      <c r="A395" s="158"/>
+      <c r="A395" s="148"/>
     </row>
     <row r="396">
-      <c r="A396" s="158"/>
+      <c r="A396" s="148"/>
     </row>
     <row r="397">
-      <c r="A397" s="158"/>
+      <c r="A397" s="148"/>
     </row>
     <row r="398">
-      <c r="A398" s="158"/>
+      <c r="A398" s="148"/>
     </row>
     <row r="399">
-      <c r="A399" s="158"/>
+      <c r="A399" s="148"/>
     </row>
     <row r="400">
-      <c r="A400" s="158"/>
+      <c r="A400" s="148"/>
     </row>
     <row r="401">
-      <c r="A401" s="158"/>
+      <c r="A401" s="148"/>
     </row>
     <row r="402">
-      <c r="A402" s="158"/>
+      <c r="A402" s="148"/>
     </row>
     <row r="403">
-      <c r="A403" s="158"/>
+      <c r="A403" s="148"/>
     </row>
     <row r="404">
-      <c r="A404" s="158"/>
+      <c r="A404" s="148"/>
     </row>
     <row r="405">
-      <c r="A405" s="158"/>
+      <c r="A405" s="148"/>
     </row>
     <row r="406">
-      <c r="A406" s="158"/>
+      <c r="A406" s="148"/>
     </row>
     <row r="407">
-      <c r="A407" s="158"/>
+      <c r="A407" s="148"/>
     </row>
     <row r="408">
-      <c r="A408" s="158"/>
+      <c r="A408" s="148"/>
     </row>
     <row r="409">
-      <c r="A409" s="158"/>
+      <c r="A409" s="148"/>
     </row>
     <row r="410">
-      <c r="A410" s="158"/>
+      <c r="A410" s="148"/>
     </row>
     <row r="411">
-      <c r="A411" s="158"/>
+      <c r="A411" s="148"/>
     </row>
     <row r="412">
-      <c r="A412" s="158"/>
+      <c r="A412" s="148"/>
     </row>
     <row r="413">
-      <c r="A413" s="158"/>
+      <c r="A413" s="148"/>
     </row>
     <row r="414">
-      <c r="A414" s="158"/>
+      <c r="A414" s="148"/>
     </row>
     <row r="415">
-      <c r="A415" s="158"/>
+      <c r="A415" s="148"/>
     </row>
     <row r="416">
-      <c r="A416" s="158"/>
+      <c r="A416" s="148"/>
     </row>
     <row r="417">
-      <c r="A417" s="158"/>
+      <c r="A417" s="148"/>
     </row>
     <row r="418">
-      <c r="A418" s="158"/>
+      <c r="A418" s="148"/>
     </row>
     <row r="419">
-      <c r="A419" s="158"/>
+      <c r="A419" s="148"/>
     </row>
     <row r="420">
-      <c r="A420" s="158"/>
+      <c r="A420" s="148"/>
     </row>
     <row r="421">
-      <c r="A421" s="158"/>
+      <c r="A421" s="148"/>
     </row>
     <row r="422">
-      <c r="A422" s="158"/>
+      <c r="A422" s="148"/>
     </row>
     <row r="423">
-      <c r="A423" s="158"/>
+      <c r="A423" s="148"/>
     </row>
     <row r="424">
-      <c r="A424" s="158"/>
+      <c r="A424" s="148"/>
     </row>
     <row r="425">
-      <c r="A425" s="158"/>
+      <c r="A425" s="148"/>
     </row>
     <row r="426">
-      <c r="A426" s="158"/>
+      <c r="A426" s="148"/>
     </row>
     <row r="427">
-      <c r="A427" s="158"/>
+      <c r="A427" s="148"/>
     </row>
     <row r="428">
-      <c r="A428" s="158"/>
+      <c r="A428" s="148"/>
     </row>
     <row r="429">
-      <c r="A429" s="158"/>
+      <c r="A429" s="148"/>
     </row>
     <row r="430">
-      <c r="A430" s="158"/>
+      <c r="A430" s="148"/>
     </row>
     <row r="431">
-      <c r="A431" s="158"/>
+      <c r="A431" s="148"/>
     </row>
     <row r="432">
-      <c r="A432" s="158"/>
+      <c r="A432" s="148"/>
     </row>
     <row r="433">
-      <c r="A433" s="158"/>
+      <c r="A433" s="148"/>
     </row>
     <row r="434">
-      <c r="A434" s="158"/>
+      <c r="A434" s="148"/>
     </row>
     <row r="435">
-      <c r="A435" s="158"/>
+      <c r="A435" s="148"/>
     </row>
     <row r="436">
-      <c r="A436" s="158"/>
+      <c r="A436" s="148"/>
     </row>
     <row r="437">
-      <c r="A437" s="158"/>
+      <c r="A437" s="148"/>
     </row>
     <row r="438">
-      <c r="A438" s="158"/>
+      <c r="A438" s="148"/>
     </row>
     <row r="439">
-      <c r="A439" s="158"/>
+      <c r="A439" s="148"/>
     </row>
     <row r="440">
-      <c r="A440" s="158"/>
+      <c r="A440" s="148"/>
     </row>
     <row r="441">
-      <c r="A441" s="158"/>
+      <c r="A441" s="148"/>
     </row>
     <row r="442">
-      <c r="A442" s="158"/>
+      <c r="A442" s="148"/>
     </row>
     <row r="443">
-      <c r="A443" s="158"/>
+      <c r="A443" s="148"/>
     </row>
     <row r="444">
-      <c r="A444" s="158"/>
+      <c r="A444" s="148"/>
     </row>
     <row r="445">
-      <c r="A445" s="158"/>
+      <c r="A445" s="148"/>
     </row>
     <row r="446">
-      <c r="A446" s="158"/>
+      <c r="A446" s="148"/>
     </row>
     <row r="447">
-      <c r="A447" s="158"/>
+      <c r="A447" s="148"/>
     </row>
     <row r="448">
-      <c r="A448" s="158"/>
+      <c r="A448" s="148"/>
     </row>
     <row r="449">
-      <c r="A449" s="158"/>
+      <c r="A449" s="148"/>
     </row>
     <row r="450">
-      <c r="A450" s="158"/>
+      <c r="A450" s="148"/>
     </row>
     <row r="451">
-      <c r="A451" s="158"/>
+      <c r="A451" s="148"/>
     </row>
     <row r="452">
-      <c r="A452" s="158"/>
+      <c r="A452" s="148"/>
     </row>
     <row r="453">
-      <c r="A453" s="158"/>
+      <c r="A453" s="148"/>
     </row>
     <row r="454">
-      <c r="A454" s="158"/>
+      <c r="A454" s="148"/>
     </row>
     <row r="455">
-      <c r="A455" s="158"/>
+      <c r="A455" s="148"/>
     </row>
     <row r="456">
-      <c r="A456" s="158"/>
+      <c r="A456" s="148"/>
     </row>
     <row r="457">
-      <c r="A457" s="158"/>
+      <c r="A457" s="148"/>
     </row>
     <row r="458">
-      <c r="A458" s="158"/>
+      <c r="A458" s="148"/>
     </row>
     <row r="459">
-      <c r="A459" s="158"/>
+      <c r="A459" s="148"/>
     </row>
     <row r="460">
-      <c r="A460" s="158"/>
+      <c r="A460" s="148"/>
     </row>
     <row r="461">
-      <c r="A461" s="158"/>
+      <c r="A461" s="148"/>
     </row>
     <row r="462">
-      <c r="A462" s="158"/>
+      <c r="A462" s="148"/>
     </row>
     <row r="463">
-      <c r="A463" s="158"/>
+      <c r="A463" s="148"/>
     </row>
     <row r="464">
-      <c r="A464" s="158"/>
+      <c r="A464" s="148"/>
     </row>
     <row r="465">
-      <c r="A465" s="158"/>
+      <c r="A465" s="148"/>
     </row>
     <row r="466">
-      <c r="A466" s="158"/>
+      <c r="A466" s="148"/>
     </row>
     <row r="467">
-      <c r="A467" s="158"/>
+      <c r="A467" s="148"/>
     </row>
     <row r="468">
-      <c r="A468" s="158"/>
+      <c r="A468" s="148"/>
     </row>
     <row r="469">
-      <c r="A469" s="158"/>
+      <c r="A469" s="148"/>
     </row>
     <row r="470">
-      <c r="A470" s="158"/>
+      <c r="A470" s="148"/>
     </row>
     <row r="471">
-      <c r="A471" s="158"/>
+      <c r="A471" s="148"/>
     </row>
     <row r="472">
-      <c r="A472" s="158"/>
+      <c r="A472" s="148"/>
     </row>
     <row r="473">
-      <c r="A473" s="158"/>
+      <c r="A473" s="148"/>
     </row>
     <row r="474">
-      <c r="A474" s="158"/>
+      <c r="A474" s="148"/>
     </row>
     <row r="475">
-      <c r="A475" s="158"/>
+      <c r="A475" s="148"/>
     </row>
     <row r="476">
-      <c r="A476" s="158"/>
+      <c r="A476" s="148"/>
     </row>
     <row r="477">
-      <c r="A477" s="158"/>
+      <c r="A477" s="148"/>
     </row>
     <row r="478">
-      <c r="A478" s="158"/>
+      <c r="A478" s="148"/>
     </row>
     <row r="479">
-      <c r="A479" s="158"/>
+      <c r="A479" s="148"/>
     </row>
     <row r="480">
-      <c r="A480" s="158"/>
+      <c r="A480" s="148"/>
     </row>
     <row r="481">
-      <c r="A481" s="158"/>
+      <c r="A481" s="148"/>
     </row>
     <row r="482">
-      <c r="A482" s="158"/>
+      <c r="A482" s="148"/>
     </row>
     <row r="483">
-      <c r="A483" s="158"/>
+      <c r="A483" s="148"/>
     </row>
     <row r="484">
-      <c r="A484" s="158"/>
+      <c r="A484" s="148"/>
     </row>
     <row r="485">
-      <c r="A485" s="158"/>
+      <c r="A485" s="148"/>
     </row>
     <row r="486">
-      <c r="A486" s="158"/>
+      <c r="A486" s="148"/>
     </row>
     <row r="487">
-      <c r="A487" s="158"/>
+      <c r="A487" s="148"/>
     </row>
     <row r="488">
-      <c r="A488" s="158"/>
+      <c r="A488" s="148"/>
     </row>
     <row r="489">
-      <c r="A489" s="158"/>
+      <c r="A489" s="148"/>
     </row>
     <row r="490">
-      <c r="A490" s="158"/>
+      <c r="A490" s="148"/>
     </row>
     <row r="491">
-      <c r="A491" s="158"/>
+      <c r="A491" s="148"/>
     </row>
     <row r="492">
-      <c r="A492" s="158"/>
+      <c r="A492" s="148"/>
     </row>
     <row r="493">
-      <c r="A493" s="158"/>
+      <c r="A493" s="148"/>
     </row>
     <row r="494">
-      <c r="A494" s="158"/>
+      <c r="A494" s="148"/>
     </row>
     <row r="495">
-      <c r="A495" s="158"/>
+      <c r="A495" s="148"/>
     </row>
     <row r="496">
-      <c r="A496" s="158"/>
+      <c r="A496" s="148"/>
     </row>
     <row r="497">
-      <c r="A497" s="158"/>
+      <c r="A497" s="148"/>
     </row>
     <row r="498">
-      <c r="A498" s="158"/>
+      <c r="A498" s="148"/>
     </row>
     <row r="499">
-      <c r="A499" s="158"/>
+      <c r="A499" s="148"/>
     </row>
     <row r="500">
-      <c r="A500" s="158"/>
+      <c r="A500" s="148"/>
     </row>
     <row r="501">
-      <c r="A501" s="158"/>
+      <c r="A501" s="148"/>
     </row>
     <row r="502">
-      <c r="A502" s="158"/>
+      <c r="A502" s="148"/>
     </row>
     <row r="503">
-      <c r="A503" s="158"/>
+      <c r="A503" s="148"/>
     </row>
     <row r="504">
-      <c r="A504" s="158"/>
+      <c r="A504" s="148"/>
     </row>
     <row r="505">
-      <c r="A505" s="158"/>
+      <c r="A505" s="148"/>
     </row>
     <row r="506">
-      <c r="A506" s="158"/>
+      <c r="A506" s="148"/>
     </row>
     <row r="507">
-      <c r="A507" s="158"/>
+      <c r="A507" s="148"/>
     </row>
     <row r="508">
-      <c r="A508" s="158"/>
+      <c r="A508" s="148"/>
     </row>
     <row r="509">
-      <c r="A509" s="158"/>
+      <c r="A509" s="148"/>
     </row>
     <row r="510">
-      <c r="A510" s="158"/>
+      <c r="A510" s="148"/>
     </row>
     <row r="511">
-      <c r="A511" s="158"/>
+      <c r="A511" s="148"/>
     </row>
     <row r="512">
-      <c r="A512" s="158"/>
+      <c r="A512" s="148"/>
     </row>
     <row r="513">
-      <c r="A513" s="158"/>
+      <c r="A513" s="148"/>
     </row>
     <row r="514">
-      <c r="A514" s="158"/>
+      <c r="A514" s="148"/>
     </row>
     <row r="515">
-      <c r="A515" s="158"/>
+      <c r="A515" s="148"/>
     </row>
     <row r="516">
-      <c r="A516" s="158"/>
+      <c r="A516" s="148"/>
     </row>
     <row r="517">
-      <c r="A517" s="158"/>
+      <c r="A517" s="148"/>
     </row>
     <row r="518">
-      <c r="A518" s="158"/>
+      <c r="A518" s="148"/>
     </row>
     <row r="519">
-      <c r="A519" s="158"/>
+      <c r="A519" s="148"/>
     </row>
     <row r="520">
-      <c r="A520" s="158"/>
+      <c r="A520" s="148"/>
     </row>
     <row r="521">
-      <c r="A521" s="158"/>
+      <c r="A521" s="148"/>
     </row>
     <row r="522">
-      <c r="A522" s="158"/>
+      <c r="A522" s="148"/>
     </row>
     <row r="523">
-      <c r="A523" s="158"/>
+      <c r="A523" s="148"/>
     </row>
     <row r="524">
-      <c r="A524" s="158"/>
+      <c r="A524" s="148"/>
     </row>
     <row r="525">
-      <c r="A525" s="158"/>
+      <c r="A525" s="148"/>
     </row>
     <row r="526">
-      <c r="A526" s="158"/>
+      <c r="A526" s="148"/>
     </row>
     <row r="527">
-      <c r="A527" s="158"/>
+      <c r="A527" s="148"/>
     </row>
     <row r="528">
-      <c r="A528" s="158"/>
+      <c r="A528" s="148"/>
     </row>
     <row r="529">
-      <c r="A529" s="158"/>
+      <c r="A529" s="148"/>
     </row>
     <row r="530">
-      <c r="A530" s="158"/>
+      <c r="A530" s="148"/>
     </row>
     <row r="531">
-      <c r="A531" s="158"/>
+      <c r="A531" s="148"/>
     </row>
     <row r="532">
-      <c r="A532" s="158"/>
+      <c r="A532" s="148"/>
     </row>
     <row r="533">
-      <c r="A533" s="158"/>
+      <c r="A533" s="148"/>
     </row>
     <row r="534">
-      <c r="A534" s="158"/>
+      <c r="A534" s="148"/>
     </row>
     <row r="535">
-      <c r="A535" s="158"/>
+      <c r="A535" s="148"/>
     </row>
     <row r="536">
-      <c r="A536" s="158"/>
+      <c r="A536" s="148"/>
     </row>
     <row r="537">
-      <c r="A537" s="158"/>
+      <c r="A537" s="148"/>
     </row>
     <row r="538">
-      <c r="A538" s="158"/>
+      <c r="A538" s="148"/>
     </row>
     <row r="539">
-      <c r="A539" s="158"/>
+      <c r="A539" s="148"/>
     </row>
     <row r="540">
-      <c r="A540" s="158"/>
+      <c r="A540" s="148"/>
     </row>
     <row r="541">
-      <c r="A541" s="158"/>
+      <c r="A541" s="148"/>
     </row>
     <row r="542">
-      <c r="A542" s="158"/>
+      <c r="A542" s="148"/>
     </row>
     <row r="543">
-      <c r="A543" s="158"/>
+      <c r="A543" s="148"/>
     </row>
     <row r="544">
-      <c r="A544" s="158"/>
+      <c r="A544" s="148"/>
     </row>
     <row r="545">
-      <c r="A545" s="158"/>
+      <c r="A545" s="148"/>
     </row>
     <row r="546">
-      <c r="A546" s="158"/>
+      <c r="A546" s="148"/>
     </row>
     <row r="547">
-      <c r="A547" s="158"/>
+      <c r="A547" s="148"/>
     </row>
     <row r="548">
-      <c r="A548" s="158"/>
+      <c r="A548" s="148"/>
     </row>
     <row r="549">
-      <c r="A549" s="158"/>
+      <c r="A549" s="148"/>
     </row>
     <row r="550">
-      <c r="A550" s="158"/>
+      <c r="A550" s="148"/>
     </row>
     <row r="551">
-      <c r="A551" s="158"/>
+      <c r="A551" s="148"/>
     </row>
     <row r="552">
-      <c r="A552" s="158"/>
+      <c r="A552" s="148"/>
     </row>
     <row r="553">
-      <c r="A553" s="158"/>
+      <c r="A553" s="148"/>
     </row>
     <row r="554">
-      <c r="A554" s="158"/>
+      <c r="A554" s="148"/>
     </row>
     <row r="555">
-      <c r="A555" s="158"/>
+      <c r="A555" s="148"/>
     </row>
     <row r="556">
-      <c r="A556" s="158"/>
+      <c r="A556" s="148"/>
     </row>
     <row r="557">
-      <c r="A557" s="158"/>
+      <c r="A557" s="148"/>
     </row>
     <row r="558">
-      <c r="A558" s="158"/>
+      <c r="A558" s="148"/>
     </row>
     <row r="559">
-      <c r="A559" s="158"/>
+      <c r="A559" s="148"/>
     </row>
     <row r="560">
-      <c r="A560" s="158"/>
+      <c r="A560" s="148"/>
     </row>
     <row r="561">
-      <c r="A561" s="158"/>
+      <c r="A561" s="148"/>
     </row>
     <row r="562">
-      <c r="A562" s="158"/>
+      <c r="A562" s="148"/>
     </row>
     <row r="563">
-      <c r="A563" s="158"/>
+      <c r="A563" s="148"/>
     </row>
     <row r="564">
-      <c r="A564" s="158"/>
+      <c r="A564" s="148"/>
     </row>
     <row r="565">
-      <c r="A565" s="158"/>
+      <c r="A565" s="148"/>
     </row>
     <row r="566">
-      <c r="A566" s="158"/>
+      <c r="A566" s="148"/>
     </row>
     <row r="567">
-      <c r="A567" s="158"/>
+      <c r="A567" s="148"/>
     </row>
     <row r="568">
-      <c r="A568" s="158"/>
+      <c r="A568" s="148"/>
     </row>
     <row r="569">
-      <c r="A569" s="158"/>
+      <c r="A569" s="148"/>
     </row>
     <row r="570">
-      <c r="A570" s="158"/>
+      <c r="A570" s="148"/>
     </row>
     <row r="571">
-      <c r="A571" s="158"/>
+      <c r="A571" s="148"/>
     </row>
     <row r="572">
-      <c r="A572" s="158"/>
+      <c r="A572" s="148"/>
     </row>
     <row r="573">
-      <c r="A573" s="158"/>
+      <c r="A573" s="148"/>
     </row>
     <row r="574">
-      <c r="A574" s="158"/>
+      <c r="A574" s="148"/>
     </row>
     <row r="575">
-      <c r="A575" s="158"/>
+      <c r="A575" s="148"/>
     </row>
     <row r="576">
-      <c r="A576" s="158"/>
+      <c r="A576" s="148"/>
     </row>
     <row r="577">
-      <c r="A577" s="158"/>
+      <c r="A577" s="148"/>
     </row>
     <row r="578">
-      <c r="A578" s="158"/>
+      <c r="A578" s="148"/>
     </row>
     <row r="579">
-      <c r="A579" s="158"/>
+      <c r="A579" s="148"/>
     </row>
     <row r="580">
-      <c r="A580" s="158"/>
+      <c r="A580" s="148"/>
     </row>
     <row r="581">
-      <c r="A581" s="158"/>
+      <c r="A581" s="148"/>
     </row>
     <row r="582">
-      <c r="A582" s="158"/>
+      <c r="A582" s="148"/>
     </row>
     <row r="583">
-      <c r="A583" s="158"/>
+      <c r="A583" s="148"/>
     </row>
     <row r="584">
-      <c r="A584" s="158"/>
+      <c r="A584" s="148"/>
     </row>
     <row r="585">
-      <c r="A585" s="158"/>
+      <c r="A585" s="148"/>
     </row>
     <row r="586">
-      <c r="A586" s="158"/>
+      <c r="A586" s="148"/>
     </row>
     <row r="587">
-      <c r="A587" s="158"/>
+      <c r="A587" s="148"/>
     </row>
     <row r="588">
-      <c r="A588" s="158"/>
+      <c r="A588" s="148"/>
     </row>
     <row r="589">
-      <c r="A589" s="158"/>
+      <c r="A589" s="148"/>
     </row>
     <row r="590">
-      <c r="A590" s="158"/>
+      <c r="A590" s="148"/>
     </row>
     <row r="591">
-      <c r="A591" s="158"/>
+      <c r="A591" s="148"/>
     </row>
     <row r="592">
-      <c r="A592" s="158"/>
+      <c r="A592" s="148"/>
     </row>
     <row r="593">
-      <c r="A593" s="158"/>
+      <c r="A593" s="148"/>
     </row>
     <row r="594">
-      <c r="A594" s="158"/>
+      <c r="A594" s="148"/>
     </row>
     <row r="595">
-      <c r="A595" s="158"/>
+      <c r="A595" s="148"/>
     </row>
     <row r="596">
-      <c r="A596" s="158"/>
+      <c r="A596" s="148"/>
     </row>
     <row r="597">
-      <c r="A597" s="158"/>
+      <c r="A597" s="148"/>
     </row>
     <row r="598">
-      <c r="A598" s="158"/>
+      <c r="A598" s="148"/>
     </row>
     <row r="599">
-      <c r="A599" s="158"/>
+      <c r="A599" s="148"/>
     </row>
     <row r="600">
-      <c r="A600" s="158"/>
+      <c r="A600" s="148"/>
     </row>
     <row r="601">
-      <c r="A601" s="158"/>
+      <c r="A601" s="148"/>
     </row>
     <row r="602">
-      <c r="A602" s="158"/>
+      <c r="A602" s="148"/>
     </row>
     <row r="603">
-      <c r="A603" s="158"/>
+      <c r="A603" s="148"/>
     </row>
     <row r="604">
-      <c r="A604" s="158"/>
+      <c r="A604" s="148"/>
     </row>
     <row r="605">
-      <c r="A605" s="158"/>
+      <c r="A605" s="148"/>
     </row>
     <row r="606">
-      <c r="A606" s="158"/>
+      <c r="A606" s="148"/>
     </row>
     <row r="607">
-      <c r="A607" s="158"/>
+      <c r="A607" s="148"/>
     </row>
     <row r="608">
-      <c r="A608" s="158"/>
+      <c r="A608" s="148"/>
     </row>
     <row r="609">
-      <c r="A609" s="158"/>
+      <c r="A609" s="148"/>
     </row>
     <row r="610">
-      <c r="A610" s="158"/>
+      <c r="A610" s="148"/>
     </row>
     <row r="611">
-      <c r="A611" s="158"/>
+      <c r="A611" s="148"/>
     </row>
     <row r="612">
-      <c r="A612" s="158"/>
+      <c r="A612" s="148"/>
     </row>
     <row r="613">
-      <c r="A613" s="158"/>
+      <c r="A613" s="148"/>
     </row>
     <row r="614">
-      <c r="A614" s="158"/>
+      <c r="A614" s="148"/>
     </row>
     <row r="615">
-      <c r="A615" s="158"/>
+      <c r="A615" s="148"/>
     </row>
     <row r="616">
-      <c r="A616" s="158"/>
+      <c r="A616" s="148"/>
     </row>
     <row r="617">
-      <c r="A617" s="158"/>
+      <c r="A617" s="148"/>
     </row>
     <row r="618">
-      <c r="A618" s="158"/>
+      <c r="A618" s="148"/>
     </row>
     <row r="619">
-      <c r="A619" s="158"/>
+      <c r="A619" s="148"/>
     </row>
     <row r="620">
-      <c r="A620" s="158"/>
+      <c r="A620" s="148"/>
     </row>
     <row r="621">
-      <c r="A621" s="158"/>
+      <c r="A621" s="148"/>
     </row>
     <row r="622">
-      <c r="A622" s="158"/>
+      <c r="A622" s="148"/>
     </row>
     <row r="623">
-      <c r="A623" s="158"/>
+      <c r="A623" s="148"/>
     </row>
     <row r="624">
-      <c r="A624" s="158"/>
+      <c r="A624" s="148"/>
     </row>
     <row r="625">
-      <c r="A625" s="158"/>
+      <c r="A625" s="148"/>
     </row>
     <row r="626">
-      <c r="A626" s="158"/>
+      <c r="A626" s="148"/>
     </row>
     <row r="627">
-      <c r="A627" s="158"/>
+      <c r="A627" s="148"/>
     </row>
     <row r="628">
-      <c r="A628" s="158"/>
+      <c r="A628" s="148"/>
     </row>
     <row r="629">
-      <c r="A629" s="158"/>
+      <c r="A629" s="148"/>
     </row>
     <row r="630">
-      <c r="A630" s="158"/>
+      <c r="A630" s="148"/>
     </row>
     <row r="631">
-      <c r="A631" s="158"/>
+      <c r="A631" s="148"/>
     </row>
     <row r="632">
-      <c r="A632" s="158"/>
+      <c r="A632" s="148"/>
     </row>
     <row r="633">
-      <c r="A633" s="158"/>
+      <c r="A633" s="148"/>
     </row>
     <row r="634">
-      <c r="A634" s="158"/>
+      <c r="A634" s="148"/>
     </row>
     <row r="635">
-      <c r="A635" s="158"/>
+      <c r="A635" s="148"/>
     </row>
     <row r="636">
-      <c r="A636" s="158"/>
+      <c r="A636" s="148"/>
     </row>
     <row r="637">
-      <c r="A637" s="158"/>
+      <c r="A637" s="148"/>
     </row>
     <row r="638">
-      <c r="A638" s="158"/>
+      <c r="A638" s="148"/>
     </row>
     <row r="639">
-      <c r="A639" s="158"/>
+      <c r="A639" s="148"/>
     </row>
     <row r="640">
-      <c r="A640" s="158"/>
+      <c r="A640" s="148"/>
     </row>
     <row r="641">
-      <c r="A641" s="158"/>
+      <c r="A641" s="148"/>
     </row>
     <row r="642">
-      <c r="A642" s="158"/>
+      <c r="A642" s="148"/>
     </row>
     <row r="643">
-      <c r="A643" s="158"/>
+      <c r="A643" s="148"/>
     </row>
     <row r="644">
-      <c r="A644" s="158"/>
+      <c r="A644" s="148"/>
     </row>
     <row r="645">
-      <c r="A645" s="158"/>
+      <c r="A645" s="148"/>
     </row>
     <row r="646">
-      <c r="A646" s="158"/>
+      <c r="A646" s="148"/>
     </row>
     <row r="647">
-      <c r="A647" s="158"/>
+      <c r="A647" s="148"/>
     </row>
     <row r="648">
-      <c r="A648" s="158"/>
+      <c r="A648" s="148"/>
     </row>
     <row r="649">
-      <c r="A649" s="158"/>
+      <c r="A649" s="148"/>
     </row>
     <row r="650">
-      <c r="A650" s="158"/>
+      <c r="A650" s="148"/>
     </row>
     <row r="651">
-      <c r="A651" s="158"/>
+      <c r="A651" s="148"/>
     </row>
     <row r="652">
-      <c r="A652" s="158"/>
+      <c r="A652" s="148"/>
     </row>
     <row r="653">
-      <c r="A653" s="158"/>
+      <c r="A653" s="148"/>
     </row>
     <row r="654">
-      <c r="A654" s="158"/>
+      <c r="A654" s="148"/>
     </row>
     <row r="655">
-      <c r="A655" s="158"/>
+      <c r="A655" s="148"/>
     </row>
     <row r="656">
-      <c r="A656" s="158"/>
+      <c r="A656" s="148"/>
     </row>
     <row r="657">
-      <c r="A657" s="158"/>
+      <c r="A657" s="148"/>
     </row>
     <row r="658">
-      <c r="A658" s="158"/>
+      <c r="A658" s="148"/>
     </row>
     <row r="659">
-      <c r="A659" s="158"/>
+      <c r="A659" s="148"/>
     </row>
     <row r="660">
-      <c r="A660" s="158"/>
+      <c r="A660" s="148"/>
     </row>
     <row r="661">
-      <c r="A661" s="158"/>
+      <c r="A661" s="148"/>
     </row>
     <row r="662">
-      <c r="A662" s="158"/>
+      <c r="A662" s="148"/>
     </row>
     <row r="663">
-      <c r="A663" s="158"/>
+      <c r="A663" s="148"/>
     </row>
     <row r="664">
-      <c r="A664" s="158"/>
+      <c r="A664" s="148"/>
     </row>
     <row r="665">
-      <c r="A665" s="158"/>
+      <c r="A665" s="148"/>
     </row>
     <row r="666">
-      <c r="A666" s="158"/>
+      <c r="A666" s="148"/>
     </row>
     <row r="667">
-      <c r="A667" s="158"/>
+      <c r="A667" s="148"/>
     </row>
     <row r="668">
-      <c r="A668" s="158"/>
+      <c r="A668" s="148"/>
     </row>
     <row r="669">
-      <c r="A669" s="158"/>
+      <c r="A669" s="148"/>
     </row>
     <row r="670">
-      <c r="A670" s="158"/>
+      <c r="A670" s="148"/>
     </row>
     <row r="671">
-      <c r="A671" s="158"/>
+      <c r="A671" s="148"/>
     </row>
     <row r="672">
-      <c r="A672" s="158"/>
+      <c r="A672" s="148"/>
     </row>
     <row r="673">
-      <c r="A673" s="158"/>
+      <c r="A673" s="148"/>
     </row>
     <row r="674">
-      <c r="A674" s="158"/>
+      <c r="A674" s="148"/>
     </row>
     <row r="675">
-      <c r="A675" s="158"/>
+      <c r="A675" s="148"/>
     </row>
     <row r="676">
-      <c r="A676" s="158"/>
+      <c r="A676" s="148"/>
     </row>
     <row r="677">
-      <c r="A677" s="158"/>
+      <c r="A677" s="148"/>
     </row>
     <row r="678">
-      <c r="A678" s="158"/>
+      <c r="A678" s="148"/>
     </row>
     <row r="679">
-      <c r="A679" s="158"/>
+      <c r="A679" s="148"/>
     </row>
     <row r="680">
-      <c r="A680" s="158"/>
+      <c r="A680" s="148"/>
     </row>
     <row r="681">
-      <c r="A681" s="158"/>
+      <c r="A681" s="148"/>
     </row>
     <row r="682">
-      <c r="A682" s="158"/>
+      <c r="A682" s="148"/>
     </row>
     <row r="683">
-      <c r="A683" s="158"/>
+      <c r="A683" s="148"/>
     </row>
     <row r="684">
-      <c r="A684" s="158"/>
+      <c r="A684" s="148"/>
     </row>
     <row r="685">
-      <c r="A685" s="158"/>
+      <c r="A685" s="148"/>
     </row>
     <row r="686">
-      <c r="A686" s="158"/>
+      <c r="A686" s="148"/>
     </row>
     <row r="687">
-      <c r="A687" s="158"/>
+      <c r="A687" s="148"/>
     </row>
     <row r="688">
-      <c r="A688" s="158"/>
+      <c r="A688" s="148"/>
     </row>
     <row r="689">
-      <c r="A689" s="158"/>
+      <c r="A689" s="148"/>
     </row>
     <row r="690">
-      <c r="A690" s="158"/>
+      <c r="A690" s="148"/>
     </row>
     <row r="691">
-      <c r="A691" s="158"/>
+      <c r="A691" s="148"/>
     </row>
     <row r="692">
-      <c r="A692" s="158"/>
+      <c r="A692" s="148"/>
     </row>
     <row r="693">
-      <c r="A693" s="158"/>
+      <c r="A693" s="148"/>
     </row>
     <row r="694">
-      <c r="A694" s="158"/>
+      <c r="A694" s="148"/>
     </row>
     <row r="695">
-      <c r="A695" s="158"/>
+      <c r="A695" s="148"/>
     </row>
     <row r="696">
-      <c r="A696" s="158"/>
+      <c r="A696" s="148"/>
     </row>
     <row r="697">
-      <c r="A697" s="158"/>
+      <c r="A697" s="148"/>
     </row>
     <row r="698">
-      <c r="A698" s="158"/>
+      <c r="A698" s="148"/>
     </row>
     <row r="699">
-      <c r="A699" s="158"/>
+      <c r="A699" s="148"/>
     </row>
     <row r="700">
-      <c r="A700" s="158"/>
+      <c r="A700" s="148"/>
     </row>
     <row r="701">
-      <c r="A701" s="158"/>
+      <c r="A701" s="148"/>
     </row>
     <row r="702">
-      <c r="A702" s="158"/>
+      <c r="A702" s="148"/>
     </row>
     <row r="703">
-      <c r="A703" s="158"/>
+      <c r="A703" s="148"/>
     </row>
     <row r="704">
-      <c r="A704" s="158"/>
+      <c r="A704" s="148"/>
     </row>
     <row r="705">
-      <c r="A705" s="158"/>
+      <c r="A705" s="148"/>
     </row>
     <row r="706">
-      <c r="A706" s="158"/>
+      <c r="A706" s="148"/>
     </row>
     <row r="707">
-      <c r="A707" s="158"/>
+      <c r="A707" s="148"/>
     </row>
     <row r="708">
-      <c r="A708" s="158"/>
+      <c r="A708" s="148"/>
     </row>
     <row r="709">
-      <c r="A709" s="158"/>
+      <c r="A709" s="148"/>
     </row>
     <row r="710">
-      <c r="A710" s="158"/>
+      <c r="A710" s="148"/>
     </row>
     <row r="711">
-      <c r="A711" s="158"/>
+      <c r="A711" s="148"/>
     </row>
     <row r="712">
-      <c r="A712" s="158"/>
+      <c r="A712" s="148"/>
     </row>
     <row r="713">
-      <c r="A713" s="158"/>
+      <c r="A713" s="148"/>
     </row>
     <row r="714">
-      <c r="A714" s="158"/>
+      <c r="A714" s="148"/>
     </row>
     <row r="715">
-      <c r="A715" s="158"/>
+      <c r="A715" s="148"/>
     </row>
     <row r="716">
-      <c r="A716" s="158"/>
+      <c r="A716" s="148"/>
     </row>
     <row r="717">
-      <c r="A717" s="158"/>
+      <c r="A717" s="148"/>
     </row>
     <row r="718">
-      <c r="A718" s="158"/>
+      <c r="A718" s="148"/>
     </row>
     <row r="719">
-      <c r="A719" s="158"/>
+      <c r="A719" s="148"/>
     </row>
     <row r="720">
-      <c r="A720" s="158"/>
+      <c r="A720" s="148"/>
     </row>
     <row r="721">
-      <c r="A721" s="158"/>
+      <c r="A721" s="148"/>
     </row>
     <row r="722">
-      <c r="A722" s="158"/>
+      <c r="A722" s="148"/>
     </row>
     <row r="723">
-      <c r="A723" s="158"/>
+      <c r="A723" s="148"/>
     </row>
     <row r="724">
-      <c r="A724" s="158"/>
+      <c r="A724" s="148"/>
     </row>
     <row r="725">
-      <c r="A725" s="158"/>
+      <c r="A725" s="148"/>
     </row>
     <row r="726">
-      <c r="A726" s="158"/>
+      <c r="A726" s="148"/>
     </row>
     <row r="727">
-      <c r="A727" s="158"/>
+      <c r="A727" s="148"/>
     </row>
     <row r="728">
-      <c r="A728" s="158"/>
+      <c r="A728" s="148"/>
     </row>
     <row r="729">
-      <c r="A729" s="158"/>
+      <c r="A729" s="148"/>
     </row>
     <row r="730">
-      <c r="A730" s="158"/>
+      <c r="A730" s="148"/>
     </row>
     <row r="731">
-      <c r="A731" s="158"/>
+      <c r="A731" s="148"/>
     </row>
     <row r="732">
-      <c r="A732" s="158"/>
+      <c r="A732" s="148"/>
     </row>
     <row r="733">
-      <c r="A733" s="158"/>
+      <c r="A733" s="148"/>
     </row>
     <row r="734">
-      <c r="A734" s="158"/>
+      <c r="A734" s="148"/>
     </row>
     <row r="735">
-      <c r="A735" s="158"/>
+      <c r="A735" s="148"/>
     </row>
     <row r="736">
-      <c r="A736" s="158"/>
+      <c r="A736" s="148"/>
     </row>
     <row r="737">
-      <c r="A737" s="158"/>
+      <c r="A737" s="148"/>
     </row>
     <row r="738">
-      <c r="A738" s="158"/>
+      <c r="A738" s="148"/>
     </row>
     <row r="739">
-      <c r="A739" s="158"/>
+      <c r="A739" s="148"/>
     </row>
     <row r="740">
-      <c r="A740" s="158"/>
+      <c r="A740" s="148"/>
     </row>
     <row r="741">
-      <c r="A741" s="158"/>
+      <c r="A741" s="148"/>
     </row>
     <row r="742">
-      <c r="A742" s="158"/>
+      <c r="A742" s="148"/>
     </row>
     <row r="743">
-      <c r="A743" s="158"/>
+      <c r="A743" s="148"/>
     </row>
     <row r="744">
-      <c r="A744" s="158"/>
+      <c r="A744" s="148"/>
     </row>
     <row r="745">
-      <c r="A745" s="158"/>
+      <c r="A745" s="148"/>
     </row>
     <row r="746">
-      <c r="A746" s="158"/>
+      <c r="A746" s="148"/>
     </row>
     <row r="747">
-      <c r="A747" s="158"/>
+      <c r="A747" s="148"/>
     </row>
     <row r="748">
-      <c r="A748" s="158"/>
+      <c r="A748" s="148"/>
     </row>
     <row r="749">
-      <c r="A749" s="158"/>
+      <c r="A749" s="148"/>
     </row>
     <row r="750">
-      <c r="A750" s="158"/>
+      <c r="A750" s="148"/>
     </row>
     <row r="751">
-      <c r="A751" s="158"/>
+      <c r="A751" s="148"/>
     </row>
     <row r="752">
-      <c r="A752" s="158"/>
+      <c r="A752" s="148"/>
     </row>
     <row r="753">
-      <c r="A753" s="158"/>
+      <c r="A753" s="148"/>
     </row>
     <row r="754">
-      <c r="A754" s="158"/>
+      <c r="A754" s="148"/>
     </row>
     <row r="755">
-      <c r="A755" s="158"/>
+      <c r="A755" s="148"/>
     </row>
     <row r="756">
-      <c r="A756" s="158"/>
+      <c r="A756" s="148"/>
     </row>
     <row r="757">
-      <c r="A757" s="158"/>
+      <c r="A757" s="148"/>
     </row>
     <row r="758">
-      <c r="A758" s="158"/>
+      <c r="A758" s="148"/>
     </row>
     <row r="759">
-      <c r="A759" s="158"/>
+      <c r="A759" s="148"/>
     </row>
     <row r="760">
-      <c r="A760" s="158"/>
+      <c r="A760" s="148"/>
     </row>
     <row r="761">
-      <c r="A761" s="158"/>
+      <c r="A761" s="148"/>
     </row>
     <row r="762">
-      <c r="A762" s="158"/>
+      <c r="A762" s="148"/>
     </row>
     <row r="763">
-      <c r="A763" s="158"/>
+      <c r="A763" s="148"/>
     </row>
     <row r="764">
-      <c r="A764" s="158"/>
+      <c r="A764" s="148"/>
     </row>
     <row r="765">
-      <c r="A765" s="158"/>
+      <c r="A765" s="148"/>
     </row>
     <row r="766">
-      <c r="A766" s="158"/>
+      <c r="A766" s="148"/>
     </row>
     <row r="767">
-      <c r="A767" s="158"/>
+      <c r="A767" s="148"/>
     </row>
     <row r="768">
-      <c r="A768" s="158"/>
+      <c r="A768" s="148"/>
     </row>
     <row r="769">
-      <c r="A769" s="158"/>
+      <c r="A769" s="148"/>
     </row>
     <row r="770">
-      <c r="A770" s="158"/>
+      <c r="A770" s="148"/>
     </row>
     <row r="771">
-      <c r="A771" s="158"/>
+      <c r="A771" s="148"/>
     </row>
     <row r="772">
-      <c r="A772" s="158"/>
+      <c r="A772" s="148"/>
     </row>
     <row r="773">
-      <c r="A773" s="158"/>
+      <c r="A773" s="148"/>
     </row>
     <row r="774">
-      <c r="A774" s="158"/>
+      <c r="A774" s="148"/>
     </row>
     <row r="775">
-      <c r="A775" s="158"/>
+      <c r="A775" s="148"/>
     </row>
     <row r="776">
-      <c r="A776" s="158"/>
+      <c r="A776" s="148"/>
     </row>
     <row r="777">
-      <c r="A777" s="158"/>
+      <c r="A777" s="148"/>
     </row>
     <row r="778">
-      <c r="A778" s="158"/>
+      <c r="A778" s="148"/>
     </row>
     <row r="779">
-      <c r="A779" s="158"/>
+      <c r="A779" s="148"/>
     </row>
     <row r="780">
-      <c r="A780" s="158"/>
+      <c r="A780" s="148"/>
     </row>
     <row r="781">
-      <c r="A781" s="158"/>
+      <c r="A781" s="148"/>
     </row>
     <row r="782">
-      <c r="A782" s="158"/>
+      <c r="A782" s="148"/>
     </row>
     <row r="783">
-      <c r="A783" s="158"/>
+      <c r="A783" s="148"/>
     </row>
     <row r="784">
-      <c r="A784" s="158"/>
+      <c r="A784" s="148"/>
     </row>
     <row r="785">
-      <c r="A785" s="158"/>
+      <c r="A785" s="148"/>
     </row>
     <row r="786">
-      <c r="A786" s="158"/>
+      <c r="A786" s="148"/>
     </row>
     <row r="787">
-      <c r="A787" s="158"/>
+      <c r="A787" s="148"/>
     </row>
     <row r="788">
-      <c r="A788" s="158"/>
+      <c r="A788" s="148"/>
     </row>
     <row r="789">
-      <c r="A789" s="158"/>
+      <c r="A789" s="148"/>
     </row>
     <row r="790">
-      <c r="A790" s="158"/>
+      <c r="A790" s="148"/>
     </row>
     <row r="791">
-      <c r="A791" s="158"/>
+      <c r="A791" s="148"/>
     </row>
     <row r="792">
-      <c r="A792" s="158"/>
+      <c r="A792" s="148"/>
     </row>
     <row r="793">
-      <c r="A793" s="158"/>
+      <c r="A793" s="148"/>
     </row>
     <row r="794">
-      <c r="A794" s="158"/>
+      <c r="A794" s="148"/>
     </row>
     <row r="795">
-      <c r="A795" s="158"/>
+      <c r="A795" s="148"/>
     </row>
     <row r="796">
-      <c r="A796" s="158"/>
+      <c r="A796" s="148"/>
     </row>
     <row r="797">
-      <c r="A797" s="158"/>
+      <c r="A797" s="148"/>
     </row>
     <row r="798">
-      <c r="A798" s="158"/>
+      <c r="A798" s="148"/>
     </row>
     <row r="799">
-      <c r="A799" s="158"/>
+      <c r="A799" s="148"/>
     </row>
     <row r="800">
-      <c r="A800" s="158"/>
+      <c r="A800" s="148"/>
     </row>
     <row r="801">
-      <c r="A801" s="158"/>
+      <c r="A801" s="148"/>
     </row>
     <row r="802">
-      <c r="A802" s="158"/>
+      <c r="A802" s="148"/>
     </row>
     <row r="803">
-      <c r="A803" s="158"/>
+      <c r="A803" s="148"/>
     </row>
     <row r="804">
-      <c r="A804" s="158"/>
+      <c r="A804" s="148"/>
     </row>
     <row r="805">
-      <c r="A805" s="158"/>
+      <c r="A805" s="148"/>
     </row>
     <row r="806">
-      <c r="A806" s="158"/>
+      <c r="A806" s="148"/>
     </row>
     <row r="807">
-      <c r="A807" s="158"/>
+      <c r="A807" s="148"/>
     </row>
     <row r="808">
-      <c r="A808" s="158"/>
+      <c r="A808" s="148"/>
     </row>
     <row r="809">
-      <c r="A809" s="158"/>
+      <c r="A809" s="148"/>
     </row>
     <row r="810">
-      <c r="A810" s="158"/>
+      <c r="A810" s="148"/>
     </row>
     <row r="811">
-      <c r="A811" s="158"/>
+      <c r="A811" s="148"/>
     </row>
     <row r="812">
-      <c r="A812" s="158"/>
+      <c r="A812" s="148"/>
     </row>
     <row r="813">
-      <c r="A813" s="158"/>
+      <c r="A813" s="148"/>
     </row>
     <row r="814">
-      <c r="A814" s="158"/>
+      <c r="A814" s="148"/>
     </row>
     <row r="815">
-      <c r="A815" s="158"/>
+      <c r="A815" s="148"/>
     </row>
     <row r="816">
-      <c r="A816" s="158"/>
+      <c r="A816" s="148"/>
     </row>
     <row r="817">
-      <c r="A817" s="158"/>
+      <c r="A817" s="148"/>
     </row>
     <row r="818">
-      <c r="A818" s="158"/>
+      <c r="A818" s="148"/>
     </row>
     <row r="819">
-      <c r="A819" s="158"/>
+      <c r="A819" s="148"/>
     </row>
     <row r="820">
-      <c r="A820" s="158"/>
+      <c r="A820" s="148"/>
     </row>
     <row r="821">
-      <c r="A821" s="158"/>
+      <c r="A821" s="148"/>
     </row>
     <row r="822">
-      <c r="A822" s="158"/>
+      <c r="A822" s="148"/>
     </row>
     <row r="823">
-      <c r="A823" s="158"/>
+      <c r="A823" s="148"/>
     </row>
     <row r="824">
-      <c r="A824" s="158"/>
+      <c r="A824" s="148"/>
     </row>
     <row r="825">
-      <c r="A825" s="158"/>
+      <c r="A825" s="148"/>
     </row>
     <row r="826">
-      <c r="A826" s="158"/>
+      <c r="A826" s="148"/>
     </row>
     <row r="827">
-      <c r="A827" s="158"/>
+      <c r="A827" s="148"/>
     </row>
     <row r="828">
-      <c r="A828" s="158"/>
+      <c r="A828" s="148"/>
     </row>
     <row r="829">
-      <c r="A829" s="158"/>
+      <c r="A829" s="148"/>
     </row>
     <row r="830">
-      <c r="A830" s="158"/>
+      <c r="A830" s="148"/>
     </row>
     <row r="831">
-      <c r="A831" s="158"/>
+      <c r="A831" s="148"/>
     </row>
     <row r="832">
-      <c r="A832" s="158"/>
+      <c r="A832" s="148"/>
     </row>
     <row r="833">
-      <c r="A833" s="158"/>
+      <c r="A833" s="148"/>
     </row>
     <row r="834">
-      <c r="A834" s="158"/>
+      <c r="A834" s="148"/>
     </row>
     <row r="835">
-      <c r="A835" s="158"/>
+      <c r="A835" s="148"/>
     </row>
     <row r="836">
-      <c r="A836" s="158"/>
+      <c r="A836" s="148"/>
     </row>
     <row r="837">
-      <c r="A837" s="158"/>
+      <c r="A837" s="148"/>
     </row>
     <row r="838">
-      <c r="A838" s="158"/>
+      <c r="A838" s="148"/>
     </row>
     <row r="839">
-      <c r="A839" s="158"/>
+      <c r="A839" s="148"/>
     </row>
     <row r="840">
-      <c r="A840" s="158"/>
+      <c r="A840" s="148"/>
     </row>
     <row r="841">
-      <c r="A841" s="158"/>
+      <c r="A841" s="148"/>
     </row>
     <row r="842">
-      <c r="A842" s="158"/>
+      <c r="A842" s="148"/>
     </row>
     <row r="843">
-      <c r="A843" s="158"/>
+      <c r="A843" s="148"/>
     </row>
     <row r="844">
-      <c r="A844" s="158"/>
+      <c r="A844" s="148"/>
     </row>
     <row r="845">
-      <c r="A845" s="158"/>
+      <c r="A845" s="148"/>
     </row>
     <row r="846">
-      <c r="A846" s="158"/>
+      <c r="A846" s="148"/>
     </row>
     <row r="847">
-      <c r="A847" s="158"/>
+      <c r="A847" s="148"/>
     </row>
     <row r="848">
-      <c r="A848" s="158"/>
+      <c r="A848" s="148"/>
     </row>
     <row r="849">
-      <c r="A849" s="158"/>
+      <c r="A849" s="148"/>
     </row>
     <row r="850">
-      <c r="A850" s="158"/>
+      <c r="A850" s="148"/>
     </row>
     <row r="851">
-      <c r="A851" s="158"/>
+      <c r="A851" s="148"/>
     </row>
     <row r="852">
-      <c r="A852" s="158"/>
+      <c r="A852" s="148"/>
     </row>
     <row r="853">
-      <c r="A853" s="158"/>
+      <c r="A853" s="148"/>
     </row>
     <row r="854">
-      <c r="A854" s="158"/>
+      <c r="A854" s="148"/>
     </row>
     <row r="855">
-      <c r="A855" s="158"/>
+      <c r="A855" s="148"/>
     </row>
     <row r="856">
-      <c r="A856" s="158"/>
+      <c r="A856" s="148"/>
     </row>
     <row r="857">
-      <c r="A857" s="158"/>
+      <c r="A857" s="148"/>
     </row>
     <row r="858">
-      <c r="A858" s="158"/>
+      <c r="A858" s="148"/>
     </row>
     <row r="859">
-      <c r="A859" s="158"/>
+      <c r="A859" s="148"/>
     </row>
     <row r="860">
-      <c r="A860" s="158"/>
+      <c r="A860" s="148"/>
     </row>
     <row r="861">
-      <c r="A861" s="158"/>
+      <c r="A861" s="148"/>
     </row>
     <row r="862">
-      <c r="A862" s="158"/>
+      <c r="A862" s="148"/>
     </row>
     <row r="863">
-      <c r="A863" s="158"/>
+      <c r="A863" s="148"/>
     </row>
     <row r="864">
-      <c r="A864" s="158"/>
+      <c r="A864" s="148"/>
     </row>
     <row r="865">
-      <c r="A865" s="158"/>
+      <c r="A865" s="148"/>
     </row>
     <row r="866">
-      <c r="A866" s="158"/>
+      <c r="A866" s="148"/>
     </row>
     <row r="867">
-      <c r="A867" s="158"/>
+      <c r="A867" s="148"/>
     </row>
     <row r="868">
-      <c r="A868" s="158"/>
+      <c r="A868" s="148"/>
     </row>
     <row r="869">
-      <c r="A869" s="158"/>
+      <c r="A869" s="148"/>
     </row>
     <row r="870">
-      <c r="A870" s="158"/>
+      <c r="A870" s="148"/>
     </row>
     <row r="871">
-      <c r="A871" s="158"/>
+      <c r="A871" s="148"/>
     </row>
     <row r="872">
-      <c r="A872" s="158"/>
+      <c r="A872" s="148"/>
     </row>
     <row r="873">
-      <c r="A873" s="158"/>
+      <c r="A873" s="148"/>
     </row>
     <row r="874">
-      <c r="A874" s="158"/>
+      <c r="A874" s="148"/>
     </row>
     <row r="875">
-      <c r="A875" s="158"/>
+      <c r="A875" s="148"/>
     </row>
     <row r="876">
-      <c r="A876" s="158"/>
+      <c r="A876" s="148"/>
     </row>
     <row r="877">
-      <c r="A877" s="158"/>
+      <c r="A877" s="148"/>
     </row>
     <row r="878">
-      <c r="A878" s="158"/>
+      <c r="A878" s="148"/>
     </row>
     <row r="879">
-      <c r="A879" s="158"/>
+      <c r="A879" s="148"/>
     </row>
     <row r="880">
-      <c r="A880" s="158"/>
+      <c r="A880" s="148"/>
     </row>
     <row r="881">
-      <c r="A881" s="158"/>
+      <c r="A881" s="148"/>
     </row>
     <row r="882">
-      <c r="A882" s="158"/>
+      <c r="A882" s="148"/>
     </row>
     <row r="883">
-      <c r="A883" s="158"/>
+      <c r="A883" s="148"/>
     </row>
     <row r="884">
-      <c r="A884" s="158"/>
+      <c r="A884" s="148"/>
     </row>
     <row r="885">
-      <c r="A885" s="158"/>
+      <c r="A885" s="148"/>
     </row>
     <row r="886">
-      <c r="A886" s="158"/>
+      <c r="A886" s="148"/>
     </row>
     <row r="887">
-      <c r="A887" s="158"/>
+      <c r="A887" s="148"/>
     </row>
     <row r="888">
-      <c r="A888" s="158"/>
+      <c r="A888" s="148"/>
     </row>
     <row r="889">
-      <c r="A889" s="158"/>
+      <c r="A889" s="148"/>
     </row>
     <row r="890">
-      <c r="A890" s="158"/>
+      <c r="A890" s="148"/>
     </row>
     <row r="891">
-      <c r="A891" s="158"/>
+      <c r="A891" s="148"/>
     </row>
     <row r="892">
-      <c r="A892" s="158"/>
+      <c r="A892" s="148"/>
     </row>
     <row r="893">
-      <c r="A893" s="158"/>
+      <c r="A893" s="148"/>
     </row>
     <row r="894">
-      <c r="A894" s="158"/>
+      <c r="A894" s="148"/>
     </row>
     <row r="895">
-      <c r="A895" s="158"/>
+      <c r="A895" s="148"/>
     </row>
     <row r="896">
-      <c r="A896" s="158"/>
+      <c r="A896" s="148"/>
     </row>
     <row r="897">
-      <c r="A897" s="158"/>
+      <c r="A897" s="148"/>
     </row>
     <row r="898">
-      <c r="A898" s="158"/>
+      <c r="A898" s="148"/>
     </row>
     <row r="899">
-      <c r="A899" s="158"/>
+      <c r="A899" s="148"/>
     </row>
     <row r="900">
-      <c r="A900" s="158"/>
+      <c r="A900" s="148"/>
     </row>
     <row r="901">
-      <c r="A901" s="158"/>
+      <c r="A901" s="148"/>
     </row>
     <row r="902">
-      <c r="A902" s="158"/>
+      <c r="A902" s="148"/>
     </row>
     <row r="903">
-      <c r="A903" s="158"/>
+      <c r="A903" s="148"/>
     </row>
     <row r="904">
-      <c r="A904" s="158"/>
+      <c r="A904" s="148"/>
     </row>
     <row r="905">
-      <c r="A905" s="158"/>
+      <c r="A905" s="148"/>
     </row>
     <row r="906">
-      <c r="A906" s="158"/>
+      <c r="A906" s="148"/>
     </row>
     <row r="907">
-      <c r="A907" s="158"/>
+      <c r="A907" s="148"/>
     </row>
     <row r="908">
-      <c r="A908" s="158"/>
+      <c r="A908" s="148"/>
     </row>
     <row r="909">
-      <c r="A909" s="158"/>
+      <c r="A909" s="148"/>
     </row>
     <row r="910">
-      <c r="A910" s="158"/>
+      <c r="A910" s="148"/>
     </row>
     <row r="911">
-      <c r="A911" s="158"/>
+      <c r="A911" s="148"/>
     </row>
     <row r="912">
-      <c r="A912" s="158"/>
+      <c r="A912" s="148"/>
     </row>
     <row r="913">
-      <c r="A913" s="158"/>
+      <c r="A913" s="148"/>
     </row>
     <row r="914">
-      <c r="A914" s="158"/>
+      <c r="A914" s="148"/>
     </row>
     <row r="915">
-      <c r="A915" s="158"/>
+      <c r="A915" s="148"/>
     </row>
     <row r="916">
-      <c r="A916" s="158"/>
+      <c r="A916" s="148"/>
     </row>
     <row r="917">
-      <c r="A917" s="158"/>
+      <c r="A917" s="148"/>
     </row>
     <row r="918">
-      <c r="A918" s="158"/>
+      <c r="A918" s="148"/>
     </row>
     <row r="919">
-      <c r="A919" s="158"/>
+      <c r="A919" s="148"/>
     </row>
     <row r="920">
-      <c r="A920" s="158"/>
+      <c r="A920" s="148"/>
     </row>
     <row r="921">
-      <c r="A921" s="158"/>
+      <c r="A921" s="148"/>
     </row>
     <row r="922">
-      <c r="A922" s="158"/>
+      <c r="A922" s="148"/>
     </row>
     <row r="923">
-      <c r="A923" s="158"/>
+      <c r="A923" s="148"/>
     </row>
     <row r="924">
-      <c r="A924" s="158"/>
+      <c r="A924" s="148"/>
     </row>
     <row r="925">
-      <c r="A925" s="158"/>
+      <c r="A925" s="148"/>
     </row>
     <row r="926">
-      <c r="A926" s="158"/>
+      <c r="A926" s="148"/>
     </row>
     <row r="927">
-      <c r="A927" s="158"/>
+      <c r="A927" s="148"/>
     </row>
     <row r="928">
-      <c r="A928" s="158"/>
+      <c r="A928" s="148"/>
     </row>
     <row r="929">
-      <c r="A929" s="158"/>
+      <c r="A929" s="148"/>
     </row>
     <row r="930">
-      <c r="A930" s="158"/>
+      <c r="A930" s="148"/>
     </row>
     <row r="931">
-      <c r="A931" s="158"/>
+      <c r="A931" s="148"/>
     </row>
     <row r="932">
-      <c r="A932" s="158"/>
+      <c r="A932" s="148"/>
     </row>
     <row r="933">
-      <c r="A933" s="158"/>
+      <c r="A933" s="148"/>
     </row>
     <row r="934">
-      <c r="A934" s="158"/>
+      <c r="A934" s="148"/>
     </row>
     <row r="935">
-      <c r="A935" s="158"/>
+      <c r="A935" s="148"/>
     </row>
     <row r="936">
-      <c r="A936" s="158"/>
+      <c r="A936" s="148"/>
     </row>
     <row r="937">
-      <c r="A937" s="158"/>
+      <c r="A937" s="148"/>
     </row>
     <row r="938">
-      <c r="A938" s="158"/>
+      <c r="A938" s="148"/>
     </row>
     <row r="939">
-      <c r="A939" s="158"/>
+      <c r="A939" s="148"/>
     </row>
     <row r="940">
-      <c r="A940" s="158"/>
+      <c r="A940" s="148"/>
     </row>
     <row r="941">
-      <c r="A941" s="158"/>
+      <c r="A941" s="148"/>
     </row>
     <row r="942">
-      <c r="A942" s="158"/>
+      <c r="A942" s="148"/>
     </row>
     <row r="943">
-      <c r="A943" s="158"/>
+      <c r="A943" s="148"/>
     </row>
     <row r="944">
-      <c r="A944" s="158"/>
+      <c r="A944" s="148"/>
     </row>
     <row r="945">
-      <c r="A945" s="158"/>
+      <c r="A945" s="148"/>
     </row>
     <row r="946">
-      <c r="A946" s="158"/>
+      <c r="A946" s="148"/>
     </row>
     <row r="947">
-      <c r="A947" s="158"/>
+      <c r="A947" s="148"/>
     </row>
     <row r="948">
-      <c r="A948" s="158"/>
+      <c r="A948" s="148"/>
     </row>
     <row r="949">
-      <c r="A949" s="158"/>
+      <c r="A949" s="148"/>
     </row>
     <row r="950">
-      <c r="A950" s="158"/>
+      <c r="A950" s="148"/>
     </row>
     <row r="951">
-      <c r="A951" s="158"/>
+      <c r="A951" s="148"/>
     </row>
     <row r="952">
-      <c r="A952" s="158"/>
+      <c r="A952" s="148"/>
     </row>
     <row r="953">
-      <c r="A953" s="158"/>
+      <c r="A953" s="148"/>
     </row>
     <row r="954">
-      <c r="A954" s="158"/>
+      <c r="A954" s="148"/>
     </row>
     <row r="955">
-      <c r="A955" s="158"/>
+      <c r="A955" s="148"/>
     </row>
     <row r="956">
-      <c r="A956" s="158"/>
+      <c r="A956" s="148"/>
     </row>
     <row r="957">
-      <c r="A957" s="158"/>
+      <c r="A957" s="148"/>
     </row>
     <row r="958">
-      <c r="A958" s="158"/>
+      <c r="A958" s="148"/>
     </row>
     <row r="959">
-      <c r="A959" s="158"/>
+      <c r="A959" s="148"/>
     </row>
     <row r="960">
-      <c r="A960" s="158"/>
+      <c r="A960" s="148"/>
     </row>
     <row r="961">
-      <c r="A961" s="158"/>
+      <c r="A961" s="148"/>
     </row>
     <row r="962">
-      <c r="A962" s="158"/>
+      <c r="A962" s="148"/>
     </row>
     <row r="963">
-      <c r="A963" s="158"/>
+      <c r="A963" s="148"/>
     </row>
     <row r="964">
-      <c r="A964" s="158"/>
+      <c r="A964" s="148"/>
     </row>
     <row r="965">
-      <c r="A965" s="158"/>
+      <c r="A965" s="148"/>
     </row>
     <row r="966">
-      <c r="A966" s="158"/>
+      <c r="A966" s="148"/>
     </row>
     <row r="967">
-      <c r="A967" s="158"/>
+      <c r="A967" s="148"/>
     </row>
     <row r="968">
-      <c r="A968" s="158"/>
+      <c r="A968" s="148"/>
     </row>
     <row r="969">
-      <c r="A969" s="158"/>
+      <c r="A969" s="148"/>
     </row>
     <row r="970">
-      <c r="A970" s="158"/>
+      <c r="A970" s="148"/>
     </row>
     <row r="971">
-      <c r="A971" s="158"/>
+      <c r="A971" s="148"/>
     </row>
     <row r="972">
-      <c r="A972" s="158"/>
+      <c r="A972" s="148"/>
     </row>
     <row r="973">
-      <c r="A973" s="158"/>
+      <c r="A973" s="148"/>
     </row>
     <row r="974">
-      <c r="A974" s="158"/>
+      <c r="A974" s="148"/>
     </row>
     <row r="975">
-      <c r="A975" s="158"/>
+      <c r="A975" s="148"/>
     </row>
     <row r="976">
-      <c r="A976" s="158"/>
+      <c r="A976" s="148"/>
     </row>
     <row r="977">
-      <c r="A977" s="158"/>
+      <c r="A977" s="148"/>
     </row>
     <row r="978">
-      <c r="A978" s="158"/>
+      <c r="A978" s="148"/>
     </row>
     <row r="979">
-      <c r="A979" s="158"/>
+      <c r="A979" s="148"/>
     </row>
     <row r="980">
-      <c r="A980" s="158"/>
+      <c r="A980" s="148"/>
     </row>
     <row r="981">
-      <c r="A981" s="158"/>
+      <c r="A981" s="148"/>
     </row>
     <row r="982">
-      <c r="A982" s="158"/>
+      <c r="A982" s="148"/>
     </row>
     <row r="983">
-      <c r="A983" s="158"/>
+      <c r="A983" s="148"/>
     </row>
     <row r="984">
-      <c r="A984" s="158"/>
+      <c r="A984" s="148"/>
     </row>
     <row r="985">
-      <c r="A985" s="158"/>
+      <c r="A985" s="148"/>
     </row>
     <row r="986">
-      <c r="A986" s="158"/>
+      <c r="A986" s="148"/>
     </row>
     <row r="987">
-      <c r="A987" s="158"/>
+      <c r="A987" s="148"/>
     </row>
     <row r="988">
-      <c r="A988" s="158"/>
+      <c r="A988" s="148"/>
     </row>
     <row r="989">
-      <c r="A989" s="158"/>
+      <c r="A989" s="148"/>
     </row>
     <row r="990">
-      <c r="A990" s="158"/>
+      <c r="A990" s="148"/>
     </row>
     <row r="991">
-      <c r="A991" s="158"/>
+      <c r="A991" s="148"/>
     </row>
     <row r="992">
-      <c r="A992" s="158"/>
+      <c r="A992" s="148"/>
     </row>
     <row r="993">
-      <c r="A993" s="158"/>
+      <c r="A993" s="148"/>
     </row>
     <row r="994">
-      <c r="A994" s="158"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="158"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="158"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="158"/>
+      <c r="A994" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:F12"/>
+  <mergeCells count="2">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31163,7 +31421,7 @@
     </row>
     <row r="2">
       <c r="A2" s="138" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="48">
         <v>4.0</v>
@@ -31183,7 +31441,7 @@
     </row>
     <row r="3">
       <c r="A3" s="139" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="140">
         <v>8.0</v>
@@ -31202,8 +31460,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="166" t="s">
-        <v>99</v>
+      <c r="A4" s="176" t="s">
+        <v>100</v>
       </c>
       <c r="B4" s="143">
         <f t="shared" ref="B4:F4" si="1">B2/B3</f>
@@ -31228,7 +31486,7 @@
     </row>
     <row r="5">
       <c r="A5" s="145" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="48">
         <v>4.0</v>
@@ -31248,7 +31506,7 @@
     </row>
     <row r="6">
       <c r="A6" s="146" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="140">
         <v>8.0</v>
@@ -31268,7 +31526,7 @@
     </row>
     <row r="7">
       <c r="A7" s="147" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="143">
         <f t="shared" ref="B7:F7" si="2">B5/B6</f>
@@ -31292,18 +31550,18 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="160" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="151"/>
+      <c r="A8" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="153"/>
     </row>
     <row r="9">
-      <c r="A9" s="161" t="s">
-        <v>98</v>
+      <c r="A9" s="179" t="s">
+        <v>99</v>
       </c>
       <c r="B9" s="140">
         <v>8.0</v>
@@ -31322,26 +31580,26 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="165"/>
+      <c r="A10" s="180" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="183"/>
     </row>
     <row r="11">
-      <c r="A11" s="169"/>
+      <c r="A11" s="184"/>
     </row>
     <row r="12">
-      <c r="A12" s="159" t="s">
-        <v>102</v>
+      <c r="A12" s="185" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="138" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="48">
         <v>1.0</v>
@@ -31361,7 +31619,7 @@
     </row>
     <row r="14">
       <c r="A14" s="139" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" s="140">
         <v>4.0</v>
@@ -31380,8 +31638,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="166" t="s">
-        <v>99</v>
+      <c r="A15" s="176" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="143">
         <f t="shared" ref="B15:F15" si="3">B13/B14</f>
@@ -31405,28 +31663,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="170"/>
+      <c r="A16" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="186"/>
     </row>
     <row r="17">
-      <c r="A17" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="172"/>
+      <c r="A17" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="188"/>
     </row>
     <row r="18">
-      <c r="A18" s="156" t="s">
-        <v>103</v>
+      <c r="A18" s="158" t="s">
+        <v>104</v>
       </c>
       <c r="B18" s="105">
         <v>0.25</v>
@@ -31440,2949 +31698,2949 @@
       <c r="E18" s="105">
         <v>0.75</v>
       </c>
-      <c r="F18" s="157">
+      <c r="F18" s="159">
         <v>0.316</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="158"/>
+      <c r="A19" s="148"/>
     </row>
     <row r="20">
-      <c r="A20" s="158"/>
+      <c r="A20" s="148"/>
     </row>
     <row r="21">
-      <c r="A21" s="158"/>
+      <c r="A21" s="148"/>
     </row>
     <row r="22">
-      <c r="A22" s="158"/>
+      <c r="A22" s="148"/>
     </row>
     <row r="23">
-      <c r="A23" s="158"/>
+      <c r="A23" s="148"/>
     </row>
     <row r="24">
-      <c r="A24" s="158"/>
+      <c r="A24" s="148"/>
     </row>
     <row r="25">
-      <c r="A25" s="158"/>
+      <c r="A25" s="148"/>
     </row>
     <row r="26">
-      <c r="A26" s="158"/>
+      <c r="A26" s="148"/>
     </row>
     <row r="27">
-      <c r="A27" s="158"/>
+      <c r="A27" s="148"/>
     </row>
     <row r="28">
-      <c r="A28" s="158"/>
+      <c r="A28" s="148"/>
     </row>
     <row r="29">
-      <c r="A29" s="158"/>
+      <c r="A29" s="148"/>
     </row>
     <row r="30">
-      <c r="A30" s="158"/>
+      <c r="A30" s="148"/>
     </row>
     <row r="31">
-      <c r="A31" s="158"/>
+      <c r="A31" s="148"/>
     </row>
     <row r="32">
-      <c r="A32" s="158"/>
+      <c r="A32" s="148"/>
     </row>
     <row r="33">
-      <c r="A33" s="158"/>
+      <c r="A33" s="148"/>
     </row>
     <row r="34">
-      <c r="A34" s="158"/>
+      <c r="A34" s="148"/>
     </row>
     <row r="35">
-      <c r="A35" s="158"/>
+      <c r="A35" s="148"/>
     </row>
     <row r="36">
-      <c r="A36" s="158"/>
+      <c r="A36" s="148"/>
     </row>
     <row r="37">
-      <c r="A37" s="158"/>
+      <c r="A37" s="148"/>
     </row>
     <row r="38">
-      <c r="A38" s="158"/>
+      <c r="A38" s="148"/>
     </row>
     <row r="39">
-      <c r="A39" s="158"/>
+      <c r="A39" s="148"/>
     </row>
     <row r="40">
-      <c r="A40" s="158"/>
+      <c r="A40" s="148"/>
     </row>
     <row r="41">
-      <c r="A41" s="158"/>
+      <c r="A41" s="148"/>
     </row>
     <row r="42">
-      <c r="A42" s="158"/>
+      <c r="A42" s="148"/>
     </row>
     <row r="43">
-      <c r="A43" s="158"/>
+      <c r="A43" s="148"/>
     </row>
     <row r="44">
-      <c r="A44" s="158"/>
+      <c r="A44" s="148"/>
     </row>
     <row r="45">
-      <c r="A45" s="158"/>
+      <c r="A45" s="148"/>
     </row>
     <row r="46">
-      <c r="A46" s="158"/>
+      <c r="A46" s="148"/>
     </row>
     <row r="47">
-      <c r="A47" s="158"/>
+      <c r="A47" s="148"/>
     </row>
     <row r="48">
-      <c r="A48" s="158"/>
+      <c r="A48" s="148"/>
     </row>
     <row r="49">
-      <c r="A49" s="158"/>
+      <c r="A49" s="148"/>
     </row>
     <row r="50">
-      <c r="A50" s="158"/>
+      <c r="A50" s="148"/>
     </row>
     <row r="51">
-      <c r="A51" s="158"/>
+      <c r="A51" s="148"/>
     </row>
     <row r="52">
-      <c r="A52" s="158"/>
+      <c r="A52" s="148"/>
     </row>
     <row r="53">
-      <c r="A53" s="158"/>
+      <c r="A53" s="148"/>
     </row>
     <row r="54">
-      <c r="A54" s="158"/>
+      <c r="A54" s="148"/>
     </row>
     <row r="55">
-      <c r="A55" s="158"/>
+      <c r="A55" s="148"/>
     </row>
     <row r="56">
-      <c r="A56" s="158"/>
+      <c r="A56" s="148"/>
     </row>
     <row r="57">
-      <c r="A57" s="158"/>
+      <c r="A57" s="148"/>
     </row>
     <row r="58">
-      <c r="A58" s="158"/>
+      <c r="A58" s="148"/>
     </row>
     <row r="59">
-      <c r="A59" s="158"/>
+      <c r="A59" s="148"/>
     </row>
     <row r="60">
-      <c r="A60" s="158"/>
+      <c r="A60" s="148"/>
     </row>
     <row r="61">
-      <c r="A61" s="158"/>
+      <c r="A61" s="148"/>
     </row>
     <row r="62">
-      <c r="A62" s="158"/>
+      <c r="A62" s="148"/>
     </row>
     <row r="63">
-      <c r="A63" s="158"/>
+      <c r="A63" s="148"/>
     </row>
     <row r="64">
-      <c r="A64" s="158"/>
+      <c r="A64" s="148"/>
     </row>
     <row r="65">
-      <c r="A65" s="158"/>
+      <c r="A65" s="148"/>
     </row>
     <row r="66">
-      <c r="A66" s="158"/>
+      <c r="A66" s="148"/>
     </row>
     <row r="67">
-      <c r="A67" s="158"/>
+      <c r="A67" s="148"/>
     </row>
     <row r="68">
-      <c r="A68" s="158"/>
+      <c r="A68" s="148"/>
     </row>
     <row r="69">
-      <c r="A69" s="158"/>
+      <c r="A69" s="148"/>
     </row>
     <row r="70">
-      <c r="A70" s="158"/>
+      <c r="A70" s="148"/>
     </row>
     <row r="71">
-      <c r="A71" s="158"/>
+      <c r="A71" s="148"/>
     </row>
     <row r="72">
-      <c r="A72" s="158"/>
+      <c r="A72" s="148"/>
     </row>
     <row r="73">
-      <c r="A73" s="158"/>
+      <c r="A73" s="148"/>
     </row>
     <row r="74">
-      <c r="A74" s="158"/>
+      <c r="A74" s="148"/>
     </row>
     <row r="75">
-      <c r="A75" s="158"/>
+      <c r="A75" s="148"/>
     </row>
     <row r="76">
-      <c r="A76" s="158"/>
+      <c r="A76" s="148"/>
     </row>
     <row r="77">
-      <c r="A77" s="158"/>
+      <c r="A77" s="148"/>
     </row>
     <row r="78">
-      <c r="A78" s="158"/>
+      <c r="A78" s="148"/>
     </row>
     <row r="79">
-      <c r="A79" s="158"/>
+      <c r="A79" s="148"/>
     </row>
     <row r="80">
-      <c r="A80" s="158"/>
+      <c r="A80" s="148"/>
     </row>
     <row r="81">
-      <c r="A81" s="158"/>
+      <c r="A81" s="148"/>
     </row>
     <row r="82">
-      <c r="A82" s="158"/>
+      <c r="A82" s="148"/>
     </row>
     <row r="83">
-      <c r="A83" s="158"/>
+      <c r="A83" s="148"/>
     </row>
     <row r="84">
-      <c r="A84" s="158"/>
+      <c r="A84" s="148"/>
     </row>
     <row r="85">
-      <c r="A85" s="158"/>
+      <c r="A85" s="148"/>
     </row>
     <row r="86">
-      <c r="A86" s="158"/>
+      <c r="A86" s="148"/>
     </row>
     <row r="87">
-      <c r="A87" s="158"/>
+      <c r="A87" s="148"/>
     </row>
     <row r="88">
-      <c r="A88" s="158"/>
+      <c r="A88" s="148"/>
     </row>
     <row r="89">
-      <c r="A89" s="158"/>
+      <c r="A89" s="148"/>
     </row>
     <row r="90">
-      <c r="A90" s="158"/>
+      <c r="A90" s="148"/>
     </row>
     <row r="91">
-      <c r="A91" s="158"/>
+      <c r="A91" s="148"/>
     </row>
     <row r="92">
-      <c r="A92" s="158"/>
+      <c r="A92" s="148"/>
     </row>
     <row r="93">
-      <c r="A93" s="158"/>
+      <c r="A93" s="148"/>
     </row>
     <row r="94">
-      <c r="A94" s="158"/>
+      <c r="A94" s="148"/>
     </row>
     <row r="95">
-      <c r="A95" s="158"/>
+      <c r="A95" s="148"/>
     </row>
     <row r="96">
-      <c r="A96" s="158"/>
+      <c r="A96" s="148"/>
     </row>
     <row r="97">
-      <c r="A97" s="158"/>
+      <c r="A97" s="148"/>
     </row>
     <row r="98">
-      <c r="A98" s="158"/>
+      <c r="A98" s="148"/>
     </row>
     <row r="99">
-      <c r="A99" s="158"/>
+      <c r="A99" s="148"/>
     </row>
     <row r="100">
-      <c r="A100" s="158"/>
+      <c r="A100" s="148"/>
     </row>
     <row r="101">
-      <c r="A101" s="158"/>
+      <c r="A101" s="148"/>
     </row>
     <row r="102">
-      <c r="A102" s="158"/>
+      <c r="A102" s="148"/>
     </row>
     <row r="103">
-      <c r="A103" s="158"/>
+      <c r="A103" s="148"/>
     </row>
     <row r="104">
-      <c r="A104" s="158"/>
+      <c r="A104" s="148"/>
     </row>
     <row r="105">
-      <c r="A105" s="158"/>
+      <c r="A105" s="148"/>
     </row>
     <row r="106">
-      <c r="A106" s="158"/>
+      <c r="A106" s="148"/>
     </row>
     <row r="107">
-      <c r="A107" s="158"/>
+      <c r="A107" s="148"/>
     </row>
     <row r="108">
-      <c r="A108" s="158"/>
+      <c r="A108" s="148"/>
     </row>
     <row r="109">
-      <c r="A109" s="158"/>
+      <c r="A109" s="148"/>
     </row>
     <row r="110">
-      <c r="A110" s="158"/>
+      <c r="A110" s="148"/>
     </row>
     <row r="111">
-      <c r="A111" s="158"/>
+      <c r="A111" s="148"/>
     </row>
     <row r="112">
-      <c r="A112" s="158"/>
+      <c r="A112" s="148"/>
     </row>
     <row r="113">
-      <c r="A113" s="158"/>
+      <c r="A113" s="148"/>
     </row>
     <row r="114">
-      <c r="A114" s="158"/>
+      <c r="A114" s="148"/>
     </row>
     <row r="115">
-      <c r="A115" s="158"/>
+      <c r="A115" s="148"/>
     </row>
     <row r="116">
-      <c r="A116" s="158"/>
+      <c r="A116" s="148"/>
     </row>
     <row r="117">
-      <c r="A117" s="158"/>
+      <c r="A117" s="148"/>
     </row>
     <row r="118">
-      <c r="A118" s="158"/>
+      <c r="A118" s="148"/>
     </row>
     <row r="119">
-      <c r="A119" s="158"/>
+      <c r="A119" s="148"/>
     </row>
     <row r="120">
-      <c r="A120" s="158"/>
+      <c r="A120" s="148"/>
     </row>
     <row r="121">
-      <c r="A121" s="158"/>
+      <c r="A121" s="148"/>
     </row>
     <row r="122">
-      <c r="A122" s="158"/>
+      <c r="A122" s="148"/>
     </row>
     <row r="123">
-      <c r="A123" s="158"/>
+      <c r="A123" s="148"/>
     </row>
     <row r="124">
-      <c r="A124" s="158"/>
+      <c r="A124" s="148"/>
     </row>
     <row r="125">
-      <c r="A125" s="158"/>
+      <c r="A125" s="148"/>
     </row>
     <row r="126">
-      <c r="A126" s="158"/>
+      <c r="A126" s="148"/>
     </row>
     <row r="127">
-      <c r="A127" s="158"/>
+      <c r="A127" s="148"/>
     </row>
     <row r="128">
-      <c r="A128" s="158"/>
+      <c r="A128" s="148"/>
     </row>
     <row r="129">
-      <c r="A129" s="158"/>
+      <c r="A129" s="148"/>
     </row>
     <row r="130">
-      <c r="A130" s="158"/>
+      <c r="A130" s="148"/>
     </row>
     <row r="131">
-      <c r="A131" s="158"/>
+      <c r="A131" s="148"/>
     </row>
     <row r="132">
-      <c r="A132" s="158"/>
+      <c r="A132" s="148"/>
     </row>
     <row r="133">
-      <c r="A133" s="158"/>
+      <c r="A133" s="148"/>
     </row>
     <row r="134">
-      <c r="A134" s="158"/>
+      <c r="A134" s="148"/>
     </row>
     <row r="135">
-      <c r="A135" s="158"/>
+      <c r="A135" s="148"/>
     </row>
     <row r="136">
-      <c r="A136" s="158"/>
+      <c r="A136" s="148"/>
     </row>
     <row r="137">
-      <c r="A137" s="158"/>
+      <c r="A137" s="148"/>
     </row>
     <row r="138">
-      <c r="A138" s="158"/>
+      <c r="A138" s="148"/>
     </row>
     <row r="139">
-      <c r="A139" s="158"/>
+      <c r="A139" s="148"/>
     </row>
     <row r="140">
-      <c r="A140" s="158"/>
+      <c r="A140" s="148"/>
     </row>
     <row r="141">
-      <c r="A141" s="158"/>
+      <c r="A141" s="148"/>
     </row>
     <row r="142">
-      <c r="A142" s="158"/>
+      <c r="A142" s="148"/>
     </row>
     <row r="143">
-      <c r="A143" s="158"/>
+      <c r="A143" s="148"/>
     </row>
     <row r="144">
-      <c r="A144" s="158"/>
+      <c r="A144" s="148"/>
     </row>
     <row r="145">
-      <c r="A145" s="158"/>
+      <c r="A145" s="148"/>
     </row>
     <row r="146">
-      <c r="A146" s="158"/>
+      <c r="A146" s="148"/>
     </row>
     <row r="147">
-      <c r="A147" s="158"/>
+      <c r="A147" s="148"/>
     </row>
     <row r="148">
-      <c r="A148" s="158"/>
+      <c r="A148" s="148"/>
     </row>
     <row r="149">
-      <c r="A149" s="158"/>
+      <c r="A149" s="148"/>
     </row>
     <row r="150">
-      <c r="A150" s="158"/>
+      <c r="A150" s="148"/>
     </row>
     <row r="151">
-      <c r="A151" s="158"/>
+      <c r="A151" s="148"/>
     </row>
     <row r="152">
-      <c r="A152" s="158"/>
+      <c r="A152" s="148"/>
     </row>
     <row r="153">
-      <c r="A153" s="158"/>
+      <c r="A153" s="148"/>
     </row>
     <row r="154">
-      <c r="A154" s="158"/>
+      <c r="A154" s="148"/>
     </row>
     <row r="155">
-      <c r="A155" s="158"/>
+      <c r="A155" s="148"/>
     </row>
     <row r="156">
-      <c r="A156" s="158"/>
+      <c r="A156" s="148"/>
     </row>
     <row r="157">
-      <c r="A157" s="158"/>
+      <c r="A157" s="148"/>
     </row>
     <row r="158">
-      <c r="A158" s="158"/>
+      <c r="A158" s="148"/>
     </row>
     <row r="159">
-      <c r="A159" s="158"/>
+      <c r="A159" s="148"/>
     </row>
     <row r="160">
-      <c r="A160" s="158"/>
+      <c r="A160" s="148"/>
     </row>
     <row r="161">
-      <c r="A161" s="158"/>
+      <c r="A161" s="148"/>
     </row>
     <row r="162">
-      <c r="A162" s="158"/>
+      <c r="A162" s="148"/>
     </row>
     <row r="163">
-      <c r="A163" s="158"/>
+      <c r="A163" s="148"/>
     </row>
     <row r="164">
-      <c r="A164" s="158"/>
+      <c r="A164" s="148"/>
     </row>
     <row r="165">
-      <c r="A165" s="158"/>
+      <c r="A165" s="148"/>
     </row>
     <row r="166">
-      <c r="A166" s="158"/>
+      <c r="A166" s="148"/>
     </row>
     <row r="167">
-      <c r="A167" s="158"/>
+      <c r="A167" s="148"/>
     </row>
     <row r="168">
-      <c r="A168" s="158"/>
+      <c r="A168" s="148"/>
     </row>
     <row r="169">
-      <c r="A169" s="158"/>
+      <c r="A169" s="148"/>
     </row>
     <row r="170">
-      <c r="A170" s="158"/>
+      <c r="A170" s="148"/>
     </row>
     <row r="171">
-      <c r="A171" s="158"/>
+      <c r="A171" s="148"/>
     </row>
     <row r="172">
-      <c r="A172" s="158"/>
+      <c r="A172" s="148"/>
     </row>
     <row r="173">
-      <c r="A173" s="158"/>
+      <c r="A173" s="148"/>
     </row>
     <row r="174">
-      <c r="A174" s="158"/>
+      <c r="A174" s="148"/>
     </row>
     <row r="175">
-      <c r="A175" s="158"/>
+      <c r="A175" s="148"/>
     </row>
     <row r="176">
-      <c r="A176" s="158"/>
+      <c r="A176" s="148"/>
     </row>
     <row r="177">
-      <c r="A177" s="158"/>
+      <c r="A177" s="148"/>
     </row>
     <row r="178">
-      <c r="A178" s="158"/>
+      <c r="A178" s="148"/>
     </row>
     <row r="179">
-      <c r="A179" s="158"/>
+      <c r="A179" s="148"/>
     </row>
     <row r="180">
-      <c r="A180" s="158"/>
+      <c r="A180" s="148"/>
     </row>
     <row r="181">
-      <c r="A181" s="158"/>
+      <c r="A181" s="148"/>
     </row>
     <row r="182">
-      <c r="A182" s="158"/>
+      <c r="A182" s="148"/>
     </row>
     <row r="183">
-      <c r="A183" s="158"/>
+      <c r="A183" s="148"/>
     </row>
     <row r="184">
-      <c r="A184" s="158"/>
+      <c r="A184" s="148"/>
     </row>
     <row r="185">
-      <c r="A185" s="158"/>
+      <c r="A185" s="148"/>
     </row>
     <row r="186">
-      <c r="A186" s="158"/>
+      <c r="A186" s="148"/>
     </row>
     <row r="187">
-      <c r="A187" s="158"/>
+      <c r="A187" s="148"/>
     </row>
     <row r="188">
-      <c r="A188" s="158"/>
+      <c r="A188" s="148"/>
     </row>
     <row r="189">
-      <c r="A189" s="158"/>
+      <c r="A189" s="148"/>
     </row>
     <row r="190">
-      <c r="A190" s="158"/>
+      <c r="A190" s="148"/>
     </row>
     <row r="191">
-      <c r="A191" s="158"/>
+      <c r="A191" s="148"/>
     </row>
     <row r="192">
-      <c r="A192" s="158"/>
+      <c r="A192" s="148"/>
     </row>
     <row r="193">
-      <c r="A193" s="158"/>
+      <c r="A193" s="148"/>
     </row>
     <row r="194">
-      <c r="A194" s="158"/>
+      <c r="A194" s="148"/>
     </row>
     <row r="195">
-      <c r="A195" s="158"/>
+      <c r="A195" s="148"/>
     </row>
     <row r="196">
-      <c r="A196" s="158"/>
+      <c r="A196" s="148"/>
     </row>
     <row r="197">
-      <c r="A197" s="158"/>
+      <c r="A197" s="148"/>
     </row>
     <row r="198">
-      <c r="A198" s="158"/>
+      <c r="A198" s="148"/>
     </row>
     <row r="199">
-      <c r="A199" s="158"/>
+      <c r="A199" s="148"/>
     </row>
     <row r="200">
-      <c r="A200" s="158"/>
+      <c r="A200" s="148"/>
     </row>
     <row r="201">
-      <c r="A201" s="158"/>
+      <c r="A201" s="148"/>
     </row>
     <row r="202">
-      <c r="A202" s="158"/>
+      <c r="A202" s="148"/>
     </row>
     <row r="203">
-      <c r="A203" s="158"/>
+      <c r="A203" s="148"/>
     </row>
     <row r="204">
-      <c r="A204" s="158"/>
+      <c r="A204" s="148"/>
     </row>
     <row r="205">
-      <c r="A205" s="158"/>
+      <c r="A205" s="148"/>
     </row>
     <row r="206">
-      <c r="A206" s="158"/>
+      <c r="A206" s="148"/>
     </row>
     <row r="207">
-      <c r="A207" s="158"/>
+      <c r="A207" s="148"/>
     </row>
     <row r="208">
-      <c r="A208" s="158"/>
+      <c r="A208" s="148"/>
     </row>
     <row r="209">
-      <c r="A209" s="158"/>
+      <c r="A209" s="148"/>
     </row>
     <row r="210">
-      <c r="A210" s="158"/>
+      <c r="A210" s="148"/>
     </row>
     <row r="211">
-      <c r="A211" s="158"/>
+      <c r="A211" s="148"/>
     </row>
     <row r="212">
-      <c r="A212" s="158"/>
+      <c r="A212" s="148"/>
     </row>
     <row r="213">
-      <c r="A213" s="158"/>
+      <c r="A213" s="148"/>
     </row>
     <row r="214">
-      <c r="A214" s="158"/>
+      <c r="A214" s="148"/>
     </row>
     <row r="215">
-      <c r="A215" s="158"/>
+      <c r="A215" s="148"/>
     </row>
     <row r="216">
-      <c r="A216" s="158"/>
+      <c r="A216" s="148"/>
     </row>
     <row r="217">
-      <c r="A217" s="158"/>
+      <c r="A217" s="148"/>
     </row>
     <row r="218">
-      <c r="A218" s="158"/>
+      <c r="A218" s="148"/>
     </row>
     <row r="219">
-      <c r="A219" s="158"/>
+      <c r="A219" s="148"/>
     </row>
     <row r="220">
-      <c r="A220" s="158"/>
+      <c r="A220" s="148"/>
     </row>
     <row r="221">
-      <c r="A221" s="158"/>
+      <c r="A221" s="148"/>
     </row>
     <row r="222">
-      <c r="A222" s="158"/>
+      <c r="A222" s="148"/>
     </row>
     <row r="223">
-      <c r="A223" s="158"/>
+      <c r="A223" s="148"/>
     </row>
     <row r="224">
-      <c r="A224" s="158"/>
+      <c r="A224" s="148"/>
     </row>
     <row r="225">
-      <c r="A225" s="158"/>
+      <c r="A225" s="148"/>
     </row>
     <row r="226">
-      <c r="A226" s="158"/>
+      <c r="A226" s="148"/>
     </row>
     <row r="227">
-      <c r="A227" s="158"/>
+      <c r="A227" s="148"/>
     </row>
     <row r="228">
-      <c r="A228" s="158"/>
+      <c r="A228" s="148"/>
     </row>
     <row r="229">
-      <c r="A229" s="158"/>
+      <c r="A229" s="148"/>
     </row>
     <row r="230">
-      <c r="A230" s="158"/>
+      <c r="A230" s="148"/>
     </row>
     <row r="231">
-      <c r="A231" s="158"/>
+      <c r="A231" s="148"/>
     </row>
     <row r="232">
-      <c r="A232" s="158"/>
+      <c r="A232" s="148"/>
     </row>
     <row r="233">
-      <c r="A233" s="158"/>
+      <c r="A233" s="148"/>
     </row>
     <row r="234">
-      <c r="A234" s="158"/>
+      <c r="A234" s="148"/>
     </row>
     <row r="235">
-      <c r="A235" s="158"/>
+      <c r="A235" s="148"/>
     </row>
     <row r="236">
-      <c r="A236" s="158"/>
+      <c r="A236" s="148"/>
     </row>
     <row r="237">
-      <c r="A237" s="158"/>
+      <c r="A237" s="148"/>
     </row>
     <row r="238">
-      <c r="A238" s="158"/>
+      <c r="A238" s="148"/>
     </row>
     <row r="239">
-      <c r="A239" s="158"/>
+      <c r="A239" s="148"/>
     </row>
     <row r="240">
-      <c r="A240" s="158"/>
+      <c r="A240" s="148"/>
     </row>
     <row r="241">
-      <c r="A241" s="158"/>
+      <c r="A241" s="148"/>
     </row>
     <row r="242">
-      <c r="A242" s="158"/>
+      <c r="A242" s="148"/>
     </row>
     <row r="243">
-      <c r="A243" s="158"/>
+      <c r="A243" s="148"/>
     </row>
     <row r="244">
-      <c r="A244" s="158"/>
+      <c r="A244" s="148"/>
     </row>
     <row r="245">
-      <c r="A245" s="158"/>
+      <c r="A245" s="148"/>
     </row>
     <row r="246">
-      <c r="A246" s="158"/>
+      <c r="A246" s="148"/>
     </row>
     <row r="247">
-      <c r="A247" s="158"/>
+      <c r="A247" s="148"/>
     </row>
     <row r="248">
-      <c r="A248" s="158"/>
+      <c r="A248" s="148"/>
     </row>
     <row r="249">
-      <c r="A249" s="158"/>
+      <c r="A249" s="148"/>
     </row>
     <row r="250">
-      <c r="A250" s="158"/>
+      <c r="A250" s="148"/>
     </row>
     <row r="251">
-      <c r="A251" s="158"/>
+      <c r="A251" s="148"/>
     </row>
     <row r="252">
-      <c r="A252" s="158"/>
+      <c r="A252" s="148"/>
     </row>
     <row r="253">
-      <c r="A253" s="158"/>
+      <c r="A253" s="148"/>
     </row>
     <row r="254">
-      <c r="A254" s="158"/>
+      <c r="A254" s="148"/>
     </row>
     <row r="255">
-      <c r="A255" s="158"/>
+      <c r="A255" s="148"/>
     </row>
     <row r="256">
-      <c r="A256" s="158"/>
+      <c r="A256" s="148"/>
     </row>
     <row r="257">
-      <c r="A257" s="158"/>
+      <c r="A257" s="148"/>
     </row>
     <row r="258">
-      <c r="A258" s="158"/>
+      <c r="A258" s="148"/>
     </row>
     <row r="259">
-      <c r="A259" s="158"/>
+      <c r="A259" s="148"/>
     </row>
     <row r="260">
-      <c r="A260" s="158"/>
+      <c r="A260" s="148"/>
     </row>
     <row r="261">
-      <c r="A261" s="158"/>
+      <c r="A261" s="148"/>
     </row>
     <row r="262">
-      <c r="A262" s="158"/>
+      <c r="A262" s="148"/>
     </row>
     <row r="263">
-      <c r="A263" s="158"/>
+      <c r="A263" s="148"/>
     </row>
     <row r="264">
-      <c r="A264" s="158"/>
+      <c r="A264" s="148"/>
     </row>
     <row r="265">
-      <c r="A265" s="158"/>
+      <c r="A265" s="148"/>
     </row>
     <row r="266">
-      <c r="A266" s="158"/>
+      <c r="A266" s="148"/>
     </row>
     <row r="267">
-      <c r="A267" s="158"/>
+      <c r="A267" s="148"/>
     </row>
     <row r="268">
-      <c r="A268" s="158"/>
+      <c r="A268" s="148"/>
     </row>
     <row r="269">
-      <c r="A269" s="158"/>
+      <c r="A269" s="148"/>
     </row>
     <row r="270">
-      <c r="A270" s="158"/>
+      <c r="A270" s="148"/>
     </row>
     <row r="271">
-      <c r="A271" s="158"/>
+      <c r="A271" s="148"/>
     </row>
     <row r="272">
-      <c r="A272" s="158"/>
+      <c r="A272" s="148"/>
     </row>
     <row r="273">
-      <c r="A273" s="158"/>
+      <c r="A273" s="148"/>
     </row>
     <row r="274">
-      <c r="A274" s="158"/>
+      <c r="A274" s="148"/>
     </row>
     <row r="275">
-      <c r="A275" s="158"/>
+      <c r="A275" s="148"/>
     </row>
     <row r="276">
-      <c r="A276" s="158"/>
+      <c r="A276" s="148"/>
     </row>
     <row r="277">
-      <c r="A277" s="158"/>
+      <c r="A277" s="148"/>
     </row>
     <row r="278">
-      <c r="A278" s="158"/>
+      <c r="A278" s="148"/>
     </row>
     <row r="279">
-      <c r="A279" s="158"/>
+      <c r="A279" s="148"/>
     </row>
     <row r="280">
-      <c r="A280" s="158"/>
+      <c r="A280" s="148"/>
     </row>
     <row r="281">
-      <c r="A281" s="158"/>
+      <c r="A281" s="148"/>
     </row>
     <row r="282">
-      <c r="A282" s="158"/>
+      <c r="A282" s="148"/>
     </row>
     <row r="283">
-      <c r="A283" s="158"/>
+      <c r="A283" s="148"/>
     </row>
     <row r="284">
-      <c r="A284" s="158"/>
+      <c r="A284" s="148"/>
     </row>
     <row r="285">
-      <c r="A285" s="158"/>
+      <c r="A285" s="148"/>
     </row>
     <row r="286">
-      <c r="A286" s="158"/>
+      <c r="A286" s="148"/>
     </row>
     <row r="287">
-      <c r="A287" s="158"/>
+      <c r="A287" s="148"/>
     </row>
     <row r="288">
-      <c r="A288" s="158"/>
+      <c r="A288" s="148"/>
     </row>
     <row r="289">
-      <c r="A289" s="158"/>
+      <c r="A289" s="148"/>
     </row>
     <row r="290">
-      <c r="A290" s="158"/>
+      <c r="A290" s="148"/>
     </row>
     <row r="291">
-      <c r="A291" s="158"/>
+      <c r="A291" s="148"/>
     </row>
     <row r="292">
-      <c r="A292" s="158"/>
+      <c r="A292" s="148"/>
     </row>
     <row r="293">
-      <c r="A293" s="158"/>
+      <c r="A293" s="148"/>
     </row>
     <row r="294">
-      <c r="A294" s="158"/>
+      <c r="A294" s="148"/>
     </row>
     <row r="295">
-      <c r="A295" s="158"/>
+      <c r="A295" s="148"/>
     </row>
     <row r="296">
-      <c r="A296" s="158"/>
+      <c r="A296" s="148"/>
     </row>
     <row r="297">
-      <c r="A297" s="158"/>
+      <c r="A297" s="148"/>
     </row>
     <row r="298">
-      <c r="A298" s="158"/>
+      <c r="A298" s="148"/>
     </row>
     <row r="299">
-      <c r="A299" s="158"/>
+      <c r="A299" s="148"/>
     </row>
     <row r="300">
-      <c r="A300" s="158"/>
+      <c r="A300" s="148"/>
     </row>
     <row r="301">
-      <c r="A301" s="158"/>
+      <c r="A301" s="148"/>
     </row>
     <row r="302">
-      <c r="A302" s="158"/>
+      <c r="A302" s="148"/>
     </row>
     <row r="303">
-      <c r="A303" s="158"/>
+      <c r="A303" s="148"/>
     </row>
     <row r="304">
-      <c r="A304" s="158"/>
+      <c r="A304" s="148"/>
     </row>
     <row r="305">
-      <c r="A305" s="158"/>
+      <c r="A305" s="148"/>
     </row>
     <row r="306">
-      <c r="A306" s="158"/>
+      <c r="A306" s="148"/>
     </row>
     <row r="307">
-      <c r="A307" s="158"/>
+      <c r="A307" s="148"/>
     </row>
     <row r="308">
-      <c r="A308" s="158"/>
+      <c r="A308" s="148"/>
     </row>
     <row r="309">
-      <c r="A309" s="158"/>
+      <c r="A309" s="148"/>
     </row>
     <row r="310">
-      <c r="A310" s="158"/>
+      <c r="A310" s="148"/>
     </row>
     <row r="311">
-      <c r="A311" s="158"/>
+      <c r="A311" s="148"/>
     </row>
     <row r="312">
-      <c r="A312" s="158"/>
+      <c r="A312" s="148"/>
     </row>
     <row r="313">
-      <c r="A313" s="158"/>
+      <c r="A313" s="148"/>
     </row>
     <row r="314">
-      <c r="A314" s="158"/>
+      <c r="A314" s="148"/>
     </row>
     <row r="315">
-      <c r="A315" s="158"/>
+      <c r="A315" s="148"/>
     </row>
     <row r="316">
-      <c r="A316" s="158"/>
+      <c r="A316" s="148"/>
     </row>
     <row r="317">
-      <c r="A317" s="158"/>
+      <c r="A317" s="148"/>
     </row>
     <row r="318">
-      <c r="A318" s="158"/>
+      <c r="A318" s="148"/>
     </row>
     <row r="319">
-      <c r="A319" s="158"/>
+      <c r="A319" s="148"/>
     </row>
     <row r="320">
-      <c r="A320" s="158"/>
+      <c r="A320" s="148"/>
     </row>
     <row r="321">
-      <c r="A321" s="158"/>
+      <c r="A321" s="148"/>
     </row>
     <row r="322">
-      <c r="A322" s="158"/>
+      <c r="A322" s="148"/>
     </row>
     <row r="323">
-      <c r="A323" s="158"/>
+      <c r="A323" s="148"/>
     </row>
     <row r="324">
-      <c r="A324" s="158"/>
+      <c r="A324" s="148"/>
     </row>
     <row r="325">
-      <c r="A325" s="158"/>
+      <c r="A325" s="148"/>
     </row>
     <row r="326">
-      <c r="A326" s="158"/>
+      <c r="A326" s="148"/>
     </row>
     <row r="327">
-      <c r="A327" s="158"/>
+      <c r="A327" s="148"/>
     </row>
     <row r="328">
-      <c r="A328" s="158"/>
+      <c r="A328" s="148"/>
     </row>
     <row r="329">
-      <c r="A329" s="158"/>
+      <c r="A329" s="148"/>
     </row>
     <row r="330">
-      <c r="A330" s="158"/>
+      <c r="A330" s="148"/>
     </row>
     <row r="331">
-      <c r="A331" s="158"/>
+      <c r="A331" s="148"/>
     </row>
     <row r="332">
-      <c r="A332" s="158"/>
+      <c r="A332" s="148"/>
     </row>
     <row r="333">
-      <c r="A333" s="158"/>
+      <c r="A333" s="148"/>
     </row>
     <row r="334">
-      <c r="A334" s="158"/>
+      <c r="A334" s="148"/>
     </row>
     <row r="335">
-      <c r="A335" s="158"/>
+      <c r="A335" s="148"/>
     </row>
     <row r="336">
-      <c r="A336" s="158"/>
+      <c r="A336" s="148"/>
     </row>
     <row r="337">
-      <c r="A337" s="158"/>
+      <c r="A337" s="148"/>
     </row>
     <row r="338">
-      <c r="A338" s="158"/>
+      <c r="A338" s="148"/>
     </row>
     <row r="339">
-      <c r="A339" s="158"/>
+      <c r="A339" s="148"/>
     </row>
     <row r="340">
-      <c r="A340" s="158"/>
+      <c r="A340" s="148"/>
     </row>
     <row r="341">
-      <c r="A341" s="158"/>
+      <c r="A341" s="148"/>
     </row>
     <row r="342">
-      <c r="A342" s="158"/>
+      <c r="A342" s="148"/>
     </row>
     <row r="343">
-      <c r="A343" s="158"/>
+      <c r="A343" s="148"/>
     </row>
     <row r="344">
-      <c r="A344" s="158"/>
+      <c r="A344" s="148"/>
     </row>
     <row r="345">
-      <c r="A345" s="158"/>
+      <c r="A345" s="148"/>
     </row>
     <row r="346">
-      <c r="A346" s="158"/>
+      <c r="A346" s="148"/>
     </row>
     <row r="347">
-      <c r="A347" s="158"/>
+      <c r="A347" s="148"/>
     </row>
     <row r="348">
-      <c r="A348" s="158"/>
+      <c r="A348" s="148"/>
     </row>
     <row r="349">
-      <c r="A349" s="158"/>
+      <c r="A349" s="148"/>
     </row>
     <row r="350">
-      <c r="A350" s="158"/>
+      <c r="A350" s="148"/>
     </row>
     <row r="351">
-      <c r="A351" s="158"/>
+      <c r="A351" s="148"/>
     </row>
     <row r="352">
-      <c r="A352" s="158"/>
+      <c r="A352" s="148"/>
     </row>
     <row r="353">
-      <c r="A353" s="158"/>
+      <c r="A353" s="148"/>
     </row>
     <row r="354">
-      <c r="A354" s="158"/>
+      <c r="A354" s="148"/>
     </row>
     <row r="355">
-      <c r="A355" s="158"/>
+      <c r="A355" s="148"/>
     </row>
     <row r="356">
-      <c r="A356" s="158"/>
+      <c r="A356" s="148"/>
     </row>
     <row r="357">
-      <c r="A357" s="158"/>
+      <c r="A357" s="148"/>
     </row>
     <row r="358">
-      <c r="A358" s="158"/>
+      <c r="A358" s="148"/>
     </row>
     <row r="359">
-      <c r="A359" s="158"/>
+      <c r="A359" s="148"/>
     </row>
     <row r="360">
-      <c r="A360" s="158"/>
+      <c r="A360" s="148"/>
     </row>
     <row r="361">
-      <c r="A361" s="158"/>
+      <c r="A361" s="148"/>
     </row>
     <row r="362">
-      <c r="A362" s="158"/>
+      <c r="A362" s="148"/>
     </row>
     <row r="363">
-      <c r="A363" s="158"/>
+      <c r="A363" s="148"/>
     </row>
     <row r="364">
-      <c r="A364" s="158"/>
+      <c r="A364" s="148"/>
     </row>
     <row r="365">
-      <c r="A365" s="158"/>
+      <c r="A365" s="148"/>
     </row>
     <row r="366">
-      <c r="A366" s="158"/>
+      <c r="A366" s="148"/>
     </row>
     <row r="367">
-      <c r="A367" s="158"/>
+      <c r="A367" s="148"/>
     </row>
     <row r="368">
-      <c r="A368" s="158"/>
+      <c r="A368" s="148"/>
     </row>
     <row r="369">
-      <c r="A369" s="158"/>
+      <c r="A369" s="148"/>
     </row>
     <row r="370">
-      <c r="A370" s="158"/>
+      <c r="A370" s="148"/>
     </row>
     <row r="371">
-      <c r="A371" s="158"/>
+      <c r="A371" s="148"/>
     </row>
     <row r="372">
-      <c r="A372" s="158"/>
+      <c r="A372" s="148"/>
     </row>
     <row r="373">
-      <c r="A373" s="158"/>
+      <c r="A373" s="148"/>
     </row>
     <row r="374">
-      <c r="A374" s="158"/>
+      <c r="A374" s="148"/>
     </row>
     <row r="375">
-      <c r="A375" s="158"/>
+      <c r="A375" s="148"/>
     </row>
     <row r="376">
-      <c r="A376" s="158"/>
+      <c r="A376" s="148"/>
     </row>
     <row r="377">
-      <c r="A377" s="158"/>
+      <c r="A377" s="148"/>
     </row>
     <row r="378">
-      <c r="A378" s="158"/>
+      <c r="A378" s="148"/>
     </row>
     <row r="379">
-      <c r="A379" s="158"/>
+      <c r="A379" s="148"/>
     </row>
     <row r="380">
-      <c r="A380" s="158"/>
+      <c r="A380" s="148"/>
     </row>
     <row r="381">
-      <c r="A381" s="158"/>
+      <c r="A381" s="148"/>
     </row>
     <row r="382">
-      <c r="A382" s="158"/>
+      <c r="A382" s="148"/>
     </row>
     <row r="383">
-      <c r="A383" s="158"/>
+      <c r="A383" s="148"/>
     </row>
     <row r="384">
-      <c r="A384" s="158"/>
+      <c r="A384" s="148"/>
     </row>
     <row r="385">
-      <c r="A385" s="158"/>
+      <c r="A385" s="148"/>
     </row>
     <row r="386">
-      <c r="A386" s="158"/>
+      <c r="A386" s="148"/>
     </row>
     <row r="387">
-      <c r="A387" s="158"/>
+      <c r="A387" s="148"/>
     </row>
     <row r="388">
-      <c r="A388" s="158"/>
+      <c r="A388" s="148"/>
     </row>
     <row r="389">
-      <c r="A389" s="158"/>
+      <c r="A389" s="148"/>
     </row>
     <row r="390">
-      <c r="A390" s="158"/>
+      <c r="A390" s="148"/>
     </row>
     <row r="391">
-      <c r="A391" s="158"/>
+      <c r="A391" s="148"/>
     </row>
     <row r="392">
-      <c r="A392" s="158"/>
+      <c r="A392" s="148"/>
     </row>
     <row r="393">
-      <c r="A393" s="158"/>
+      <c r="A393" s="148"/>
     </row>
     <row r="394">
-      <c r="A394" s="158"/>
+      <c r="A394" s="148"/>
     </row>
     <row r="395">
-      <c r="A395" s="158"/>
+      <c r="A395" s="148"/>
     </row>
     <row r="396">
-      <c r="A396" s="158"/>
+      <c r="A396" s="148"/>
     </row>
     <row r="397">
-      <c r="A397" s="158"/>
+      <c r="A397" s="148"/>
     </row>
     <row r="398">
-      <c r="A398" s="158"/>
+      <c r="A398" s="148"/>
     </row>
     <row r="399">
-      <c r="A399" s="158"/>
+      <c r="A399" s="148"/>
     </row>
     <row r="400">
-      <c r="A400" s="158"/>
+      <c r="A400" s="148"/>
     </row>
     <row r="401">
-      <c r="A401" s="158"/>
+      <c r="A401" s="148"/>
     </row>
     <row r="402">
-      <c r="A402" s="158"/>
+      <c r="A402" s="148"/>
     </row>
     <row r="403">
-      <c r="A403" s="158"/>
+      <c r="A403" s="148"/>
     </row>
     <row r="404">
-      <c r="A404" s="158"/>
+      <c r="A404" s="148"/>
     </row>
     <row r="405">
-      <c r="A405" s="158"/>
+      <c r="A405" s="148"/>
     </row>
     <row r="406">
-      <c r="A406" s="158"/>
+      <c r="A406" s="148"/>
     </row>
     <row r="407">
-      <c r="A407" s="158"/>
+      <c r="A407" s="148"/>
     </row>
     <row r="408">
-      <c r="A408" s="158"/>
+      <c r="A408" s="148"/>
     </row>
     <row r="409">
-      <c r="A409" s="158"/>
+      <c r="A409" s="148"/>
     </row>
     <row r="410">
-      <c r="A410" s="158"/>
+      <c r="A410" s="148"/>
     </row>
     <row r="411">
-      <c r="A411" s="158"/>
+      <c r="A411" s="148"/>
     </row>
     <row r="412">
-      <c r="A412" s="158"/>
+      <c r="A412" s="148"/>
     </row>
     <row r="413">
-      <c r="A413" s="158"/>
+      <c r="A413" s="148"/>
     </row>
     <row r="414">
-      <c r="A414" s="158"/>
+      <c r="A414" s="148"/>
     </row>
     <row r="415">
-      <c r="A415" s="158"/>
+      <c r="A415" s="148"/>
     </row>
     <row r="416">
-      <c r="A416" s="158"/>
+      <c r="A416" s="148"/>
     </row>
     <row r="417">
-      <c r="A417" s="158"/>
+      <c r="A417" s="148"/>
     </row>
     <row r="418">
-      <c r="A418" s="158"/>
+      <c r="A418" s="148"/>
     </row>
     <row r="419">
-      <c r="A419" s="158"/>
+      <c r="A419" s="148"/>
     </row>
     <row r="420">
-      <c r="A420" s="158"/>
+      <c r="A420" s="148"/>
     </row>
     <row r="421">
-      <c r="A421" s="158"/>
+      <c r="A421" s="148"/>
     </row>
     <row r="422">
-      <c r="A422" s="158"/>
+      <c r="A422" s="148"/>
     </row>
     <row r="423">
-      <c r="A423" s="158"/>
+      <c r="A423" s="148"/>
     </row>
     <row r="424">
-      <c r="A424" s="158"/>
+      <c r="A424" s="148"/>
     </row>
     <row r="425">
-      <c r="A425" s="158"/>
+      <c r="A425" s="148"/>
     </row>
     <row r="426">
-      <c r="A426" s="158"/>
+      <c r="A426" s="148"/>
     </row>
     <row r="427">
-      <c r="A427" s="158"/>
+      <c r="A427" s="148"/>
     </row>
     <row r="428">
-      <c r="A428" s="158"/>
+      <c r="A428" s="148"/>
     </row>
     <row r="429">
-      <c r="A429" s="158"/>
+      <c r="A429" s="148"/>
     </row>
     <row r="430">
-      <c r="A430" s="158"/>
+      <c r="A430" s="148"/>
     </row>
     <row r="431">
-      <c r="A431" s="158"/>
+      <c r="A431" s="148"/>
     </row>
     <row r="432">
-      <c r="A432" s="158"/>
+      <c r="A432" s="148"/>
     </row>
     <row r="433">
-      <c r="A433" s="158"/>
+      <c r="A433" s="148"/>
     </row>
     <row r="434">
-      <c r="A434" s="158"/>
+      <c r="A434" s="148"/>
     </row>
     <row r="435">
-      <c r="A435" s="158"/>
+      <c r="A435" s="148"/>
     </row>
     <row r="436">
-      <c r="A436" s="158"/>
+      <c r="A436" s="148"/>
     </row>
     <row r="437">
-      <c r="A437" s="158"/>
+      <c r="A437" s="148"/>
     </row>
     <row r="438">
-      <c r="A438" s="158"/>
+      <c r="A438" s="148"/>
     </row>
     <row r="439">
-      <c r="A439" s="158"/>
+      <c r="A439" s="148"/>
     </row>
     <row r="440">
-      <c r="A440" s="158"/>
+      <c r="A440" s="148"/>
     </row>
     <row r="441">
-      <c r="A441" s="158"/>
+      <c r="A441" s="148"/>
     </row>
     <row r="442">
-      <c r="A442" s="158"/>
+      <c r="A442" s="148"/>
     </row>
     <row r="443">
-      <c r="A443" s="158"/>
+      <c r="A443" s="148"/>
     </row>
     <row r="444">
-      <c r="A444" s="158"/>
+      <c r="A444" s="148"/>
     </row>
     <row r="445">
-      <c r="A445" s="158"/>
+      <c r="A445" s="148"/>
     </row>
     <row r="446">
-      <c r="A446" s="158"/>
+      <c r="A446" s="148"/>
     </row>
     <row r="447">
-      <c r="A447" s="158"/>
+      <c r="A447" s="148"/>
     </row>
     <row r="448">
-      <c r="A448" s="158"/>
+      <c r="A448" s="148"/>
     </row>
     <row r="449">
-      <c r="A449" s="158"/>
+      <c r="A449" s="148"/>
     </row>
     <row r="450">
-      <c r="A450" s="158"/>
+      <c r="A450" s="148"/>
     </row>
     <row r="451">
-      <c r="A451" s="158"/>
+      <c r="A451" s="148"/>
     </row>
     <row r="452">
-      <c r="A452" s="158"/>
+      <c r="A452" s="148"/>
     </row>
     <row r="453">
-      <c r="A453" s="158"/>
+      <c r="A453" s="148"/>
     </row>
     <row r="454">
-      <c r="A454" s="158"/>
+      <c r="A454" s="148"/>
     </row>
     <row r="455">
-      <c r="A455" s="158"/>
+      <c r="A455" s="148"/>
     </row>
     <row r="456">
-      <c r="A456" s="158"/>
+      <c r="A456" s="148"/>
     </row>
     <row r="457">
-      <c r="A457" s="158"/>
+      <c r="A457" s="148"/>
     </row>
     <row r="458">
-      <c r="A458" s="158"/>
+      <c r="A458" s="148"/>
     </row>
     <row r="459">
-      <c r="A459" s="158"/>
+      <c r="A459" s="148"/>
     </row>
     <row r="460">
-      <c r="A460" s="158"/>
+      <c r="A460" s="148"/>
     </row>
     <row r="461">
-      <c r="A461" s="158"/>
+      <c r="A461" s="148"/>
     </row>
     <row r="462">
-      <c r="A462" s="158"/>
+      <c r="A462" s="148"/>
     </row>
     <row r="463">
-      <c r="A463" s="158"/>
+      <c r="A463" s="148"/>
     </row>
     <row r="464">
-      <c r="A464" s="158"/>
+      <c r="A464" s="148"/>
     </row>
     <row r="465">
-      <c r="A465" s="158"/>
+      <c r="A465" s="148"/>
     </row>
     <row r="466">
-      <c r="A466" s="158"/>
+      <c r="A466" s="148"/>
     </row>
     <row r="467">
-      <c r="A467" s="158"/>
+      <c r="A467" s="148"/>
     </row>
     <row r="468">
-      <c r="A468" s="158"/>
+      <c r="A468" s="148"/>
     </row>
     <row r="469">
-      <c r="A469" s="158"/>
+      <c r="A469" s="148"/>
     </row>
     <row r="470">
-      <c r="A470" s="158"/>
+      <c r="A470" s="148"/>
     </row>
     <row r="471">
-      <c r="A471" s="158"/>
+      <c r="A471" s="148"/>
     </row>
     <row r="472">
-      <c r="A472" s="158"/>
+      <c r="A472" s="148"/>
     </row>
     <row r="473">
-      <c r="A473" s="158"/>
+      <c r="A473" s="148"/>
     </row>
     <row r="474">
-      <c r="A474" s="158"/>
+      <c r="A474" s="148"/>
     </row>
     <row r="475">
-      <c r="A475" s="158"/>
+      <c r="A475" s="148"/>
     </row>
     <row r="476">
-      <c r="A476" s="158"/>
+      <c r="A476" s="148"/>
     </row>
     <row r="477">
-      <c r="A477" s="158"/>
+      <c r="A477" s="148"/>
     </row>
     <row r="478">
-      <c r="A478" s="158"/>
+      <c r="A478" s="148"/>
     </row>
     <row r="479">
-      <c r="A479" s="158"/>
+      <c r="A479" s="148"/>
     </row>
     <row r="480">
-      <c r="A480" s="158"/>
+      <c r="A480" s="148"/>
     </row>
     <row r="481">
-      <c r="A481" s="158"/>
+      <c r="A481" s="148"/>
     </row>
     <row r="482">
-      <c r="A482" s="158"/>
+      <c r="A482" s="148"/>
     </row>
     <row r="483">
-      <c r="A483" s="158"/>
+      <c r="A483" s="148"/>
     </row>
     <row r="484">
-      <c r="A484" s="158"/>
+      <c r="A484" s="148"/>
     </row>
     <row r="485">
-      <c r="A485" s="158"/>
+      <c r="A485" s="148"/>
     </row>
     <row r="486">
-      <c r="A486" s="158"/>
+      <c r="A486" s="148"/>
     </row>
     <row r="487">
-      <c r="A487" s="158"/>
+      <c r="A487" s="148"/>
     </row>
     <row r="488">
-      <c r="A488" s="158"/>
+      <c r="A488" s="148"/>
     </row>
     <row r="489">
-      <c r="A489" s="158"/>
+      <c r="A489" s="148"/>
     </row>
     <row r="490">
-      <c r="A490" s="158"/>
+      <c r="A490" s="148"/>
     </row>
     <row r="491">
-      <c r="A491" s="158"/>
+      <c r="A491" s="148"/>
     </row>
     <row r="492">
-      <c r="A492" s="158"/>
+      <c r="A492" s="148"/>
     </row>
     <row r="493">
-      <c r="A493" s="158"/>
+      <c r="A493" s="148"/>
     </row>
     <row r="494">
-      <c r="A494" s="158"/>
+      <c r="A494" s="148"/>
     </row>
     <row r="495">
-      <c r="A495" s="158"/>
+      <c r="A495" s="148"/>
     </row>
     <row r="496">
-      <c r="A496" s="158"/>
+      <c r="A496" s="148"/>
     </row>
     <row r="497">
-      <c r="A497" s="158"/>
+      <c r="A497" s="148"/>
     </row>
     <row r="498">
-      <c r="A498" s="158"/>
+      <c r="A498" s="148"/>
     </row>
     <row r="499">
-      <c r="A499" s="158"/>
+      <c r="A499" s="148"/>
     </row>
     <row r="500">
-      <c r="A500" s="158"/>
+      <c r="A500" s="148"/>
     </row>
     <row r="501">
-      <c r="A501" s="158"/>
+      <c r="A501" s="148"/>
     </row>
     <row r="502">
-      <c r="A502" s="158"/>
+      <c r="A502" s="148"/>
     </row>
     <row r="503">
-      <c r="A503" s="158"/>
+      <c r="A503" s="148"/>
     </row>
     <row r="504">
-      <c r="A504" s="158"/>
+      <c r="A504" s="148"/>
     </row>
     <row r="505">
-      <c r="A505" s="158"/>
+      <c r="A505" s="148"/>
     </row>
     <row r="506">
-      <c r="A506" s="158"/>
+      <c r="A506" s="148"/>
     </row>
     <row r="507">
-      <c r="A507" s="158"/>
+      <c r="A507" s="148"/>
     </row>
     <row r="508">
-      <c r="A508" s="158"/>
+      <c r="A508" s="148"/>
     </row>
     <row r="509">
-      <c r="A509" s="158"/>
+      <c r="A509" s="148"/>
     </row>
     <row r="510">
-      <c r="A510" s="158"/>
+      <c r="A510" s="148"/>
     </row>
     <row r="511">
-      <c r="A511" s="158"/>
+      <c r="A511" s="148"/>
     </row>
     <row r="512">
-      <c r="A512" s="158"/>
+      <c r="A512" s="148"/>
     </row>
     <row r="513">
-      <c r="A513" s="158"/>
+      <c r="A513" s="148"/>
     </row>
     <row r="514">
-      <c r="A514" s="158"/>
+      <c r="A514" s="148"/>
     </row>
     <row r="515">
-      <c r="A515" s="158"/>
+      <c r="A515" s="148"/>
     </row>
     <row r="516">
-      <c r="A516" s="158"/>
+      <c r="A516" s="148"/>
     </row>
     <row r="517">
-      <c r="A517" s="158"/>
+      <c r="A517" s="148"/>
     </row>
     <row r="518">
-      <c r="A518" s="158"/>
+      <c r="A518" s="148"/>
     </row>
     <row r="519">
-      <c r="A519" s="158"/>
+      <c r="A519" s="148"/>
     </row>
     <row r="520">
-      <c r="A520" s="158"/>
+      <c r="A520" s="148"/>
     </row>
     <row r="521">
-      <c r="A521" s="158"/>
+      <c r="A521" s="148"/>
     </row>
     <row r="522">
-      <c r="A522" s="158"/>
+      <c r="A522" s="148"/>
     </row>
     <row r="523">
-      <c r="A523" s="158"/>
+      <c r="A523" s="148"/>
     </row>
     <row r="524">
-      <c r="A524" s="158"/>
+      <c r="A524" s="148"/>
     </row>
     <row r="525">
-      <c r="A525" s="158"/>
+      <c r="A525" s="148"/>
     </row>
     <row r="526">
-      <c r="A526" s="158"/>
+      <c r="A526" s="148"/>
     </row>
     <row r="527">
-      <c r="A527" s="158"/>
+      <c r="A527" s="148"/>
     </row>
     <row r="528">
-      <c r="A528" s="158"/>
+      <c r="A528" s="148"/>
     </row>
     <row r="529">
-      <c r="A529" s="158"/>
+      <c r="A529" s="148"/>
     </row>
     <row r="530">
-      <c r="A530" s="158"/>
+      <c r="A530" s="148"/>
     </row>
     <row r="531">
-      <c r="A531" s="158"/>
+      <c r="A531" s="148"/>
     </row>
     <row r="532">
-      <c r="A532" s="158"/>
+      <c r="A532" s="148"/>
     </row>
     <row r="533">
-      <c r="A533" s="158"/>
+      <c r="A533" s="148"/>
     </row>
     <row r="534">
-      <c r="A534" s="158"/>
+      <c r="A534" s="148"/>
     </row>
     <row r="535">
-      <c r="A535" s="158"/>
+      <c r="A535" s="148"/>
     </row>
     <row r="536">
-      <c r="A536" s="158"/>
+      <c r="A536" s="148"/>
     </row>
     <row r="537">
-      <c r="A537" s="158"/>
+      <c r="A537" s="148"/>
     </row>
     <row r="538">
-      <c r="A538" s="158"/>
+      <c r="A538" s="148"/>
     </row>
     <row r="539">
-      <c r="A539" s="158"/>
+      <c r="A539" s="148"/>
     </row>
     <row r="540">
-      <c r="A540" s="158"/>
+      <c r="A540" s="148"/>
     </row>
     <row r="541">
-      <c r="A541" s="158"/>
+      <c r="A541" s="148"/>
     </row>
     <row r="542">
-      <c r="A542" s="158"/>
+      <c r="A542" s="148"/>
     </row>
     <row r="543">
-      <c r="A543" s="158"/>
+      <c r="A543" s="148"/>
     </row>
     <row r="544">
-      <c r="A544" s="158"/>
+      <c r="A544" s="148"/>
     </row>
     <row r="545">
-      <c r="A545" s="158"/>
+      <c r="A545" s="148"/>
     </row>
     <row r="546">
-      <c r="A546" s="158"/>
+      <c r="A546" s="148"/>
     </row>
     <row r="547">
-      <c r="A547" s="158"/>
+      <c r="A547" s="148"/>
     </row>
     <row r="548">
-      <c r="A548" s="158"/>
+      <c r="A548" s="148"/>
     </row>
     <row r="549">
-      <c r="A549" s="158"/>
+      <c r="A549" s="148"/>
     </row>
     <row r="550">
-      <c r="A550" s="158"/>
+      <c r="A550" s="148"/>
     </row>
     <row r="551">
-      <c r="A551" s="158"/>
+      <c r="A551" s="148"/>
     </row>
     <row r="552">
-      <c r="A552" s="158"/>
+      <c r="A552" s="148"/>
     </row>
     <row r="553">
-      <c r="A553" s="158"/>
+      <c r="A553" s="148"/>
     </row>
     <row r="554">
-      <c r="A554" s="158"/>
+      <c r="A554" s="148"/>
     </row>
     <row r="555">
-      <c r="A555" s="158"/>
+      <c r="A555" s="148"/>
     </row>
     <row r="556">
-      <c r="A556" s="158"/>
+      <c r="A556" s="148"/>
     </row>
     <row r="557">
-      <c r="A557" s="158"/>
+      <c r="A557" s="148"/>
     </row>
     <row r="558">
-      <c r="A558" s="158"/>
+      <c r="A558" s="148"/>
     </row>
     <row r="559">
-      <c r="A559" s="158"/>
+      <c r="A559" s="148"/>
     </row>
     <row r="560">
-      <c r="A560" s="158"/>
+      <c r="A560" s="148"/>
     </row>
     <row r="561">
-      <c r="A561" s="158"/>
+      <c r="A561" s="148"/>
     </row>
     <row r="562">
-      <c r="A562" s="158"/>
+      <c r="A562" s="148"/>
     </row>
     <row r="563">
-      <c r="A563" s="158"/>
+      <c r="A563" s="148"/>
     </row>
     <row r="564">
-      <c r="A564" s="158"/>
+      <c r="A564" s="148"/>
     </row>
     <row r="565">
-      <c r="A565" s="158"/>
+      <c r="A565" s="148"/>
     </row>
     <row r="566">
-      <c r="A566" s="158"/>
+      <c r="A566" s="148"/>
     </row>
     <row r="567">
-      <c r="A567" s="158"/>
+      <c r="A567" s="148"/>
     </row>
     <row r="568">
-      <c r="A568" s="158"/>
+      <c r="A568" s="148"/>
     </row>
     <row r="569">
-      <c r="A569" s="158"/>
+      <c r="A569" s="148"/>
     </row>
     <row r="570">
-      <c r="A570" s="158"/>
+      <c r="A570" s="148"/>
     </row>
     <row r="571">
-      <c r="A571" s="158"/>
+      <c r="A571" s="148"/>
     </row>
     <row r="572">
-      <c r="A572" s="158"/>
+      <c r="A572" s="148"/>
     </row>
     <row r="573">
-      <c r="A573" s="158"/>
+      <c r="A573" s="148"/>
     </row>
     <row r="574">
-      <c r="A574" s="158"/>
+      <c r="A574" s="148"/>
     </row>
     <row r="575">
-      <c r="A575" s="158"/>
+      <c r="A575" s="148"/>
     </row>
     <row r="576">
-      <c r="A576" s="158"/>
+      <c r="A576" s="148"/>
     </row>
     <row r="577">
-      <c r="A577" s="158"/>
+      <c r="A577" s="148"/>
     </row>
     <row r="578">
-      <c r="A578" s="158"/>
+      <c r="A578" s="148"/>
     </row>
     <row r="579">
-      <c r="A579" s="158"/>
+      <c r="A579" s="148"/>
     </row>
     <row r="580">
-      <c r="A580" s="158"/>
+      <c r="A580" s="148"/>
     </row>
     <row r="581">
-      <c r="A581" s="158"/>
+      <c r="A581" s="148"/>
     </row>
     <row r="582">
-      <c r="A582" s="158"/>
+      <c r="A582" s="148"/>
     </row>
     <row r="583">
-      <c r="A583" s="158"/>
+      <c r="A583" s="148"/>
     </row>
     <row r="584">
-      <c r="A584" s="158"/>
+      <c r="A584" s="148"/>
     </row>
     <row r="585">
-      <c r="A585" s="158"/>
+      <c r="A585" s="148"/>
     </row>
     <row r="586">
-      <c r="A586" s="158"/>
+      <c r="A586" s="148"/>
     </row>
     <row r="587">
-      <c r="A587" s="158"/>
+      <c r="A587" s="148"/>
     </row>
     <row r="588">
-      <c r="A588" s="158"/>
+      <c r="A588" s="148"/>
     </row>
     <row r="589">
-      <c r="A589" s="158"/>
+      <c r="A589" s="148"/>
     </row>
     <row r="590">
-      <c r="A590" s="158"/>
+      <c r="A590" s="148"/>
     </row>
     <row r="591">
-      <c r="A591" s="158"/>
+      <c r="A591" s="148"/>
     </row>
     <row r="592">
-      <c r="A592" s="158"/>
+      <c r="A592" s="148"/>
     </row>
     <row r="593">
-      <c r="A593" s="158"/>
+      <c r="A593" s="148"/>
     </row>
     <row r="594">
-      <c r="A594" s="158"/>
+      <c r="A594" s="148"/>
     </row>
     <row r="595">
-      <c r="A595" s="158"/>
+      <c r="A595" s="148"/>
     </row>
     <row r="596">
-      <c r="A596" s="158"/>
+      <c r="A596" s="148"/>
     </row>
     <row r="597">
-      <c r="A597" s="158"/>
+      <c r="A597" s="148"/>
     </row>
     <row r="598">
-      <c r="A598" s="158"/>
+      <c r="A598" s="148"/>
     </row>
     <row r="599">
-      <c r="A599" s="158"/>
+      <c r="A599" s="148"/>
     </row>
     <row r="600">
-      <c r="A600" s="158"/>
+      <c r="A600" s="148"/>
     </row>
     <row r="601">
-      <c r="A601" s="158"/>
+      <c r="A601" s="148"/>
     </row>
     <row r="602">
-      <c r="A602" s="158"/>
+      <c r="A602" s="148"/>
     </row>
     <row r="603">
-      <c r="A603" s="158"/>
+      <c r="A603" s="148"/>
     </row>
     <row r="604">
-      <c r="A604" s="158"/>
+      <c r="A604" s="148"/>
     </row>
     <row r="605">
-      <c r="A605" s="158"/>
+      <c r="A605" s="148"/>
     </row>
     <row r="606">
-      <c r="A606" s="158"/>
+      <c r="A606" s="148"/>
     </row>
     <row r="607">
-      <c r="A607" s="158"/>
+      <c r="A607" s="148"/>
     </row>
     <row r="608">
-      <c r="A608" s="158"/>
+      <c r="A608" s="148"/>
     </row>
     <row r="609">
-      <c r="A609" s="158"/>
+      <c r="A609" s="148"/>
     </row>
     <row r="610">
-      <c r="A610" s="158"/>
+      <c r="A610" s="148"/>
     </row>
     <row r="611">
-      <c r="A611" s="158"/>
+      <c r="A611" s="148"/>
     </row>
     <row r="612">
-      <c r="A612" s="158"/>
+      <c r="A612" s="148"/>
     </row>
     <row r="613">
-      <c r="A613" s="158"/>
+      <c r="A613" s="148"/>
     </row>
     <row r="614">
-      <c r="A614" s="158"/>
+      <c r="A614" s="148"/>
     </row>
     <row r="615">
-      <c r="A615" s="158"/>
+      <c r="A615" s="148"/>
     </row>
     <row r="616">
-      <c r="A616" s="158"/>
+      <c r="A616" s="148"/>
     </row>
     <row r="617">
-      <c r="A617" s="158"/>
+      <c r="A617" s="148"/>
     </row>
     <row r="618">
-      <c r="A618" s="158"/>
+      <c r="A618" s="148"/>
     </row>
     <row r="619">
-      <c r="A619" s="158"/>
+      <c r="A619" s="148"/>
     </row>
     <row r="620">
-      <c r="A620" s="158"/>
+      <c r="A620" s="148"/>
     </row>
     <row r="621">
-      <c r="A621" s="158"/>
+      <c r="A621" s="148"/>
     </row>
     <row r="622">
-      <c r="A622" s="158"/>
+      <c r="A622" s="148"/>
     </row>
     <row r="623">
-      <c r="A623" s="158"/>
+      <c r="A623" s="148"/>
     </row>
     <row r="624">
-      <c r="A624" s="158"/>
+      <c r="A624" s="148"/>
     </row>
     <row r="625">
-      <c r="A625" s="158"/>
+      <c r="A625" s="148"/>
     </row>
     <row r="626">
-      <c r="A626" s="158"/>
+      <c r="A626" s="148"/>
     </row>
     <row r="627">
-      <c r="A627" s="158"/>
+      <c r="A627" s="148"/>
     </row>
     <row r="628">
-      <c r="A628" s="158"/>
+      <c r="A628" s="148"/>
     </row>
     <row r="629">
-      <c r="A629" s="158"/>
+      <c r="A629" s="148"/>
     </row>
     <row r="630">
-      <c r="A630" s="158"/>
+      <c r="A630" s="148"/>
     </row>
     <row r="631">
-      <c r="A631" s="158"/>
+      <c r="A631" s="148"/>
     </row>
     <row r="632">
-      <c r="A632" s="158"/>
+      <c r="A632" s="148"/>
     </row>
     <row r="633">
-      <c r="A633" s="158"/>
+      <c r="A633" s="148"/>
     </row>
     <row r="634">
-      <c r="A634" s="158"/>
+      <c r="A634" s="148"/>
     </row>
     <row r="635">
-      <c r="A635" s="158"/>
+      <c r="A635" s="148"/>
     </row>
     <row r="636">
-      <c r="A636" s="158"/>
+      <c r="A636" s="148"/>
     </row>
     <row r="637">
-      <c r="A637" s="158"/>
+      <c r="A637" s="148"/>
     </row>
     <row r="638">
-      <c r="A638" s="158"/>
+      <c r="A638" s="148"/>
     </row>
     <row r="639">
-      <c r="A639" s="158"/>
+      <c r="A639" s="148"/>
     </row>
     <row r="640">
-      <c r="A640" s="158"/>
+      <c r="A640" s="148"/>
     </row>
     <row r="641">
-      <c r="A641" s="158"/>
+      <c r="A641" s="148"/>
     </row>
     <row r="642">
-      <c r="A642" s="158"/>
+      <c r="A642" s="148"/>
     </row>
     <row r="643">
-      <c r="A643" s="158"/>
+      <c r="A643" s="148"/>
     </row>
     <row r="644">
-      <c r="A644" s="158"/>
+      <c r="A644" s="148"/>
     </row>
     <row r="645">
-      <c r="A645" s="158"/>
+      <c r="A645" s="148"/>
     </row>
     <row r="646">
-      <c r="A646" s="158"/>
+      <c r="A646" s="148"/>
     </row>
     <row r="647">
-      <c r="A647" s="158"/>
+      <c r="A647" s="148"/>
     </row>
     <row r="648">
-      <c r="A648" s="158"/>
+      <c r="A648" s="148"/>
     </row>
     <row r="649">
-      <c r="A649" s="158"/>
+      <c r="A649" s="148"/>
     </row>
     <row r="650">
-      <c r="A650" s="158"/>
+      <c r="A650" s="148"/>
     </row>
     <row r="651">
-      <c r="A651" s="158"/>
+      <c r="A651" s="148"/>
     </row>
     <row r="652">
-      <c r="A652" s="158"/>
+      <c r="A652" s="148"/>
     </row>
     <row r="653">
-      <c r="A653" s="158"/>
+      <c r="A653" s="148"/>
     </row>
     <row r="654">
-      <c r="A654" s="158"/>
+      <c r="A654" s="148"/>
     </row>
     <row r="655">
-      <c r="A655" s="158"/>
+      <c r="A655" s="148"/>
     </row>
     <row r="656">
-      <c r="A656" s="158"/>
+      <c r="A656" s="148"/>
     </row>
     <row r="657">
-      <c r="A657" s="158"/>
+      <c r="A657" s="148"/>
     </row>
     <row r="658">
-      <c r="A658" s="158"/>
+      <c r="A658" s="148"/>
     </row>
     <row r="659">
-      <c r="A659" s="158"/>
+      <c r="A659" s="148"/>
     </row>
     <row r="660">
-      <c r="A660" s="158"/>
+      <c r="A660" s="148"/>
     </row>
     <row r="661">
-      <c r="A661" s="158"/>
+      <c r="A661" s="148"/>
     </row>
     <row r="662">
-      <c r="A662" s="158"/>
+      <c r="A662" s="148"/>
     </row>
     <row r="663">
-      <c r="A663" s="158"/>
+      <c r="A663" s="148"/>
     </row>
     <row r="664">
-      <c r="A664" s="158"/>
+      <c r="A664" s="148"/>
     </row>
     <row r="665">
-      <c r="A665" s="158"/>
+      <c r="A665" s="148"/>
     </row>
     <row r="666">
-      <c r="A666" s="158"/>
+      <c r="A666" s="148"/>
     </row>
     <row r="667">
-      <c r="A667" s="158"/>
+      <c r="A667" s="148"/>
     </row>
     <row r="668">
-      <c r="A668" s="158"/>
+      <c r="A668" s="148"/>
     </row>
     <row r="669">
-      <c r="A669" s="158"/>
+      <c r="A669" s="148"/>
     </row>
     <row r="670">
-      <c r="A670" s="158"/>
+      <c r="A670" s="148"/>
     </row>
     <row r="671">
-      <c r="A671" s="158"/>
+      <c r="A671" s="148"/>
     </row>
     <row r="672">
-      <c r="A672" s="158"/>
+      <c r="A672" s="148"/>
     </row>
     <row r="673">
-      <c r="A673" s="158"/>
+      <c r="A673" s="148"/>
     </row>
     <row r="674">
-      <c r="A674" s="158"/>
+      <c r="A674" s="148"/>
     </row>
     <row r="675">
-      <c r="A675" s="158"/>
+      <c r="A675" s="148"/>
     </row>
     <row r="676">
-      <c r="A676" s="158"/>
+      <c r="A676" s="148"/>
     </row>
     <row r="677">
-      <c r="A677" s="158"/>
+      <c r="A677" s="148"/>
     </row>
     <row r="678">
-      <c r="A678" s="158"/>
+      <c r="A678" s="148"/>
     </row>
     <row r="679">
-      <c r="A679" s="158"/>
+      <c r="A679" s="148"/>
     </row>
     <row r="680">
-      <c r="A680" s="158"/>
+      <c r="A680" s="148"/>
     </row>
     <row r="681">
-      <c r="A681" s="158"/>
+      <c r="A681" s="148"/>
     </row>
     <row r="682">
-      <c r="A682" s="158"/>
+      <c r="A682" s="148"/>
     </row>
     <row r="683">
-      <c r="A683" s="158"/>
+      <c r="A683" s="148"/>
     </row>
     <row r="684">
-      <c r="A684" s="158"/>
+      <c r="A684" s="148"/>
     </row>
     <row r="685">
-      <c r="A685" s="158"/>
+      <c r="A685" s="148"/>
     </row>
     <row r="686">
-      <c r="A686" s="158"/>
+      <c r="A686" s="148"/>
     </row>
     <row r="687">
-      <c r="A687" s="158"/>
+      <c r="A687" s="148"/>
     </row>
     <row r="688">
-      <c r="A688" s="158"/>
+      <c r="A688" s="148"/>
     </row>
     <row r="689">
-      <c r="A689" s="158"/>
+      <c r="A689" s="148"/>
     </row>
     <row r="690">
-      <c r="A690" s="158"/>
+      <c r="A690" s="148"/>
     </row>
     <row r="691">
-      <c r="A691" s="158"/>
+      <c r="A691" s="148"/>
     </row>
     <row r="692">
-      <c r="A692" s="158"/>
+      <c r="A692" s="148"/>
     </row>
     <row r="693">
-      <c r="A693" s="158"/>
+      <c r="A693" s="148"/>
     </row>
     <row r="694">
-      <c r="A694" s="158"/>
+      <c r="A694" s="148"/>
     </row>
     <row r="695">
-      <c r="A695" s="158"/>
+      <c r="A695" s="148"/>
     </row>
     <row r="696">
-      <c r="A696" s="158"/>
+      <c r="A696" s="148"/>
     </row>
     <row r="697">
-      <c r="A697" s="158"/>
+      <c r="A697" s="148"/>
     </row>
     <row r="698">
-      <c r="A698" s="158"/>
+      <c r="A698" s="148"/>
     </row>
     <row r="699">
-      <c r="A699" s="158"/>
+      <c r="A699" s="148"/>
     </row>
     <row r="700">
-      <c r="A700" s="158"/>
+      <c r="A700" s="148"/>
     </row>
     <row r="701">
-      <c r="A701" s="158"/>
+      <c r="A701" s="148"/>
     </row>
     <row r="702">
-      <c r="A702" s="158"/>
+      <c r="A702" s="148"/>
     </row>
     <row r="703">
-      <c r="A703" s="158"/>
+      <c r="A703" s="148"/>
     </row>
     <row r="704">
-      <c r="A704" s="158"/>
+      <c r="A704" s="148"/>
     </row>
     <row r="705">
-      <c r="A705" s="158"/>
+      <c r="A705" s="148"/>
     </row>
     <row r="706">
-      <c r="A706" s="158"/>
+      <c r="A706" s="148"/>
     </row>
     <row r="707">
-      <c r="A707" s="158"/>
+      <c r="A707" s="148"/>
     </row>
     <row r="708">
-      <c r="A708" s="158"/>
+      <c r="A708" s="148"/>
     </row>
     <row r="709">
-      <c r="A709" s="158"/>
+      <c r="A709" s="148"/>
     </row>
     <row r="710">
-      <c r="A710" s="158"/>
+      <c r="A710" s="148"/>
     </row>
     <row r="711">
-      <c r="A711" s="158"/>
+      <c r="A711" s="148"/>
     </row>
     <row r="712">
-      <c r="A712" s="158"/>
+      <c r="A712" s="148"/>
     </row>
     <row r="713">
-      <c r="A713" s="158"/>
+      <c r="A713" s="148"/>
     </row>
     <row r="714">
-      <c r="A714" s="158"/>
+      <c r="A714" s="148"/>
     </row>
     <row r="715">
-      <c r="A715" s="158"/>
+      <c r="A715" s="148"/>
     </row>
     <row r="716">
-      <c r="A716" s="158"/>
+      <c r="A716" s="148"/>
     </row>
     <row r="717">
-      <c r="A717" s="158"/>
+      <c r="A717" s="148"/>
     </row>
     <row r="718">
-      <c r="A718" s="158"/>
+      <c r="A718" s="148"/>
     </row>
     <row r="719">
-      <c r="A719" s="158"/>
+      <c r="A719" s="148"/>
     </row>
     <row r="720">
-      <c r="A720" s="158"/>
+      <c r="A720" s="148"/>
     </row>
     <row r="721">
-      <c r="A721" s="158"/>
+      <c r="A721" s="148"/>
     </row>
     <row r="722">
-      <c r="A722" s="158"/>
+      <c r="A722" s="148"/>
     </row>
     <row r="723">
-      <c r="A723" s="158"/>
+      <c r="A723" s="148"/>
     </row>
     <row r="724">
-      <c r="A724" s="158"/>
+      <c r="A724" s="148"/>
     </row>
     <row r="725">
-      <c r="A725" s="158"/>
+      <c r="A725" s="148"/>
     </row>
     <row r="726">
-      <c r="A726" s="158"/>
+      <c r="A726" s="148"/>
     </row>
     <row r="727">
-      <c r="A727" s="158"/>
+      <c r="A727" s="148"/>
     </row>
     <row r="728">
-      <c r="A728" s="158"/>
+      <c r="A728" s="148"/>
     </row>
     <row r="729">
-      <c r="A729" s="158"/>
+      <c r="A729" s="148"/>
     </row>
     <row r="730">
-      <c r="A730" s="158"/>
+      <c r="A730" s="148"/>
     </row>
     <row r="731">
-      <c r="A731" s="158"/>
+      <c r="A731" s="148"/>
     </row>
     <row r="732">
-      <c r="A732" s="158"/>
+      <c r="A732" s="148"/>
     </row>
     <row r="733">
-      <c r="A733" s="158"/>
+      <c r="A733" s="148"/>
     </row>
     <row r="734">
-      <c r="A734" s="158"/>
+      <c r="A734" s="148"/>
     </row>
     <row r="735">
-      <c r="A735" s="158"/>
+      <c r="A735" s="148"/>
     </row>
     <row r="736">
-      <c r="A736" s="158"/>
+      <c r="A736" s="148"/>
     </row>
     <row r="737">
-      <c r="A737" s="158"/>
+      <c r="A737" s="148"/>
     </row>
     <row r="738">
-      <c r="A738" s="158"/>
+      <c r="A738" s="148"/>
     </row>
     <row r="739">
-      <c r="A739" s="158"/>
+      <c r="A739" s="148"/>
     </row>
     <row r="740">
-      <c r="A740" s="158"/>
+      <c r="A740" s="148"/>
     </row>
     <row r="741">
-      <c r="A741" s="158"/>
+      <c r="A741" s="148"/>
     </row>
     <row r="742">
-      <c r="A742" s="158"/>
+      <c r="A742" s="148"/>
     </row>
     <row r="743">
-      <c r="A743" s="158"/>
+      <c r="A743" s="148"/>
     </row>
     <row r="744">
-      <c r="A744" s="158"/>
+      <c r="A744" s="148"/>
     </row>
     <row r="745">
-      <c r="A745" s="158"/>
+      <c r="A745" s="148"/>
     </row>
     <row r="746">
-      <c r="A746" s="158"/>
+      <c r="A746" s="148"/>
     </row>
     <row r="747">
-      <c r="A747" s="158"/>
+      <c r="A747" s="148"/>
     </row>
     <row r="748">
-      <c r="A748" s="158"/>
+      <c r="A748" s="148"/>
     </row>
     <row r="749">
-      <c r="A749" s="158"/>
+      <c r="A749" s="148"/>
     </row>
     <row r="750">
-      <c r="A750" s="158"/>
+      <c r="A750" s="148"/>
     </row>
     <row r="751">
-      <c r="A751" s="158"/>
+      <c r="A751" s="148"/>
     </row>
     <row r="752">
-      <c r="A752" s="158"/>
+      <c r="A752" s="148"/>
     </row>
     <row r="753">
-      <c r="A753" s="158"/>
+      <c r="A753" s="148"/>
     </row>
     <row r="754">
-      <c r="A754" s="158"/>
+      <c r="A754" s="148"/>
     </row>
     <row r="755">
-      <c r="A755" s="158"/>
+      <c r="A755" s="148"/>
     </row>
     <row r="756">
-      <c r="A756" s="158"/>
+      <c r="A756" s="148"/>
     </row>
     <row r="757">
-      <c r="A757" s="158"/>
+      <c r="A757" s="148"/>
     </row>
     <row r="758">
-      <c r="A758" s="158"/>
+      <c r="A758" s="148"/>
     </row>
     <row r="759">
-      <c r="A759" s="158"/>
+      <c r="A759" s="148"/>
     </row>
     <row r="760">
-      <c r="A760" s="158"/>
+      <c r="A760" s="148"/>
     </row>
     <row r="761">
-      <c r="A761" s="158"/>
+      <c r="A761" s="148"/>
     </row>
     <row r="762">
-      <c r="A762" s="158"/>
+      <c r="A762" s="148"/>
     </row>
     <row r="763">
-      <c r="A763" s="158"/>
+      <c r="A763" s="148"/>
     </row>
     <row r="764">
-      <c r="A764" s="158"/>
+      <c r="A764" s="148"/>
     </row>
     <row r="765">
-      <c r="A765" s="158"/>
+      <c r="A765" s="148"/>
     </row>
     <row r="766">
-      <c r="A766" s="158"/>
+      <c r="A766" s="148"/>
     </row>
     <row r="767">
-      <c r="A767" s="158"/>
+      <c r="A767" s="148"/>
     </row>
     <row r="768">
-      <c r="A768" s="158"/>
+      <c r="A768" s="148"/>
     </row>
     <row r="769">
-      <c r="A769" s="158"/>
+      <c r="A769" s="148"/>
     </row>
     <row r="770">
-      <c r="A770" s="158"/>
+      <c r="A770" s="148"/>
     </row>
     <row r="771">
-      <c r="A771" s="158"/>
+      <c r="A771" s="148"/>
     </row>
     <row r="772">
-      <c r="A772" s="158"/>
+      <c r="A772" s="148"/>
     </row>
     <row r="773">
-      <c r="A773" s="158"/>
+      <c r="A773" s="148"/>
     </row>
     <row r="774">
-      <c r="A774" s="158"/>
+      <c r="A774" s="148"/>
     </row>
     <row r="775">
-      <c r="A775" s="158"/>
+      <c r="A775" s="148"/>
     </row>
     <row r="776">
-      <c r="A776" s="158"/>
+      <c r="A776" s="148"/>
     </row>
     <row r="777">
-      <c r="A777" s="158"/>
+      <c r="A777" s="148"/>
     </row>
     <row r="778">
-      <c r="A778" s="158"/>
+      <c r="A778" s="148"/>
     </row>
     <row r="779">
-      <c r="A779" s="158"/>
+      <c r="A779" s="148"/>
     </row>
     <row r="780">
-      <c r="A780" s="158"/>
+      <c r="A780" s="148"/>
     </row>
     <row r="781">
-      <c r="A781" s="158"/>
+      <c r="A781" s="148"/>
     </row>
     <row r="782">
-      <c r="A782" s="158"/>
+      <c r="A782" s="148"/>
     </row>
     <row r="783">
-      <c r="A783" s="158"/>
+      <c r="A783" s="148"/>
     </row>
     <row r="784">
-      <c r="A784" s="158"/>
+      <c r="A784" s="148"/>
     </row>
     <row r="785">
-      <c r="A785" s="158"/>
+      <c r="A785" s="148"/>
     </row>
     <row r="786">
-      <c r="A786" s="158"/>
+      <c r="A786" s="148"/>
     </row>
     <row r="787">
-      <c r="A787" s="158"/>
+      <c r="A787" s="148"/>
     </row>
     <row r="788">
-      <c r="A788" s="158"/>
+      <c r="A788" s="148"/>
     </row>
     <row r="789">
-      <c r="A789" s="158"/>
+      <c r="A789" s="148"/>
     </row>
     <row r="790">
-      <c r="A790" s="158"/>
+      <c r="A790" s="148"/>
     </row>
     <row r="791">
-      <c r="A791" s="158"/>
+      <c r="A791" s="148"/>
     </row>
     <row r="792">
-      <c r="A792" s="158"/>
+      <c r="A792" s="148"/>
     </row>
     <row r="793">
-      <c r="A793" s="158"/>
+      <c r="A793" s="148"/>
     </row>
     <row r="794">
-      <c r="A794" s="158"/>
+      <c r="A794" s="148"/>
     </row>
     <row r="795">
-      <c r="A795" s="158"/>
+      <c r="A795" s="148"/>
     </row>
     <row r="796">
-      <c r="A796" s="158"/>
+      <c r="A796" s="148"/>
     </row>
     <row r="797">
-      <c r="A797" s="158"/>
+      <c r="A797" s="148"/>
     </row>
     <row r="798">
-      <c r="A798" s="158"/>
+      <c r="A798" s="148"/>
     </row>
     <row r="799">
-      <c r="A799" s="158"/>
+      <c r="A799" s="148"/>
     </row>
     <row r="800">
-      <c r="A800" s="158"/>
+      <c r="A800" s="148"/>
     </row>
     <row r="801">
-      <c r="A801" s="158"/>
+      <c r="A801" s="148"/>
     </row>
     <row r="802">
-      <c r="A802" s="158"/>
+      <c r="A802" s="148"/>
     </row>
     <row r="803">
-      <c r="A803" s="158"/>
+      <c r="A803" s="148"/>
     </row>
     <row r="804">
-      <c r="A804" s="158"/>
+      <c r="A804" s="148"/>
     </row>
     <row r="805">
-      <c r="A805" s="158"/>
+      <c r="A805" s="148"/>
     </row>
     <row r="806">
-      <c r="A806" s="158"/>
+      <c r="A806" s="148"/>
     </row>
     <row r="807">
-      <c r="A807" s="158"/>
+      <c r="A807" s="148"/>
     </row>
     <row r="808">
-      <c r="A808" s="158"/>
+      <c r="A808" s="148"/>
     </row>
     <row r="809">
-      <c r="A809" s="158"/>
+      <c r="A809" s="148"/>
     </row>
     <row r="810">
-      <c r="A810" s="158"/>
+      <c r="A810" s="148"/>
     </row>
     <row r="811">
-      <c r="A811" s="158"/>
+      <c r="A811" s="148"/>
     </row>
     <row r="812">
-      <c r="A812" s="158"/>
+      <c r="A812" s="148"/>
     </row>
     <row r="813">
-      <c r="A813" s="158"/>
+      <c r="A813" s="148"/>
     </row>
     <row r="814">
-      <c r="A814" s="158"/>
+      <c r="A814" s="148"/>
     </row>
     <row r="815">
-      <c r="A815" s="158"/>
+      <c r="A815" s="148"/>
     </row>
     <row r="816">
-      <c r="A816" s="158"/>
+      <c r="A816" s="148"/>
     </row>
     <row r="817">
-      <c r="A817" s="158"/>
+      <c r="A817" s="148"/>
     </row>
     <row r="818">
-      <c r="A818" s="158"/>
+      <c r="A818" s="148"/>
     </row>
     <row r="819">
-      <c r="A819" s="158"/>
+      <c r="A819" s="148"/>
     </row>
     <row r="820">
-      <c r="A820" s="158"/>
+      <c r="A820" s="148"/>
     </row>
     <row r="821">
-      <c r="A821" s="158"/>
+      <c r="A821" s="148"/>
     </row>
     <row r="822">
-      <c r="A822" s="158"/>
+      <c r="A822" s="148"/>
     </row>
     <row r="823">
-      <c r="A823" s="158"/>
+      <c r="A823" s="148"/>
     </row>
     <row r="824">
-      <c r="A824" s="158"/>
+      <c r="A824" s="148"/>
     </row>
     <row r="825">
-      <c r="A825" s="158"/>
+      <c r="A825" s="148"/>
     </row>
     <row r="826">
-      <c r="A826" s="158"/>
+      <c r="A826" s="148"/>
     </row>
     <row r="827">
-      <c r="A827" s="158"/>
+      <c r="A827" s="148"/>
     </row>
     <row r="828">
-      <c r="A828" s="158"/>
+      <c r="A828" s="148"/>
     </row>
     <row r="829">
-      <c r="A829" s="158"/>
+      <c r="A829" s="148"/>
     </row>
     <row r="830">
-      <c r="A830" s="158"/>
+      <c r="A830" s="148"/>
     </row>
     <row r="831">
-      <c r="A831" s="158"/>
+      <c r="A831" s="148"/>
     </row>
     <row r="832">
-      <c r="A832" s="158"/>
+      <c r="A832" s="148"/>
     </row>
     <row r="833">
-      <c r="A833" s="158"/>
+      <c r="A833" s="148"/>
     </row>
     <row r="834">
-      <c r="A834" s="158"/>
+      <c r="A834" s="148"/>
     </row>
     <row r="835">
-      <c r="A835" s="158"/>
+      <c r="A835" s="148"/>
     </row>
     <row r="836">
-      <c r="A836" s="158"/>
+      <c r="A836" s="148"/>
     </row>
     <row r="837">
-      <c r="A837" s="158"/>
+      <c r="A837" s="148"/>
     </row>
     <row r="838">
-      <c r="A838" s="158"/>
+      <c r="A838" s="148"/>
     </row>
     <row r="839">
-      <c r="A839" s="158"/>
+      <c r="A839" s="148"/>
     </row>
     <row r="840">
-      <c r="A840" s="158"/>
+      <c r="A840" s="148"/>
     </row>
     <row r="841">
-      <c r="A841" s="158"/>
+      <c r="A841" s="148"/>
     </row>
     <row r="842">
-      <c r="A842" s="158"/>
+      <c r="A842" s="148"/>
     </row>
     <row r="843">
-      <c r="A843" s="158"/>
+      <c r="A843" s="148"/>
     </row>
     <row r="844">
-      <c r="A844" s="158"/>
+      <c r="A844" s="148"/>
     </row>
     <row r="845">
-      <c r="A845" s="158"/>
+      <c r="A845" s="148"/>
     </row>
     <row r="846">
-      <c r="A846" s="158"/>
+      <c r="A846" s="148"/>
     </row>
     <row r="847">
-      <c r="A847" s="158"/>
+      <c r="A847" s="148"/>
     </row>
     <row r="848">
-      <c r="A848" s="158"/>
+      <c r="A848" s="148"/>
     </row>
     <row r="849">
-      <c r="A849" s="158"/>
+      <c r="A849" s="148"/>
     </row>
     <row r="850">
-      <c r="A850" s="158"/>
+      <c r="A850" s="148"/>
     </row>
     <row r="851">
-      <c r="A851" s="158"/>
+      <c r="A851" s="148"/>
     </row>
     <row r="852">
-      <c r="A852" s="158"/>
+      <c r="A852" s="148"/>
     </row>
     <row r="853">
-      <c r="A853" s="158"/>
+      <c r="A853" s="148"/>
     </row>
     <row r="854">
-      <c r="A854" s="158"/>
+      <c r="A854" s="148"/>
     </row>
     <row r="855">
-      <c r="A855" s="158"/>
+      <c r="A855" s="148"/>
     </row>
     <row r="856">
-      <c r="A856" s="158"/>
+      <c r="A856" s="148"/>
     </row>
     <row r="857">
-      <c r="A857" s="158"/>
+      <c r="A857" s="148"/>
     </row>
     <row r="858">
-      <c r="A858" s="158"/>
+      <c r="A858" s="148"/>
     </row>
     <row r="859">
-      <c r="A859" s="158"/>
+      <c r="A859" s="148"/>
     </row>
     <row r="860">
-      <c r="A860" s="158"/>
+      <c r="A860" s="148"/>
     </row>
     <row r="861">
-      <c r="A861" s="158"/>
+      <c r="A861" s="148"/>
     </row>
     <row r="862">
-      <c r="A862" s="158"/>
+      <c r="A862" s="148"/>
     </row>
     <row r="863">
-      <c r="A863" s="158"/>
+      <c r="A863" s="148"/>
     </row>
     <row r="864">
-      <c r="A864" s="158"/>
+      <c r="A864" s="148"/>
     </row>
     <row r="865">
-      <c r="A865" s="158"/>
+      <c r="A865" s="148"/>
     </row>
     <row r="866">
-      <c r="A866" s="158"/>
+      <c r="A866" s="148"/>
     </row>
     <row r="867">
-      <c r="A867" s="158"/>
+      <c r="A867" s="148"/>
     </row>
     <row r="868">
-      <c r="A868" s="158"/>
+      <c r="A868" s="148"/>
     </row>
     <row r="869">
-      <c r="A869" s="158"/>
+      <c r="A869" s="148"/>
     </row>
     <row r="870">
-      <c r="A870" s="158"/>
+      <c r="A870" s="148"/>
     </row>
     <row r="871">
-      <c r="A871" s="158"/>
+      <c r="A871" s="148"/>
     </row>
     <row r="872">
-      <c r="A872" s="158"/>
+      <c r="A872" s="148"/>
     </row>
     <row r="873">
-      <c r="A873" s="158"/>
+      <c r="A873" s="148"/>
     </row>
     <row r="874">
-      <c r="A874" s="158"/>
+      <c r="A874" s="148"/>
     </row>
     <row r="875">
-      <c r="A875" s="158"/>
+      <c r="A875" s="148"/>
     </row>
     <row r="876">
-      <c r="A876" s="158"/>
+      <c r="A876" s="148"/>
     </row>
     <row r="877">
-      <c r="A877" s="158"/>
+      <c r="A877" s="148"/>
     </row>
     <row r="878">
-      <c r="A878" s="158"/>
+      <c r="A878" s="148"/>
     </row>
     <row r="879">
-      <c r="A879" s="158"/>
+      <c r="A879" s="148"/>
     </row>
     <row r="880">
-      <c r="A880" s="158"/>
+      <c r="A880" s="148"/>
     </row>
     <row r="881">
-      <c r="A881" s="158"/>
+      <c r="A881" s="148"/>
     </row>
     <row r="882">
-      <c r="A882" s="158"/>
+      <c r="A882" s="148"/>
     </row>
     <row r="883">
-      <c r="A883" s="158"/>
+      <c r="A883" s="148"/>
     </row>
     <row r="884">
-      <c r="A884" s="158"/>
+      <c r="A884" s="148"/>
     </row>
     <row r="885">
-      <c r="A885" s="158"/>
+      <c r="A885" s="148"/>
     </row>
     <row r="886">
-      <c r="A886" s="158"/>
+      <c r="A886" s="148"/>
     </row>
     <row r="887">
-      <c r="A887" s="158"/>
+      <c r="A887" s="148"/>
     </row>
     <row r="888">
-      <c r="A888" s="158"/>
+      <c r="A888" s="148"/>
     </row>
     <row r="889">
-      <c r="A889" s="158"/>
+      <c r="A889" s="148"/>
     </row>
     <row r="890">
-      <c r="A890" s="158"/>
+      <c r="A890" s="148"/>
     </row>
     <row r="891">
-      <c r="A891" s="158"/>
+      <c r="A891" s="148"/>
     </row>
     <row r="892">
-      <c r="A892" s="158"/>
+      <c r="A892" s="148"/>
     </row>
     <row r="893">
-      <c r="A893" s="158"/>
+      <c r="A893" s="148"/>
     </row>
     <row r="894">
-      <c r="A894" s="158"/>
+      <c r="A894" s="148"/>
     </row>
     <row r="895">
-      <c r="A895" s="158"/>
+      <c r="A895" s="148"/>
     </row>
     <row r="896">
-      <c r="A896" s="158"/>
+      <c r="A896" s="148"/>
     </row>
     <row r="897">
-      <c r="A897" s="158"/>
+      <c r="A897" s="148"/>
     </row>
     <row r="898">
-      <c r="A898" s="158"/>
+      <c r="A898" s="148"/>
     </row>
     <row r="899">
-      <c r="A899" s="158"/>
+      <c r="A899" s="148"/>
     </row>
     <row r="900">
-      <c r="A900" s="158"/>
+      <c r="A900" s="148"/>
     </row>
     <row r="901">
-      <c r="A901" s="158"/>
+      <c r="A901" s="148"/>
     </row>
     <row r="902">
-      <c r="A902" s="158"/>
+      <c r="A902" s="148"/>
     </row>
     <row r="903">
-      <c r="A903" s="158"/>
+      <c r="A903" s="148"/>
     </row>
     <row r="904">
-      <c r="A904" s="158"/>
+      <c r="A904" s="148"/>
     </row>
     <row r="905">
-      <c r="A905" s="158"/>
+      <c r="A905" s="148"/>
     </row>
     <row r="906">
-      <c r="A906" s="158"/>
+      <c r="A906" s="148"/>
     </row>
     <row r="907">
-      <c r="A907" s="158"/>
+      <c r="A907" s="148"/>
     </row>
     <row r="908">
-      <c r="A908" s="158"/>
+      <c r="A908" s="148"/>
     </row>
     <row r="909">
-      <c r="A909" s="158"/>
+      <c r="A909" s="148"/>
     </row>
     <row r="910">
-      <c r="A910" s="158"/>
+      <c r="A910" s="148"/>
     </row>
     <row r="911">
-      <c r="A911" s="158"/>
+      <c r="A911" s="148"/>
     </row>
     <row r="912">
-      <c r="A912" s="158"/>
+      <c r="A912" s="148"/>
     </row>
     <row r="913">
-      <c r="A913" s="158"/>
+      <c r="A913" s="148"/>
     </row>
     <row r="914">
-      <c r="A914" s="158"/>
+      <c r="A914" s="148"/>
     </row>
     <row r="915">
-      <c r="A915" s="158"/>
+      <c r="A915" s="148"/>
     </row>
     <row r="916">
-      <c r="A916" s="158"/>
+      <c r="A916" s="148"/>
     </row>
     <row r="917">
-      <c r="A917" s="158"/>
+      <c r="A917" s="148"/>
     </row>
     <row r="918">
-      <c r="A918" s="158"/>
+      <c r="A918" s="148"/>
     </row>
     <row r="919">
-      <c r="A919" s="158"/>
+      <c r="A919" s="148"/>
     </row>
     <row r="920">
-      <c r="A920" s="158"/>
+      <c r="A920" s="148"/>
     </row>
     <row r="921">
-      <c r="A921" s="158"/>
+      <c r="A921" s="148"/>
     </row>
     <row r="922">
-      <c r="A922" s="158"/>
+      <c r="A922" s="148"/>
     </row>
     <row r="923">
-      <c r="A923" s="158"/>
+      <c r="A923" s="148"/>
     </row>
     <row r="924">
-      <c r="A924" s="158"/>
+      <c r="A924" s="148"/>
     </row>
     <row r="925">
-      <c r="A925" s="158"/>
+      <c r="A925" s="148"/>
     </row>
     <row r="926">
-      <c r="A926" s="158"/>
+      <c r="A926" s="148"/>
     </row>
     <row r="927">
-      <c r="A927" s="158"/>
+      <c r="A927" s="148"/>
     </row>
     <row r="928">
-      <c r="A928" s="158"/>
+      <c r="A928" s="148"/>
     </row>
     <row r="929">
-      <c r="A929" s="158"/>
+      <c r="A929" s="148"/>
     </row>
     <row r="930">
-      <c r="A930" s="158"/>
+      <c r="A930" s="148"/>
     </row>
     <row r="931">
-      <c r="A931" s="158"/>
+      <c r="A931" s="148"/>
     </row>
     <row r="932">
-      <c r="A932" s="158"/>
+      <c r="A932" s="148"/>
     </row>
     <row r="933">
-      <c r="A933" s="158"/>
+      <c r="A933" s="148"/>
     </row>
     <row r="934">
-      <c r="A934" s="158"/>
+      <c r="A934" s="148"/>
     </row>
     <row r="935">
-      <c r="A935" s="158"/>
+      <c r="A935" s="148"/>
     </row>
     <row r="936">
-      <c r="A936" s="158"/>
+      <c r="A936" s="148"/>
     </row>
     <row r="937">
-      <c r="A937" s="158"/>
+      <c r="A937" s="148"/>
     </row>
     <row r="938">
-      <c r="A938" s="158"/>
+      <c r="A938" s="148"/>
     </row>
     <row r="939">
-      <c r="A939" s="158"/>
+      <c r="A939" s="148"/>
     </row>
     <row r="940">
-      <c r="A940" s="158"/>
+      <c r="A940" s="148"/>
     </row>
     <row r="941">
-      <c r="A941" s="158"/>
+      <c r="A941" s="148"/>
     </row>
     <row r="942">
-      <c r="A942" s="158"/>
+      <c r="A942" s="148"/>
     </row>
     <row r="943">
-      <c r="A943" s="158"/>
+      <c r="A943" s="148"/>
     </row>
     <row r="944">
-      <c r="A944" s="158"/>
+      <c r="A944" s="148"/>
     </row>
     <row r="945">
-      <c r="A945" s="158"/>
+      <c r="A945" s="148"/>
     </row>
     <row r="946">
-      <c r="A946" s="158"/>
+      <c r="A946" s="148"/>
     </row>
     <row r="947">
-      <c r="A947" s="158"/>
+      <c r="A947" s="148"/>
     </row>
     <row r="948">
-      <c r="A948" s="158"/>
+      <c r="A948" s="148"/>
     </row>
     <row r="949">
-      <c r="A949" s="158"/>
+      <c r="A949" s="148"/>
     </row>
     <row r="950">
-      <c r="A950" s="158"/>
+      <c r="A950" s="148"/>
     </row>
     <row r="951">
-      <c r="A951" s="158"/>
+      <c r="A951" s="148"/>
     </row>
     <row r="952">
-      <c r="A952" s="158"/>
+      <c r="A952" s="148"/>
     </row>
     <row r="953">
-      <c r="A953" s="158"/>
+      <c r="A953" s="148"/>
     </row>
     <row r="954">
-      <c r="A954" s="158"/>
+      <c r="A954" s="148"/>
     </row>
     <row r="955">
-      <c r="A955" s="158"/>
+      <c r="A955" s="148"/>
     </row>
     <row r="956">
-      <c r="A956" s="158"/>
+      <c r="A956" s="148"/>
     </row>
     <row r="957">
-      <c r="A957" s="158"/>
+      <c r="A957" s="148"/>
     </row>
     <row r="958">
-      <c r="A958" s="158"/>
+      <c r="A958" s="148"/>
     </row>
     <row r="959">
-      <c r="A959" s="158"/>
+      <c r="A959" s="148"/>
     </row>
     <row r="960">
-      <c r="A960" s="158"/>
+      <c r="A960" s="148"/>
     </row>
     <row r="961">
-      <c r="A961" s="158"/>
+      <c r="A961" s="148"/>
     </row>
     <row r="962">
-      <c r="A962" s="158"/>
+      <c r="A962" s="148"/>
     </row>
     <row r="963">
-      <c r="A963" s="158"/>
+      <c r="A963" s="148"/>
     </row>
     <row r="964">
-      <c r="A964" s="158"/>
+      <c r="A964" s="148"/>
     </row>
     <row r="965">
-      <c r="A965" s="158"/>
+      <c r="A965" s="148"/>
     </row>
     <row r="966">
-      <c r="A966" s="158"/>
+      <c r="A966" s="148"/>
     </row>
     <row r="967">
-      <c r="A967" s="158"/>
+      <c r="A967" s="148"/>
     </row>
     <row r="968">
-      <c r="A968" s="158"/>
+      <c r="A968" s="148"/>
     </row>
     <row r="969">
-      <c r="A969" s="158"/>
+      <c r="A969" s="148"/>
     </row>
     <row r="970">
-      <c r="A970" s="158"/>
+      <c r="A970" s="148"/>
     </row>
     <row r="971">
-      <c r="A971" s="158"/>
+      <c r="A971" s="148"/>
     </row>
     <row r="972">
-      <c r="A972" s="158"/>
+      <c r="A972" s="148"/>
     </row>
     <row r="973">
-      <c r="A973" s="158"/>
+      <c r="A973" s="148"/>
     </row>
     <row r="974">
-      <c r="A974" s="158"/>
+      <c r="A974" s="148"/>
     </row>
     <row r="975">
-      <c r="A975" s="158"/>
+      <c r="A975" s="148"/>
     </row>
     <row r="976">
-      <c r="A976" s="158"/>
+      <c r="A976" s="148"/>
     </row>
     <row r="977">
-      <c r="A977" s="158"/>
+      <c r="A977" s="148"/>
     </row>
     <row r="978">
-      <c r="A978" s="158"/>
+      <c r="A978" s="148"/>
     </row>
     <row r="979">
-      <c r="A979" s="158"/>
+      <c r="A979" s="148"/>
     </row>
     <row r="980">
-      <c r="A980" s="158"/>
+      <c r="A980" s="148"/>
     </row>
     <row r="981">
-      <c r="A981" s="158"/>
+      <c r="A981" s="148"/>
     </row>
     <row r="982">
-      <c r="A982" s="158"/>
+      <c r="A982" s="148"/>
     </row>
     <row r="983">
-      <c r="A983" s="158"/>
+      <c r="A983" s="148"/>
     </row>
     <row r="984">
-      <c r="A984" s="158"/>
+      <c r="A984" s="148"/>
     </row>
     <row r="985">
-      <c r="A985" s="158"/>
+      <c r="A985" s="148"/>
     </row>
     <row r="986">
-      <c r="A986" s="158"/>
+      <c r="A986" s="148"/>
     </row>
     <row r="987">
-      <c r="A987" s="158"/>
+      <c r="A987" s="148"/>
     </row>
     <row r="988">
-      <c r="A988" s="158"/>
+      <c r="A988" s="148"/>
     </row>
     <row r="989">
-      <c r="A989" s="158"/>
+      <c r="A989" s="148"/>
     </row>
     <row r="990">
-      <c r="A990" s="158"/>
+      <c r="A990" s="148"/>
     </row>
     <row r="991">
-      <c r="A991" s="158"/>
+      <c r="A991" s="148"/>
     </row>
     <row r="992">
-      <c r="A992" s="158"/>
+      <c r="A992" s="148"/>
     </row>
     <row r="993">
-      <c r="A993" s="158"/>
+      <c r="A993" s="148"/>
     </row>
     <row r="994">
-      <c r="A994" s="158"/>
+      <c r="A994" s="148"/>
     </row>
     <row r="995">
-      <c r="A995" s="158"/>
+      <c r="A995" s="148"/>
     </row>
     <row r="996">
-      <c r="A996" s="158"/>
+      <c r="A996" s="148"/>
     </row>
     <row r="997">
-      <c r="A997" s="158"/>
+      <c r="A997" s="148"/>
     </row>
     <row r="998">
-      <c r="A998" s="158"/>
+      <c r="A998" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="1">
